--- a/internship_form31.xlsx
+++ b/internship_form31.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\1773福岡ゲーム産業振興機構\インターンシップ\2024インターンシップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\keep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18B927-BF4F-4E10-A05F-ADE2921130D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F27D01-7650-4E05-A07A-2EE587018D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bO460l/q38hcX+I6RjEDyaaKqPLmMIH1SlWgl6kF0SfnvcLmGVR/gVPboUALJLRpdybxkSasnje1BZNEi8fASA==" workbookSaltValue="d3e9DO+x9BA/CU0B9Kki1g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="885" windowWidth="19200" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申込書" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
@@ -824,6 +824,89 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>なかだ いおり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲田 伊織</t>
+    <rPh sb="0" eb="2">
+      <t>ナカダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡情報ITクリエイター専門学校</t>
+    <rPh sb="0" eb="4">
+      <t>フクオカジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>センモンガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡県粕屋郡宇美町貴船5丁目19-10</t>
+    <rPh sb="0" eb="3">
+      <t>フクオカケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カスヤグン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ウミマチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キフネ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>811</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2131</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nkd10121@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>092-932-2808</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080-9248-9218</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡県粕屋郡宇美町貴船5丁目19-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルファイブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイバーコネクトツー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムソフトベータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverWatch2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -832,7 +915,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +1042,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1639,12 +1731,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1941,6 +2036,336 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1984,14 +2409,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1999,15 +2416,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,35 +2488,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2122,296 +2505,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2462,15 +2562,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2498,7 +2598,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2506,7 +2606,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2514,7 +2614,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2527,30 +2627,1456 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="Check Box 3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2051"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2059" name="Check Box 11" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2059"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2068" name="Check Box 20" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2068"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2069" name="Check Box 21" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2069"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2071" name="Check Box 23" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2071"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2078" name="Check Box 30" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2078"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2080" name="Check Box 32" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2080"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2082" name="Check Box 34" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2082"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2084" name="Check Box 36" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2084"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2085" name="Check Box 37" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2085"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2086" name="Check Box 38" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2086"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2087" name="Check Box 39" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2087"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2088" name="Check Box 40" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2088"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2089" name="Check Box 41" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2089"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2095" name="Check Box 47" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2095"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2104" name="Check Box 56" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2104"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2105" name="Check Box 57" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2105"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2106" name="Check Box 58" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2106"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2107" name="Check Box 59" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2107"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2108" name="Check Box 60" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2108"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2109" name="Check Box 61" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2109"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2110" name="Check Box 62" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2110"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2113" name="Check Box 65" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2113"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="Check Box 3" hidden="1">
+            <xdr:cNvPr id="2" name="Check Box 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4507AF5-A3C7-81FD-C18D-DAA01F951911}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2599,25 +4125,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>990600</xdr:colOff>
+          <xdr:colOff>1485900</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>355600</xdr:colOff>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2059" name="Check Box 11" hidden="1">
+            <xdr:cNvPr id="3" name="Check Box 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A5F06D-6CEC-0583-5E54-4B3F3C0BB144}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2666,25 +4192,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>143</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>146050</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2068" name="Check Box 20" hidden="1">
+            <xdr:cNvPr id="4" name="Check Box 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFDEFFE-5EE1-091B-EEB1-532742C44E83}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2733,25 +4259,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>145</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2069" name="Check Box 21" hidden="1">
+            <xdr:cNvPr id="5" name="Check Box 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87EAD23-26B8-4209-24E2-B8FEC248E147}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2800,25 +4326,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>145</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2071" name="Check Box 23" hidden="1">
+            <xdr:cNvPr id="6" name="Check Box 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3867F9B7-5A2E-C7E2-EC89-A74EC04A1158}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2867,25 +4393,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2078" name="Check Box 30" hidden="1">
+            <xdr:cNvPr id="7" name="Check Box 30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F2A102-A38F-7975-8BDD-F247A6B9B11A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2934,25 +4460,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2080" name="Check Box 32" hidden="1">
+            <xdr:cNvPr id="8" name="Check Box 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00D3226-5B1A-9329-F8ED-497E5551EB4E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3001,25 +4527,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>717550</xdr:colOff>
+          <xdr:colOff>1076325</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2082" name="Check Box 34" hidden="1">
+            <xdr:cNvPr id="9" name="Check Box 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC1C4DE-5520-25D7-E25E-08A4FB3FA26F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3068,25 +4594,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>717550</xdr:colOff>
+          <xdr:colOff>1076325</xdr:colOff>
           <xdr:row>92</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2084" name="Check Box 36" hidden="1">
+            <xdr:cNvPr id="10" name="Check Box 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C3A783-CA5F-AC59-1765-377AD83E4AF7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3135,25 +4661,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>717550</xdr:colOff>
+          <xdr:colOff>1076325</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2085" name="Check Box 37" hidden="1">
+            <xdr:cNvPr id="11" name="Check Box 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5319D4FC-DB1A-D7C4-D340-24C53EC58EA5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3202,25 +4728,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>698500</xdr:colOff>
+          <xdr:colOff>1047750</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>88</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2086" name="Check Box 38" hidden="1">
+            <xdr:cNvPr id="12" name="Check Box 38" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33ABC3F-A31C-303A-27AF-ED3D65BB604B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3269,25 +4795,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>990600</xdr:colOff>
+          <xdr:colOff>1485900</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2087" name="Check Box 39" hidden="1">
+            <xdr:cNvPr id="13" name="Check Box 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D2B53C-D774-CFAB-DEE3-10D80DCB93E0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3336,25 +4862,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>990600</xdr:colOff>
+          <xdr:colOff>1485900</xdr:colOff>
           <xdr:row>92</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2088" name="Check Box 40" hidden="1">
+            <xdr:cNvPr id="14" name="Check Box 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D83CCF-7C0C-18E2-C13B-856A08FD4C13}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3403,25 +4929,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>990600</xdr:colOff>
+          <xdr:colOff>1485900</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2089" name="Check Box 41" hidden="1">
+            <xdr:cNvPr id="15" name="Check Box 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA09DF09-C095-F8B4-ED38-D7A1F94B50B3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3470,25 +4996,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2095" name="Check Box 47" hidden="1">
+            <xdr:cNvPr id="16" name="Check Box 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0480C526-0370-CA58-6F63-F6CA7C5C59FE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3537,25 +5063,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>990600</xdr:colOff>
+          <xdr:colOff>1485900</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2104" name="Check Box 56" hidden="1">
+            <xdr:cNvPr id="17" name="Check Box 56" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF178D5-BA5F-4202-6257-888FEA802F9B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3604,25 +5130,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>990600</xdr:colOff>
+          <xdr:colOff>1485900</xdr:colOff>
           <xdr:row>92</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2105" name="Check Box 57" hidden="1">
+            <xdr:cNvPr id="18" name="Check Box 57" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535826DB-90AA-5335-E12E-444906D1CE02}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3671,25 +5197,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>990600</xdr:colOff>
+          <xdr:colOff>1485900</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>374650</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2106" name="Check Box 58" hidden="1">
+            <xdr:cNvPr id="19" name="Check Box 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36432141-87B5-65CD-DFC6-81DD11D99BAB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3738,25 +5264,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2107" name="Check Box 59" hidden="1">
+            <xdr:cNvPr id="20" name="Check Box 59" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E31506-5798-81F9-DE3F-52EF64E3E0AA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3805,25 +5331,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2108" name="Check Box 60" hidden="1">
+            <xdr:cNvPr id="21" name="Check Box 60" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A0050E-9A59-F70B-8B70-4C7504D2B8DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3872,25 +5398,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2109" name="Check Box 61" hidden="1">
+            <xdr:cNvPr id="22" name="Check Box 61" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F6E85E-933F-DA35-2A38-28A4919A0983}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3939,25 +5465,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2110" name="Check Box 62" hidden="1">
+            <xdr:cNvPr id="23" name="Check Box 62" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639D7B6B-5E1F-78ED-5B38-A7FCEA01D5C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4006,25 +5532,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2113" name="Check Box 65" hidden="1">
+            <xdr:cNvPr id="24" name="Check Box 65" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58538392-5527-354D-5616-53FEBF36E606}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4360,82 +5886,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100:I101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="4.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="16.453125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="2.36328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="5" customWidth="1"/>
+    <col min="7" max="8" width="16.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="2.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="9" style="5"/>
-    <col min="13" max="13" width="9.6328125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="4.6328125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="6.6328125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="4.6328125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="6.6328125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.08984375" style="5" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="6.625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="7.625" style="5" customWidth="1"/>
     <col min="20" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="199" t="s">
+    <row r="1" spans="1:19" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="201" t="s">
+      <c r="L1" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="203"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="102"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="207" t="s">
+    <row r="2" spans="1:19" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="105"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4455,7 +5981,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4463,233 +5989,249 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="208" t="s">
+      <c r="H4" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-    </row>
-    <row r="5" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="209" t="s">
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+    </row>
+    <row r="5" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="224" t="s">
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="225"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="234" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="228"/>
-      <c r="N5" s="229"/>
-      <c r="O5" s="229"/>
-      <c r="P5" s="229"/>
-      <c r="Q5" s="229"/>
+      <c r="M5" s="127">
+        <v>19</v>
+      </c>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="212"/>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="235"/>
-      <c r="M6" s="230"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
+    <row r="6" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="212"/>
-      <c r="B7" s="213"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="221"/>
-      <c r="L7" s="235"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
+    <row r="7" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="212"/>
-      <c r="B8" s="213"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
-      <c r="K8" s="221"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="174"/>
+    <row r="8" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="212"/>
-      <c r="B9" s="213"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="221"/>
-      <c r="K9" s="221"/>
-      <c r="L9" s="235"/>
-      <c r="M9" s="230"/>
+    <row r="9" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="129">
+        <v>2004</v>
+      </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="173"/>
+      <c r="O9" s="130">
+        <v>7</v>
+      </c>
       <c r="P9" s="12"/>
-      <c r="Q9" s="173"/>
+      <c r="Q9" s="130">
+        <v>12</v>
+      </c>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="215"/>
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="232"/>
+    <row r="10" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="133"/>
       <c r="N10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="233"/>
+      <c r="O10" s="134"/>
       <c r="P10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="233"/>
+      <c r="Q10" s="134"/>
       <c r="R10" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
+    <row r="11" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="109"/>
-    </row>
-    <row r="12" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="112"/>
-    </row>
-    <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
-    </row>
-    <row r="14" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="204" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="205"/>
+      <c r="O11" s="205"/>
+      <c r="P11" s="205"/>
+      <c r="Q11" s="205"/>
+      <c r="R11" s="206"/>
+    </row>
+    <row r="12" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="198"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="159"/>
+    </row>
+    <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="198"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="159"/>
+    </row>
+    <row r="14" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="201"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
       <c r="M14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>26</v>
+      </c>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -4697,20 +6239,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113" t="s">
+    <row r="15" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="210"/>
       <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -4723,92 +6269,94 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="136"/>
-    </row>
-    <row r="17" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="136"/>
-    </row>
-    <row r="18" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="136"/>
-    </row>
-    <row r="19" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="139"/>
-    </row>
-    <row r="20" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="140" t="s">
+    <row r="16" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="173"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="226" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="227"/>
+      <c r="Q16" s="227"/>
+      <c r="R16" s="228"/>
+    </row>
+    <row r="17" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="173"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="227"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="227"/>
+      <c r="Q17" s="227"/>
+      <c r="R17" s="228"/>
+    </row>
+    <row r="18" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="227"/>
+      <c r="I18" s="227"/>
+      <c r="J18" s="227"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="227"/>
+      <c r="M18" s="227"/>
+      <c r="N18" s="227"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="227"/>
+      <c r="Q18" s="227"/>
+      <c r="R18" s="228"/>
+    </row>
+    <row r="19" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="211"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="230"/>
+      <c r="P19" s="230"/>
+      <c r="Q19" s="230"/>
+      <c r="R19" s="231"/>
+    </row>
+    <row r="20" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="172"/>
       <c r="D20" s="23"/>
       <c r="E20" s="12" t="s">
         <v>2</v>
@@ -4820,59 +6368,61 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="148" t="s">
+      <c r="M20" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
-    </row>
-    <row r="21" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="233"/>
+    </row>
+    <row r="21" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="173"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="149"/>
-    </row>
-    <row r="22" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
+      <c r="E21" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="233"/>
+    </row>
+    <row r="22" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="149"/>
-    </row>
-    <row r="23" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="233"/>
+    </row>
+    <row r="23" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="175"/>
       <c r="D23" s="25"/>
       <c r="E23" s="12" t="s">
         <v>8</v>
@@ -4884,57 +6434,59 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="149"/>
-    </row>
-    <row r="24" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="233"/>
+    </row>
+    <row r="24" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="173"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="149"/>
-    </row>
-    <row r="25" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
+      <c r="E24" s="237" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="233"/>
+    </row>
+    <row r="25" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="176"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="178"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="149"/>
-    </row>
-    <row r="26" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="232"/>
+      <c r="G25" s="232"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="233"/>
+    </row>
+    <row r="26" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="176"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="178"/>
       <c r="D26" s="25"/>
       <c r="E26" s="12" t="s">
         <v>9</v>
@@ -4946,59 +6498,61 @@
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="149"/>
-    </row>
-    <row r="27" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="143"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="233"/>
+    </row>
+    <row r="27" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="176"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="178"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="149"/>
-    </row>
-    <row r="28" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
+      <c r="E27" s="189" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="233"/>
+    </row>
+    <row r="28" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="211"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="151"/>
-    </row>
-    <row r="29" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="140" t="s">
+      <c r="E28" s="236"/>
+      <c r="F28" s="236"/>
+      <c r="G28" s="236"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="236"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="236"/>
+      <c r="L28" s="236"/>
+      <c r="M28" s="234"/>
+      <c r="N28" s="234"/>
+      <c r="O28" s="234"/>
+      <c r="P28" s="234"/>
+      <c r="Q28" s="234"/>
+      <c r="R28" s="235"/>
+    </row>
+    <row r="29" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="141"/>
-      <c r="C29" s="142"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="172"/>
       <c r="D29" s="23"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
@@ -5017,52 +6571,52 @@
       <c r="Q29" s="28"/>
       <c r="R29" s="29"/>
     </row>
-    <row r="30" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
+    <row r="30" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="173"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="175" t="s">
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="175"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130"/>
       <c r="R30" s="30"/>
     </row>
-    <row r="31" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
+    <row r="31" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="173"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="175"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="174"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="174"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="184"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
       <c r="R31" s="30"/>
     </row>
-    <row r="32" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+    <row r="32" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="173"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="175"/>
       <c r="D32" s="25"/>
       <c r="E32" s="12" t="s">
         <v>1</v>
@@ -5081,50 +6635,52 @@
       <c r="Q32" s="33"/>
       <c r="R32" s="30"/>
     </row>
-    <row r="33" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
+    <row r="33" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="173"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="175"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="173"/>
-      <c r="N33" s="173"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="173"/>
+      <c r="E33" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="130"/>
       <c r="R33" s="30"/>
     </row>
-    <row r="34" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
+    <row r="34" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="176"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="178"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="174"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="174"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="174"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="132"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="132"/>
       <c r="R34" s="30"/>
     </row>
-    <row r="35" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="143"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="145"/>
+    <row r="35" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="176"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="178"/>
       <c r="D35" s="25"/>
       <c r="E35" s="12" t="s">
         <v>11</v>
@@ -5143,52 +6699,52 @@
       <c r="Q35" s="33"/>
       <c r="R35" s="30"/>
     </row>
-    <row r="36" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="143"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="145"/>
+    <row r="36" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="176"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="178"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146"/>
-      <c r="N36" s="146"/>
-      <c r="O36" s="146"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="146"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="189"/>
+      <c r="P36" s="189"/>
+      <c r="Q36" s="189"/>
       <c r="R36" s="30"/>
     </row>
-    <row r="37" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="165"/>
+    <row r="37" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="179"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="181"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
-      <c r="K37" s="184"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="184"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="190"/>
+      <c r="L37" s="190"/>
+      <c r="M37" s="190"/>
+      <c r="N37" s="190"/>
+      <c r="O37" s="190"/>
+      <c r="P37" s="190"/>
+      <c r="Q37" s="190"/>
       <c r="R37" s="35"/>
     </row>
-    <row r="38" spans="1:18" ht="36.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="125" t="s">
+    <row r="38" spans="1:18" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="126"/>
-      <c r="C38" s="127"/>
+      <c r="B38" s="218"/>
+      <c r="C38" s="219"/>
       <c r="D38" s="82"/>
       <c r="E38" s="83" t="s">
         <v>14</v>
@@ -5209,10 +6765,10 @@
       <c r="Q38" s="85"/>
       <c r="R38" s="86"/>
     </row>
-    <row r="39" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="128"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="130"/>
+    <row r="39" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="220"/>
+      <c r="B39" s="221"/>
+      <c r="C39" s="222"/>
       <c r="D39" s="25"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -5229,10 +6785,10 @@
       <c r="Q39" s="12"/>
       <c r="R39" s="30"/>
     </row>
-    <row r="40" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="128"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="130"/>
+    <row r="40" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="220"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="222"/>
       <c r="D40" s="25"/>
       <c r="E40" s="12" t="s">
         <v>15</v>
@@ -5248,19 +6804,21 @@
       <c r="L40" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="173"/>
-      <c r="N40" s="173"/>
-      <c r="O40" s="173"/>
-      <c r="P40" s="173"/>
-      <c r="Q40" s="173"/>
+      <c r="M40" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="130"/>
       <c r="R40" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="128"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="130"/>
+    <row r="41" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="220"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="222"/>
       <c r="D41" s="25"/>
       <c r="E41" s="12" t="s">
         <v>16</v>
@@ -5276,19 +6834,21 @@
       <c r="L41" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="173"/>
-      <c r="N41" s="173"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
+      <c r="M41" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="N41" s="130"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="130"/>
       <c r="R41" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128"/>
-      <c r="B42" s="129"/>
-      <c r="C42" s="130"/>
+    <row r="42" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="220"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="222"/>
       <c r="D42" s="25"/>
       <c r="E42" s="12" t="s">
         <v>17</v>
@@ -5304,19 +6864,21 @@
       <c r="L42" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="173"/>
-      <c r="N42" s="173"/>
-      <c r="O42" s="173"/>
-      <c r="P42" s="173"/>
-      <c r="Q42" s="173"/>
+      <c r="M42" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="N42" s="130"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="130"/>
+      <c r="Q42" s="130"/>
       <c r="R42" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="128"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="130"/>
+    <row r="43" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="220"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="222"/>
       <c r="D43" s="23"/>
       <c r="E43" s="12" t="s">
         <v>18</v>
@@ -5326,21 +6888,21 @@
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="181" t="s">
+      <c r="K43" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="182"/>
-      <c r="O43" s="182"/>
-      <c r="P43" s="182"/>
-      <c r="Q43" s="182"/>
-      <c r="R43" s="183"/>
-    </row>
-    <row r="44" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="128"/>
-      <c r="B44" s="129"/>
-      <c r="C44" s="130"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="187"/>
+      <c r="N43" s="187"/>
+      <c r="O43" s="187"/>
+      <c r="P43" s="187"/>
+      <c r="Q43" s="187"/>
+      <c r="R43" s="188"/>
+    </row>
+    <row r="44" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="220"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="222"/>
       <c r="D44" s="41"/>
       <c r="E44" s="42"/>
       <c r="F44" s="43"/>
@@ -5357,10 +6919,10 @@
       <c r="Q44" s="45"/>
       <c r="R44" s="88"/>
     </row>
-    <row r="45" spans="1:18" ht="33.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="128"/>
-      <c r="B45" s="129"/>
-      <c r="C45" s="130"/>
+    <row r="45" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="220"/>
+      <c r="B45" s="221"/>
+      <c r="C45" s="222"/>
       <c r="D45" s="46"/>
       <c r="E45" s="89" t="s">
         <v>66</v>
@@ -5379,10 +6941,10 @@
       <c r="Q45" s="91"/>
       <c r="R45" s="48"/>
     </row>
-    <row r="46" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="128"/>
-      <c r="B46" s="129"/>
-      <c r="C46" s="130"/>
+    <row r="46" spans="1:18" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="220"/>
+      <c r="B46" s="221"/>
+      <c r="C46" s="222"/>
       <c r="D46" s="25"/>
       <c r="E46" s="92" t="s">
         <v>67</v>
@@ -5401,10 +6963,10 @@
       <c r="Q46" s="33"/>
       <c r="R46" s="30"/>
     </row>
-    <row r="47" spans="1:18" ht="3.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="128"/>
-      <c r="B47" s="129"/>
-      <c r="C47" s="130"/>
+    <row r="47" spans="1:18" ht="3.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="220"/>
+      <c r="B47" s="221"/>
+      <c r="C47" s="222"/>
       <c r="D47" s="92"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -5420,10 +6982,10 @@
       <c r="Q47" s="33"/>
       <c r="R47" s="30"/>
     </row>
-    <row r="48" spans="1:18" s="51" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="128"/>
-      <c r="B48" s="129"/>
-      <c r="C48" s="130"/>
+    <row r="48" spans="1:18" s="51" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="220"/>
+      <c r="B48" s="221"/>
+      <c r="C48" s="222"/>
       <c r="D48" s="49"/>
       <c r="E48" s="50" t="s">
         <v>62</v>
@@ -5444,10 +7006,10 @@
       <c r="Q48" s="92"/>
       <c r="R48" s="94"/>
     </row>
-    <row r="49" spans="1:23" s="51" customFormat="1" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="131"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="133"/>
+    <row r="49" spans="1:23" s="51" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="223"/>
+      <c r="B49" s="224"/>
+      <c r="C49" s="225"/>
       <c r="D49" s="52"/>
       <c r="E49" s="95" t="s">
         <v>63</v>
@@ -5467,421 +7029,421 @@
       <c r="N49" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
+      <c r="O49" s="216"/>
+      <c r="P49" s="216"/>
+      <c r="Q49" s="216"/>
       <c r="R49" s="54" t="s">
         <v>25</v>
       </c>
       <c r="W49" s="50"/>
     </row>
-    <row r="50" spans="1:23" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="140" t="s">
+    <row r="50" spans="1:23" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="141"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="180" t="s">
+      <c r="B50" s="171"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="178"/>
-      <c r="K50" s="178"/>
-      <c r="L50" s="178"/>
-      <c r="M50" s="178"/>
-      <c r="N50" s="178"/>
-      <c r="O50" s="178"/>
-      <c r="P50" s="178"/>
-      <c r="Q50" s="178"/>
-      <c r="R50" s="179"/>
-    </row>
-    <row r="51" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="116"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="168"/>
-      <c r="L51" s="168"/>
-      <c r="M51" s="168"/>
-      <c r="N51" s="168"/>
-      <c r="O51" s="168"/>
-      <c r="P51" s="168"/>
-      <c r="Q51" s="168"/>
-      <c r="R51" s="169"/>
-    </row>
-    <row r="52" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="116"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="168"/>
-      <c r="I52" s="168"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="168"/>
-      <c r="L52" s="168"/>
-      <c r="M52" s="168"/>
-      <c r="N52" s="168"/>
-      <c r="O52" s="168"/>
-      <c r="P52" s="168"/>
-      <c r="Q52" s="168"/>
-      <c r="R52" s="169"/>
-    </row>
-    <row r="53" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="143"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="168"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="168"/>
-      <c r="H53" s="168"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="168"/>
-      <c r="K53" s="168"/>
-      <c r="L53" s="168"/>
-      <c r="M53" s="168"/>
-      <c r="N53" s="168"/>
-      <c r="O53" s="168"/>
-      <c r="P53" s="168"/>
-      <c r="Q53" s="168"/>
-      <c r="R53" s="169"/>
-    </row>
-    <row r="54" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="143"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="168"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="168"/>
-      <c r="M54" s="168"/>
-      <c r="N54" s="168"/>
-      <c r="O54" s="168"/>
-      <c r="P54" s="168"/>
-      <c r="Q54" s="168"/>
-      <c r="R54" s="169"/>
-    </row>
-    <row r="55" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="143"/>
-      <c r="B55" s="144"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="168"/>
-      <c r="G55" s="168"/>
-      <c r="H55" s="168"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="168"/>
-      <c r="L55" s="168"/>
-      <c r="M55" s="168"/>
-      <c r="N55" s="168"/>
-      <c r="O55" s="168"/>
-      <c r="P55" s="168"/>
-      <c r="Q55" s="168"/>
-      <c r="R55" s="169"/>
-    </row>
-    <row r="56" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="163"/>
-      <c r="B56" s="164"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
-      <c r="G56" s="171"/>
-      <c r="H56" s="171"/>
-      <c r="I56" s="171"/>
-      <c r="J56" s="171"/>
-      <c r="K56" s="171"/>
-      <c r="L56" s="171"/>
-      <c r="M56" s="171"/>
-      <c r="N56" s="171"/>
-      <c r="O56" s="171"/>
-      <c r="P56" s="171"/>
-      <c r="Q56" s="171"/>
-      <c r="R56" s="172"/>
-    </row>
-    <row r="57" spans="1:23" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="177" t="s">
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="157"/>
+    </row>
+    <row r="51" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="173"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="175"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="140"/>
+      <c r="K51" s="140"/>
+      <c r="L51" s="140"/>
+      <c r="M51" s="140"/>
+      <c r="N51" s="140"/>
+      <c r="O51" s="140"/>
+      <c r="P51" s="140"/>
+      <c r="Q51" s="140"/>
+      <c r="R51" s="141"/>
+    </row>
+    <row r="52" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="173"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="175"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="140"/>
+      <c r="M52" s="140"/>
+      <c r="N52" s="140"/>
+      <c r="O52" s="140"/>
+      <c r="P52" s="140"/>
+      <c r="Q52" s="140"/>
+      <c r="R52" s="141"/>
+    </row>
+    <row r="53" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="176"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="140"/>
+      <c r="N53" s="140"/>
+      <c r="O53" s="140"/>
+      <c r="P53" s="140"/>
+      <c r="Q53" s="140"/>
+      <c r="R53" s="141"/>
+    </row>
+    <row r="54" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="176"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="140"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="140"/>
+      <c r="N54" s="140"/>
+      <c r="O54" s="140"/>
+      <c r="P54" s="140"/>
+      <c r="Q54" s="140"/>
+      <c r="R54" s="141"/>
+    </row>
+    <row r="55" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="176"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="140"/>
+      <c r="L55" s="140"/>
+      <c r="M55" s="140"/>
+      <c r="N55" s="140"/>
+      <c r="O55" s="140"/>
+      <c r="P55" s="140"/>
+      <c r="Q55" s="140"/>
+      <c r="R55" s="141"/>
+    </row>
+    <row r="56" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="179"/>
+      <c r="B56" s="180"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
+      <c r="K56" s="143"/>
+      <c r="L56" s="143"/>
+      <c r="M56" s="143"/>
+      <c r="N56" s="143"/>
+      <c r="O56" s="143"/>
+      <c r="P56" s="143"/>
+      <c r="Q56" s="143"/>
+      <c r="R56" s="144"/>
+    </row>
+    <row r="57" spans="1:23" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="178"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="178"/>
-      <c r="K57" s="178"/>
-      <c r="L57" s="178"/>
-      <c r="M57" s="178"/>
-      <c r="N57" s="178"/>
-      <c r="O57" s="178"/>
-      <c r="P57" s="178"/>
-      <c r="Q57" s="178"/>
-      <c r="R57" s="179"/>
-    </row>
-    <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="185"/>
-      <c r="B58" s="168"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="168"/>
-      <c r="E58" s="168"/>
-      <c r="F58" s="168"/>
-      <c r="G58" s="168"/>
-      <c r="H58" s="168"/>
-      <c r="I58" s="168"/>
-      <c r="J58" s="168"/>
-      <c r="K58" s="168"/>
-      <c r="L58" s="168"/>
-      <c r="M58" s="168"/>
-      <c r="N58" s="168"/>
-      <c r="O58" s="168"/>
-      <c r="P58" s="168"/>
-      <c r="Q58" s="168"/>
-      <c r="R58" s="169"/>
-    </row>
-    <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="185"/>
-      <c r="B59" s="168"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
-      <c r="E59" s="168"/>
-      <c r="F59" s="168"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="168"/>
-      <c r="I59" s="168"/>
-      <c r="J59" s="168"/>
-      <c r="K59" s="168"/>
-      <c r="L59" s="168"/>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
-      <c r="O59" s="168"/>
-      <c r="P59" s="168"/>
-      <c r="Q59" s="168"/>
-      <c r="R59" s="169"/>
-    </row>
-    <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="185"/>
-      <c r="B60" s="168"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="168"/>
-      <c r="E60" s="168"/>
-      <c r="F60" s="168"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="168"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="168"/>
-      <c r="M60" s="168"/>
-      <c r="N60" s="168"/>
-      <c r="O60" s="168"/>
-      <c r="P60" s="168"/>
-      <c r="Q60" s="168"/>
-      <c r="R60" s="169"/>
-    </row>
-    <row r="61" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="185"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="168"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="168"/>
-      <c r="G61" s="168"/>
-      <c r="H61" s="168"/>
-      <c r="I61" s="168"/>
-      <c r="J61" s="168"/>
-      <c r="K61" s="168"/>
-      <c r="L61" s="168"/>
-      <c r="M61" s="168"/>
-      <c r="N61" s="168"/>
-      <c r="O61" s="168"/>
-      <c r="P61" s="168"/>
-      <c r="Q61" s="168"/>
-      <c r="R61" s="169"/>
-    </row>
-    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="185"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="168"/>
-      <c r="K62" s="168"/>
-      <c r="L62" s="168"/>
-      <c r="M62" s="168"/>
-      <c r="N62" s="168"/>
-      <c r="O62" s="168"/>
-      <c r="P62" s="168"/>
-      <c r="Q62" s="168"/>
-      <c r="R62" s="169"/>
-    </row>
-    <row r="63" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="185"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="168"/>
-      <c r="I63" s="168"/>
-      <c r="J63" s="168"/>
-      <c r="K63" s="168"/>
-      <c r="L63" s="168"/>
-      <c r="M63" s="168"/>
-      <c r="N63" s="168"/>
-      <c r="O63" s="168"/>
-      <c r="P63" s="168"/>
-      <c r="Q63" s="168"/>
-      <c r="R63" s="169"/>
-    </row>
-    <row r="64" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="185"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="168"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="168"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="168"/>
-      <c r="I64" s="168"/>
-      <c r="J64" s="168"/>
-      <c r="K64" s="168"/>
-      <c r="L64" s="168"/>
-      <c r="M64" s="168"/>
-      <c r="N64" s="168"/>
-      <c r="O64" s="168"/>
-      <c r="P64" s="168"/>
-      <c r="Q64" s="168"/>
-      <c r="R64" s="169"/>
-    </row>
-    <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="185"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="168"/>
-      <c r="D65" s="168"/>
-      <c r="E65" s="168"/>
-      <c r="F65" s="168"/>
-      <c r="G65" s="168"/>
-      <c r="H65" s="168"/>
-      <c r="I65" s="168"/>
-      <c r="J65" s="168"/>
-      <c r="K65" s="168"/>
-      <c r="L65" s="168"/>
-      <c r="M65" s="168"/>
-      <c r="N65" s="168"/>
-      <c r="O65" s="168"/>
-      <c r="P65" s="168"/>
-      <c r="Q65" s="168"/>
-      <c r="R65" s="169"/>
-    </row>
-    <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="185"/>
-      <c r="B66" s="168"/>
-      <c r="C66" s="168"/>
-      <c r="D66" s="168"/>
-      <c r="E66" s="168"/>
-      <c r="F66" s="168"/>
-      <c r="G66" s="168"/>
-      <c r="H66" s="168"/>
-      <c r="I66" s="168"/>
-      <c r="J66" s="168"/>
-      <c r="K66" s="168"/>
-      <c r="L66" s="168"/>
-      <c r="M66" s="168"/>
-      <c r="N66" s="168"/>
-      <c r="O66" s="168"/>
-      <c r="P66" s="168"/>
-      <c r="Q66" s="168"/>
-      <c r="R66" s="169"/>
-    </row>
-    <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="185"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="168"/>
-      <c r="D67" s="168"/>
-      <c r="E67" s="168"/>
-      <c r="F67" s="168"/>
-      <c r="G67" s="168"/>
-      <c r="H67" s="168"/>
-      <c r="I67" s="168"/>
-      <c r="J67" s="168"/>
-      <c r="K67" s="168"/>
-      <c r="L67" s="168"/>
-      <c r="M67" s="168"/>
-      <c r="N67" s="168"/>
-      <c r="O67" s="168"/>
-      <c r="P67" s="168"/>
-      <c r="Q67" s="168"/>
-      <c r="R67" s="169"/>
-    </row>
-    <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="185"/>
-      <c r="B68" s="168"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
-      <c r="E68" s="168"/>
-      <c r="F68" s="168"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168"/>
-      <c r="J68" s="168"/>
-      <c r="K68" s="168"/>
-      <c r="L68" s="168"/>
-      <c r="M68" s="168"/>
-      <c r="N68" s="168"/>
-      <c r="O68" s="168"/>
-      <c r="P68" s="168"/>
-      <c r="Q68" s="168"/>
-      <c r="R68" s="169"/>
-    </row>
-    <row r="69" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="186"/>
-      <c r="B69" s="171"/>
-      <c r="C69" s="171"/>
-      <c r="D69" s="171"/>
-      <c r="E69" s="171"/>
-      <c r="F69" s="171"/>
-      <c r="G69" s="171"/>
-      <c r="H69" s="171"/>
-      <c r="I69" s="171"/>
-      <c r="J69" s="171"/>
-      <c r="K69" s="171"/>
-      <c r="L69" s="171"/>
-      <c r="M69" s="171"/>
-      <c r="N69" s="171"/>
-      <c r="O69" s="171"/>
-      <c r="P69" s="171"/>
-      <c r="Q69" s="171"/>
-      <c r="R69" s="172"/>
-    </row>
-    <row r="70" spans="1:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="156"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="156"/>
+      <c r="P57" s="156"/>
+      <c r="Q57" s="156"/>
+      <c r="R57" s="157"/>
+    </row>
+    <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="139"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="140"/>
+      <c r="N58" s="140"/>
+      <c r="O58" s="140"/>
+      <c r="P58" s="140"/>
+      <c r="Q58" s="140"/>
+      <c r="R58" s="141"/>
+    </row>
+    <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="139"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="140"/>
+      <c r="N59" s="140"/>
+      <c r="O59" s="140"/>
+      <c r="P59" s="140"/>
+      <c r="Q59" s="140"/>
+      <c r="R59" s="141"/>
+    </row>
+    <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="139"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="140"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="140"/>
+      <c r="Q60" s="140"/>
+      <c r="R60" s="141"/>
+    </row>
+    <row r="61" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="139"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="140"/>
+      <c r="N61" s="140"/>
+      <c r="O61" s="140"/>
+      <c r="P61" s="140"/>
+      <c r="Q61" s="140"/>
+      <c r="R61" s="141"/>
+    </row>
+    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="139"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="140"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="140"/>
+      <c r="O62" s="140"/>
+      <c r="P62" s="140"/>
+      <c r="Q62" s="140"/>
+      <c r="R62" s="141"/>
+    </row>
+    <row r="63" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="139"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="140"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="140"/>
+      <c r="O63" s="140"/>
+      <c r="P63" s="140"/>
+      <c r="Q63" s="140"/>
+      <c r="R63" s="141"/>
+    </row>
+    <row r="64" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="139"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="140"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="140"/>
+      <c r="N64" s="140"/>
+      <c r="O64" s="140"/>
+      <c r="P64" s="140"/>
+      <c r="Q64" s="140"/>
+      <c r="R64" s="141"/>
+    </row>
+    <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="139"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="140"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="140"/>
+      <c r="N65" s="140"/>
+      <c r="O65" s="140"/>
+      <c r="P65" s="140"/>
+      <c r="Q65" s="140"/>
+      <c r="R65" s="141"/>
+    </row>
+    <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="139"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="140"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="140"/>
+      <c r="N66" s="140"/>
+      <c r="O66" s="140"/>
+      <c r="P66" s="140"/>
+      <c r="Q66" s="140"/>
+      <c r="R66" s="141"/>
+    </row>
+    <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="139"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="140"/>
+      <c r="G67" s="140"/>
+      <c r="H67" s="140"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="140"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="140"/>
+      <c r="M67" s="140"/>
+      <c r="N67" s="140"/>
+      <c r="O67" s="140"/>
+      <c r="P67" s="140"/>
+      <c r="Q67" s="140"/>
+      <c r="R67" s="141"/>
+    </row>
+    <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="139"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="140"/>
+      <c r="G68" s="140"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="140"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="140"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="140"/>
+      <c r="N68" s="140"/>
+      <c r="O68" s="140"/>
+      <c r="P68" s="140"/>
+      <c r="Q68" s="140"/>
+      <c r="R68" s="141"/>
+    </row>
+    <row r="69" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="142"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="143"/>
+      <c r="J69" s="143"/>
+      <c r="K69" s="143"/>
+      <c r="L69" s="143"/>
+      <c r="M69" s="143"/>
+      <c r="N69" s="143"/>
+      <c r="O69" s="143"/>
+      <c r="P69" s="143"/>
+      <c r="Q69" s="143"/>
+      <c r="R69" s="144"/>
+    </row>
+    <row r="70" spans="1:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -5901,351 +7463,351 @@
       <c r="Q70" s="33"/>
       <c r="R70" s="33"/>
     </row>
-    <row r="71" spans="1:18" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="177" t="s">
+    <row r="71" spans="1:18" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="178"/>
-      <c r="C71" s="178"/>
-      <c r="D71" s="178"/>
-      <c r="E71" s="178"/>
-      <c r="F71" s="178"/>
-      <c r="G71" s="178"/>
-      <c r="H71" s="178"/>
-      <c r="I71" s="178"/>
-      <c r="J71" s="178"/>
-      <c r="K71" s="178"/>
-      <c r="L71" s="178"/>
-      <c r="M71" s="178"/>
-      <c r="N71" s="178"/>
-      <c r="O71" s="178"/>
-      <c r="P71" s="178"/>
-      <c r="Q71" s="178"/>
-      <c r="R71" s="179"/>
-    </row>
-    <row r="72" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="185"/>
-      <c r="B72" s="168"/>
-      <c r="C72" s="168"/>
-      <c r="D72" s="168"/>
-      <c r="E72" s="168"/>
-      <c r="F72" s="168"/>
-      <c r="G72" s="168"/>
-      <c r="H72" s="168"/>
-      <c r="I72" s="168"/>
-      <c r="J72" s="168"/>
-      <c r="K72" s="168"/>
-      <c r="L72" s="168"/>
-      <c r="M72" s="168"/>
-      <c r="N72" s="168"/>
-      <c r="O72" s="168"/>
-      <c r="P72" s="168"/>
-      <c r="Q72" s="168"/>
-      <c r="R72" s="169"/>
-    </row>
-    <row r="73" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="185"/>
-      <c r="B73" s="168"/>
-      <c r="C73" s="168"/>
-      <c r="D73" s="168"/>
-      <c r="E73" s="168"/>
-      <c r="F73" s="168"/>
-      <c r="G73" s="168"/>
-      <c r="H73" s="168"/>
-      <c r="I73" s="168"/>
-      <c r="J73" s="168"/>
-      <c r="K73" s="168"/>
-      <c r="L73" s="168"/>
-      <c r="M73" s="168"/>
-      <c r="N73" s="168"/>
-      <c r="O73" s="168"/>
-      <c r="P73" s="168"/>
-      <c r="Q73" s="168"/>
-      <c r="R73" s="169"/>
-    </row>
-    <row r="74" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="185"/>
-      <c r="B74" s="168"/>
-      <c r="C74" s="168"/>
-      <c r="D74" s="168"/>
-      <c r="E74" s="168"/>
-      <c r="F74" s="168"/>
-      <c r="G74" s="168"/>
-      <c r="H74" s="168"/>
-      <c r="I74" s="168"/>
-      <c r="J74" s="168"/>
-      <c r="K74" s="168"/>
-      <c r="L74" s="168"/>
-      <c r="M74" s="168"/>
-      <c r="N74" s="168"/>
-      <c r="O74" s="168"/>
-      <c r="P74" s="168"/>
-      <c r="Q74" s="168"/>
-      <c r="R74" s="169"/>
-    </row>
-    <row r="75" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="185"/>
-      <c r="B75" s="168"/>
-      <c r="C75" s="168"/>
-      <c r="D75" s="168"/>
-      <c r="E75" s="168"/>
-      <c r="F75" s="168"/>
-      <c r="G75" s="168"/>
-      <c r="H75" s="168"/>
-      <c r="I75" s="168"/>
-      <c r="J75" s="168"/>
-      <c r="K75" s="168"/>
-      <c r="L75" s="168"/>
-      <c r="M75" s="168"/>
-      <c r="N75" s="168"/>
-      <c r="O75" s="168"/>
-      <c r="P75" s="168"/>
-      <c r="Q75" s="168"/>
-      <c r="R75" s="169"/>
-    </row>
-    <row r="76" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="185"/>
-      <c r="B76" s="168"/>
-      <c r="C76" s="168"/>
-      <c r="D76" s="168"/>
-      <c r="E76" s="168"/>
-      <c r="F76" s="168"/>
-      <c r="G76" s="168"/>
-      <c r="H76" s="168"/>
-      <c r="I76" s="168"/>
-      <c r="J76" s="168"/>
-      <c r="K76" s="168"/>
-      <c r="L76" s="168"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="168"/>
-      <c r="O76" s="168"/>
-      <c r="P76" s="168"/>
-      <c r="Q76" s="168"/>
-      <c r="R76" s="169"/>
-    </row>
-    <row r="77" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="185"/>
-      <c r="B77" s="168"/>
-      <c r="C77" s="168"/>
-      <c r="D77" s="168"/>
-      <c r="E77" s="168"/>
-      <c r="F77" s="168"/>
-      <c r="G77" s="168"/>
-      <c r="H77" s="168"/>
-      <c r="I77" s="168"/>
-      <c r="J77" s="168"/>
-      <c r="K77" s="168"/>
-      <c r="L77" s="168"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="168"/>
-      <c r="O77" s="168"/>
-      <c r="P77" s="168"/>
-      <c r="Q77" s="168"/>
-      <c r="R77" s="169"/>
-    </row>
-    <row r="78" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="185"/>
-      <c r="B78" s="168"/>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
-      <c r="E78" s="168"/>
-      <c r="F78" s="168"/>
-      <c r="G78" s="168"/>
-      <c r="H78" s="168"/>
-      <c r="I78" s="168"/>
-      <c r="J78" s="168"/>
-      <c r="K78" s="168"/>
-      <c r="L78" s="168"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="168"/>
-      <c r="O78" s="168"/>
-      <c r="P78" s="168"/>
-      <c r="Q78" s="168"/>
-      <c r="R78" s="169"/>
-    </row>
-    <row r="79" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="185"/>
-      <c r="B79" s="168"/>
-      <c r="C79" s="168"/>
-      <c r="D79" s="168"/>
-      <c r="E79" s="168"/>
-      <c r="F79" s="168"/>
-      <c r="G79" s="168"/>
-      <c r="H79" s="168"/>
-      <c r="I79" s="168"/>
-      <c r="J79" s="168"/>
-      <c r="K79" s="168"/>
-      <c r="L79" s="168"/>
-      <c r="M79" s="168"/>
-      <c r="N79" s="168"/>
-      <c r="O79" s="168"/>
-      <c r="P79" s="168"/>
-      <c r="Q79" s="168"/>
-      <c r="R79" s="169"/>
-    </row>
-    <row r="80" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="185"/>
-      <c r="B80" s="168"/>
-      <c r="C80" s="168"/>
-      <c r="D80" s="168"/>
-      <c r="E80" s="168"/>
-      <c r="F80" s="168"/>
-      <c r="G80" s="168"/>
-      <c r="H80" s="168"/>
-      <c r="I80" s="168"/>
-      <c r="J80" s="168"/>
-      <c r="K80" s="168"/>
-      <c r="L80" s="168"/>
-      <c r="M80" s="168"/>
-      <c r="N80" s="168"/>
-      <c r="O80" s="168"/>
-      <c r="P80" s="168"/>
-      <c r="Q80" s="168"/>
-      <c r="R80" s="169"/>
-    </row>
-    <row r="81" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="185"/>
-      <c r="B81" s="168"/>
-      <c r="C81" s="168"/>
-      <c r="D81" s="168"/>
-      <c r="E81" s="168"/>
-      <c r="F81" s="168"/>
-      <c r="G81" s="168"/>
-      <c r="H81" s="168"/>
-      <c r="I81" s="168"/>
-      <c r="J81" s="168"/>
-      <c r="K81" s="168"/>
-      <c r="L81" s="168"/>
-      <c r="M81" s="168"/>
-      <c r="N81" s="168"/>
-      <c r="O81" s="168"/>
-      <c r="P81" s="168"/>
-      <c r="Q81" s="168"/>
-      <c r="R81" s="169"/>
-    </row>
-    <row r="82" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="185"/>
-      <c r="B82" s="168"/>
-      <c r="C82" s="168"/>
-      <c r="D82" s="168"/>
-      <c r="E82" s="168"/>
-      <c r="F82" s="168"/>
-      <c r="G82" s="168"/>
-      <c r="H82" s="168"/>
-      <c r="I82" s="168"/>
-      <c r="J82" s="168"/>
-      <c r="K82" s="168"/>
-      <c r="L82" s="168"/>
-      <c r="M82" s="168"/>
-      <c r="N82" s="168"/>
-      <c r="O82" s="168"/>
-      <c r="P82" s="168"/>
-      <c r="Q82" s="168"/>
-      <c r="R82" s="169"/>
-    </row>
-    <row r="83" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="185"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
-      <c r="F83" s="168"/>
-      <c r="G83" s="168"/>
-      <c r="H83" s="168"/>
-      <c r="I83" s="168"/>
-      <c r="J83" s="168"/>
-      <c r="K83" s="168"/>
-      <c r="L83" s="168"/>
-      <c r="M83" s="168"/>
-      <c r="N83" s="168"/>
-      <c r="O83" s="168"/>
-      <c r="P83" s="168"/>
-      <c r="Q83" s="168"/>
-      <c r="R83" s="169"/>
-    </row>
-    <row r="84" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="185"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="168"/>
-      <c r="D84" s="168"/>
-      <c r="E84" s="168"/>
-      <c r="F84" s="168"/>
-      <c r="G84" s="168"/>
-      <c r="H84" s="168"/>
-      <c r="I84" s="168"/>
-      <c r="J84" s="168"/>
-      <c r="K84" s="168"/>
-      <c r="L84" s="168"/>
-      <c r="M84" s="168"/>
-      <c r="N84" s="168"/>
-      <c r="O84" s="168"/>
-      <c r="P84" s="168"/>
-      <c r="Q84" s="168"/>
-      <c r="R84" s="169"/>
-    </row>
-    <row r="85" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="185"/>
-      <c r="B85" s="168"/>
-      <c r="C85" s="168"/>
-      <c r="D85" s="168"/>
-      <c r="E85" s="168"/>
-      <c r="F85" s="168"/>
-      <c r="G85" s="168"/>
-      <c r="H85" s="168"/>
-      <c r="I85" s="168"/>
-      <c r="J85" s="168"/>
-      <c r="K85" s="168"/>
-      <c r="L85" s="168"/>
-      <c r="M85" s="168"/>
-      <c r="N85" s="168"/>
-      <c r="O85" s="168"/>
-      <c r="P85" s="168"/>
-      <c r="Q85" s="168"/>
-      <c r="R85" s="169"/>
-    </row>
-    <row r="86" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="187"/>
-      <c r="B86" s="188"/>
-      <c r="C86" s="188"/>
-      <c r="D86" s="188"/>
-      <c r="E86" s="188"/>
-      <c r="F86" s="188"/>
-      <c r="G86" s="188"/>
-      <c r="H86" s="188"/>
-      <c r="I86" s="188"/>
-      <c r="J86" s="188"/>
-      <c r="K86" s="188"/>
-      <c r="L86" s="188"/>
-      <c r="M86" s="188"/>
-      <c r="N86" s="188"/>
-      <c r="O86" s="188"/>
-      <c r="P86" s="188"/>
-      <c r="Q86" s="188"/>
-      <c r="R86" s="189"/>
-    </row>
-    <row r="87" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="190" t="s">
+      <c r="B71" s="156"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="156"/>
+      <c r="G71" s="156"/>
+      <c r="H71" s="156"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="156"/>
+      <c r="K71" s="156"/>
+      <c r="L71" s="156"/>
+      <c r="M71" s="156"/>
+      <c r="N71" s="156"/>
+      <c r="O71" s="156"/>
+      <c r="P71" s="156"/>
+      <c r="Q71" s="156"/>
+      <c r="R71" s="157"/>
+    </row>
+    <row r="72" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="139"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="140"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="140"/>
+      <c r="N72" s="140"/>
+      <c r="O72" s="140"/>
+      <c r="P72" s="140"/>
+      <c r="Q72" s="140"/>
+      <c r="R72" s="141"/>
+    </row>
+    <row r="73" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="139"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="140"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="140"/>
+      <c r="N73" s="140"/>
+      <c r="O73" s="140"/>
+      <c r="P73" s="140"/>
+      <c r="Q73" s="140"/>
+      <c r="R73" s="141"/>
+    </row>
+    <row r="74" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="139"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="140"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="140"/>
+      <c r="K74" s="140"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="140"/>
+      <c r="N74" s="140"/>
+      <c r="O74" s="140"/>
+      <c r="P74" s="140"/>
+      <c r="Q74" s="140"/>
+      <c r="R74" s="141"/>
+    </row>
+    <row r="75" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="139"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="140"/>
+      <c r="K75" s="140"/>
+      <c r="L75" s="140"/>
+      <c r="M75" s="140"/>
+      <c r="N75" s="140"/>
+      <c r="O75" s="140"/>
+      <c r="P75" s="140"/>
+      <c r="Q75" s="140"/>
+      <c r="R75" s="141"/>
+    </row>
+    <row r="76" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="139"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="140"/>
+      <c r="F76" s="140"/>
+      <c r="G76" s="140"/>
+      <c r="H76" s="140"/>
+      <c r="I76" s="140"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="140"/>
+      <c r="N76" s="140"/>
+      <c r="O76" s="140"/>
+      <c r="P76" s="140"/>
+      <c r="Q76" s="140"/>
+      <c r="R76" s="141"/>
+    </row>
+    <row r="77" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="139"/>
+      <c r="B77" s="140"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="140"/>
+      <c r="F77" s="140"/>
+      <c r="G77" s="140"/>
+      <c r="H77" s="140"/>
+      <c r="I77" s="140"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="140"/>
+      <c r="M77" s="140"/>
+      <c r="N77" s="140"/>
+      <c r="O77" s="140"/>
+      <c r="P77" s="140"/>
+      <c r="Q77" s="140"/>
+      <c r="R77" s="141"/>
+    </row>
+    <row r="78" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="139"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="140"/>
+      <c r="E78" s="140"/>
+      <c r="F78" s="140"/>
+      <c r="G78" s="140"/>
+      <c r="H78" s="140"/>
+      <c r="I78" s="140"/>
+      <c r="J78" s="140"/>
+      <c r="K78" s="140"/>
+      <c r="L78" s="140"/>
+      <c r="M78" s="140"/>
+      <c r="N78" s="140"/>
+      <c r="O78" s="140"/>
+      <c r="P78" s="140"/>
+      <c r="Q78" s="140"/>
+      <c r="R78" s="141"/>
+    </row>
+    <row r="79" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="139"/>
+      <c r="B79" s="140"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="140"/>
+      <c r="F79" s="140"/>
+      <c r="G79" s="140"/>
+      <c r="H79" s="140"/>
+      <c r="I79" s="140"/>
+      <c r="J79" s="140"/>
+      <c r="K79" s="140"/>
+      <c r="L79" s="140"/>
+      <c r="M79" s="140"/>
+      <c r="N79" s="140"/>
+      <c r="O79" s="140"/>
+      <c r="P79" s="140"/>
+      <c r="Q79" s="140"/>
+      <c r="R79" s="141"/>
+    </row>
+    <row r="80" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="139"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="140"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="140"/>
+      <c r="N80" s="140"/>
+      <c r="O80" s="140"/>
+      <c r="P80" s="140"/>
+      <c r="Q80" s="140"/>
+      <c r="R80" s="141"/>
+    </row>
+    <row r="81" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="139"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="140"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="140"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="140"/>
+      <c r="J81" s="140"/>
+      <c r="K81" s="140"/>
+      <c r="L81" s="140"/>
+      <c r="M81" s="140"/>
+      <c r="N81" s="140"/>
+      <c r="O81" s="140"/>
+      <c r="P81" s="140"/>
+      <c r="Q81" s="140"/>
+      <c r="R81" s="141"/>
+    </row>
+    <row r="82" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="139"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="140"/>
+      <c r="J82" s="140"/>
+      <c r="K82" s="140"/>
+      <c r="L82" s="140"/>
+      <c r="M82" s="140"/>
+      <c r="N82" s="140"/>
+      <c r="O82" s="140"/>
+      <c r="P82" s="140"/>
+      <c r="Q82" s="140"/>
+      <c r="R82" s="141"/>
+    </row>
+    <row r="83" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="139"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="140"/>
+      <c r="K83" s="140"/>
+      <c r="L83" s="140"/>
+      <c r="M83" s="140"/>
+      <c r="N83" s="140"/>
+      <c r="O83" s="140"/>
+      <c r="P83" s="140"/>
+      <c r="Q83" s="140"/>
+      <c r="R83" s="141"/>
+    </row>
+    <row r="84" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="139"/>
+      <c r="B84" s="140"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="140"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="140"/>
+      <c r="H84" s="140"/>
+      <c r="I84" s="140"/>
+      <c r="J84" s="140"/>
+      <c r="K84" s="140"/>
+      <c r="L84" s="140"/>
+      <c r="M84" s="140"/>
+      <c r="N84" s="140"/>
+      <c r="O84" s="140"/>
+      <c r="P84" s="140"/>
+      <c r="Q84" s="140"/>
+      <c r="R84" s="141"/>
+    </row>
+    <row r="85" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="139"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="140"/>
+      <c r="J85" s="140"/>
+      <c r="K85" s="140"/>
+      <c r="L85" s="140"/>
+      <c r="M85" s="140"/>
+      <c r="N85" s="140"/>
+      <c r="O85" s="140"/>
+      <c r="P85" s="140"/>
+      <c r="Q85" s="140"/>
+      <c r="R85" s="141"/>
+    </row>
+    <row r="86" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="145"/>
+      <c r="B86" s="146"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="146"/>
+      <c r="H86" s="146"/>
+      <c r="I86" s="146"/>
+      <c r="J86" s="146"/>
+      <c r="K86" s="146"/>
+      <c r="L86" s="146"/>
+      <c r="M86" s="146"/>
+      <c r="N86" s="146"/>
+      <c r="O86" s="146"/>
+      <c r="P86" s="146"/>
+      <c r="Q86" s="146"/>
+      <c r="R86" s="147"/>
+    </row>
+    <row r="87" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="191"/>
-      <c r="C87" s="191"/>
-      <c r="D87" s="191"/>
-      <c r="E87" s="191"/>
-      <c r="F87" s="191"/>
-      <c r="G87" s="191"/>
-      <c r="H87" s="191"/>
-      <c r="I87" s="191"/>
-      <c r="J87" s="191"/>
-      <c r="K87" s="191"/>
-      <c r="L87" s="191"/>
-      <c r="M87" s="191"/>
-      <c r="N87" s="191"/>
-      <c r="O87" s="191"/>
-      <c r="P87" s="191"/>
-      <c r="Q87" s="191"/>
-      <c r="R87" s="192"/>
-    </row>
-    <row r="88" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="153"/>
+      <c r="C87" s="153"/>
+      <c r="D87" s="153"/>
+      <c r="E87" s="153"/>
+      <c r="F87" s="153"/>
+      <c r="G87" s="153"/>
+      <c r="H87" s="153"/>
+      <c r="I87" s="153"/>
+      <c r="J87" s="153"/>
+      <c r="K87" s="153"/>
+      <c r="L87" s="153"/>
+      <c r="M87" s="153"/>
+      <c r="N87" s="153"/>
+      <c r="O87" s="153"/>
+      <c r="P87" s="153"/>
+      <c r="Q87" s="153"/>
+      <c r="R87" s="154"/>
+    </row>
+    <row r="88" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="56"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6265,7 +7827,7 @@
       <c r="Q88" s="3"/>
       <c r="R88" s="9"/>
     </row>
-    <row r="89" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="56"/>
       <c r="B89" s="57" t="s">
         <v>30</v>
@@ -6289,7 +7851,7 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="9"/>
     </row>
-    <row r="90" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="56"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
@@ -6309,7 +7871,7 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="9"/>
     </row>
-    <row r="91" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="56"/>
       <c r="B91" s="57" t="s">
         <v>55</v>
@@ -6333,7 +7895,7 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="9"/>
     </row>
-    <row r="92" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="56"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
@@ -6353,7 +7915,7 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="9"/>
     </row>
-    <row r="93" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="56"/>
       <c r="B93" s="57" t="s">
         <v>68</v>
@@ -6377,7 +7939,7 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="9"/>
     </row>
-    <row r="94" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="56"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
@@ -6397,7 +7959,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="9"/>
     </row>
-    <row r="95" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="56"/>
       <c r="B95" s="57" t="s">
         <v>31</v>
@@ -6421,7 +7983,7 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="9"/>
     </row>
-    <row r="96" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="58"/>
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
@@ -6441,7 +8003,7 @@
       <c r="Q96" s="59"/>
       <c r="R96" s="60"/>
     </row>
-    <row r="97" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6461,7 +8023,7 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
     </row>
-    <row r="98" spans="1:18" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A98" s="61" t="s">
         <v>35</v>
       </c>
@@ -6483,7 +8045,7 @@
       <c r="Q98" s="62"/>
       <c r="R98" s="63"/>
     </row>
-    <row r="99" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="64" t="s">
         <v>36</v>
       </c>
@@ -6505,21 +8067,23 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="9"/>
     </row>
-    <row r="100" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="157" t="s">
+    <row r="100" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="158"/>
-      <c r="C100" s="160" t="s">
+      <c r="B100" s="149"/>
+      <c r="C100" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="162"/>
-      <c r="E100" s="162"/>
-      <c r="F100" s="162"/>
-      <c r="G100" s="162"/>
-      <c r="H100" s="162"/>
-      <c r="I100" s="162"/>
-      <c r="J100" s="160" t="s">
+      <c r="D100" s="151" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="151"/>
+      <c r="F100" s="151"/>
+      <c r="G100" s="151"/>
+      <c r="H100" s="151"/>
+      <c r="I100" s="151"/>
+      <c r="J100" s="150" t="s">
         <v>39</v>
       </c>
       <c r="K100" s="3"/>
@@ -6531,17 +8095,17 @@
       <c r="Q100" s="3"/>
       <c r="R100" s="9"/>
     </row>
-    <row r="101" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="157"/>
-      <c r="B101" s="158"/>
-      <c r="C101" s="160"/>
-      <c r="D101" s="162"/>
-      <c r="E101" s="162"/>
-      <c r="F101" s="162"/>
-      <c r="G101" s="162"/>
-      <c r="H101" s="162"/>
-      <c r="I101" s="162"/>
-      <c r="J101" s="160"/>
+    <row r="101" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="148"/>
+      <c r="B101" s="149"/>
+      <c r="C101" s="150"/>
+      <c r="D101" s="151"/>
+      <c r="E101" s="151"/>
+      <c r="F101" s="151"/>
+      <c r="G101" s="151"/>
+      <c r="H101" s="151"/>
+      <c r="I101" s="151"/>
+      <c r="J101" s="150"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -6551,123 +8115,123 @@
       <c r="Q101" s="3"/>
       <c r="R101" s="9"/>
     </row>
-    <row r="102" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="157" t="s">
+    <row r="102" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="158"/>
-      <c r="C102" s="111"/>
-      <c r="D102" s="111"/>
-      <c r="E102" s="111"/>
-      <c r="F102" s="111"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="111"/>
-      <c r="I102" s="111"/>
-      <c r="J102" s="111"/>
-      <c r="K102" s="111"/>
-      <c r="L102" s="111"/>
-      <c r="M102" s="111"/>
-      <c r="N102" s="111"/>
-      <c r="O102" s="111"/>
-      <c r="P102" s="111"/>
-      <c r="Q102" s="111"/>
-      <c r="R102" s="112"/>
-    </row>
-    <row r="103" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="157"/>
-      <c r="B103" s="158"/>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="111"/>
-      <c r="J103" s="111"/>
-      <c r="K103" s="111"/>
-      <c r="L103" s="111"/>
-      <c r="M103" s="111"/>
-      <c r="N103" s="111"/>
-      <c r="O103" s="111"/>
-      <c r="P103" s="111"/>
-      <c r="Q103" s="111"/>
-      <c r="R103" s="112"/>
-    </row>
-    <row r="104" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="149"/>
+      <c r="C102" s="158"/>
+      <c r="D102" s="158"/>
+      <c r="E102" s="158"/>
+      <c r="F102" s="158"/>
+      <c r="G102" s="158"/>
+      <c r="H102" s="158"/>
+      <c r="I102" s="158"/>
+      <c r="J102" s="158"/>
+      <c r="K102" s="158"/>
+      <c r="L102" s="158"/>
+      <c r="M102" s="158"/>
+      <c r="N102" s="158"/>
+      <c r="O102" s="158"/>
+      <c r="P102" s="158"/>
+      <c r="Q102" s="158"/>
+      <c r="R102" s="159"/>
+    </row>
+    <row r="103" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="148"/>
+      <c r="B103" s="149"/>
+      <c r="C103" s="158"/>
+      <c r="D103" s="158"/>
+      <c r="E103" s="158"/>
+      <c r="F103" s="158"/>
+      <c r="G103" s="158"/>
+      <c r="H103" s="158"/>
+      <c r="I103" s="158"/>
+      <c r="J103" s="158"/>
+      <c r="K103" s="158"/>
+      <c r="L103" s="158"/>
+      <c r="M103" s="158"/>
+      <c r="N103" s="158"/>
+      <c r="O103" s="158"/>
+      <c r="P103" s="158"/>
+      <c r="Q103" s="158"/>
+      <c r="R103" s="159"/>
+    </row>
+    <row r="104" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="56"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="111"/>
-      <c r="D104" s="111"/>
-      <c r="E104" s="111"/>
-      <c r="F104" s="111"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="111"/>
-      <c r="I104" s="111"/>
-      <c r="J104" s="111"/>
-      <c r="K104" s="111"/>
-      <c r="L104" s="111"/>
-      <c r="M104" s="111"/>
-      <c r="N104" s="111"/>
-      <c r="O104" s="111"/>
-      <c r="P104" s="111"/>
-      <c r="Q104" s="111"/>
-      <c r="R104" s="112"/>
-    </row>
-    <row r="105" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="158"/>
+      <c r="D104" s="158"/>
+      <c r="E104" s="158"/>
+      <c r="F104" s="158"/>
+      <c r="G104" s="158"/>
+      <c r="H104" s="158"/>
+      <c r="I104" s="158"/>
+      <c r="J104" s="158"/>
+      <c r="K104" s="158"/>
+      <c r="L104" s="158"/>
+      <c r="M104" s="158"/>
+      <c r="N104" s="158"/>
+      <c r="O104" s="158"/>
+      <c r="P104" s="158"/>
+      <c r="Q104" s="158"/>
+      <c r="R104" s="159"/>
+    </row>
+    <row r="105" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="56"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="111"/>
-      <c r="D105" s="111"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="111"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="111"/>
-      <c r="I105" s="111"/>
-      <c r="J105" s="111"/>
-      <c r="K105" s="111"/>
-      <c r="L105" s="111"/>
-      <c r="M105" s="111"/>
-      <c r="N105" s="111"/>
-      <c r="O105" s="111"/>
-      <c r="P105" s="111"/>
-      <c r="Q105" s="111"/>
-      <c r="R105" s="112"/>
-    </row>
-    <row r="106" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="158"/>
+      <c r="D105" s="158"/>
+      <c r="E105" s="158"/>
+      <c r="F105" s="158"/>
+      <c r="G105" s="158"/>
+      <c r="H105" s="158"/>
+      <c r="I105" s="158"/>
+      <c r="J105" s="158"/>
+      <c r="K105" s="158"/>
+      <c r="L105" s="158"/>
+      <c r="M105" s="158"/>
+      <c r="N105" s="158"/>
+      <c r="O105" s="158"/>
+      <c r="P105" s="158"/>
+      <c r="Q105" s="158"/>
+      <c r="R105" s="159"/>
+    </row>
+    <row r="106" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="65"/>
       <c r="B106" s="66"/>
-      <c r="C106" s="153"/>
-      <c r="D106" s="153"/>
-      <c r="E106" s="153"/>
-      <c r="F106" s="153"/>
-      <c r="G106" s="153"/>
-      <c r="H106" s="153"/>
-      <c r="I106" s="153"/>
-      <c r="J106" s="153"/>
-      <c r="K106" s="153"/>
-      <c r="L106" s="153"/>
-      <c r="M106" s="153"/>
-      <c r="N106" s="153"/>
-      <c r="O106" s="153"/>
-      <c r="P106" s="153"/>
-      <c r="Q106" s="153"/>
-      <c r="R106" s="154"/>
-    </row>
-    <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="155" t="s">
+      <c r="C106" s="166"/>
+      <c r="D106" s="166"/>
+      <c r="E106" s="166"/>
+      <c r="F106" s="166"/>
+      <c r="G106" s="166"/>
+      <c r="H106" s="166"/>
+      <c r="I106" s="166"/>
+      <c r="J106" s="166"/>
+      <c r="K106" s="166"/>
+      <c r="L106" s="166"/>
+      <c r="M106" s="166"/>
+      <c r="N106" s="166"/>
+      <c r="O106" s="166"/>
+      <c r="P106" s="166"/>
+      <c r="Q106" s="166"/>
+      <c r="R106" s="167"/>
+    </row>
+    <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="156"/>
-      <c r="C107" s="159" t="s">
+      <c r="B107" s="192"/>
+      <c r="C107" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="161"/>
-      <c r="E107" s="161"/>
-      <c r="F107" s="161"/>
-      <c r="G107" s="161"/>
-      <c r="H107" s="161"/>
-      <c r="I107" s="161"/>
-      <c r="J107" s="159" t="s">
+      <c r="D107" s="194"/>
+      <c r="E107" s="194"/>
+      <c r="F107" s="194"/>
+      <c r="G107" s="194"/>
+      <c r="H107" s="194"/>
+      <c r="I107" s="194"/>
+      <c r="J107" s="193" t="s">
         <v>39</v>
       </c>
       <c r="K107" s="67"/>
@@ -6679,17 +8243,17 @@
       <c r="Q107" s="67"/>
       <c r="R107" s="8"/>
     </row>
-    <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="157"/>
-      <c r="B108" s="158"/>
-      <c r="C108" s="160"/>
-      <c r="D108" s="162"/>
-      <c r="E108" s="162"/>
-      <c r="F108" s="162"/>
-      <c r="G108" s="162"/>
-      <c r="H108" s="162"/>
-      <c r="I108" s="162"/>
-      <c r="J108" s="160"/>
+    <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="148"/>
+      <c r="B108" s="149"/>
+      <c r="C108" s="150"/>
+      <c r="D108" s="151"/>
+      <c r="E108" s="151"/>
+      <c r="F108" s="151"/>
+      <c r="G108" s="151"/>
+      <c r="H108" s="151"/>
+      <c r="I108" s="151"/>
+      <c r="J108" s="150"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -6699,123 +8263,123 @@
       <c r="Q108" s="3"/>
       <c r="R108" s="9"/>
     </row>
-    <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="157" t="s">
+    <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="158"/>
-      <c r="C109" s="111"/>
-      <c r="D109" s="111"/>
-      <c r="E109" s="111"/>
-      <c r="F109" s="111"/>
-      <c r="G109" s="111"/>
-      <c r="H109" s="111"/>
-      <c r="I109" s="111"/>
-      <c r="J109" s="111"/>
-      <c r="K109" s="111"/>
-      <c r="L109" s="111"/>
-      <c r="M109" s="111"/>
-      <c r="N109" s="111"/>
-      <c r="O109" s="111"/>
-      <c r="P109" s="111"/>
-      <c r="Q109" s="111"/>
-      <c r="R109" s="112"/>
-    </row>
-    <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="157"/>
-      <c r="B110" s="158"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="111"/>
-      <c r="G110" s="111"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="111"/>
-      <c r="J110" s="111"/>
-      <c r="K110" s="111"/>
-      <c r="L110" s="111"/>
-      <c r="M110" s="111"/>
-      <c r="N110" s="111"/>
-      <c r="O110" s="111"/>
-      <c r="P110" s="111"/>
-      <c r="Q110" s="111"/>
-      <c r="R110" s="112"/>
-    </row>
-    <row r="111" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="149"/>
+      <c r="C109" s="158"/>
+      <c r="D109" s="158"/>
+      <c r="E109" s="158"/>
+      <c r="F109" s="158"/>
+      <c r="G109" s="158"/>
+      <c r="H109" s="158"/>
+      <c r="I109" s="158"/>
+      <c r="J109" s="158"/>
+      <c r="K109" s="158"/>
+      <c r="L109" s="158"/>
+      <c r="M109" s="158"/>
+      <c r="N109" s="158"/>
+      <c r="O109" s="158"/>
+      <c r="P109" s="158"/>
+      <c r="Q109" s="158"/>
+      <c r="R109" s="159"/>
+    </row>
+    <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="148"/>
+      <c r="B110" s="149"/>
+      <c r="C110" s="158"/>
+      <c r="D110" s="158"/>
+      <c r="E110" s="158"/>
+      <c r="F110" s="158"/>
+      <c r="G110" s="158"/>
+      <c r="H110" s="158"/>
+      <c r="I110" s="158"/>
+      <c r="J110" s="158"/>
+      <c r="K110" s="158"/>
+      <c r="L110" s="158"/>
+      <c r="M110" s="158"/>
+      <c r="N110" s="158"/>
+      <c r="O110" s="158"/>
+      <c r="P110" s="158"/>
+      <c r="Q110" s="158"/>
+      <c r="R110" s="159"/>
+    </row>
+    <row r="111" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="56"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="111"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="111"/>
-      <c r="F111" s="111"/>
-      <c r="G111" s="111"/>
-      <c r="H111" s="111"/>
-      <c r="I111" s="111"/>
-      <c r="J111" s="111"/>
-      <c r="K111" s="111"/>
-      <c r="L111" s="111"/>
-      <c r="M111" s="111"/>
-      <c r="N111" s="111"/>
-      <c r="O111" s="111"/>
-      <c r="P111" s="111"/>
-      <c r="Q111" s="111"/>
-      <c r="R111" s="112"/>
-    </row>
-    <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="158"/>
+      <c r="D111" s="158"/>
+      <c r="E111" s="158"/>
+      <c r="F111" s="158"/>
+      <c r="G111" s="158"/>
+      <c r="H111" s="158"/>
+      <c r="I111" s="158"/>
+      <c r="J111" s="158"/>
+      <c r="K111" s="158"/>
+      <c r="L111" s="158"/>
+      <c r="M111" s="158"/>
+      <c r="N111" s="158"/>
+      <c r="O111" s="158"/>
+      <c r="P111" s="158"/>
+      <c r="Q111" s="158"/>
+      <c r="R111" s="159"/>
+    </row>
+    <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="56"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="111"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="111"/>
-      <c r="G112" s="111"/>
-      <c r="H112" s="111"/>
-      <c r="I112" s="111"/>
-      <c r="J112" s="111"/>
-      <c r="K112" s="111"/>
-      <c r="L112" s="111"/>
-      <c r="M112" s="111"/>
-      <c r="N112" s="111"/>
-      <c r="O112" s="111"/>
-      <c r="P112" s="111"/>
-      <c r="Q112" s="111"/>
-      <c r="R112" s="112"/>
-    </row>
-    <row r="113" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="158"/>
+      <c r="D112" s="158"/>
+      <c r="E112" s="158"/>
+      <c r="F112" s="158"/>
+      <c r="G112" s="158"/>
+      <c r="H112" s="158"/>
+      <c r="I112" s="158"/>
+      <c r="J112" s="158"/>
+      <c r="K112" s="158"/>
+      <c r="L112" s="158"/>
+      <c r="M112" s="158"/>
+      <c r="N112" s="158"/>
+      <c r="O112" s="158"/>
+      <c r="P112" s="158"/>
+      <c r="Q112" s="158"/>
+      <c r="R112" s="159"/>
+    </row>
+    <row r="113" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="65"/>
       <c r="B113" s="66"/>
-      <c r="C113" s="153"/>
-      <c r="D113" s="153"/>
-      <c r="E113" s="153"/>
-      <c r="F113" s="153"/>
-      <c r="G113" s="153"/>
-      <c r="H113" s="153"/>
-      <c r="I113" s="153"/>
-      <c r="J113" s="153"/>
-      <c r="K113" s="153"/>
-      <c r="L113" s="153"/>
-      <c r="M113" s="153"/>
-      <c r="N113" s="153"/>
-      <c r="O113" s="153"/>
-      <c r="P113" s="153"/>
-      <c r="Q113" s="153"/>
-      <c r="R113" s="154"/>
-    </row>
-    <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="155" t="s">
+      <c r="C113" s="166"/>
+      <c r="D113" s="166"/>
+      <c r="E113" s="166"/>
+      <c r="F113" s="166"/>
+      <c r="G113" s="166"/>
+      <c r="H113" s="166"/>
+      <c r="I113" s="166"/>
+      <c r="J113" s="166"/>
+      <c r="K113" s="166"/>
+      <c r="L113" s="166"/>
+      <c r="M113" s="166"/>
+      <c r="N113" s="166"/>
+      <c r="O113" s="166"/>
+      <c r="P113" s="166"/>
+      <c r="Q113" s="166"/>
+      <c r="R113" s="167"/>
+    </row>
+    <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="156"/>
-      <c r="C114" s="159" t="s">
+      <c r="B114" s="192"/>
+      <c r="C114" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="161"/>
-      <c r="E114" s="161"/>
-      <c r="F114" s="161"/>
-      <c r="G114" s="161"/>
-      <c r="H114" s="161"/>
-      <c r="I114" s="161"/>
-      <c r="J114" s="159" t="s">
+      <c r="D114" s="194"/>
+      <c r="E114" s="194"/>
+      <c r="F114" s="194"/>
+      <c r="G114" s="194"/>
+      <c r="H114" s="194"/>
+      <c r="I114" s="194"/>
+      <c r="J114" s="193" t="s">
         <v>39</v>
       </c>
       <c r="K114" s="67"/>
@@ -6827,17 +8391,17 @@
       <c r="Q114" s="67"/>
       <c r="R114" s="8"/>
     </row>
-    <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="157"/>
-      <c r="B115" s="158"/>
-      <c r="C115" s="160"/>
-      <c r="D115" s="162"/>
-      <c r="E115" s="162"/>
-      <c r="F115" s="162"/>
-      <c r="G115" s="162"/>
-      <c r="H115" s="162"/>
-      <c r="I115" s="162"/>
-      <c r="J115" s="160"/>
+    <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="148"/>
+      <c r="B115" s="149"/>
+      <c r="C115" s="150"/>
+      <c r="D115" s="151"/>
+      <c r="E115" s="151"/>
+      <c r="F115" s="151"/>
+      <c r="G115" s="151"/>
+      <c r="H115" s="151"/>
+      <c r="I115" s="151"/>
+      <c r="J115" s="150"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -6847,109 +8411,109 @@
       <c r="Q115" s="3"/>
       <c r="R115" s="9"/>
     </row>
-    <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="157" t="s">
+    <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B116" s="158"/>
-      <c r="C116" s="111"/>
-      <c r="D116" s="111"/>
-      <c r="E116" s="111"/>
-      <c r="F116" s="111"/>
-      <c r="G116" s="111"/>
-      <c r="H116" s="111"/>
-      <c r="I116" s="111"/>
-      <c r="J116" s="111"/>
-      <c r="K116" s="111"/>
-      <c r="L116" s="111"/>
-      <c r="M116" s="111"/>
-      <c r="N116" s="111"/>
-      <c r="O116" s="111"/>
-      <c r="P116" s="111"/>
-      <c r="Q116" s="111"/>
-      <c r="R116" s="112"/>
-    </row>
-    <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="157"/>
-      <c r="B117" s="158"/>
-      <c r="C117" s="111"/>
-      <c r="D117" s="111"/>
-      <c r="E117" s="111"/>
-      <c r="F117" s="111"/>
-      <c r="G117" s="111"/>
-      <c r="H117" s="111"/>
-      <c r="I117" s="111"/>
-      <c r="J117" s="111"/>
-      <c r="K117" s="111"/>
-      <c r="L117" s="111"/>
-      <c r="M117" s="111"/>
-      <c r="N117" s="111"/>
-      <c r="O117" s="111"/>
-      <c r="P117" s="111"/>
-      <c r="Q117" s="111"/>
-      <c r="R117" s="112"/>
-    </row>
-    <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="149"/>
+      <c r="C116" s="158"/>
+      <c r="D116" s="158"/>
+      <c r="E116" s="158"/>
+      <c r="F116" s="158"/>
+      <c r="G116" s="158"/>
+      <c r="H116" s="158"/>
+      <c r="I116" s="158"/>
+      <c r="J116" s="158"/>
+      <c r="K116" s="158"/>
+      <c r="L116" s="158"/>
+      <c r="M116" s="158"/>
+      <c r="N116" s="158"/>
+      <c r="O116" s="158"/>
+      <c r="P116" s="158"/>
+      <c r="Q116" s="158"/>
+      <c r="R116" s="159"/>
+    </row>
+    <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="148"/>
+      <c r="B117" s="149"/>
+      <c r="C117" s="158"/>
+      <c r="D117" s="158"/>
+      <c r="E117" s="158"/>
+      <c r="F117" s="158"/>
+      <c r="G117" s="158"/>
+      <c r="H117" s="158"/>
+      <c r="I117" s="158"/>
+      <c r="J117" s="158"/>
+      <c r="K117" s="158"/>
+      <c r="L117" s="158"/>
+      <c r="M117" s="158"/>
+      <c r="N117" s="158"/>
+      <c r="O117" s="158"/>
+      <c r="P117" s="158"/>
+      <c r="Q117" s="158"/>
+      <c r="R117" s="159"/>
+    </row>
+    <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="56"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="111"/>
-      <c r="D118" s="111"/>
-      <c r="E118" s="111"/>
-      <c r="F118" s="111"/>
-      <c r="G118" s="111"/>
-      <c r="H118" s="111"/>
-      <c r="I118" s="111"/>
-      <c r="J118" s="111"/>
-      <c r="K118" s="111"/>
-      <c r="L118" s="111"/>
-      <c r="M118" s="111"/>
-      <c r="N118" s="111"/>
-      <c r="O118" s="111"/>
-      <c r="P118" s="111"/>
-      <c r="Q118" s="111"/>
-      <c r="R118" s="112"/>
-    </row>
-    <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="158"/>
+      <c r="D118" s="158"/>
+      <c r="E118" s="158"/>
+      <c r="F118" s="158"/>
+      <c r="G118" s="158"/>
+      <c r="H118" s="158"/>
+      <c r="I118" s="158"/>
+      <c r="J118" s="158"/>
+      <c r="K118" s="158"/>
+      <c r="L118" s="158"/>
+      <c r="M118" s="158"/>
+      <c r="N118" s="158"/>
+      <c r="O118" s="158"/>
+      <c r="P118" s="158"/>
+      <c r="Q118" s="158"/>
+      <c r="R118" s="159"/>
+    </row>
+    <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="56"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="111"/>
-      <c r="D119" s="111"/>
-      <c r="E119" s="111"/>
-      <c r="F119" s="111"/>
-      <c r="G119" s="111"/>
-      <c r="H119" s="111"/>
-      <c r="I119" s="111"/>
-      <c r="J119" s="111"/>
-      <c r="K119" s="111"/>
-      <c r="L119" s="111"/>
-      <c r="M119" s="111"/>
-      <c r="N119" s="111"/>
-      <c r="O119" s="111"/>
-      <c r="P119" s="111"/>
-      <c r="Q119" s="111"/>
-      <c r="R119" s="112"/>
-    </row>
-    <row r="120" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="158"/>
+      <c r="D119" s="158"/>
+      <c r="E119" s="158"/>
+      <c r="F119" s="158"/>
+      <c r="G119" s="158"/>
+      <c r="H119" s="158"/>
+      <c r="I119" s="158"/>
+      <c r="J119" s="158"/>
+      <c r="K119" s="158"/>
+      <c r="L119" s="158"/>
+      <c r="M119" s="158"/>
+      <c r="N119" s="158"/>
+      <c r="O119" s="158"/>
+      <c r="P119" s="158"/>
+      <c r="Q119" s="158"/>
+      <c r="R119" s="159"/>
+    </row>
+    <row r="120" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="58"/>
       <c r="B120" s="59"/>
-      <c r="C120" s="193"/>
-      <c r="D120" s="193"/>
-      <c r="E120" s="193"/>
-      <c r="F120" s="193"/>
-      <c r="G120" s="193"/>
-      <c r="H120" s="193"/>
-      <c r="I120" s="193"/>
-      <c r="J120" s="193"/>
-      <c r="K120" s="193"/>
-      <c r="L120" s="193"/>
-      <c r="M120" s="193"/>
-      <c r="N120" s="193"/>
-      <c r="O120" s="193"/>
-      <c r="P120" s="193"/>
-      <c r="Q120" s="193"/>
-      <c r="R120" s="194"/>
-    </row>
-    <row r="121" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C120" s="160"/>
+      <c r="D120" s="160"/>
+      <c r="E120" s="160"/>
+      <c r="F120" s="160"/>
+      <c r="G120" s="160"/>
+      <c r="H120" s="160"/>
+      <c r="I120" s="160"/>
+      <c r="J120" s="160"/>
+      <c r="K120" s="160"/>
+      <c r="L120" s="160"/>
+      <c r="M120" s="160"/>
+      <c r="N120" s="160"/>
+      <c r="O120" s="160"/>
+      <c r="P120" s="160"/>
+      <c r="Q120" s="160"/>
+      <c r="R120" s="161"/>
+    </row>
+    <row r="121" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6969,329 +8533,329 @@
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
     </row>
-    <row r="122" spans="1:18" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="177" t="s">
+    <row r="122" spans="1:18" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="B122" s="178"/>
-      <c r="C122" s="178"/>
-      <c r="D122" s="178"/>
-      <c r="E122" s="178"/>
-      <c r="F122" s="178"/>
-      <c r="G122" s="178"/>
-      <c r="H122" s="178"/>
-      <c r="I122" s="178"/>
-      <c r="J122" s="178"/>
-      <c r="K122" s="178"/>
-      <c r="L122" s="178"/>
-      <c r="M122" s="178"/>
-      <c r="N122" s="178"/>
-      <c r="O122" s="178"/>
-      <c r="P122" s="178"/>
-      <c r="Q122" s="178"/>
-      <c r="R122" s="179"/>
-    </row>
-    <row r="123" spans="1:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="185"/>
-      <c r="B123" s="168"/>
-      <c r="C123" s="168"/>
-      <c r="D123" s="168"/>
-      <c r="E123" s="168"/>
-      <c r="F123" s="168"/>
-      <c r="G123" s="168"/>
-      <c r="H123" s="168"/>
-      <c r="I123" s="168"/>
-      <c r="J123" s="168"/>
-      <c r="K123" s="168"/>
-      <c r="L123" s="168"/>
-      <c r="M123" s="168"/>
-      <c r="N123" s="168"/>
-      <c r="O123" s="168"/>
-      <c r="P123" s="168"/>
-      <c r="Q123" s="168"/>
-      <c r="R123" s="195"/>
-    </row>
-    <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="185"/>
-      <c r="B124" s="168"/>
-      <c r="C124" s="168"/>
-      <c r="D124" s="168"/>
-      <c r="E124" s="168"/>
-      <c r="F124" s="168"/>
-      <c r="G124" s="168"/>
-      <c r="H124" s="168"/>
-      <c r="I124" s="168"/>
-      <c r="J124" s="168"/>
-      <c r="K124" s="168"/>
-      <c r="L124" s="168"/>
-      <c r="M124" s="168"/>
-      <c r="N124" s="168"/>
-      <c r="O124" s="168"/>
-      <c r="P124" s="168"/>
-      <c r="Q124" s="168"/>
-      <c r="R124" s="195"/>
-    </row>
-    <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="185"/>
-      <c r="B125" s="168"/>
-      <c r="C125" s="168"/>
-      <c r="D125" s="168"/>
-      <c r="E125" s="168"/>
-      <c r="F125" s="168"/>
-      <c r="G125" s="168"/>
-      <c r="H125" s="168"/>
-      <c r="I125" s="168"/>
-      <c r="J125" s="168"/>
-      <c r="K125" s="168"/>
-      <c r="L125" s="168"/>
-      <c r="M125" s="168"/>
-      <c r="N125" s="168"/>
-      <c r="O125" s="168"/>
-      <c r="P125" s="168"/>
-      <c r="Q125" s="168"/>
-      <c r="R125" s="195"/>
-    </row>
-    <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="185"/>
-      <c r="B126" s="168"/>
-      <c r="C126" s="168"/>
-      <c r="D126" s="168"/>
-      <c r="E126" s="168"/>
-      <c r="F126" s="168"/>
-      <c r="G126" s="168"/>
-      <c r="H126" s="168"/>
-      <c r="I126" s="168"/>
-      <c r="J126" s="168"/>
-      <c r="K126" s="168"/>
-      <c r="L126" s="168"/>
-      <c r="M126" s="168"/>
-      <c r="N126" s="168"/>
-      <c r="O126" s="168"/>
-      <c r="P126" s="168"/>
-      <c r="Q126" s="168"/>
-      <c r="R126" s="195"/>
-    </row>
-    <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="185"/>
-      <c r="B127" s="168"/>
-      <c r="C127" s="168"/>
-      <c r="D127" s="168"/>
-      <c r="E127" s="168"/>
-      <c r="F127" s="168"/>
-      <c r="G127" s="168"/>
-      <c r="H127" s="168"/>
-      <c r="I127" s="168"/>
-      <c r="J127" s="168"/>
-      <c r="K127" s="168"/>
-      <c r="L127" s="168"/>
-      <c r="M127" s="168"/>
-      <c r="N127" s="168"/>
-      <c r="O127" s="168"/>
-      <c r="P127" s="168"/>
-      <c r="Q127" s="168"/>
-      <c r="R127" s="195"/>
-    </row>
-    <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="185"/>
-      <c r="B128" s="168"/>
-      <c r="C128" s="168"/>
-      <c r="D128" s="168"/>
-      <c r="E128" s="168"/>
-      <c r="F128" s="168"/>
-      <c r="G128" s="168"/>
-      <c r="H128" s="168"/>
-      <c r="I128" s="168"/>
-      <c r="J128" s="168"/>
-      <c r="K128" s="168"/>
-      <c r="L128" s="168"/>
-      <c r="M128" s="168"/>
-      <c r="N128" s="168"/>
-      <c r="O128" s="168"/>
-      <c r="P128" s="168"/>
-      <c r="Q128" s="168"/>
-      <c r="R128" s="195"/>
-    </row>
-    <row r="129" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="185"/>
-      <c r="B129" s="168"/>
-      <c r="C129" s="168"/>
-      <c r="D129" s="168"/>
-      <c r="E129" s="168"/>
-      <c r="F129" s="168"/>
-      <c r="G129" s="168"/>
-      <c r="H129" s="168"/>
-      <c r="I129" s="168"/>
-      <c r="J129" s="168"/>
-      <c r="K129" s="168"/>
-      <c r="L129" s="168"/>
-      <c r="M129" s="168"/>
-      <c r="N129" s="168"/>
-      <c r="O129" s="168"/>
-      <c r="P129" s="168"/>
-      <c r="Q129" s="168"/>
-      <c r="R129" s="195"/>
-    </row>
-    <row r="130" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="185"/>
-      <c r="B130" s="168"/>
-      <c r="C130" s="168"/>
-      <c r="D130" s="168"/>
-      <c r="E130" s="168"/>
-      <c r="F130" s="168"/>
-      <c r="G130" s="168"/>
-      <c r="H130" s="168"/>
-      <c r="I130" s="168"/>
-      <c r="J130" s="168"/>
-      <c r="K130" s="168"/>
-      <c r="L130" s="168"/>
-      <c r="M130" s="168"/>
-      <c r="N130" s="168"/>
-      <c r="O130" s="168"/>
-      <c r="P130" s="168"/>
-      <c r="Q130" s="168"/>
-      <c r="R130" s="195"/>
-    </row>
-    <row r="131" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="185"/>
-      <c r="B131" s="168"/>
-      <c r="C131" s="168"/>
-      <c r="D131" s="168"/>
-      <c r="E131" s="168"/>
-      <c r="F131" s="168"/>
-      <c r="G131" s="168"/>
-      <c r="H131" s="168"/>
-      <c r="I131" s="168"/>
-      <c r="J131" s="168"/>
-      <c r="K131" s="168"/>
-      <c r="L131" s="168"/>
-      <c r="M131" s="168"/>
-      <c r="N131" s="168"/>
-      <c r="O131" s="168"/>
-      <c r="P131" s="168"/>
-      <c r="Q131" s="168"/>
-      <c r="R131" s="195"/>
-    </row>
-    <row r="132" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="185"/>
-      <c r="B132" s="168"/>
-      <c r="C132" s="168"/>
-      <c r="D132" s="168"/>
-      <c r="E132" s="168"/>
-      <c r="F132" s="168"/>
-      <c r="G132" s="168"/>
-      <c r="H132" s="168"/>
-      <c r="I132" s="168"/>
-      <c r="J132" s="168"/>
-      <c r="K132" s="168"/>
-      <c r="L132" s="168"/>
-      <c r="M132" s="168"/>
-      <c r="N132" s="168"/>
-      <c r="O132" s="168"/>
-      <c r="P132" s="168"/>
-      <c r="Q132" s="168"/>
-      <c r="R132" s="195"/>
-    </row>
-    <row r="133" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="185"/>
-      <c r="B133" s="168"/>
-      <c r="C133" s="168"/>
-      <c r="D133" s="168"/>
-      <c r="E133" s="168"/>
-      <c r="F133" s="168"/>
-      <c r="G133" s="168"/>
-      <c r="H133" s="168"/>
-      <c r="I133" s="168"/>
-      <c r="J133" s="168"/>
-      <c r="K133" s="168"/>
-      <c r="L133" s="168"/>
-      <c r="M133" s="168"/>
-      <c r="N133" s="168"/>
-      <c r="O133" s="168"/>
-      <c r="P133" s="168"/>
-      <c r="Q133" s="168"/>
-      <c r="R133" s="195"/>
-    </row>
-    <row r="134" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="185"/>
-      <c r="B134" s="168"/>
-      <c r="C134" s="168"/>
-      <c r="D134" s="168"/>
-      <c r="E134" s="168"/>
-      <c r="F134" s="168"/>
-      <c r="G134" s="168"/>
-      <c r="H134" s="168"/>
-      <c r="I134" s="168"/>
-      <c r="J134" s="168"/>
-      <c r="K134" s="168"/>
-      <c r="L134" s="168"/>
-      <c r="M134" s="168"/>
-      <c r="N134" s="168"/>
-      <c r="O134" s="168"/>
-      <c r="P134" s="168"/>
-      <c r="Q134" s="168"/>
-      <c r="R134" s="195"/>
-    </row>
-    <row r="135" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="185"/>
-      <c r="B135" s="168"/>
-      <c r="C135" s="168"/>
-      <c r="D135" s="168"/>
-      <c r="E135" s="168"/>
-      <c r="F135" s="168"/>
-      <c r="G135" s="168"/>
-      <c r="H135" s="168"/>
-      <c r="I135" s="168"/>
-      <c r="J135" s="168"/>
-      <c r="K135" s="168"/>
-      <c r="L135" s="168"/>
-      <c r="M135" s="168"/>
-      <c r="N135" s="168"/>
-      <c r="O135" s="168"/>
-      <c r="P135" s="168"/>
-      <c r="Q135" s="168"/>
-      <c r="R135" s="195"/>
-    </row>
-    <row r="136" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="185"/>
-      <c r="B136" s="168"/>
-      <c r="C136" s="168"/>
-      <c r="D136" s="168"/>
-      <c r="E136" s="168"/>
-      <c r="F136" s="168"/>
-      <c r="G136" s="168"/>
-      <c r="H136" s="168"/>
-      <c r="I136" s="168"/>
-      <c r="J136" s="168"/>
-      <c r="K136" s="168"/>
-      <c r="L136" s="168"/>
-      <c r="M136" s="168"/>
-      <c r="N136" s="168"/>
-      <c r="O136" s="168"/>
-      <c r="P136" s="168"/>
-      <c r="Q136" s="168"/>
-      <c r="R136" s="195"/>
-    </row>
-    <row r="137" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="186"/>
-      <c r="B137" s="171"/>
-      <c r="C137" s="171"/>
-      <c r="D137" s="171"/>
-      <c r="E137" s="171"/>
-      <c r="F137" s="171"/>
-      <c r="G137" s="171"/>
-      <c r="H137" s="171"/>
-      <c r="I137" s="171"/>
-      <c r="J137" s="171"/>
-      <c r="K137" s="171"/>
-      <c r="L137" s="171"/>
-      <c r="M137" s="171"/>
-      <c r="N137" s="171"/>
-      <c r="O137" s="171"/>
-      <c r="P137" s="171"/>
-      <c r="Q137" s="171"/>
-      <c r="R137" s="196"/>
-    </row>
-    <row r="138" spans="1:23" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="156"/>
+      <c r="C122" s="156"/>
+      <c r="D122" s="156"/>
+      <c r="E122" s="156"/>
+      <c r="F122" s="156"/>
+      <c r="G122" s="156"/>
+      <c r="H122" s="156"/>
+      <c r="I122" s="156"/>
+      <c r="J122" s="156"/>
+      <c r="K122" s="156"/>
+      <c r="L122" s="156"/>
+      <c r="M122" s="156"/>
+      <c r="N122" s="156"/>
+      <c r="O122" s="156"/>
+      <c r="P122" s="156"/>
+      <c r="Q122" s="156"/>
+      <c r="R122" s="157"/>
+    </row>
+    <row r="123" spans="1:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="139"/>
+      <c r="B123" s="140"/>
+      <c r="C123" s="140"/>
+      <c r="D123" s="140"/>
+      <c r="E123" s="140"/>
+      <c r="F123" s="140"/>
+      <c r="G123" s="140"/>
+      <c r="H123" s="140"/>
+      <c r="I123" s="140"/>
+      <c r="J123" s="140"/>
+      <c r="K123" s="140"/>
+      <c r="L123" s="140"/>
+      <c r="M123" s="140"/>
+      <c r="N123" s="140"/>
+      <c r="O123" s="140"/>
+      <c r="P123" s="140"/>
+      <c r="Q123" s="140"/>
+      <c r="R123" s="162"/>
+    </row>
+    <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="139"/>
+      <c r="B124" s="140"/>
+      <c r="C124" s="140"/>
+      <c r="D124" s="140"/>
+      <c r="E124" s="140"/>
+      <c r="F124" s="140"/>
+      <c r="G124" s="140"/>
+      <c r="H124" s="140"/>
+      <c r="I124" s="140"/>
+      <c r="J124" s="140"/>
+      <c r="K124" s="140"/>
+      <c r="L124" s="140"/>
+      <c r="M124" s="140"/>
+      <c r="N124" s="140"/>
+      <c r="O124" s="140"/>
+      <c r="P124" s="140"/>
+      <c r="Q124" s="140"/>
+      <c r="R124" s="162"/>
+    </row>
+    <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="139"/>
+      <c r="B125" s="140"/>
+      <c r="C125" s="140"/>
+      <c r="D125" s="140"/>
+      <c r="E125" s="140"/>
+      <c r="F125" s="140"/>
+      <c r="G125" s="140"/>
+      <c r="H125" s="140"/>
+      <c r="I125" s="140"/>
+      <c r="J125" s="140"/>
+      <c r="K125" s="140"/>
+      <c r="L125" s="140"/>
+      <c r="M125" s="140"/>
+      <c r="N125" s="140"/>
+      <c r="O125" s="140"/>
+      <c r="P125" s="140"/>
+      <c r="Q125" s="140"/>
+      <c r="R125" s="162"/>
+    </row>
+    <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="139"/>
+      <c r="B126" s="140"/>
+      <c r="C126" s="140"/>
+      <c r="D126" s="140"/>
+      <c r="E126" s="140"/>
+      <c r="F126" s="140"/>
+      <c r="G126" s="140"/>
+      <c r="H126" s="140"/>
+      <c r="I126" s="140"/>
+      <c r="J126" s="140"/>
+      <c r="K126" s="140"/>
+      <c r="L126" s="140"/>
+      <c r="M126" s="140"/>
+      <c r="N126" s="140"/>
+      <c r="O126" s="140"/>
+      <c r="P126" s="140"/>
+      <c r="Q126" s="140"/>
+      <c r="R126" s="162"/>
+    </row>
+    <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="139"/>
+      <c r="B127" s="140"/>
+      <c r="C127" s="140"/>
+      <c r="D127" s="140"/>
+      <c r="E127" s="140"/>
+      <c r="F127" s="140"/>
+      <c r="G127" s="140"/>
+      <c r="H127" s="140"/>
+      <c r="I127" s="140"/>
+      <c r="J127" s="140"/>
+      <c r="K127" s="140"/>
+      <c r="L127" s="140"/>
+      <c r="M127" s="140"/>
+      <c r="N127" s="140"/>
+      <c r="O127" s="140"/>
+      <c r="P127" s="140"/>
+      <c r="Q127" s="140"/>
+      <c r="R127" s="162"/>
+    </row>
+    <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="139"/>
+      <c r="B128" s="140"/>
+      <c r="C128" s="140"/>
+      <c r="D128" s="140"/>
+      <c r="E128" s="140"/>
+      <c r="F128" s="140"/>
+      <c r="G128" s="140"/>
+      <c r="H128" s="140"/>
+      <c r="I128" s="140"/>
+      <c r="J128" s="140"/>
+      <c r="K128" s="140"/>
+      <c r="L128" s="140"/>
+      <c r="M128" s="140"/>
+      <c r="N128" s="140"/>
+      <c r="O128" s="140"/>
+      <c r="P128" s="140"/>
+      <c r="Q128" s="140"/>
+      <c r="R128" s="162"/>
+    </row>
+    <row r="129" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="139"/>
+      <c r="B129" s="140"/>
+      <c r="C129" s="140"/>
+      <c r="D129" s="140"/>
+      <c r="E129" s="140"/>
+      <c r="F129" s="140"/>
+      <c r="G129" s="140"/>
+      <c r="H129" s="140"/>
+      <c r="I129" s="140"/>
+      <c r="J129" s="140"/>
+      <c r="K129" s="140"/>
+      <c r="L129" s="140"/>
+      <c r="M129" s="140"/>
+      <c r="N129" s="140"/>
+      <c r="O129" s="140"/>
+      <c r="P129" s="140"/>
+      <c r="Q129" s="140"/>
+      <c r="R129" s="162"/>
+    </row>
+    <row r="130" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="139"/>
+      <c r="B130" s="140"/>
+      <c r="C130" s="140"/>
+      <c r="D130" s="140"/>
+      <c r="E130" s="140"/>
+      <c r="F130" s="140"/>
+      <c r="G130" s="140"/>
+      <c r="H130" s="140"/>
+      <c r="I130" s="140"/>
+      <c r="J130" s="140"/>
+      <c r="K130" s="140"/>
+      <c r="L130" s="140"/>
+      <c r="M130" s="140"/>
+      <c r="N130" s="140"/>
+      <c r="O130" s="140"/>
+      <c r="P130" s="140"/>
+      <c r="Q130" s="140"/>
+      <c r="R130" s="162"/>
+    </row>
+    <row r="131" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="139"/>
+      <c r="B131" s="140"/>
+      <c r="C131" s="140"/>
+      <c r="D131" s="140"/>
+      <c r="E131" s="140"/>
+      <c r="F131" s="140"/>
+      <c r="G131" s="140"/>
+      <c r="H131" s="140"/>
+      <c r="I131" s="140"/>
+      <c r="J131" s="140"/>
+      <c r="K131" s="140"/>
+      <c r="L131" s="140"/>
+      <c r="M131" s="140"/>
+      <c r="N131" s="140"/>
+      <c r="O131" s="140"/>
+      <c r="P131" s="140"/>
+      <c r="Q131" s="140"/>
+      <c r="R131" s="162"/>
+    </row>
+    <row r="132" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="139"/>
+      <c r="B132" s="140"/>
+      <c r="C132" s="140"/>
+      <c r="D132" s="140"/>
+      <c r="E132" s="140"/>
+      <c r="F132" s="140"/>
+      <c r="G132" s="140"/>
+      <c r="H132" s="140"/>
+      <c r="I132" s="140"/>
+      <c r="J132" s="140"/>
+      <c r="K132" s="140"/>
+      <c r="L132" s="140"/>
+      <c r="M132" s="140"/>
+      <c r="N132" s="140"/>
+      <c r="O132" s="140"/>
+      <c r="P132" s="140"/>
+      <c r="Q132" s="140"/>
+      <c r="R132" s="162"/>
+    </row>
+    <row r="133" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="139"/>
+      <c r="B133" s="140"/>
+      <c r="C133" s="140"/>
+      <c r="D133" s="140"/>
+      <c r="E133" s="140"/>
+      <c r="F133" s="140"/>
+      <c r="G133" s="140"/>
+      <c r="H133" s="140"/>
+      <c r="I133" s="140"/>
+      <c r="J133" s="140"/>
+      <c r="K133" s="140"/>
+      <c r="L133" s="140"/>
+      <c r="M133" s="140"/>
+      <c r="N133" s="140"/>
+      <c r="O133" s="140"/>
+      <c r="P133" s="140"/>
+      <c r="Q133" s="140"/>
+      <c r="R133" s="162"/>
+    </row>
+    <row r="134" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="139"/>
+      <c r="B134" s="140"/>
+      <c r="C134" s="140"/>
+      <c r="D134" s="140"/>
+      <c r="E134" s="140"/>
+      <c r="F134" s="140"/>
+      <c r="G134" s="140"/>
+      <c r="H134" s="140"/>
+      <c r="I134" s="140"/>
+      <c r="J134" s="140"/>
+      <c r="K134" s="140"/>
+      <c r="L134" s="140"/>
+      <c r="M134" s="140"/>
+      <c r="N134" s="140"/>
+      <c r="O134" s="140"/>
+      <c r="P134" s="140"/>
+      <c r="Q134" s="140"/>
+      <c r="R134" s="162"/>
+    </row>
+    <row r="135" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="139"/>
+      <c r="B135" s="140"/>
+      <c r="C135" s="140"/>
+      <c r="D135" s="140"/>
+      <c r="E135" s="140"/>
+      <c r="F135" s="140"/>
+      <c r="G135" s="140"/>
+      <c r="H135" s="140"/>
+      <c r="I135" s="140"/>
+      <c r="J135" s="140"/>
+      <c r="K135" s="140"/>
+      <c r="L135" s="140"/>
+      <c r="M135" s="140"/>
+      <c r="N135" s="140"/>
+      <c r="O135" s="140"/>
+      <c r="P135" s="140"/>
+      <c r="Q135" s="140"/>
+      <c r="R135" s="162"/>
+    </row>
+    <row r="136" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="139"/>
+      <c r="B136" s="140"/>
+      <c r="C136" s="140"/>
+      <c r="D136" s="140"/>
+      <c r="E136" s="140"/>
+      <c r="F136" s="140"/>
+      <c r="G136" s="140"/>
+      <c r="H136" s="140"/>
+      <c r="I136" s="140"/>
+      <c r="J136" s="140"/>
+      <c r="K136" s="140"/>
+      <c r="L136" s="140"/>
+      <c r="M136" s="140"/>
+      <c r="N136" s="140"/>
+      <c r="O136" s="140"/>
+      <c r="P136" s="140"/>
+      <c r="Q136" s="140"/>
+      <c r="R136" s="162"/>
+    </row>
+    <row r="137" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="142"/>
+      <c r="B137" s="143"/>
+      <c r="C137" s="143"/>
+      <c r="D137" s="143"/>
+      <c r="E137" s="143"/>
+      <c r="F137" s="143"/>
+      <c r="G137" s="143"/>
+      <c r="H137" s="143"/>
+      <c r="I137" s="143"/>
+      <c r="J137" s="143"/>
+      <c r="K137" s="143"/>
+      <c r="L137" s="143"/>
+      <c r="M137" s="143"/>
+      <c r="N137" s="143"/>
+      <c r="O137" s="143"/>
+      <c r="P137" s="143"/>
+      <c r="Q137" s="143"/>
+      <c r="R137" s="163"/>
+    </row>
+    <row r="138" spans="1:23" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7311,29 +8875,29 @@
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
     </row>
-    <row r="139" spans="1:23" ht="30" x14ac:dyDescent="0.2">
-      <c r="A139" s="197" t="s">
+    <row r="139" spans="1:23" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A139" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="B139" s="198"/>
-      <c r="C139" s="198"/>
-      <c r="D139" s="198"/>
-      <c r="E139" s="198"/>
-      <c r="F139" s="198"/>
-      <c r="G139" s="198"/>
-      <c r="H139" s="198"/>
-      <c r="I139" s="198"/>
-      <c r="J139" s="198"/>
-      <c r="K139" s="198"/>
-      <c r="L139" s="198"/>
-      <c r="M139" s="198"/>
-      <c r="N139" s="198"/>
-      <c r="O139" s="198"/>
-      <c r="P139" s="198"/>
-      <c r="Q139" s="198"/>
-      <c r="R139" s="198"/>
-    </row>
-    <row r="140" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="165"/>
+      <c r="C139" s="165"/>
+      <c r="D139" s="165"/>
+      <c r="E139" s="165"/>
+      <c r="F139" s="165"/>
+      <c r="G139" s="165"/>
+      <c r="H139" s="165"/>
+      <c r="I139" s="165"/>
+      <c r="J139" s="165"/>
+      <c r="K139" s="165"/>
+      <c r="L139" s="165"/>
+      <c r="M139" s="165"/>
+      <c r="N139" s="165"/>
+      <c r="O139" s="165"/>
+      <c r="P139" s="165"/>
+      <c r="Q139" s="165"/>
+      <c r="R139" s="165"/>
+    </row>
+    <row r="140" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7353,29 +8917,29 @@
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
     </row>
-    <row r="141" spans="1:23" s="68" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="148" t="s">
+    <row r="141" spans="1:23" s="68" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="158"/>
-      <c r="C141" s="158"/>
-      <c r="D141" s="158"/>
-      <c r="E141" s="158"/>
-      <c r="F141" s="158"/>
-      <c r="G141" s="158"/>
-      <c r="H141" s="158"/>
-      <c r="I141" s="158"/>
-      <c r="J141" s="158"/>
-      <c r="K141" s="158"/>
-      <c r="L141" s="158"/>
-      <c r="M141" s="158"/>
-      <c r="N141" s="158"/>
-      <c r="O141" s="158"/>
-      <c r="P141" s="158"/>
-      <c r="Q141" s="158"/>
-      <c r="R141" s="158"/>
-    </row>
-    <row r="142" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="149"/>
+      <c r="C141" s="149"/>
+      <c r="D141" s="149"/>
+      <c r="E141" s="149"/>
+      <c r="F141" s="149"/>
+      <c r="G141" s="149"/>
+      <c r="H141" s="149"/>
+      <c r="I141" s="149"/>
+      <c r="J141" s="149"/>
+      <c r="K141" s="149"/>
+      <c r="L141" s="149"/>
+      <c r="M141" s="149"/>
+      <c r="N141" s="149"/>
+      <c r="O141" s="149"/>
+      <c r="P141" s="149"/>
+      <c r="Q141" s="149"/>
+      <c r="R141" s="149"/>
+    </row>
+    <row r="142" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A142" s="69"/>
       <c r="B142" s="69"/>
       <c r="C142" s="69"/>
@@ -7400,7 +8964,7 @@
       <c r="V142" s="70"/>
       <c r="W142" s="70"/>
     </row>
-    <row r="143" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="71"/>
       <c r="B143" s="67"/>
       <c r="C143" s="67"/>
@@ -7420,7 +8984,7 @@
       <c r="Q143" s="67"/>
       <c r="R143" s="72"/>
     </row>
-    <row r="144" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="73"/>
       <c r="B144" s="3"/>
       <c r="C144" s="57" t="s">
@@ -7442,7 +9006,7 @@
       <c r="Q144" s="3"/>
       <c r="R144" s="74"/>
     </row>
-    <row r="145" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="73"/>
       <c r="B145" s="3"/>
       <c r="C145" s="57"/>
@@ -7462,7 +9026,7 @@
       <c r="Q145" s="3"/>
       <c r="R145" s="74"/>
     </row>
-    <row r="146" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="73"/>
       <c r="B146" s="3"/>
       <c r="C146" s="57" t="s">
@@ -7484,7 +9048,7 @@
       <c r="Q146" s="3"/>
       <c r="R146" s="74"/>
     </row>
-    <row r="147" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="73"/>
       <c r="B147" s="3"/>
       <c r="C147" s="57"/>
@@ -7504,7 +9068,7 @@
       <c r="Q147" s="3"/>
       <c r="R147" s="74"/>
     </row>
-    <row r="148" spans="1:23" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="75"/>
       <c r="B148" s="66"/>
       <c r="C148" s="76"/>
@@ -7524,7 +9088,7 @@
       <c r="Q148" s="66"/>
       <c r="R148" s="77"/>
     </row>
-    <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A149" s="57"/>
       <c r="B149" s="57"/>
       <c r="C149" s="57"/>
@@ -7549,10 +9113,10 @@
       <c r="V149" s="68"/>
       <c r="W149" s="68"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="K150" s="70"/>
     </row>
-    <row r="151" spans="1:23" ht="21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" ht="21" x14ac:dyDescent="0.15">
       <c r="C151" s="78"/>
       <c r="H151" s="78"/>
       <c r="I151" s="78"/>
@@ -7561,31 +9125,56 @@
       <c r="L151" s="80"/>
       <c r="M151" s="80"/>
       <c r="N151" s="81"/>
-      <c r="O151" s="166"/>
-      <c r="P151" s="166"/>
+      <c r="O151" s="138"/>
+      <c r="P151" s="138"/>
       <c r="Q151" s="80"/>
       <c r="R151" s="68"/>
-      <c r="S151" s="166"/>
-      <c r="T151" s="166"/>
+      <c r="S151" s="138"/>
+      <c r="T151" s="138"/>
       <c r="U151" s="68"/>
       <c r="V151" s="68"/>
       <c r="W151" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="L1:R2"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H4:R4"/>
-    <mergeCell ref="A5:C10"/>
-    <mergeCell ref="D6:K10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="M5:Q8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="A11:C14"/>
+    <mergeCell ref="D11:R13"/>
+    <mergeCell ref="A15:C19"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="A38:C49"/>
+    <mergeCell ref="D16:R19"/>
+    <mergeCell ref="A20:C28"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="M20:R28"/>
+    <mergeCell ref="E27:L28"/>
+    <mergeCell ref="E24:L25"/>
+    <mergeCell ref="C109:R113"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="A107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="D51:R56"/>
+    <mergeCell ref="A29:C37"/>
+    <mergeCell ref="A141:R141"/>
+    <mergeCell ref="E30:L31"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="A57:R57"/>
+    <mergeCell ref="D50:R50"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="E36:Q37"/>
+    <mergeCell ref="E33:Q34"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="A109:B110"/>
     <mergeCell ref="S151:T151"/>
     <mergeCell ref="A58:R69"/>
     <mergeCell ref="A72:R86"/>
@@ -7602,56 +9191,543 @@
     <mergeCell ref="A139:R139"/>
     <mergeCell ref="A102:B103"/>
     <mergeCell ref="C102:R106"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="D51:R56"/>
-    <mergeCell ref="A29:C37"/>
-    <mergeCell ref="A141:R141"/>
-    <mergeCell ref="E30:L31"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="A57:R57"/>
-    <mergeCell ref="D50:R50"/>
-    <mergeCell ref="M40:Q40"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="E36:Q37"/>
-    <mergeCell ref="E33:Q34"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="A109:B110"/>
-    <mergeCell ref="A107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="A50:C56"/>
-    <mergeCell ref="C109:R113"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:I115"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="A11:C14"/>
-    <mergeCell ref="D11:R13"/>
-    <mergeCell ref="A15:C19"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="A38:C49"/>
-    <mergeCell ref="D16:R19"/>
-    <mergeCell ref="A20:C28"/>
-    <mergeCell ref="E21:L22"/>
-    <mergeCell ref="M20:R28"/>
-    <mergeCell ref="E27:L28"/>
-    <mergeCell ref="E24:L25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:R2"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H4:R4"/>
+    <mergeCell ref="A5:C10"/>
+    <mergeCell ref="D6:K10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="M5:Q8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="L5:L10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1" xr:uid="{4469829F-E5B5-485A-BFB7-E2D4F8CEAF12}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="69" max="17" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14"/>
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>390525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3" r:id="rId6" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>1485900</xdr:colOff>
+                    <xdr:row>88</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>533400</xdr:colOff>
+                    <xdr:row>89</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4" r:id="rId7" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>143</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>144</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5" r:id="rId8" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>145</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>146</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6" r:id="rId9" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>145</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>146</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7" r:id="rId10" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>390525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="8" r:id="rId11" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>390525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9" r:id="rId12" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1076325</xdr:colOff>
+                    <xdr:row>90</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>91</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10" r:id="rId13" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1076325</xdr:colOff>
+                    <xdr:row>92</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>93</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="11" r:id="rId14" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1076325</xdr:colOff>
+                    <xdr:row>94</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>95</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="12" r:id="rId15" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:row>88</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>88</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="13" r:id="rId16" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>1485900</xdr:colOff>
+                    <xdr:row>90</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>91</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14" r:id="rId17" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>1485900</xdr:colOff>
+                    <xdr:row>92</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>93</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="15" r:id="rId18" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>1485900</xdr:colOff>
+                    <xdr:row>94</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>95</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="16" r:id="rId19" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>390525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="17" r:id="rId20" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>1485900</xdr:colOff>
+                    <xdr:row>94</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>95</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="18" r:id="rId21" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>1485900</xdr:colOff>
+                    <xdr:row>92</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>93</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="19" r:id="rId22" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>1485900</xdr:colOff>
+                    <xdr:row>90</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>91</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="20" r:id="rId23" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>371475</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21" r:id="rId24" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="22" r:id="rId25" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>371475</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="23" r:id="rId26" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="24" r:id="rId27" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
 </file>
--- a/internship_form31.xlsx
+++ b/internship_form31.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\keep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F27D01-7650-4E05-A07A-2EE587018D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F6B0C-7187-4F5A-9539-8EF9002868BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bO460l/q38hcX+I6RjEDyaaKqPLmMIH1SlWgl6kF0SfnvcLmGVR/gVPboUALJLRpdybxkSasnje1BZNEi8fASA==" workbookSaltValue="d3e9DO+x9BA/CU0B9Kki1g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="885" windowWidth="19200" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1230" windowWidth="19200" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申込書" sheetId="4" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">申込書!$A$1:$R$149</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
@@ -904,7 +905,219 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OverWatch2</t>
+    <t>StreetFighter6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドやコンボといった複雑で格闘ゲーム特有の操作に苦手意識がありましたが、モダン操作というコマンド入力が簡略化された操作方法の登場で、格闘ゲーム初心者の人でも手軽に迫力あるバトルを体験できる点がとても魅力的で面白いと感じました。</t>
+    <rPh sb="26" eb="28">
+      <t>ニガテ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>カンリャクカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクトウ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ハクリョク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>ミリョクテキ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケットモンスタースカーレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンワールド化したことにより、自分のペースでポケモンの世界を探検し、自由な冒険ができたことが一番の面白さでした。プレイヤーの好きな順番でジムリーダーに挑戦できたり、オープンワールドのフィールド上でポケモンが生息している様子を観察できたりと従来のポケモンシリーズにはなかった新しい体験ができました。</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タンケン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カンサツ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>タイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARK: Survival Evolved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迫力のある恐竜や古代生物を捕獲して育成できる点が一番の特徴であり面白さだと感じました。捕まえた恐竜に乗って広大な世界を探索したり、生息している野生恐竜と戦闘をすることが可能で、恐竜とともに厳しい世界を探索、生存するのが楽しかったです。</t>
+    <rPh sb="0" eb="2">
+      <t>ハクリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウリュウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>コダイセイブツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホカク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キョウリュウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>ヤセイキョウリュウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キョウリュウ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>キビ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム業界における実践的なスキルや知識の習得
+・将来やりたいこと
+これといって特にない…けどいろんなことしたい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4066,7 +4279,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4076,7 +4289,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4507AF5-A3C7-81FD-C18D-DAA01F951911}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4143,7 +4356,7 @@
                   <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A5F06D-6CEC-0583-5E54-4B3F3C0BB144}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4210,7 +4423,7 @@
                   <a14:compatExt spid="_x0000_s2068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFDEFFE-5EE1-091B-EEB1-532742C44E83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4277,7 +4490,7 @@
                   <a14:compatExt spid="_x0000_s2069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87EAD23-26B8-4209-24E2-B8FEC248E147}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4344,7 +4557,7 @@
                   <a14:compatExt spid="_x0000_s2071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3867F9B7-5A2E-C7E2-EC89-A74EC04A1158}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4401,7 +4614,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4411,7 +4624,7 @@
                   <a14:compatExt spid="_x0000_s2078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F2A102-A38F-7975-8BDD-F247A6B9B11A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4468,7 +4681,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4478,7 +4691,7 @@
                   <a14:compatExt spid="_x0000_s2080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00D3226-5B1A-9329-F8ED-497E5551EB4E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4545,7 +4758,7 @@
                   <a14:compatExt spid="_x0000_s2082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC1C4DE-5520-25D7-E25E-08A4FB3FA26F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4612,7 +4825,7 @@
                   <a14:compatExt spid="_x0000_s2084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C3A783-CA5F-AC59-1765-377AD83E4AF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4679,7 +4892,7 @@
                   <a14:compatExt spid="_x0000_s2085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5319D4FC-DB1A-D7C4-D340-24C53EC58EA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4736,7 +4949,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4746,7 +4959,7 @@
                   <a14:compatExt spid="_x0000_s2086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33ABC3F-A31C-303A-27AF-ED3D65BB604B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4813,7 +5026,7 @@
                   <a14:compatExt spid="_x0000_s2087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D2B53C-D774-CFAB-DEE3-10D80DCB93E0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4880,7 +5093,7 @@
                   <a14:compatExt spid="_x0000_s2088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D83CCF-7C0C-18E2-C13B-856A08FD4C13}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4947,7 +5160,7 @@
                   <a14:compatExt spid="_x0000_s2089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA09DF09-C095-F8B4-ED38-D7A1F94B50B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5004,7 +5217,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5014,7 +5227,7 @@
                   <a14:compatExt spid="_x0000_s2095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0480C526-0370-CA58-6F63-F6CA7C5C59FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5081,7 +5294,7 @@
                   <a14:compatExt spid="_x0000_s2104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF178D5-BA5F-4202-6257-888FEA802F9B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5148,7 +5361,7 @@
                   <a14:compatExt spid="_x0000_s2105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535826DB-90AA-5335-E12E-444906D1CE02}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5215,7 +5428,7 @@
                   <a14:compatExt spid="_x0000_s2106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36432141-87B5-65CD-DFC6-81DD11D99BAB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5272,7 +5485,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5282,7 +5495,7 @@
                   <a14:compatExt spid="_x0000_s2107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E31506-5798-81F9-DE3F-52EF64E3E0AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5339,7 +5552,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5349,7 +5562,7 @@
                   <a14:compatExt spid="_x0000_s2108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A0050E-9A59-F70B-8B70-4C7504D2B8DC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5406,7 +5619,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5416,7 +5629,7 @@
                   <a14:compatExt spid="_x0000_s2109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F6E85E-933F-DA35-2A38-28A4919A0983}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5473,7 +5686,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5483,7 +5696,7 @@
                   <a14:compatExt spid="_x0000_s2110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639D7B6B-5E1F-78ED-5B38-A7FCEA01D5C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5540,7 +5753,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5550,7 +5763,7 @@
                   <a14:compatExt spid="_x0000_s2113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58538392-5527-354D-5616-53FEBF36E606}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5886,8 +6099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100:I101"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7065,7 +7278,9 @@
       <c r="A51" s="173"/>
       <c r="B51" s="174"/>
       <c r="C51" s="175"/>
-      <c r="D51" s="168"/>
+      <c r="D51" s="168" t="s">
+        <v>90</v>
+      </c>
       <c r="E51" s="140"/>
       <c r="F51" s="140"/>
       <c r="G51" s="140"/>
@@ -8120,7 +8335,9 @@
         <v>40</v>
       </c>
       <c r="B102" s="149"/>
-      <c r="C102" s="158"/>
+      <c r="C102" s="158" t="s">
+        <v>85</v>
+      </c>
       <c r="D102" s="158"/>
       <c r="E102" s="158"/>
       <c r="F102" s="158"/>
@@ -8225,7 +8442,9 @@
       <c r="C107" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="194"/>
+      <c r="D107" s="194" t="s">
+        <v>86</v>
+      </c>
       <c r="E107" s="194"/>
       <c r="F107" s="194"/>
       <c r="G107" s="194"/>
@@ -8268,7 +8487,9 @@
         <v>40</v>
       </c>
       <c r="B109" s="149"/>
-      <c r="C109" s="158"/>
+      <c r="C109" s="158" t="s">
+        <v>87</v>
+      </c>
       <c r="D109" s="158"/>
       <c r="E109" s="158"/>
       <c r="F109" s="158"/>
@@ -8373,7 +8594,9 @@
       <c r="C114" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="194"/>
+      <c r="D114" s="194" t="s">
+        <v>88</v>
+      </c>
       <c r="E114" s="194"/>
       <c r="F114" s="194"/>
       <c r="G114" s="194"/>
@@ -8416,7 +8639,9 @@
         <v>40</v>
       </c>
       <c r="B116" s="149"/>
-      <c r="C116" s="158"/>
+      <c r="C116" s="158" t="s">
+        <v>89</v>
+      </c>
       <c r="D116" s="158"/>
       <c r="E116" s="158"/>
       <c r="F116" s="158"/>

--- a/internship_form31.xlsx
+++ b/internship_form31.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\keep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\github\keep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F6B0C-7187-4F5A-9539-8EF9002868BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FC3BBC-92A3-4181-B242-E6B5120A744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bO460l/q38hcX+I6RjEDyaaKqPLmMIH1SlWgl6kF0SfnvcLmGVR/gVPboUALJLRpdybxkSasnje1BZNEi8fASA==" workbookSaltValue="d3e9DO+x9BA/CU0B9Kki1g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1230" windowWidth="19200" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申込書" sheetId="4" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">申込書!$A$1:$R$149</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
@@ -1115,9 +1114,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム業界における実践的なスキルや知識の習得
-・将来やりたいこと
-これといって特にない…けどいろんなことしたい</t>
+    <t>実際のゲーム業界での働き方であったり、現場で必要な知識やスキルの習得を体験したいです。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NintendoSwitchの後継機種の存在が公式に発表されたことです。</t>
+    <rPh sb="15" eb="18">
+      <t>コウケイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッピョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2249,6 +2289,351 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2356,18 +2741,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2384,343 +2761,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5811,9 +5851,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5851,9 +5891,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5886,9 +5926,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5921,9 +5978,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6099,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:R56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6127,51 +6201,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="105"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6202,243 +6276,243 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="209"/>
     </row>
     <row r="5" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="123" t="s">
+      <c r="B5" s="211"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125" t="s">
+      <c r="E5" s="226"/>
+      <c r="F5" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="135" t="s">
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="127">
+      <c r="M5" s="229">
         <v>19</v>
       </c>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="230"/>
+      <c r="Q5" s="230"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="111"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="117" t="s">
+      <c r="A6" s="213"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="174"/>
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="231"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
       <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="222"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="232"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
       <c r="R8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="129">
+      <c r="A9" s="213"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222"/>
+      <c r="K9" s="222"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="231">
         <v>2004</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="130">
+      <c r="O9" s="174">
         <v>7</v>
       </c>
       <c r="P9" s="12"/>
-      <c r="Q9" s="130">
+      <c r="Q9" s="174">
         <v>12</v>
       </c>
       <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="133"/>
+      <c r="A10" s="216"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="233"/>
       <c r="N10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="134"/>
+      <c r="O10" s="234"/>
       <c r="P10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="134"/>
+      <c r="Q10" s="234"/>
       <c r="R10" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="204" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="205"/>
-      <c r="Q11" s="205"/>
-      <c r="R11" s="206"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="109"/>
     </row>
     <row r="12" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="198"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="159"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="112"/>
     </row>
     <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="198"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="159"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="201"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
       <c r="M14" s="16" t="s">
         <v>52</v>
       </c>
@@ -6453,11 +6527,11 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="209"/>
-      <c r="C15" s="210"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
@@ -6483,93 +6557,93 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="173"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="226" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="227"/>
-      <c r="Q16" s="227"/>
-      <c r="R16" s="228"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="136"/>
     </row>
     <row r="17" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="173"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="227"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="227"/>
-      <c r="Q17" s="227"/>
-      <c r="R17" s="228"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="227"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="227"/>
-      <c r="M18" s="227"/>
-      <c r="N18" s="227"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="227"/>
-      <c r="Q18" s="227"/>
-      <c r="R18" s="228"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="211"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="230"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="230"/>
-      <c r="M19" s="230"/>
-      <c r="N19" s="230"/>
-      <c r="O19" s="230"/>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="230"/>
-      <c r="R19" s="231"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="139"/>
     </row>
     <row r="20" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="170" t="s">
+      <c r="A20" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="172"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="23"/>
       <c r="E20" s="12" t="s">
         <v>2</v>
@@ -6581,61 +6655,61 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="182" t="s">
+      <c r="M20" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="233"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
     </row>
     <row r="21" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="173"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="189" t="s">
+      <c r="E21" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="189"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="233"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="149"/>
     </row>
     <row r="22" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="173"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="175"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
-      <c r="H22" s="232"/>
-      <c r="I22" s="232"/>
-      <c r="J22" s="232"/>
-      <c r="K22" s="232"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="233"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
     </row>
     <row r="23" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="173"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="175"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="25"/>
       <c r="E23" s="12" t="s">
         <v>8</v>
@@ -6647,59 +6721,59 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="233"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
     </row>
     <row r="24" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="173"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="175"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="237" t="s">
+      <c r="E24" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="189"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="233"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="149"/>
     </row>
     <row r="25" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="176"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="232"/>
-      <c r="F25" s="232"/>
-      <c r="G25" s="232"/>
-      <c r="H25" s="232"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="232"/>
-      <c r="L25" s="232"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="233"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="149"/>
     </row>
     <row r="26" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="25"/>
       <c r="E26" s="12" t="s">
         <v>9</v>
@@ -6711,61 +6785,61 @@
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="233"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
     </row>
     <row r="27" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="189" t="s">
+      <c r="E27" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="189"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="233"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
     </row>
     <row r="28" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="211"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="236"/>
-      <c r="G28" s="236"/>
-      <c r="H28" s="236"/>
-      <c r="I28" s="236"/>
-      <c r="J28" s="236"/>
-      <c r="K28" s="236"/>
-      <c r="L28" s="236"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
-      <c r="O28" s="234"/>
-      <c r="P28" s="234"/>
-      <c r="Q28" s="234"/>
-      <c r="R28" s="235"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="151"/>
     </row>
     <row r="29" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="171"/>
-      <c r="C29" s="172"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="142"/>
       <c r="D29" s="23"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
@@ -6785,51 +6859,51 @@
       <c r="R29" s="29"/>
     </row>
     <row r="30" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="173"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="175"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="183" t="s">
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="183"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="174"/>
       <c r="R30" s="30"/>
     </row>
     <row r="31" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
       <c r="R31" s="30"/>
     </row>
     <row r="32" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="175"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="25"/>
       <c r="E32" s="12" t="s">
         <v>1</v>
@@ -6849,51 +6923,51 @@
       <c r="R32" s="30"/>
     </row>
     <row r="33" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="175"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="130" t="s">
+      <c r="E33" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="174"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="174"/>
       <c r="R33" s="30"/>
     </row>
     <row r="34" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="176"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="178"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
       <c r="R34" s="30"/>
     </row>
     <row r="35" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="176"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="178"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="145"/>
       <c r="D35" s="25"/>
       <c r="E35" s="12" t="s">
         <v>11</v>
@@ -6913,51 +6987,51 @@
       <c r="R35" s="30"/>
     </row>
     <row r="36" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="145"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="189"/>
-      <c r="L36" s="189"/>
-      <c r="M36" s="189"/>
-      <c r="N36" s="189"/>
-      <c r="O36" s="189"/>
-      <c r="P36" s="189"/>
-      <c r="Q36" s="189"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="146"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="146"/>
+      <c r="Q36" s="146"/>
       <c r="R36" s="30"/>
     </row>
     <row r="37" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="179"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="181"/>
+      <c r="A37" s="164"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="166"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="190"/>
-      <c r="N37" s="190"/>
-      <c r="O37" s="190"/>
-      <c r="P37" s="190"/>
-      <c r="Q37" s="190"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="185"/>
+      <c r="K37" s="185"/>
+      <c r="L37" s="185"/>
+      <c r="M37" s="185"/>
+      <c r="N37" s="185"/>
+      <c r="O37" s="185"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="185"/>
       <c r="R37" s="35"/>
     </row>
     <row r="38" spans="1:18" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="217" t="s">
+      <c r="A38" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="218"/>
-      <c r="C38" s="219"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="82"/>
       <c r="E38" s="83" t="s">
         <v>14</v>
@@ -6979,9 +7053,9 @@
       <c r="R38" s="86"/>
     </row>
     <row r="39" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="220"/>
-      <c r="B39" s="221"/>
-      <c r="C39" s="222"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="25"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -6999,9 +7073,9 @@
       <c r="R39" s="30"/>
     </row>
     <row r="40" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="220"/>
-      <c r="B40" s="221"/>
-      <c r="C40" s="222"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="130"/>
       <c r="D40" s="25"/>
       <c r="E40" s="12" t="s">
         <v>15</v>
@@ -7017,21 +7091,21 @@
       <c r="L40" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="130" t="s">
+      <c r="M40" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
-      <c r="Q40" s="130"/>
+      <c r="N40" s="174"/>
+      <c r="O40" s="174"/>
+      <c r="P40" s="174"/>
+      <c r="Q40" s="174"/>
       <c r="R40" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="220"/>
-      <c r="B41" s="221"/>
-      <c r="C41" s="222"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="25"/>
       <c r="E41" s="12" t="s">
         <v>16</v>
@@ -7047,21 +7121,21 @@
       <c r="L41" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="130" t="s">
+      <c r="M41" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="130"/>
-      <c r="Q41" s="130"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
       <c r="R41" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="220"/>
-      <c r="B42" s="221"/>
-      <c r="C42" s="222"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="25"/>
       <c r="E42" s="12" t="s">
         <v>17</v>
@@ -7077,21 +7151,21 @@
       <c r="L42" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="130" t="s">
+      <c r="M42" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="N42" s="130"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="130"/>
-      <c r="Q42" s="130"/>
+      <c r="N42" s="174"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="174"/>
       <c r="R42" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="220"/>
-      <c r="B43" s="221"/>
-      <c r="C43" s="222"/>
+      <c r="A43" s="128"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="23"/>
       <c r="E43" s="12" t="s">
         <v>18</v>
@@ -7101,21 +7175,21 @@
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="186" t="s">
+      <c r="K43" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="187"/>
-      <c r="M43" s="187"/>
-      <c r="N43" s="187"/>
-      <c r="O43" s="187"/>
-      <c r="P43" s="187"/>
-      <c r="Q43" s="187"/>
-      <c r="R43" s="188"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="184"/>
     </row>
     <row r="44" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="220"/>
-      <c r="B44" s="221"/>
-      <c r="C44" s="222"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="41"/>
       <c r="E44" s="42"/>
       <c r="F44" s="43"/>
@@ -7133,9 +7207,9 @@
       <c r="R44" s="88"/>
     </row>
     <row r="45" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="220"/>
-      <c r="B45" s="221"/>
-      <c r="C45" s="222"/>
+      <c r="A45" s="128"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="46"/>
       <c r="E45" s="89" t="s">
         <v>66</v>
@@ -7155,9 +7229,9 @@
       <c r="R45" s="48"/>
     </row>
     <row r="46" spans="1:18" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="220"/>
-      <c r="B46" s="221"/>
-      <c r="C46" s="222"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="25"/>
       <c r="E46" s="92" t="s">
         <v>67</v>
@@ -7177,9 +7251,9 @@
       <c r="R46" s="30"/>
     </row>
     <row r="47" spans="1:18" ht="3.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="220"/>
-      <c r="B47" s="221"/>
-      <c r="C47" s="222"/>
+      <c r="A47" s="128"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="130"/>
       <c r="D47" s="92"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -7196,9 +7270,9 @@
       <c r="R47" s="30"/>
     </row>
     <row r="48" spans="1:18" s="51" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="220"/>
-      <c r="B48" s="221"/>
-      <c r="C48" s="222"/>
+      <c r="A48" s="128"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="130"/>
       <c r="D48" s="49"/>
       <c r="E48" s="50" t="s">
         <v>62</v>
@@ -7220,9 +7294,9 @@
       <c r="R48" s="94"/>
     </row>
     <row r="49" spans="1:23" s="51" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="223"/>
-      <c r="B49" s="224"/>
-      <c r="C49" s="225"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="52"/>
       <c r="E49" s="95" t="s">
         <v>63</v>
@@ -7242,421 +7316,421 @@
       <c r="N49" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="216"/>
-      <c r="P49" s="216"/>
-      <c r="Q49" s="216"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
       <c r="R49" s="54" t="s">
         <v>25</v>
       </c>
       <c r="W49" s="50"/>
     </row>
     <row r="50" spans="1:23" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="170" t="s">
+      <c r="A50" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="172"/>
-      <c r="D50" s="185" t="s">
+      <c r="B50" s="141"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="156"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="156"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="156"/>
-      <c r="R50" s="157"/>
+      <c r="E50" s="179"/>
+      <c r="F50" s="179"/>
+      <c r="G50" s="179"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="179"/>
+      <c r="J50" s="179"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="179"/>
+      <c r="M50" s="179"/>
+      <c r="N50" s="179"/>
+      <c r="O50" s="179"/>
+      <c r="P50" s="179"/>
+      <c r="Q50" s="179"/>
+      <c r="R50" s="180"/>
     </row>
     <row r="51" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="173"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="175"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="140"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="140"/>
-      <c r="P51" s="140"/>
-      <c r="Q51" s="140"/>
-      <c r="R51" s="141"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="169"/>
+      <c r="M51" s="169"/>
+      <c r="N51" s="169"/>
+      <c r="O51" s="169"/>
+      <c r="P51" s="169"/>
+      <c r="Q51" s="169"/>
+      <c r="R51" s="170"/>
     </row>
     <row r="52" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="173"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="175"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="168"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="140"/>
-      <c r="L52" s="140"/>
-      <c r="M52" s="140"/>
-      <c r="N52" s="140"/>
-      <c r="O52" s="140"/>
-      <c r="P52" s="140"/>
-      <c r="Q52" s="140"/>
-      <c r="R52" s="141"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="169"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="169"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="169"/>
+      <c r="M52" s="169"/>
+      <c r="N52" s="169"/>
+      <c r="O52" s="169"/>
+      <c r="P52" s="169"/>
+      <c r="Q52" s="169"/>
+      <c r="R52" s="170"/>
     </row>
     <row r="53" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="176"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="178"/>
+      <c r="A53" s="143"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
       <c r="D53" s="168"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="140"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="140"/>
-      <c r="R53" s="141"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="169"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="169"/>
+      <c r="K53" s="169"/>
+      <c r="L53" s="169"/>
+      <c r="M53" s="169"/>
+      <c r="N53" s="169"/>
+      <c r="O53" s="169"/>
+      <c r="P53" s="169"/>
+      <c r="Q53" s="169"/>
+      <c r="R53" s="170"/>
     </row>
     <row r="54" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="176"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="178"/>
+      <c r="A54" s="143"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
       <c r="D54" s="168"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="140"/>
-      <c r="L54" s="140"/>
-      <c r="M54" s="140"/>
-      <c r="N54" s="140"/>
-      <c r="O54" s="140"/>
-      <c r="P54" s="140"/>
-      <c r="Q54" s="140"/>
-      <c r="R54" s="141"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="169"/>
+      <c r="H54" s="169"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="169"/>
+      <c r="K54" s="169"/>
+      <c r="L54" s="169"/>
+      <c r="M54" s="169"/>
+      <c r="N54" s="169"/>
+      <c r="O54" s="169"/>
+      <c r="P54" s="169"/>
+      <c r="Q54" s="169"/>
+      <c r="R54" s="170"/>
     </row>
     <row r="55" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="176"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="178"/>
+      <c r="A55" s="143"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
       <c r="D55" s="168"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="140"/>
-      <c r="L55" s="140"/>
-      <c r="M55" s="140"/>
-      <c r="N55" s="140"/>
-      <c r="O55" s="140"/>
-      <c r="P55" s="140"/>
-      <c r="Q55" s="140"/>
-      <c r="R55" s="141"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="169"/>
+      <c r="M55" s="169"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
+      <c r="R55" s="170"/>
     </row>
     <row r="56" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="179"/>
-      <c r="B56" s="180"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="143"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="143"/>
-      <c r="Q56" s="143"/>
-      <c r="R56" s="144"/>
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="172"/>
+      <c r="L56" s="172"/>
+      <c r="M56" s="172"/>
+      <c r="N56" s="172"/>
+      <c r="O56" s="172"/>
+      <c r="P56" s="172"/>
+      <c r="Q56" s="172"/>
+      <c r="R56" s="173"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="156"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="156"/>
-      <c r="N57" s="156"/>
-      <c r="O57" s="156"/>
-      <c r="P57" s="156"/>
-      <c r="Q57" s="156"/>
-      <c r="R57" s="157"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="179"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="179"/>
+      <c r="H57" s="179"/>
+      <c r="I57" s="179"/>
+      <c r="J57" s="179"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="179"/>
+      <c r="M57" s="179"/>
+      <c r="N57" s="179"/>
+      <c r="O57" s="179"/>
+      <c r="P57" s="179"/>
+      <c r="Q57" s="179"/>
+      <c r="R57" s="180"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="139"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="140"/>
-      <c r="N58" s="140"/>
-      <c r="O58" s="140"/>
-      <c r="P58" s="140"/>
-      <c r="Q58" s="140"/>
-      <c r="R58" s="141"/>
+      <c r="A58" s="186"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="169"/>
+      <c r="H58" s="169"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="169"/>
+      <c r="K58" s="169"/>
+      <c r="L58" s="169"/>
+      <c r="M58" s="169"/>
+      <c r="N58" s="169"/>
+      <c r="O58" s="169"/>
+      <c r="P58" s="169"/>
+      <c r="Q58" s="169"/>
+      <c r="R58" s="170"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="139"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="140"/>
-      <c r="N59" s="140"/>
-      <c r="O59" s="140"/>
-      <c r="P59" s="140"/>
-      <c r="Q59" s="140"/>
-      <c r="R59" s="141"/>
+      <c r="A59" s="186"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="169"/>
+      <c r="H59" s="169"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="169"/>
+      <c r="K59" s="169"/>
+      <c r="L59" s="169"/>
+      <c r="M59" s="169"/>
+      <c r="N59" s="169"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="169"/>
+      <c r="Q59" s="169"/>
+      <c r="R59" s="170"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="139"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="140"/>
-      <c r="N60" s="140"/>
-      <c r="O60" s="140"/>
-      <c r="P60" s="140"/>
-      <c r="Q60" s="140"/>
-      <c r="R60" s="141"/>
+      <c r="A60" s="186"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="169"/>
+      <c r="H60" s="169"/>
+      <c r="I60" s="169"/>
+      <c r="J60" s="169"/>
+      <c r="K60" s="169"/>
+      <c r="L60" s="169"/>
+      <c r="M60" s="169"/>
+      <c r="N60" s="169"/>
+      <c r="O60" s="169"/>
+      <c r="P60" s="169"/>
+      <c r="Q60" s="169"/>
+      <c r="R60" s="170"/>
     </row>
     <row r="61" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="139"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="140"/>
-      <c r="N61" s="140"/>
-      <c r="O61" s="140"/>
-      <c r="P61" s="140"/>
-      <c r="Q61" s="140"/>
-      <c r="R61" s="141"/>
+      <c r="A61" s="186"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="169"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="169"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="169"/>
+      <c r="M61" s="169"/>
+      <c r="N61" s="169"/>
+      <c r="O61" s="169"/>
+      <c r="P61" s="169"/>
+      <c r="Q61" s="169"/>
+      <c r="R61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="139"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="140"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="140"/>
-      <c r="N62" s="140"/>
-      <c r="O62" s="140"/>
-      <c r="P62" s="140"/>
-      <c r="Q62" s="140"/>
-      <c r="R62" s="141"/>
+      <c r="A62" s="186"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="169"/>
+      <c r="Q62" s="169"/>
+      <c r="R62" s="170"/>
     </row>
     <row r="63" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="139"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="140"/>
-      <c r="K63" s="140"/>
-      <c r="L63" s="140"/>
-      <c r="M63" s="140"/>
-      <c r="N63" s="140"/>
-      <c r="O63" s="140"/>
-      <c r="P63" s="140"/>
-      <c r="Q63" s="140"/>
-      <c r="R63" s="141"/>
+      <c r="A63" s="186"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
+      <c r="K63" s="169"/>
+      <c r="L63" s="169"/>
+      <c r="M63" s="169"/>
+      <c r="N63" s="169"/>
+      <c r="O63" s="169"/>
+      <c r="P63" s="169"/>
+      <c r="Q63" s="169"/>
+      <c r="R63" s="170"/>
     </row>
     <row r="64" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="139"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="140"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140"/>
-      <c r="N64" s="140"/>
-      <c r="O64" s="140"/>
-      <c r="P64" s="140"/>
-      <c r="Q64" s="140"/>
-      <c r="R64" s="141"/>
+      <c r="A64" s="186"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="169"/>
+      <c r="H64" s="169"/>
+      <c r="I64" s="169"/>
+      <c r="J64" s="169"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="169"/>
+      <c r="M64" s="169"/>
+      <c r="N64" s="169"/>
+      <c r="O64" s="169"/>
+      <c r="P64" s="169"/>
+      <c r="Q64" s="169"/>
+      <c r="R64" s="170"/>
     </row>
     <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="139"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="140"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="140"/>
-      <c r="N65" s="140"/>
-      <c r="O65" s="140"/>
-      <c r="P65" s="140"/>
-      <c r="Q65" s="140"/>
-      <c r="R65" s="141"/>
+      <c r="A65" s="186"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="169"/>
+      <c r="G65" s="169"/>
+      <c r="H65" s="169"/>
+      <c r="I65" s="169"/>
+      <c r="J65" s="169"/>
+      <c r="K65" s="169"/>
+      <c r="L65" s="169"/>
+      <c r="M65" s="169"/>
+      <c r="N65" s="169"/>
+      <c r="O65" s="169"/>
+      <c r="P65" s="169"/>
+      <c r="Q65" s="169"/>
+      <c r="R65" s="170"/>
     </row>
     <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="139"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="140"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="140"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="140"/>
-      <c r="N66" s="140"/>
-      <c r="O66" s="140"/>
-      <c r="P66" s="140"/>
-      <c r="Q66" s="140"/>
-      <c r="R66" s="141"/>
+      <c r="A66" s="186"/>
+      <c r="B66" s="169"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="169"/>
+      <c r="E66" s="169"/>
+      <c r="F66" s="169"/>
+      <c r="G66" s="169"/>
+      <c r="H66" s="169"/>
+      <c r="I66" s="169"/>
+      <c r="J66" s="169"/>
+      <c r="K66" s="169"/>
+      <c r="L66" s="169"/>
+      <c r="M66" s="169"/>
+      <c r="N66" s="169"/>
+      <c r="O66" s="169"/>
+      <c r="P66" s="169"/>
+      <c r="Q66" s="169"/>
+      <c r="R66" s="170"/>
     </row>
     <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="139"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="140"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="140"/>
-      <c r="K67" s="140"/>
-      <c r="L67" s="140"/>
-      <c r="M67" s="140"/>
-      <c r="N67" s="140"/>
-      <c r="O67" s="140"/>
-      <c r="P67" s="140"/>
-      <c r="Q67" s="140"/>
-      <c r="R67" s="141"/>
+      <c r="A67" s="186"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="169"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="169"/>
+      <c r="J67" s="169"/>
+      <c r="K67" s="169"/>
+      <c r="L67" s="169"/>
+      <c r="M67" s="169"/>
+      <c r="N67" s="169"/>
+      <c r="O67" s="169"/>
+      <c r="P67" s="169"/>
+      <c r="Q67" s="169"/>
+      <c r="R67" s="170"/>
     </row>
     <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="139"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="140"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="140"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="140"/>
-      <c r="N68" s="140"/>
-      <c r="O68" s="140"/>
-      <c r="P68" s="140"/>
-      <c r="Q68" s="140"/>
-      <c r="R68" s="141"/>
+      <c r="A68" s="186"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
+      <c r="E68" s="169"/>
+      <c r="F68" s="169"/>
+      <c r="G68" s="169"/>
+      <c r="H68" s="169"/>
+      <c r="I68" s="169"/>
+      <c r="J68" s="169"/>
+      <c r="K68" s="169"/>
+      <c r="L68" s="169"/>
+      <c r="M68" s="169"/>
+      <c r="N68" s="169"/>
+      <c r="O68" s="169"/>
+      <c r="P68" s="169"/>
+      <c r="Q68" s="169"/>
+      <c r="R68" s="170"/>
     </row>
     <row r="69" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="142"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="143"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="143"/>
-      <c r="F69" s="143"/>
-      <c r="G69" s="143"/>
-      <c r="H69" s="143"/>
-      <c r="I69" s="143"/>
-      <c r="J69" s="143"/>
-      <c r="K69" s="143"/>
-      <c r="L69" s="143"/>
-      <c r="M69" s="143"/>
-      <c r="N69" s="143"/>
-      <c r="O69" s="143"/>
-      <c r="P69" s="143"/>
-      <c r="Q69" s="143"/>
-      <c r="R69" s="144"/>
+      <c r="A69" s="187"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="172"/>
+      <c r="K69" s="172"/>
+      <c r="L69" s="172"/>
+      <c r="M69" s="172"/>
+      <c r="N69" s="172"/>
+      <c r="O69" s="172"/>
+      <c r="P69" s="172"/>
+      <c r="Q69" s="172"/>
+      <c r="R69" s="173"/>
     </row>
     <row r="70" spans="1:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
@@ -7679,348 +7753,350 @@
       <c r="R70" s="33"/>
     </row>
     <row r="71" spans="1:18" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="155" t="s">
+      <c r="A71" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="156"/>
-      <c r="K71" s="156"/>
-      <c r="L71" s="156"/>
-      <c r="M71" s="156"/>
-      <c r="N71" s="156"/>
-      <c r="O71" s="156"/>
-      <c r="P71" s="156"/>
-      <c r="Q71" s="156"/>
-      <c r="R71" s="157"/>
+      <c r="B71" s="179"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="179"/>
+      <c r="E71" s="179"/>
+      <c r="F71" s="179"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="179"/>
+      <c r="J71" s="179"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="179"/>
+      <c r="M71" s="179"/>
+      <c r="N71" s="179"/>
+      <c r="O71" s="179"/>
+      <c r="P71" s="179"/>
+      <c r="Q71" s="179"/>
+      <c r="R71" s="180"/>
     </row>
     <row r="72" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="139"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="140"/>
-      <c r="P72" s="140"/>
-      <c r="Q72" s="140"/>
-      <c r="R72" s="141"/>
+      <c r="A72" s="186" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="169"/>
+      <c r="C72" s="169"/>
+      <c r="D72" s="169"/>
+      <c r="E72" s="169"/>
+      <c r="F72" s="169"/>
+      <c r="G72" s="169"/>
+      <c r="H72" s="169"/>
+      <c r="I72" s="169"/>
+      <c r="J72" s="169"/>
+      <c r="K72" s="169"/>
+      <c r="L72" s="169"/>
+      <c r="M72" s="169"/>
+      <c r="N72" s="169"/>
+      <c r="O72" s="169"/>
+      <c r="P72" s="169"/>
+      <c r="Q72" s="169"/>
+      <c r="R72" s="170"/>
     </row>
     <row r="73" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="139"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="140"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="140"/>
-      <c r="H73" s="140"/>
-      <c r="I73" s="140"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="140"/>
-      <c r="L73" s="140"/>
-      <c r="M73" s="140"/>
-      <c r="N73" s="140"/>
-      <c r="O73" s="140"/>
-      <c r="P73" s="140"/>
-      <c r="Q73" s="140"/>
-      <c r="R73" s="141"/>
+      <c r="A73" s="186"/>
+      <c r="B73" s="169"/>
+      <c r="C73" s="169"/>
+      <c r="D73" s="169"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="169"/>
+      <c r="G73" s="169"/>
+      <c r="H73" s="169"/>
+      <c r="I73" s="169"/>
+      <c r="J73" s="169"/>
+      <c r="K73" s="169"/>
+      <c r="L73" s="169"/>
+      <c r="M73" s="169"/>
+      <c r="N73" s="169"/>
+      <c r="O73" s="169"/>
+      <c r="P73" s="169"/>
+      <c r="Q73" s="169"/>
+      <c r="R73" s="170"/>
     </row>
     <row r="74" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="139"/>
-      <c r="B74" s="140"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="140"/>
-      <c r="K74" s="140"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="140"/>
-      <c r="O74" s="140"/>
-      <c r="P74" s="140"/>
-      <c r="Q74" s="140"/>
-      <c r="R74" s="141"/>
+      <c r="A74" s="186"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="169"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="169"/>
+      <c r="G74" s="169"/>
+      <c r="H74" s="169"/>
+      <c r="I74" s="169"/>
+      <c r="J74" s="169"/>
+      <c r="K74" s="169"/>
+      <c r="L74" s="169"/>
+      <c r="M74" s="169"/>
+      <c r="N74" s="169"/>
+      <c r="O74" s="169"/>
+      <c r="P74" s="169"/>
+      <c r="Q74" s="169"/>
+      <c r="R74" s="170"/>
     </row>
     <row r="75" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="139"/>
-      <c r="B75" s="140"/>
-      <c r="C75" s="140"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="140"/>
-      <c r="N75" s="140"/>
-      <c r="O75" s="140"/>
-      <c r="P75" s="140"/>
-      <c r="Q75" s="140"/>
-      <c r="R75" s="141"/>
+      <c r="A75" s="186"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="169"/>
+      <c r="D75" s="169"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="169"/>
+      <c r="G75" s="169"/>
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="169"/>
+      <c r="K75" s="169"/>
+      <c r="L75" s="169"/>
+      <c r="M75" s="169"/>
+      <c r="N75" s="169"/>
+      <c r="O75" s="169"/>
+      <c r="P75" s="169"/>
+      <c r="Q75" s="169"/>
+      <c r="R75" s="170"/>
     </row>
     <row r="76" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="139"/>
-      <c r="B76" s="140"/>
-      <c r="C76" s="140"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="140"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="140"/>
-      <c r="H76" s="140"/>
-      <c r="I76" s="140"/>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="140"/>
-      <c r="N76" s="140"/>
-      <c r="O76" s="140"/>
-      <c r="P76" s="140"/>
-      <c r="Q76" s="140"/>
-      <c r="R76" s="141"/>
+      <c r="A76" s="186"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="169"/>
+      <c r="L76" s="169"/>
+      <c r="M76" s="169"/>
+      <c r="N76" s="169"/>
+      <c r="O76" s="169"/>
+      <c r="P76" s="169"/>
+      <c r="Q76" s="169"/>
+      <c r="R76" s="170"/>
     </row>
     <row r="77" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="139"/>
-      <c r="B77" s="140"/>
-      <c r="C77" s="140"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="140"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="140"/>
-      <c r="H77" s="140"/>
-      <c r="I77" s="140"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="140"/>
-      <c r="L77" s="140"/>
-      <c r="M77" s="140"/>
-      <c r="N77" s="140"/>
-      <c r="O77" s="140"/>
-      <c r="P77" s="140"/>
-      <c r="Q77" s="140"/>
-      <c r="R77" s="141"/>
+      <c r="A77" s="186"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="169"/>
+      <c r="F77" s="169"/>
+      <c r="G77" s="169"/>
+      <c r="H77" s="169"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="169"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="169"/>
+      <c r="M77" s="169"/>
+      <c r="N77" s="169"/>
+      <c r="O77" s="169"/>
+      <c r="P77" s="169"/>
+      <c r="Q77" s="169"/>
+      <c r="R77" s="170"/>
     </row>
     <row r="78" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="139"/>
-      <c r="B78" s="140"/>
-      <c r="C78" s="140"/>
-      <c r="D78" s="140"/>
-      <c r="E78" s="140"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="140"/>
-      <c r="I78" s="140"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="140"/>
-      <c r="O78" s="140"/>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="140"/>
-      <c r="R78" s="141"/>
+      <c r="A78" s="186"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
+      <c r="E78" s="169"/>
+      <c r="F78" s="169"/>
+      <c r="G78" s="169"/>
+      <c r="H78" s="169"/>
+      <c r="I78" s="169"/>
+      <c r="J78" s="169"/>
+      <c r="K78" s="169"/>
+      <c r="L78" s="169"/>
+      <c r="M78" s="169"/>
+      <c r="N78" s="169"/>
+      <c r="O78" s="169"/>
+      <c r="P78" s="169"/>
+      <c r="Q78" s="169"/>
+      <c r="R78" s="170"/>
     </row>
     <row r="79" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="139"/>
-      <c r="B79" s="140"/>
-      <c r="C79" s="140"/>
-      <c r="D79" s="140"/>
-      <c r="E79" s="140"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="140"/>
-      <c r="H79" s="140"/>
-      <c r="I79" s="140"/>
-      <c r="J79" s="140"/>
-      <c r="K79" s="140"/>
-      <c r="L79" s="140"/>
-      <c r="M79" s="140"/>
-      <c r="N79" s="140"/>
-      <c r="O79" s="140"/>
-      <c r="P79" s="140"/>
-      <c r="Q79" s="140"/>
-      <c r="R79" s="141"/>
+      <c r="A79" s="186"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="169"/>
+      <c r="H79" s="169"/>
+      <c r="I79" s="169"/>
+      <c r="J79" s="169"/>
+      <c r="K79" s="169"/>
+      <c r="L79" s="169"/>
+      <c r="M79" s="169"/>
+      <c r="N79" s="169"/>
+      <c r="O79" s="169"/>
+      <c r="P79" s="169"/>
+      <c r="Q79" s="169"/>
+      <c r="R79" s="170"/>
     </row>
     <row r="80" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="139"/>
-      <c r="B80" s="140"/>
-      <c r="C80" s="140"/>
-      <c r="D80" s="140"/>
-      <c r="E80" s="140"/>
-      <c r="F80" s="140"/>
-      <c r="G80" s="140"/>
-      <c r="H80" s="140"/>
-      <c r="I80" s="140"/>
-      <c r="J80" s="140"/>
-      <c r="K80" s="140"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140"/>
-      <c r="N80" s="140"/>
-      <c r="O80" s="140"/>
-      <c r="P80" s="140"/>
-      <c r="Q80" s="140"/>
-      <c r="R80" s="141"/>
+      <c r="A80" s="186"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="169"/>
+      <c r="F80" s="169"/>
+      <c r="G80" s="169"/>
+      <c r="H80" s="169"/>
+      <c r="I80" s="169"/>
+      <c r="J80" s="169"/>
+      <c r="K80" s="169"/>
+      <c r="L80" s="169"/>
+      <c r="M80" s="169"/>
+      <c r="N80" s="169"/>
+      <c r="O80" s="169"/>
+      <c r="P80" s="169"/>
+      <c r="Q80" s="169"/>
+      <c r="R80" s="170"/>
     </row>
     <row r="81" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="139"/>
-      <c r="B81" s="140"/>
-      <c r="C81" s="140"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="140"/>
-      <c r="F81" s="140"/>
-      <c r="G81" s="140"/>
-      <c r="H81" s="140"/>
-      <c r="I81" s="140"/>
-      <c r="J81" s="140"/>
-      <c r="K81" s="140"/>
-      <c r="L81" s="140"/>
-      <c r="M81" s="140"/>
-      <c r="N81" s="140"/>
-      <c r="O81" s="140"/>
-      <c r="P81" s="140"/>
-      <c r="Q81" s="140"/>
-      <c r="R81" s="141"/>
+      <c r="A81" s="186"/>
+      <c r="B81" s="169"/>
+      <c r="C81" s="169"/>
+      <c r="D81" s="169"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="169"/>
+      <c r="G81" s="169"/>
+      <c r="H81" s="169"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="169"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="169"/>
+      <c r="M81" s="169"/>
+      <c r="N81" s="169"/>
+      <c r="O81" s="169"/>
+      <c r="P81" s="169"/>
+      <c r="Q81" s="169"/>
+      <c r="R81" s="170"/>
     </row>
     <row r="82" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="139"/>
-      <c r="B82" s="140"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="140"/>
-      <c r="H82" s="140"/>
-      <c r="I82" s="140"/>
-      <c r="J82" s="140"/>
-      <c r="K82" s="140"/>
-      <c r="L82" s="140"/>
-      <c r="M82" s="140"/>
-      <c r="N82" s="140"/>
-      <c r="O82" s="140"/>
-      <c r="P82" s="140"/>
-      <c r="Q82" s="140"/>
-      <c r="R82" s="141"/>
+      <c r="A82" s="186"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="169"/>
+      <c r="G82" s="169"/>
+      <c r="H82" s="169"/>
+      <c r="I82" s="169"/>
+      <c r="J82" s="169"/>
+      <c r="K82" s="169"/>
+      <c r="L82" s="169"/>
+      <c r="M82" s="169"/>
+      <c r="N82" s="169"/>
+      <c r="O82" s="169"/>
+      <c r="P82" s="169"/>
+      <c r="Q82" s="169"/>
+      <c r="R82" s="170"/>
     </row>
     <row r="83" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="139"/>
-      <c r="B83" s="140"/>
-      <c r="C83" s="140"/>
-      <c r="D83" s="140"/>
-      <c r="E83" s="140"/>
-      <c r="F83" s="140"/>
-      <c r="G83" s="140"/>
-      <c r="H83" s="140"/>
-      <c r="I83" s="140"/>
-      <c r="J83" s="140"/>
-      <c r="K83" s="140"/>
-      <c r="L83" s="140"/>
-      <c r="M83" s="140"/>
-      <c r="N83" s="140"/>
-      <c r="O83" s="140"/>
-      <c r="P83" s="140"/>
-      <c r="Q83" s="140"/>
-      <c r="R83" s="141"/>
+      <c r="A83" s="186"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="169"/>
+      <c r="D83" s="169"/>
+      <c r="E83" s="169"/>
+      <c r="F83" s="169"/>
+      <c r="G83" s="169"/>
+      <c r="H83" s="169"/>
+      <c r="I83" s="169"/>
+      <c r="J83" s="169"/>
+      <c r="K83" s="169"/>
+      <c r="L83" s="169"/>
+      <c r="M83" s="169"/>
+      <c r="N83" s="169"/>
+      <c r="O83" s="169"/>
+      <c r="P83" s="169"/>
+      <c r="Q83" s="169"/>
+      <c r="R83" s="170"/>
     </row>
     <row r="84" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="139"/>
-      <c r="B84" s="140"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="140"/>
-      <c r="G84" s="140"/>
-      <c r="H84" s="140"/>
-      <c r="I84" s="140"/>
-      <c r="J84" s="140"/>
-      <c r="K84" s="140"/>
-      <c r="L84" s="140"/>
-      <c r="M84" s="140"/>
-      <c r="N84" s="140"/>
-      <c r="O84" s="140"/>
-      <c r="P84" s="140"/>
-      <c r="Q84" s="140"/>
-      <c r="R84" s="141"/>
+      <c r="A84" s="186"/>
+      <c r="B84" s="169"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="169"/>
+      <c r="G84" s="169"/>
+      <c r="H84" s="169"/>
+      <c r="I84" s="169"/>
+      <c r="J84" s="169"/>
+      <c r="K84" s="169"/>
+      <c r="L84" s="169"/>
+      <c r="M84" s="169"/>
+      <c r="N84" s="169"/>
+      <c r="O84" s="169"/>
+      <c r="P84" s="169"/>
+      <c r="Q84" s="169"/>
+      <c r="R84" s="170"/>
     </row>
     <row r="85" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="139"/>
-      <c r="B85" s="140"/>
-      <c r="C85" s="140"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="140"/>
-      <c r="F85" s="140"/>
-      <c r="G85" s="140"/>
-      <c r="H85" s="140"/>
-      <c r="I85" s="140"/>
-      <c r="J85" s="140"/>
-      <c r="K85" s="140"/>
-      <c r="L85" s="140"/>
-      <c r="M85" s="140"/>
-      <c r="N85" s="140"/>
-      <c r="O85" s="140"/>
-      <c r="P85" s="140"/>
-      <c r="Q85" s="140"/>
-      <c r="R85" s="141"/>
+      <c r="A85" s="186"/>
+      <c r="B85" s="169"/>
+      <c r="C85" s="169"/>
+      <c r="D85" s="169"/>
+      <c r="E85" s="169"/>
+      <c r="F85" s="169"/>
+      <c r="G85" s="169"/>
+      <c r="H85" s="169"/>
+      <c r="I85" s="169"/>
+      <c r="J85" s="169"/>
+      <c r="K85" s="169"/>
+      <c r="L85" s="169"/>
+      <c r="M85" s="169"/>
+      <c r="N85" s="169"/>
+      <c r="O85" s="169"/>
+      <c r="P85" s="169"/>
+      <c r="Q85" s="169"/>
+      <c r="R85" s="170"/>
     </row>
     <row r="86" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="145"/>
-      <c r="B86" s="146"/>
-      <c r="C86" s="146"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="146"/>
-      <c r="I86" s="146"/>
-      <c r="J86" s="146"/>
-      <c r="K86" s="146"/>
-      <c r="L86" s="146"/>
-      <c r="M86" s="146"/>
-      <c r="N86" s="146"/>
-      <c r="O86" s="146"/>
-      <c r="P86" s="146"/>
-      <c r="Q86" s="146"/>
-      <c r="R86" s="147"/>
+      <c r="A86" s="188"/>
+      <c r="B86" s="189"/>
+      <c r="C86" s="189"/>
+      <c r="D86" s="189"/>
+      <c r="E86" s="189"/>
+      <c r="F86" s="189"/>
+      <c r="G86" s="189"/>
+      <c r="H86" s="189"/>
+      <c r="I86" s="189"/>
+      <c r="J86" s="189"/>
+      <c r="K86" s="189"/>
+      <c r="L86" s="189"/>
+      <c r="M86" s="189"/>
+      <c r="N86" s="189"/>
+      <c r="O86" s="189"/>
+      <c r="P86" s="189"/>
+      <c r="Q86" s="189"/>
+      <c r="R86" s="190"/>
     </row>
     <row r="87" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="152" t="s">
+      <c r="A87" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="153"/>
-      <c r="C87" s="153"/>
-      <c r="D87" s="153"/>
-      <c r="E87" s="153"/>
-      <c r="F87" s="153"/>
-      <c r="G87" s="153"/>
-      <c r="H87" s="153"/>
-      <c r="I87" s="153"/>
-      <c r="J87" s="153"/>
-      <c r="K87" s="153"/>
-      <c r="L87" s="153"/>
-      <c r="M87" s="153"/>
-      <c r="N87" s="153"/>
-      <c r="O87" s="153"/>
-      <c r="P87" s="153"/>
-      <c r="Q87" s="153"/>
-      <c r="R87" s="154"/>
+      <c r="B87" s="192"/>
+      <c r="C87" s="192"/>
+      <c r="D87" s="192"/>
+      <c r="E87" s="192"/>
+      <c r="F87" s="192"/>
+      <c r="G87" s="192"/>
+      <c r="H87" s="192"/>
+      <c r="I87" s="192"/>
+      <c r="J87" s="192"/>
+      <c r="K87" s="192"/>
+      <c r="L87" s="192"/>
+      <c r="M87" s="192"/>
+      <c r="N87" s="192"/>
+      <c r="O87" s="192"/>
+      <c r="P87" s="192"/>
+      <c r="Q87" s="192"/>
+      <c r="R87" s="193"/>
     </row>
     <row r="88" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="56"/>
@@ -8283,22 +8359,22 @@
       <c r="R99" s="9"/>
     </row>
     <row r="100" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="148" t="s">
+      <c r="A100" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="149"/>
-      <c r="C100" s="150" t="s">
+      <c r="B100" s="159"/>
+      <c r="C100" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="151" t="s">
+      <c r="D100" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="151"/>
-      <c r="F100" s="151"/>
-      <c r="G100" s="151"/>
-      <c r="H100" s="151"/>
-      <c r="I100" s="151"/>
-      <c r="J100" s="150" t="s">
+      <c r="E100" s="163"/>
+      <c r="F100" s="163"/>
+      <c r="G100" s="163"/>
+      <c r="H100" s="163"/>
+      <c r="I100" s="163"/>
+      <c r="J100" s="161" t="s">
         <v>39</v>
       </c>
       <c r="K100" s="3"/>
@@ -8311,16 +8387,16 @@
       <c r="R100" s="9"/>
     </row>
     <row r="101" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="148"/>
-      <c r="B101" s="149"/>
-      <c r="C101" s="150"/>
-      <c r="D101" s="151"/>
-      <c r="E101" s="151"/>
-      <c r="F101" s="151"/>
-      <c r="G101" s="151"/>
-      <c r="H101" s="151"/>
-      <c r="I101" s="151"/>
-      <c r="J101" s="150"/>
+      <c r="A101" s="158"/>
+      <c r="B101" s="159"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="163"/>
+      <c r="E101" s="163"/>
+      <c r="F101" s="163"/>
+      <c r="G101" s="163"/>
+      <c r="H101" s="163"/>
+      <c r="I101" s="163"/>
+      <c r="J101" s="161"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -8331,126 +8407,126 @@
       <c r="R101" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="148" t="s">
+      <c r="A102" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="149"/>
-      <c r="C102" s="158" t="s">
+      <c r="B102" s="159"/>
+      <c r="C102" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="158"/>
-      <c r="E102" s="158"/>
-      <c r="F102" s="158"/>
-      <c r="G102" s="158"/>
-      <c r="H102" s="158"/>
-      <c r="I102" s="158"/>
-      <c r="J102" s="158"/>
-      <c r="K102" s="158"/>
-      <c r="L102" s="158"/>
-      <c r="M102" s="158"/>
-      <c r="N102" s="158"/>
-      <c r="O102" s="158"/>
-      <c r="P102" s="158"/>
-      <c r="Q102" s="158"/>
-      <c r="R102" s="159"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
+      <c r="G102" s="111"/>
+      <c r="H102" s="111"/>
+      <c r="I102" s="111"/>
+      <c r="J102" s="111"/>
+      <c r="K102" s="111"/>
+      <c r="L102" s="111"/>
+      <c r="M102" s="111"/>
+      <c r="N102" s="111"/>
+      <c r="O102" s="111"/>
+      <c r="P102" s="111"/>
+      <c r="Q102" s="111"/>
+      <c r="R102" s="112"/>
     </row>
     <row r="103" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="148"/>
-      <c r="B103" s="149"/>
-      <c r="C103" s="158"/>
-      <c r="D103" s="158"/>
-      <c r="E103" s="158"/>
-      <c r="F103" s="158"/>
-      <c r="G103" s="158"/>
-      <c r="H103" s="158"/>
-      <c r="I103" s="158"/>
-      <c r="J103" s="158"/>
-      <c r="K103" s="158"/>
-      <c r="L103" s="158"/>
-      <c r="M103" s="158"/>
-      <c r="N103" s="158"/>
-      <c r="O103" s="158"/>
-      <c r="P103" s="158"/>
-      <c r="Q103" s="158"/>
-      <c r="R103" s="159"/>
+      <c r="A103" s="158"/>
+      <c r="B103" s="159"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="111"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="111"/>
+      <c r="K103" s="111"/>
+      <c r="L103" s="111"/>
+      <c r="M103" s="111"/>
+      <c r="N103" s="111"/>
+      <c r="O103" s="111"/>
+      <c r="P103" s="111"/>
+      <c r="Q103" s="111"/>
+      <c r="R103" s="112"/>
     </row>
     <row r="104" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="56"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="158"/>
-      <c r="D104" s="158"/>
-      <c r="E104" s="158"/>
-      <c r="F104" s="158"/>
-      <c r="G104" s="158"/>
-      <c r="H104" s="158"/>
-      <c r="I104" s="158"/>
-      <c r="J104" s="158"/>
-      <c r="K104" s="158"/>
-      <c r="L104" s="158"/>
-      <c r="M104" s="158"/>
-      <c r="N104" s="158"/>
-      <c r="O104" s="158"/>
-      <c r="P104" s="158"/>
-      <c r="Q104" s="158"/>
-      <c r="R104" s="159"/>
+      <c r="C104" s="111"/>
+      <c r="D104" s="111"/>
+      <c r="E104" s="111"/>
+      <c r="F104" s="111"/>
+      <c r="G104" s="111"/>
+      <c r="H104" s="111"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="111"/>
+      <c r="K104" s="111"/>
+      <c r="L104" s="111"/>
+      <c r="M104" s="111"/>
+      <c r="N104" s="111"/>
+      <c r="O104" s="111"/>
+      <c r="P104" s="111"/>
+      <c r="Q104" s="111"/>
+      <c r="R104" s="112"/>
     </row>
     <row r="105" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="56"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="158"/>
-      <c r="D105" s="158"/>
-      <c r="E105" s="158"/>
-      <c r="F105" s="158"/>
-      <c r="G105" s="158"/>
-      <c r="H105" s="158"/>
-      <c r="I105" s="158"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="158"/>
-      <c r="L105" s="158"/>
-      <c r="M105" s="158"/>
-      <c r="N105" s="158"/>
-      <c r="O105" s="158"/>
-      <c r="P105" s="158"/>
-      <c r="Q105" s="158"/>
-      <c r="R105" s="159"/>
+      <c r="C105" s="111"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="111"/>
+      <c r="G105" s="111"/>
+      <c r="H105" s="111"/>
+      <c r="I105" s="111"/>
+      <c r="J105" s="111"/>
+      <c r="K105" s="111"/>
+      <c r="L105" s="111"/>
+      <c r="M105" s="111"/>
+      <c r="N105" s="111"/>
+      <c r="O105" s="111"/>
+      <c r="P105" s="111"/>
+      <c r="Q105" s="111"/>
+      <c r="R105" s="112"/>
     </row>
     <row r="106" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="65"/>
       <c r="B106" s="66"/>
-      <c r="C106" s="166"/>
-      <c r="D106" s="166"/>
-      <c r="E106" s="166"/>
-      <c r="F106" s="166"/>
-      <c r="G106" s="166"/>
-      <c r="H106" s="166"/>
-      <c r="I106" s="166"/>
-      <c r="J106" s="166"/>
-      <c r="K106" s="166"/>
-      <c r="L106" s="166"/>
-      <c r="M106" s="166"/>
-      <c r="N106" s="166"/>
-      <c r="O106" s="166"/>
-      <c r="P106" s="166"/>
-      <c r="Q106" s="166"/>
-      <c r="R106" s="167"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="154"/>
+      <c r="F106" s="154"/>
+      <c r="G106" s="154"/>
+      <c r="H106" s="154"/>
+      <c r="I106" s="154"/>
+      <c r="J106" s="154"/>
+      <c r="K106" s="154"/>
+      <c r="L106" s="154"/>
+      <c r="M106" s="154"/>
+      <c r="N106" s="154"/>
+      <c r="O106" s="154"/>
+      <c r="P106" s="154"/>
+      <c r="Q106" s="154"/>
+      <c r="R106" s="155"/>
     </row>
     <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="191" t="s">
+      <c r="A107" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="192"/>
-      <c r="C107" s="193" t="s">
+      <c r="B107" s="157"/>
+      <c r="C107" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="194" t="s">
+      <c r="D107" s="162" t="s">
         <v>86</v>
       </c>
-      <c r="E107" s="194"/>
-      <c r="F107" s="194"/>
-      <c r="G107" s="194"/>
-      <c r="H107" s="194"/>
-      <c r="I107" s="194"/>
-      <c r="J107" s="193" t="s">
+      <c r="E107" s="162"/>
+      <c r="F107" s="162"/>
+      <c r="G107" s="162"/>
+      <c r="H107" s="162"/>
+      <c r="I107" s="162"/>
+      <c r="J107" s="160" t="s">
         <v>39</v>
       </c>
       <c r="K107" s="67"/>
@@ -8463,16 +8539,16 @@
       <c r="R107" s="8"/>
     </row>
     <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="148"/>
-      <c r="B108" s="149"/>
-      <c r="C108" s="150"/>
-      <c r="D108" s="151"/>
-      <c r="E108" s="151"/>
-      <c r="F108" s="151"/>
-      <c r="G108" s="151"/>
-      <c r="H108" s="151"/>
-      <c r="I108" s="151"/>
-      <c r="J108" s="150"/>
+      <c r="A108" s="158"/>
+      <c r="B108" s="159"/>
+      <c r="C108" s="161"/>
+      <c r="D108" s="163"/>
+      <c r="E108" s="163"/>
+      <c r="F108" s="163"/>
+      <c r="G108" s="163"/>
+      <c r="H108" s="163"/>
+      <c r="I108" s="163"/>
+      <c r="J108" s="161"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -8483,126 +8559,126 @@
       <c r="R108" s="9"/>
     </row>
     <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="148" t="s">
+      <c r="A109" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="149"/>
-      <c r="C109" s="158" t="s">
+      <c r="B109" s="159"/>
+      <c r="C109" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="158"/>
-      <c r="E109" s="158"/>
-      <c r="F109" s="158"/>
-      <c r="G109" s="158"/>
-      <c r="H109" s="158"/>
-      <c r="I109" s="158"/>
-      <c r="J109" s="158"/>
-      <c r="K109" s="158"/>
-      <c r="L109" s="158"/>
-      <c r="M109" s="158"/>
-      <c r="N109" s="158"/>
-      <c r="O109" s="158"/>
-      <c r="P109" s="158"/>
-      <c r="Q109" s="158"/>
-      <c r="R109" s="159"/>
+      <c r="D109" s="111"/>
+      <c r="E109" s="111"/>
+      <c r="F109" s="111"/>
+      <c r="G109" s="111"/>
+      <c r="H109" s="111"/>
+      <c r="I109" s="111"/>
+      <c r="J109" s="111"/>
+      <c r="K109" s="111"/>
+      <c r="L109" s="111"/>
+      <c r="M109" s="111"/>
+      <c r="N109" s="111"/>
+      <c r="O109" s="111"/>
+      <c r="P109" s="111"/>
+      <c r="Q109" s="111"/>
+      <c r="R109" s="112"/>
     </row>
     <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="148"/>
-      <c r="B110" s="149"/>
-      <c r="C110" s="158"/>
-      <c r="D110" s="158"/>
-      <c r="E110" s="158"/>
-      <c r="F110" s="158"/>
-      <c r="G110" s="158"/>
-      <c r="H110" s="158"/>
-      <c r="I110" s="158"/>
-      <c r="J110" s="158"/>
-      <c r="K110" s="158"/>
-      <c r="L110" s="158"/>
-      <c r="M110" s="158"/>
-      <c r="N110" s="158"/>
-      <c r="O110" s="158"/>
-      <c r="P110" s="158"/>
-      <c r="Q110" s="158"/>
-      <c r="R110" s="159"/>
+      <c r="A110" s="158"/>
+      <c r="B110" s="159"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="111"/>
+      <c r="I110" s="111"/>
+      <c r="J110" s="111"/>
+      <c r="K110" s="111"/>
+      <c r="L110" s="111"/>
+      <c r="M110" s="111"/>
+      <c r="N110" s="111"/>
+      <c r="O110" s="111"/>
+      <c r="P110" s="111"/>
+      <c r="Q110" s="111"/>
+      <c r="R110" s="112"/>
     </row>
     <row r="111" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="56"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="158"/>
-      <c r="D111" s="158"/>
-      <c r="E111" s="158"/>
-      <c r="F111" s="158"/>
-      <c r="G111" s="158"/>
-      <c r="H111" s="158"/>
-      <c r="I111" s="158"/>
-      <c r="J111" s="158"/>
-      <c r="K111" s="158"/>
-      <c r="L111" s="158"/>
-      <c r="M111" s="158"/>
-      <c r="N111" s="158"/>
-      <c r="O111" s="158"/>
-      <c r="P111" s="158"/>
-      <c r="Q111" s="158"/>
-      <c r="R111" s="159"/>
+      <c r="C111" s="111"/>
+      <c r="D111" s="111"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="111"/>
+      <c r="G111" s="111"/>
+      <c r="H111" s="111"/>
+      <c r="I111" s="111"/>
+      <c r="J111" s="111"/>
+      <c r="K111" s="111"/>
+      <c r="L111" s="111"/>
+      <c r="M111" s="111"/>
+      <c r="N111" s="111"/>
+      <c r="O111" s="111"/>
+      <c r="P111" s="111"/>
+      <c r="Q111" s="111"/>
+      <c r="R111" s="112"/>
     </row>
     <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="56"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="158"/>
-      <c r="D112" s="158"/>
-      <c r="E112" s="158"/>
-      <c r="F112" s="158"/>
-      <c r="G112" s="158"/>
-      <c r="H112" s="158"/>
-      <c r="I112" s="158"/>
-      <c r="J112" s="158"/>
-      <c r="K112" s="158"/>
-      <c r="L112" s="158"/>
-      <c r="M112" s="158"/>
-      <c r="N112" s="158"/>
-      <c r="O112" s="158"/>
-      <c r="P112" s="158"/>
-      <c r="Q112" s="158"/>
-      <c r="R112" s="159"/>
+      <c r="C112" s="111"/>
+      <c r="D112" s="111"/>
+      <c r="E112" s="111"/>
+      <c r="F112" s="111"/>
+      <c r="G112" s="111"/>
+      <c r="H112" s="111"/>
+      <c r="I112" s="111"/>
+      <c r="J112" s="111"/>
+      <c r="K112" s="111"/>
+      <c r="L112" s="111"/>
+      <c r="M112" s="111"/>
+      <c r="N112" s="111"/>
+      <c r="O112" s="111"/>
+      <c r="P112" s="111"/>
+      <c r="Q112" s="111"/>
+      <c r="R112" s="112"/>
     </row>
     <row r="113" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="65"/>
       <c r="B113" s="66"/>
-      <c r="C113" s="166"/>
-      <c r="D113" s="166"/>
-      <c r="E113" s="166"/>
-      <c r="F113" s="166"/>
-      <c r="G113" s="166"/>
-      <c r="H113" s="166"/>
-      <c r="I113" s="166"/>
-      <c r="J113" s="166"/>
-      <c r="K113" s="166"/>
-      <c r="L113" s="166"/>
-      <c r="M113" s="166"/>
-      <c r="N113" s="166"/>
-      <c r="O113" s="166"/>
-      <c r="P113" s="166"/>
-      <c r="Q113" s="166"/>
-      <c r="R113" s="167"/>
+      <c r="C113" s="154"/>
+      <c r="D113" s="154"/>
+      <c r="E113" s="154"/>
+      <c r="F113" s="154"/>
+      <c r="G113" s="154"/>
+      <c r="H113" s="154"/>
+      <c r="I113" s="154"/>
+      <c r="J113" s="154"/>
+      <c r="K113" s="154"/>
+      <c r="L113" s="154"/>
+      <c r="M113" s="154"/>
+      <c r="N113" s="154"/>
+      <c r="O113" s="154"/>
+      <c r="P113" s="154"/>
+      <c r="Q113" s="154"/>
+      <c r="R113" s="155"/>
     </row>
     <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="191" t="s">
+      <c r="A114" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="192"/>
-      <c r="C114" s="193" t="s">
+      <c r="B114" s="157"/>
+      <c r="C114" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="194" t="s">
+      <c r="D114" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="E114" s="194"/>
-      <c r="F114" s="194"/>
-      <c r="G114" s="194"/>
-      <c r="H114" s="194"/>
-      <c r="I114" s="194"/>
-      <c r="J114" s="193" t="s">
+      <c r="E114" s="162"/>
+      <c r="F114" s="162"/>
+      <c r="G114" s="162"/>
+      <c r="H114" s="162"/>
+      <c r="I114" s="162"/>
+      <c r="J114" s="160" t="s">
         <v>39</v>
       </c>
       <c r="K114" s="67"/>
@@ -8615,16 +8691,16 @@
       <c r="R114" s="8"/>
     </row>
     <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="148"/>
-      <c r="B115" s="149"/>
-      <c r="C115" s="150"/>
-      <c r="D115" s="151"/>
-      <c r="E115" s="151"/>
-      <c r="F115" s="151"/>
-      <c r="G115" s="151"/>
-      <c r="H115" s="151"/>
-      <c r="I115" s="151"/>
-      <c r="J115" s="150"/>
+      <c r="A115" s="158"/>
+      <c r="B115" s="159"/>
+      <c r="C115" s="161"/>
+      <c r="D115" s="163"/>
+      <c r="E115" s="163"/>
+      <c r="F115" s="163"/>
+      <c r="G115" s="163"/>
+      <c r="H115" s="163"/>
+      <c r="I115" s="163"/>
+      <c r="J115" s="161"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -8635,108 +8711,108 @@
       <c r="R115" s="9"/>
     </row>
     <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="148" t="s">
+      <c r="A116" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B116" s="149"/>
-      <c r="C116" s="158" t="s">
+      <c r="B116" s="159"/>
+      <c r="C116" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="D116" s="158"/>
-      <c r="E116" s="158"/>
-      <c r="F116" s="158"/>
-      <c r="G116" s="158"/>
-      <c r="H116" s="158"/>
-      <c r="I116" s="158"/>
-      <c r="J116" s="158"/>
-      <c r="K116" s="158"/>
-      <c r="L116" s="158"/>
-      <c r="M116" s="158"/>
-      <c r="N116" s="158"/>
-      <c r="O116" s="158"/>
-      <c r="P116" s="158"/>
-      <c r="Q116" s="158"/>
-      <c r="R116" s="159"/>
+      <c r="D116" s="111"/>
+      <c r="E116" s="111"/>
+      <c r="F116" s="111"/>
+      <c r="G116" s="111"/>
+      <c r="H116" s="111"/>
+      <c r="I116" s="111"/>
+      <c r="J116" s="111"/>
+      <c r="K116" s="111"/>
+      <c r="L116" s="111"/>
+      <c r="M116" s="111"/>
+      <c r="N116" s="111"/>
+      <c r="O116" s="111"/>
+      <c r="P116" s="111"/>
+      <c r="Q116" s="111"/>
+      <c r="R116" s="112"/>
     </row>
     <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="148"/>
-      <c r="B117" s="149"/>
-      <c r="C117" s="158"/>
-      <c r="D117" s="158"/>
-      <c r="E117" s="158"/>
-      <c r="F117" s="158"/>
-      <c r="G117" s="158"/>
-      <c r="H117" s="158"/>
-      <c r="I117" s="158"/>
-      <c r="J117" s="158"/>
-      <c r="K117" s="158"/>
-      <c r="L117" s="158"/>
-      <c r="M117" s="158"/>
-      <c r="N117" s="158"/>
-      <c r="O117" s="158"/>
-      <c r="P117" s="158"/>
-      <c r="Q117" s="158"/>
-      <c r="R117" s="159"/>
+      <c r="A117" s="158"/>
+      <c r="B117" s="159"/>
+      <c r="C117" s="111"/>
+      <c r="D117" s="111"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="111"/>
+      <c r="G117" s="111"/>
+      <c r="H117" s="111"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="111"/>
+      <c r="K117" s="111"/>
+      <c r="L117" s="111"/>
+      <c r="M117" s="111"/>
+      <c r="N117" s="111"/>
+      <c r="O117" s="111"/>
+      <c r="P117" s="111"/>
+      <c r="Q117" s="111"/>
+      <c r="R117" s="112"/>
     </row>
     <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="56"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="158"/>
-      <c r="D118" s="158"/>
-      <c r="E118" s="158"/>
-      <c r="F118" s="158"/>
-      <c r="G118" s="158"/>
-      <c r="H118" s="158"/>
-      <c r="I118" s="158"/>
-      <c r="J118" s="158"/>
-      <c r="K118" s="158"/>
-      <c r="L118" s="158"/>
-      <c r="M118" s="158"/>
-      <c r="N118" s="158"/>
-      <c r="O118" s="158"/>
-      <c r="P118" s="158"/>
-      <c r="Q118" s="158"/>
-      <c r="R118" s="159"/>
+      <c r="C118" s="111"/>
+      <c r="D118" s="111"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="111"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="111"/>
+      <c r="I118" s="111"/>
+      <c r="J118" s="111"/>
+      <c r="K118" s="111"/>
+      <c r="L118" s="111"/>
+      <c r="M118" s="111"/>
+      <c r="N118" s="111"/>
+      <c r="O118" s="111"/>
+      <c r="P118" s="111"/>
+      <c r="Q118" s="111"/>
+      <c r="R118" s="112"/>
     </row>
     <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="56"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="158"/>
-      <c r="D119" s="158"/>
-      <c r="E119" s="158"/>
-      <c r="F119" s="158"/>
-      <c r="G119" s="158"/>
-      <c r="H119" s="158"/>
-      <c r="I119" s="158"/>
-      <c r="J119" s="158"/>
-      <c r="K119" s="158"/>
-      <c r="L119" s="158"/>
-      <c r="M119" s="158"/>
-      <c r="N119" s="158"/>
-      <c r="O119" s="158"/>
-      <c r="P119" s="158"/>
-      <c r="Q119" s="158"/>
-      <c r="R119" s="159"/>
+      <c r="C119" s="111"/>
+      <c r="D119" s="111"/>
+      <c r="E119" s="111"/>
+      <c r="F119" s="111"/>
+      <c r="G119" s="111"/>
+      <c r="H119" s="111"/>
+      <c r="I119" s="111"/>
+      <c r="J119" s="111"/>
+      <c r="K119" s="111"/>
+      <c r="L119" s="111"/>
+      <c r="M119" s="111"/>
+      <c r="N119" s="111"/>
+      <c r="O119" s="111"/>
+      <c r="P119" s="111"/>
+      <c r="Q119" s="111"/>
+      <c r="R119" s="112"/>
     </row>
     <row r="120" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="58"/>
       <c r="B120" s="59"/>
-      <c r="C120" s="160"/>
-      <c r="D120" s="160"/>
-      <c r="E120" s="160"/>
-      <c r="F120" s="160"/>
-      <c r="G120" s="160"/>
-      <c r="H120" s="160"/>
-      <c r="I120" s="160"/>
-      <c r="J120" s="160"/>
-      <c r="K120" s="160"/>
-      <c r="L120" s="160"/>
-      <c r="M120" s="160"/>
-      <c r="N120" s="160"/>
-      <c r="O120" s="160"/>
-      <c r="P120" s="160"/>
-      <c r="Q120" s="160"/>
-      <c r="R120" s="161"/>
+      <c r="C120" s="194"/>
+      <c r="D120" s="194"/>
+      <c r="E120" s="194"/>
+      <c r="F120" s="194"/>
+      <c r="G120" s="194"/>
+      <c r="H120" s="194"/>
+      <c r="I120" s="194"/>
+      <c r="J120" s="194"/>
+      <c r="K120" s="194"/>
+      <c r="L120" s="194"/>
+      <c r="M120" s="194"/>
+      <c r="N120" s="194"/>
+      <c r="O120" s="194"/>
+      <c r="P120" s="194"/>
+      <c r="Q120" s="194"/>
+      <c r="R120" s="195"/>
     </row>
     <row r="121" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -8759,326 +8835,326 @@
       <c r="R121" s="3"/>
     </row>
     <row r="122" spans="1:18" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="155" t="s">
+      <c r="A122" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B122" s="156"/>
-      <c r="C122" s="156"/>
-      <c r="D122" s="156"/>
-      <c r="E122" s="156"/>
-      <c r="F122" s="156"/>
-      <c r="G122" s="156"/>
-      <c r="H122" s="156"/>
-      <c r="I122" s="156"/>
-      <c r="J122" s="156"/>
-      <c r="K122" s="156"/>
-      <c r="L122" s="156"/>
-      <c r="M122" s="156"/>
-      <c r="N122" s="156"/>
-      <c r="O122" s="156"/>
-      <c r="P122" s="156"/>
-      <c r="Q122" s="156"/>
-      <c r="R122" s="157"/>
+      <c r="B122" s="179"/>
+      <c r="C122" s="179"/>
+      <c r="D122" s="179"/>
+      <c r="E122" s="179"/>
+      <c r="F122" s="179"/>
+      <c r="G122" s="179"/>
+      <c r="H122" s="179"/>
+      <c r="I122" s="179"/>
+      <c r="J122" s="179"/>
+      <c r="K122" s="179"/>
+      <c r="L122" s="179"/>
+      <c r="M122" s="179"/>
+      <c r="N122" s="179"/>
+      <c r="O122" s="179"/>
+      <c r="P122" s="179"/>
+      <c r="Q122" s="179"/>
+      <c r="R122" s="180"/>
     </row>
     <row r="123" spans="1:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="139"/>
-      <c r="B123" s="140"/>
-      <c r="C123" s="140"/>
-      <c r="D123" s="140"/>
-      <c r="E123" s="140"/>
-      <c r="F123" s="140"/>
-      <c r="G123" s="140"/>
-      <c r="H123" s="140"/>
-      <c r="I123" s="140"/>
-      <c r="J123" s="140"/>
-      <c r="K123" s="140"/>
-      <c r="L123" s="140"/>
-      <c r="M123" s="140"/>
-      <c r="N123" s="140"/>
-      <c r="O123" s="140"/>
-      <c r="P123" s="140"/>
-      <c r="Q123" s="140"/>
-      <c r="R123" s="162"/>
+      <c r="A123" s="186"/>
+      <c r="B123" s="169"/>
+      <c r="C123" s="169"/>
+      <c r="D123" s="169"/>
+      <c r="E123" s="169"/>
+      <c r="F123" s="169"/>
+      <c r="G123" s="169"/>
+      <c r="H123" s="169"/>
+      <c r="I123" s="169"/>
+      <c r="J123" s="169"/>
+      <c r="K123" s="169"/>
+      <c r="L123" s="169"/>
+      <c r="M123" s="169"/>
+      <c r="N123" s="169"/>
+      <c r="O123" s="169"/>
+      <c r="P123" s="169"/>
+      <c r="Q123" s="169"/>
+      <c r="R123" s="196"/>
     </row>
     <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="139"/>
-      <c r="B124" s="140"/>
-      <c r="C124" s="140"/>
-      <c r="D124" s="140"/>
-      <c r="E124" s="140"/>
-      <c r="F124" s="140"/>
-      <c r="G124" s="140"/>
-      <c r="H124" s="140"/>
-      <c r="I124" s="140"/>
-      <c r="J124" s="140"/>
-      <c r="K124" s="140"/>
-      <c r="L124" s="140"/>
-      <c r="M124" s="140"/>
-      <c r="N124" s="140"/>
-      <c r="O124" s="140"/>
-      <c r="P124" s="140"/>
-      <c r="Q124" s="140"/>
-      <c r="R124" s="162"/>
+      <c r="A124" s="186"/>
+      <c r="B124" s="169"/>
+      <c r="C124" s="169"/>
+      <c r="D124" s="169"/>
+      <c r="E124" s="169"/>
+      <c r="F124" s="169"/>
+      <c r="G124" s="169"/>
+      <c r="H124" s="169"/>
+      <c r="I124" s="169"/>
+      <c r="J124" s="169"/>
+      <c r="K124" s="169"/>
+      <c r="L124" s="169"/>
+      <c r="M124" s="169"/>
+      <c r="N124" s="169"/>
+      <c r="O124" s="169"/>
+      <c r="P124" s="169"/>
+      <c r="Q124" s="169"/>
+      <c r="R124" s="196"/>
     </row>
     <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="139"/>
-      <c r="B125" s="140"/>
-      <c r="C125" s="140"/>
-      <c r="D125" s="140"/>
-      <c r="E125" s="140"/>
-      <c r="F125" s="140"/>
-      <c r="G125" s="140"/>
-      <c r="H125" s="140"/>
-      <c r="I125" s="140"/>
-      <c r="J125" s="140"/>
-      <c r="K125" s="140"/>
-      <c r="L125" s="140"/>
-      <c r="M125" s="140"/>
-      <c r="N125" s="140"/>
-      <c r="O125" s="140"/>
-      <c r="P125" s="140"/>
-      <c r="Q125" s="140"/>
-      <c r="R125" s="162"/>
+      <c r="A125" s="186"/>
+      <c r="B125" s="169"/>
+      <c r="C125" s="169"/>
+      <c r="D125" s="169"/>
+      <c r="E125" s="169"/>
+      <c r="F125" s="169"/>
+      <c r="G125" s="169"/>
+      <c r="H125" s="169"/>
+      <c r="I125" s="169"/>
+      <c r="J125" s="169"/>
+      <c r="K125" s="169"/>
+      <c r="L125" s="169"/>
+      <c r="M125" s="169"/>
+      <c r="N125" s="169"/>
+      <c r="O125" s="169"/>
+      <c r="P125" s="169"/>
+      <c r="Q125" s="169"/>
+      <c r="R125" s="196"/>
     </row>
     <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="139"/>
-      <c r="B126" s="140"/>
-      <c r="C126" s="140"/>
-      <c r="D126" s="140"/>
-      <c r="E126" s="140"/>
-      <c r="F126" s="140"/>
-      <c r="G126" s="140"/>
-      <c r="H126" s="140"/>
-      <c r="I126" s="140"/>
-      <c r="J126" s="140"/>
-      <c r="K126" s="140"/>
-      <c r="L126" s="140"/>
-      <c r="M126" s="140"/>
-      <c r="N126" s="140"/>
-      <c r="O126" s="140"/>
-      <c r="P126" s="140"/>
-      <c r="Q126" s="140"/>
-      <c r="R126" s="162"/>
+      <c r="A126" s="186"/>
+      <c r="B126" s="169"/>
+      <c r="C126" s="169"/>
+      <c r="D126" s="169"/>
+      <c r="E126" s="169"/>
+      <c r="F126" s="169"/>
+      <c r="G126" s="169"/>
+      <c r="H126" s="169"/>
+      <c r="I126" s="169"/>
+      <c r="J126" s="169"/>
+      <c r="K126" s="169"/>
+      <c r="L126" s="169"/>
+      <c r="M126" s="169"/>
+      <c r="N126" s="169"/>
+      <c r="O126" s="169"/>
+      <c r="P126" s="169"/>
+      <c r="Q126" s="169"/>
+      <c r="R126" s="196"/>
     </row>
     <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="139"/>
-      <c r="B127" s="140"/>
-      <c r="C127" s="140"/>
-      <c r="D127" s="140"/>
-      <c r="E127" s="140"/>
-      <c r="F127" s="140"/>
-      <c r="G127" s="140"/>
-      <c r="H127" s="140"/>
-      <c r="I127" s="140"/>
-      <c r="J127" s="140"/>
-      <c r="K127" s="140"/>
-      <c r="L127" s="140"/>
-      <c r="M127" s="140"/>
-      <c r="N127" s="140"/>
-      <c r="O127" s="140"/>
-      <c r="P127" s="140"/>
-      <c r="Q127" s="140"/>
-      <c r="R127" s="162"/>
+      <c r="A127" s="186"/>
+      <c r="B127" s="169"/>
+      <c r="C127" s="169"/>
+      <c r="D127" s="169"/>
+      <c r="E127" s="169"/>
+      <c r="F127" s="169"/>
+      <c r="G127" s="169"/>
+      <c r="H127" s="169"/>
+      <c r="I127" s="169"/>
+      <c r="J127" s="169"/>
+      <c r="K127" s="169"/>
+      <c r="L127" s="169"/>
+      <c r="M127" s="169"/>
+      <c r="N127" s="169"/>
+      <c r="O127" s="169"/>
+      <c r="P127" s="169"/>
+      <c r="Q127" s="169"/>
+      <c r="R127" s="196"/>
     </row>
     <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="139"/>
-      <c r="B128" s="140"/>
-      <c r="C128" s="140"/>
-      <c r="D128" s="140"/>
-      <c r="E128" s="140"/>
-      <c r="F128" s="140"/>
-      <c r="G128" s="140"/>
-      <c r="H128" s="140"/>
-      <c r="I128" s="140"/>
-      <c r="J128" s="140"/>
-      <c r="K128" s="140"/>
-      <c r="L128" s="140"/>
-      <c r="M128" s="140"/>
-      <c r="N128" s="140"/>
-      <c r="O128" s="140"/>
-      <c r="P128" s="140"/>
-      <c r="Q128" s="140"/>
-      <c r="R128" s="162"/>
+      <c r="A128" s="186"/>
+      <c r="B128" s="169"/>
+      <c r="C128" s="169"/>
+      <c r="D128" s="169"/>
+      <c r="E128" s="169"/>
+      <c r="F128" s="169"/>
+      <c r="G128" s="169"/>
+      <c r="H128" s="169"/>
+      <c r="I128" s="169"/>
+      <c r="J128" s="169"/>
+      <c r="K128" s="169"/>
+      <c r="L128" s="169"/>
+      <c r="M128" s="169"/>
+      <c r="N128" s="169"/>
+      <c r="O128" s="169"/>
+      <c r="P128" s="169"/>
+      <c r="Q128" s="169"/>
+      <c r="R128" s="196"/>
     </row>
     <row r="129" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="139"/>
-      <c r="B129" s="140"/>
-      <c r="C129" s="140"/>
-      <c r="D129" s="140"/>
-      <c r="E129" s="140"/>
-      <c r="F129" s="140"/>
-      <c r="G129" s="140"/>
-      <c r="H129" s="140"/>
-      <c r="I129" s="140"/>
-      <c r="J129" s="140"/>
-      <c r="K129" s="140"/>
-      <c r="L129" s="140"/>
-      <c r="M129" s="140"/>
-      <c r="N129" s="140"/>
-      <c r="O129" s="140"/>
-      <c r="P129" s="140"/>
-      <c r="Q129" s="140"/>
-      <c r="R129" s="162"/>
+      <c r="A129" s="186"/>
+      <c r="B129" s="169"/>
+      <c r="C129" s="169"/>
+      <c r="D129" s="169"/>
+      <c r="E129" s="169"/>
+      <c r="F129" s="169"/>
+      <c r="G129" s="169"/>
+      <c r="H129" s="169"/>
+      <c r="I129" s="169"/>
+      <c r="J129" s="169"/>
+      <c r="K129" s="169"/>
+      <c r="L129" s="169"/>
+      <c r="M129" s="169"/>
+      <c r="N129" s="169"/>
+      <c r="O129" s="169"/>
+      <c r="P129" s="169"/>
+      <c r="Q129" s="169"/>
+      <c r="R129" s="196"/>
     </row>
     <row r="130" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="139"/>
-      <c r="B130" s="140"/>
-      <c r="C130" s="140"/>
-      <c r="D130" s="140"/>
-      <c r="E130" s="140"/>
-      <c r="F130" s="140"/>
-      <c r="G130" s="140"/>
-      <c r="H130" s="140"/>
-      <c r="I130" s="140"/>
-      <c r="J130" s="140"/>
-      <c r="K130" s="140"/>
-      <c r="L130" s="140"/>
-      <c r="M130" s="140"/>
-      <c r="N130" s="140"/>
-      <c r="O130" s="140"/>
-      <c r="P130" s="140"/>
-      <c r="Q130" s="140"/>
-      <c r="R130" s="162"/>
+      <c r="A130" s="186"/>
+      <c r="B130" s="169"/>
+      <c r="C130" s="169"/>
+      <c r="D130" s="169"/>
+      <c r="E130" s="169"/>
+      <c r="F130" s="169"/>
+      <c r="G130" s="169"/>
+      <c r="H130" s="169"/>
+      <c r="I130" s="169"/>
+      <c r="J130" s="169"/>
+      <c r="K130" s="169"/>
+      <c r="L130" s="169"/>
+      <c r="M130" s="169"/>
+      <c r="N130" s="169"/>
+      <c r="O130" s="169"/>
+      <c r="P130" s="169"/>
+      <c r="Q130" s="169"/>
+      <c r="R130" s="196"/>
     </row>
     <row r="131" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="139"/>
-      <c r="B131" s="140"/>
-      <c r="C131" s="140"/>
-      <c r="D131" s="140"/>
-      <c r="E131" s="140"/>
-      <c r="F131" s="140"/>
-      <c r="G131" s="140"/>
-      <c r="H131" s="140"/>
-      <c r="I131" s="140"/>
-      <c r="J131" s="140"/>
-      <c r="K131" s="140"/>
-      <c r="L131" s="140"/>
-      <c r="M131" s="140"/>
-      <c r="N131" s="140"/>
-      <c r="O131" s="140"/>
-      <c r="P131" s="140"/>
-      <c r="Q131" s="140"/>
-      <c r="R131" s="162"/>
+      <c r="A131" s="186"/>
+      <c r="B131" s="169"/>
+      <c r="C131" s="169"/>
+      <c r="D131" s="169"/>
+      <c r="E131" s="169"/>
+      <c r="F131" s="169"/>
+      <c r="G131" s="169"/>
+      <c r="H131" s="169"/>
+      <c r="I131" s="169"/>
+      <c r="J131" s="169"/>
+      <c r="K131" s="169"/>
+      <c r="L131" s="169"/>
+      <c r="M131" s="169"/>
+      <c r="N131" s="169"/>
+      <c r="O131" s="169"/>
+      <c r="P131" s="169"/>
+      <c r="Q131" s="169"/>
+      <c r="R131" s="196"/>
     </row>
     <row r="132" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="139"/>
-      <c r="B132" s="140"/>
-      <c r="C132" s="140"/>
-      <c r="D132" s="140"/>
-      <c r="E132" s="140"/>
-      <c r="F132" s="140"/>
-      <c r="G132" s="140"/>
-      <c r="H132" s="140"/>
-      <c r="I132" s="140"/>
-      <c r="J132" s="140"/>
-      <c r="K132" s="140"/>
-      <c r="L132" s="140"/>
-      <c r="M132" s="140"/>
-      <c r="N132" s="140"/>
-      <c r="O132" s="140"/>
-      <c r="P132" s="140"/>
-      <c r="Q132" s="140"/>
-      <c r="R132" s="162"/>
+      <c r="A132" s="186"/>
+      <c r="B132" s="169"/>
+      <c r="C132" s="169"/>
+      <c r="D132" s="169"/>
+      <c r="E132" s="169"/>
+      <c r="F132" s="169"/>
+      <c r="G132" s="169"/>
+      <c r="H132" s="169"/>
+      <c r="I132" s="169"/>
+      <c r="J132" s="169"/>
+      <c r="K132" s="169"/>
+      <c r="L132" s="169"/>
+      <c r="M132" s="169"/>
+      <c r="N132" s="169"/>
+      <c r="O132" s="169"/>
+      <c r="P132" s="169"/>
+      <c r="Q132" s="169"/>
+      <c r="R132" s="196"/>
     </row>
     <row r="133" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="139"/>
-      <c r="B133" s="140"/>
-      <c r="C133" s="140"/>
-      <c r="D133" s="140"/>
-      <c r="E133" s="140"/>
-      <c r="F133" s="140"/>
-      <c r="G133" s="140"/>
-      <c r="H133" s="140"/>
-      <c r="I133" s="140"/>
-      <c r="J133" s="140"/>
-      <c r="K133" s="140"/>
-      <c r="L133" s="140"/>
-      <c r="M133" s="140"/>
-      <c r="N133" s="140"/>
-      <c r="O133" s="140"/>
-      <c r="P133" s="140"/>
-      <c r="Q133" s="140"/>
-      <c r="R133" s="162"/>
+      <c r="A133" s="186"/>
+      <c r="B133" s="169"/>
+      <c r="C133" s="169"/>
+      <c r="D133" s="169"/>
+      <c r="E133" s="169"/>
+      <c r="F133" s="169"/>
+      <c r="G133" s="169"/>
+      <c r="H133" s="169"/>
+      <c r="I133" s="169"/>
+      <c r="J133" s="169"/>
+      <c r="K133" s="169"/>
+      <c r="L133" s="169"/>
+      <c r="M133" s="169"/>
+      <c r="N133" s="169"/>
+      <c r="O133" s="169"/>
+      <c r="P133" s="169"/>
+      <c r="Q133" s="169"/>
+      <c r="R133" s="196"/>
     </row>
     <row r="134" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="139"/>
-      <c r="B134" s="140"/>
-      <c r="C134" s="140"/>
-      <c r="D134" s="140"/>
-      <c r="E134" s="140"/>
-      <c r="F134" s="140"/>
-      <c r="G134" s="140"/>
-      <c r="H134" s="140"/>
-      <c r="I134" s="140"/>
-      <c r="J134" s="140"/>
-      <c r="K134" s="140"/>
-      <c r="L134" s="140"/>
-      <c r="M134" s="140"/>
-      <c r="N134" s="140"/>
-      <c r="O134" s="140"/>
-      <c r="P134" s="140"/>
-      <c r="Q134" s="140"/>
-      <c r="R134" s="162"/>
+      <c r="A134" s="186"/>
+      <c r="B134" s="169"/>
+      <c r="C134" s="169"/>
+      <c r="D134" s="169"/>
+      <c r="E134" s="169"/>
+      <c r="F134" s="169"/>
+      <c r="G134" s="169"/>
+      <c r="H134" s="169"/>
+      <c r="I134" s="169"/>
+      <c r="J134" s="169"/>
+      <c r="K134" s="169"/>
+      <c r="L134" s="169"/>
+      <c r="M134" s="169"/>
+      <c r="N134" s="169"/>
+      <c r="O134" s="169"/>
+      <c r="P134" s="169"/>
+      <c r="Q134" s="169"/>
+      <c r="R134" s="196"/>
     </row>
     <row r="135" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="139"/>
-      <c r="B135" s="140"/>
-      <c r="C135" s="140"/>
-      <c r="D135" s="140"/>
-      <c r="E135" s="140"/>
-      <c r="F135" s="140"/>
-      <c r="G135" s="140"/>
-      <c r="H135" s="140"/>
-      <c r="I135" s="140"/>
-      <c r="J135" s="140"/>
-      <c r="K135" s="140"/>
-      <c r="L135" s="140"/>
-      <c r="M135" s="140"/>
-      <c r="N135" s="140"/>
-      <c r="O135" s="140"/>
-      <c r="P135" s="140"/>
-      <c r="Q135" s="140"/>
-      <c r="R135" s="162"/>
+      <c r="A135" s="186"/>
+      <c r="B135" s="169"/>
+      <c r="C135" s="169"/>
+      <c r="D135" s="169"/>
+      <c r="E135" s="169"/>
+      <c r="F135" s="169"/>
+      <c r="G135" s="169"/>
+      <c r="H135" s="169"/>
+      <c r="I135" s="169"/>
+      <c r="J135" s="169"/>
+      <c r="K135" s="169"/>
+      <c r="L135" s="169"/>
+      <c r="M135" s="169"/>
+      <c r="N135" s="169"/>
+      <c r="O135" s="169"/>
+      <c r="P135" s="169"/>
+      <c r="Q135" s="169"/>
+      <c r="R135" s="196"/>
     </row>
     <row r="136" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="139"/>
-      <c r="B136" s="140"/>
-      <c r="C136" s="140"/>
-      <c r="D136" s="140"/>
-      <c r="E136" s="140"/>
-      <c r="F136" s="140"/>
-      <c r="G136" s="140"/>
-      <c r="H136" s="140"/>
-      <c r="I136" s="140"/>
-      <c r="J136" s="140"/>
-      <c r="K136" s="140"/>
-      <c r="L136" s="140"/>
-      <c r="M136" s="140"/>
-      <c r="N136" s="140"/>
-      <c r="O136" s="140"/>
-      <c r="P136" s="140"/>
-      <c r="Q136" s="140"/>
-      <c r="R136" s="162"/>
+      <c r="A136" s="186"/>
+      <c r="B136" s="169"/>
+      <c r="C136" s="169"/>
+      <c r="D136" s="169"/>
+      <c r="E136" s="169"/>
+      <c r="F136" s="169"/>
+      <c r="G136" s="169"/>
+      <c r="H136" s="169"/>
+      <c r="I136" s="169"/>
+      <c r="J136" s="169"/>
+      <c r="K136" s="169"/>
+      <c r="L136" s="169"/>
+      <c r="M136" s="169"/>
+      <c r="N136" s="169"/>
+      <c r="O136" s="169"/>
+      <c r="P136" s="169"/>
+      <c r="Q136" s="169"/>
+      <c r="R136" s="196"/>
     </row>
     <row r="137" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="142"/>
-      <c r="B137" s="143"/>
-      <c r="C137" s="143"/>
-      <c r="D137" s="143"/>
-      <c r="E137" s="143"/>
-      <c r="F137" s="143"/>
-      <c r="G137" s="143"/>
-      <c r="H137" s="143"/>
-      <c r="I137" s="143"/>
-      <c r="J137" s="143"/>
-      <c r="K137" s="143"/>
-      <c r="L137" s="143"/>
-      <c r="M137" s="143"/>
-      <c r="N137" s="143"/>
-      <c r="O137" s="143"/>
-      <c r="P137" s="143"/>
-      <c r="Q137" s="143"/>
-      <c r="R137" s="163"/>
+      <c r="A137" s="187"/>
+      <c r="B137" s="172"/>
+      <c r="C137" s="172"/>
+      <c r="D137" s="172"/>
+      <c r="E137" s="172"/>
+      <c r="F137" s="172"/>
+      <c r="G137" s="172"/>
+      <c r="H137" s="172"/>
+      <c r="I137" s="172"/>
+      <c r="J137" s="172"/>
+      <c r="K137" s="172"/>
+      <c r="L137" s="172"/>
+      <c r="M137" s="172"/>
+      <c r="N137" s="172"/>
+      <c r="O137" s="172"/>
+      <c r="P137" s="172"/>
+      <c r="Q137" s="172"/>
+      <c r="R137" s="197"/>
     </row>
     <row r="138" spans="1:23" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
@@ -9101,26 +9177,26 @@
       <c r="R138" s="3"/>
     </row>
     <row r="139" spans="1:23" ht="30.75" x14ac:dyDescent="0.15">
-      <c r="A139" s="164" t="s">
+      <c r="A139" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="B139" s="165"/>
-      <c r="C139" s="165"/>
-      <c r="D139" s="165"/>
-      <c r="E139" s="165"/>
-      <c r="F139" s="165"/>
-      <c r="G139" s="165"/>
-      <c r="H139" s="165"/>
-      <c r="I139" s="165"/>
-      <c r="J139" s="165"/>
-      <c r="K139" s="165"/>
-      <c r="L139" s="165"/>
-      <c r="M139" s="165"/>
-      <c r="N139" s="165"/>
-      <c r="O139" s="165"/>
-      <c r="P139" s="165"/>
-      <c r="Q139" s="165"/>
-      <c r="R139" s="165"/>
+      <c r="B139" s="199"/>
+      <c r="C139" s="199"/>
+      <c r="D139" s="199"/>
+      <c r="E139" s="199"/>
+      <c r="F139" s="199"/>
+      <c r="G139" s="199"/>
+      <c r="H139" s="199"/>
+      <c r="I139" s="199"/>
+      <c r="J139" s="199"/>
+      <c r="K139" s="199"/>
+      <c r="L139" s="199"/>
+      <c r="M139" s="199"/>
+      <c r="N139" s="199"/>
+      <c r="O139" s="199"/>
+      <c r="P139" s="199"/>
+      <c r="Q139" s="199"/>
+      <c r="R139" s="199"/>
     </row>
     <row r="140" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
@@ -9143,26 +9219,26 @@
       <c r="R140" s="3"/>
     </row>
     <row r="141" spans="1:23" s="68" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="182" t="s">
+      <c r="A141" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="149"/>
-      <c r="C141" s="149"/>
-      <c r="D141" s="149"/>
-      <c r="E141" s="149"/>
-      <c r="F141" s="149"/>
-      <c r="G141" s="149"/>
-      <c r="H141" s="149"/>
-      <c r="I141" s="149"/>
-      <c r="J141" s="149"/>
-      <c r="K141" s="149"/>
-      <c r="L141" s="149"/>
-      <c r="M141" s="149"/>
-      <c r="N141" s="149"/>
-      <c r="O141" s="149"/>
-      <c r="P141" s="149"/>
-      <c r="Q141" s="149"/>
-      <c r="R141" s="149"/>
+      <c r="B141" s="159"/>
+      <c r="C141" s="159"/>
+      <c r="D141" s="159"/>
+      <c r="E141" s="159"/>
+      <c r="F141" s="159"/>
+      <c r="G141" s="159"/>
+      <c r="H141" s="159"/>
+      <c r="I141" s="159"/>
+      <c r="J141" s="159"/>
+      <c r="K141" s="159"/>
+      <c r="L141" s="159"/>
+      <c r="M141" s="159"/>
+      <c r="N141" s="159"/>
+      <c r="O141" s="159"/>
+      <c r="P141" s="159"/>
+      <c r="Q141" s="159"/>
+      <c r="R141" s="159"/>
     </row>
     <row r="142" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A142" s="69"/>
@@ -9350,40 +9426,47 @@
       <c r="L151" s="80"/>
       <c r="M151" s="80"/>
       <c r="N151" s="81"/>
-      <c r="O151" s="138"/>
-      <c r="P151" s="138"/>
+      <c r="O151" s="167"/>
+      <c r="P151" s="167"/>
       <c r="Q151" s="80"/>
       <c r="R151" s="68"/>
-      <c r="S151" s="138"/>
-      <c r="T151" s="138"/>
+      <c r="S151" s="167"/>
+      <c r="T151" s="167"/>
       <c r="U151" s="68"/>
       <c r="V151" s="68"/>
       <c r="W151" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A11:C14"/>
-    <mergeCell ref="D11:R13"/>
-    <mergeCell ref="A15:C19"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="A38:C49"/>
-    <mergeCell ref="D16:R19"/>
-    <mergeCell ref="A20:C28"/>
-    <mergeCell ref="E21:L22"/>
-    <mergeCell ref="M20:R28"/>
-    <mergeCell ref="E27:L28"/>
-    <mergeCell ref="E24:L25"/>
-    <mergeCell ref="C109:R113"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:I115"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="A107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:R2"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H4:R4"/>
+    <mergeCell ref="A5:C10"/>
+    <mergeCell ref="D6:K10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="M5:Q8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="A58:R69"/>
+    <mergeCell ref="A72:R86"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:I101"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="A87:R87"/>
+    <mergeCell ref="A71:R71"/>
+    <mergeCell ref="A122:R122"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="C116:R120"/>
+    <mergeCell ref="A123:R137"/>
+    <mergeCell ref="A139:R139"/>
+    <mergeCell ref="A102:B103"/>
+    <mergeCell ref="C102:R106"/>
     <mergeCell ref="O151:P151"/>
     <mergeCell ref="D51:R56"/>
     <mergeCell ref="A29:C37"/>
@@ -9400,35 +9483,28 @@
     <mergeCell ref="E33:Q34"/>
     <mergeCell ref="O30:Q31"/>
     <mergeCell ref="A109:B110"/>
-    <mergeCell ref="S151:T151"/>
-    <mergeCell ref="A58:R69"/>
-    <mergeCell ref="A72:R86"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:I101"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="A87:R87"/>
-    <mergeCell ref="A71:R71"/>
-    <mergeCell ref="A122:R122"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="C116:R120"/>
-    <mergeCell ref="A123:R137"/>
-    <mergeCell ref="A139:R139"/>
-    <mergeCell ref="A102:B103"/>
-    <mergeCell ref="C102:R106"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="L1:R2"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H4:R4"/>
-    <mergeCell ref="A5:C10"/>
-    <mergeCell ref="D6:K10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="M5:Q8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="A107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="C109:R113"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="A11:C14"/>
+    <mergeCell ref="D11:R13"/>
+    <mergeCell ref="A15:C19"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="A38:C49"/>
+    <mergeCell ref="D16:R19"/>
+    <mergeCell ref="A20:C28"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="M20:R28"/>
+    <mergeCell ref="E27:L28"/>
+    <mergeCell ref="E24:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/internship_form31.xlsx
+++ b/internship_form31.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\github\keep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FC3BBC-92A3-4181-B242-E6B5120A744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2242749-1A60-4FB8-8B61-71E2250AD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bO460l/q38hcX+I6RjEDyaaKqPLmMIH1SlWgl6kF0SfnvcLmGVR/gVPboUALJLRpdybxkSasnje1BZNEi8fASA==" workbookSaltValue="d3e9DO+x9BA/CU0B9Kki1g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申込書" sheetId="4" r:id="rId1"/>
@@ -6173,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:R86"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/internship_form31.xlsx
+++ b/internship_form31.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\github\keep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仲田　伊織\Desktop\github\keep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2242749-1A60-4FB8-8B61-71E2250AD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B337C1-E409-4146-88C4-CF28CB9CF9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bO460l/q38hcX+I6RjEDyaaKqPLmMIH1SlWgl6kF0SfnvcLmGVR/gVPboUALJLRpdybxkSasnje1BZNEi8fASA==" workbookSaltValue="d3e9DO+x9BA/CU0B9Kki1g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="3240" windowWidth="17745" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申込書" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
@@ -1114,49 +1114,189 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実際のゲーム業界での働き方であったり、現場で必要な知識やスキルの習得を体験したいです。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ギョウカイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハタラ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ゲンバ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>チシキ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュウトク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>タイケン</t>
+    <t>NintendoSwitchの後継機種の存在が公式に発表されたことです。</t>
+    <rPh sb="15" eb="18">
+      <t>コウケイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NintendoSwitchの後継機種の存在が公式に発表されたことです。</t>
-    <rPh sb="15" eb="18">
-      <t>コウケイキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハッピョウ</t>
+    <t>インターンシップを通して、実際のゲーム業界での働き方や雰囲気を体験したいです。また、ゲーム業界で生きている方に直接プログラミングの指導をいただける機会は少ないため、この機会に現場で必要な知識やスキルの習得を目指したいです。
+将来やりたいことはあまり決まっていないのですが、敵キャラクターなどのＡＩの挙動に興味があります。状況に応じて挙動を変化させ、敵キャラクターとして違和感ない挙動をするようなプログラミングをしたいです。</t>
+    <rPh sb="9" eb="10">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>キョウミ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="184" eb="187">
+      <t>イワカン</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変化をし続ける業界というイメージがあります。技術やツール、開発エンジン、プログラミング言語の発達であったり、トレンドのプラットフォームやジャンルが次々に移り変わっていったりするため、その都度新たなスキルや知識を学び続ける必要があると思います。いくつになっても必要なスキルや知識を勉強し、変化する業界に合わせて適応しなければいけないため、学習意欲を持ち、どんどん習得していく気持ちが大事になっていくと思っています。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハッタツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ツギツギ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>テキオウ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>ツヅ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2289,6 +2429,336 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2332,14 +2802,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2347,15 +2809,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2428,35 +2881,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,294 +2901,6 @@
     <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4319,7 +4459,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4654,7 +4794,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4721,7 +4861,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4989,7 +5129,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5257,7 +5397,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5525,7 +5665,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5592,7 +5732,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5659,7 +5799,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5726,7 +5866,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5793,7 +5933,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6173,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:R56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6201,51 +6341,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="202" t="s">
+      <c r="L1" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="204"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="102"/>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="105"/>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6276,243 +6416,243 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="209" t="s">
+      <c r="H4" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="209"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
     </row>
     <row r="5" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="225" t="s">
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="226"/>
-      <c r="F5" s="227" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="235" t="s">
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="229">
+      <c r="M5" s="127">
         <v>19</v>
       </c>
-      <c r="N5" s="230"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="230"/>
-      <c r="Q5" s="230"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="213"/>
-      <c r="B6" s="214"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="219" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="213"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="222"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="231"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
       <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="213"/>
-      <c r="B8" s="214"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="222"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="232"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="213"/>
-      <c r="B9" s="214"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="222"/>
-      <c r="J9" s="222"/>
-      <c r="K9" s="222"/>
-      <c r="L9" s="236"/>
-      <c r="M9" s="231">
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="129">
         <v>2004</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="174">
+      <c r="O9" s="130">
         <v>7</v>
       </c>
       <c r="P9" s="12"/>
-      <c r="Q9" s="174">
+      <c r="Q9" s="130">
         <v>12</v>
       </c>
       <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="216"/>
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="224"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="233"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="133"/>
       <c r="N10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="234"/>
+      <c r="O10" s="134"/>
       <c r="P10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="234"/>
+      <c r="Q10" s="134"/>
       <c r="R10" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="107" t="s">
+      <c r="B11" s="196"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="109"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="205"/>
+      <c r="O11" s="205"/>
+      <c r="P11" s="205"/>
+      <c r="Q11" s="205"/>
+      <c r="R11" s="206"/>
     </row>
     <row r="12" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="112"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="159"/>
     </row>
     <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="159"/>
     </row>
     <row r="14" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="104"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
+      <c r="A14" s="201"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
       <c r="M14" s="16" t="s">
         <v>52</v>
       </c>
@@ -6527,11 +6667,11 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="210"/>
       <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
@@ -6557,93 +6697,93 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="134" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="136"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="227"/>
+      <c r="Q16" s="227"/>
+      <c r="R16" s="228"/>
     </row>
     <row r="17" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="136"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="227"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="227"/>
+      <c r="Q17" s="227"/>
+      <c r="R17" s="228"/>
     </row>
     <row r="18" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="136"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="227"/>
+      <c r="I18" s="227"/>
+      <c r="J18" s="227"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="227"/>
+      <c r="M18" s="227"/>
+      <c r="N18" s="227"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="227"/>
+      <c r="Q18" s="227"/>
+      <c r="R18" s="228"/>
     </row>
     <row r="19" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="139"/>
+      <c r="A19" s="211"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="230"/>
+      <c r="P19" s="230"/>
+      <c r="Q19" s="230"/>
+      <c r="R19" s="231"/>
     </row>
     <row r="20" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="172"/>
       <c r="D20" s="23"/>
       <c r="E20" s="12" t="s">
         <v>2</v>
@@ -6655,61 +6795,61 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="148" t="s">
+      <c r="M20" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="233"/>
     </row>
     <row r="21" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="149"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="233"/>
     </row>
     <row r="22" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="149"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="233"/>
     </row>
     <row r="23" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="175"/>
       <c r="D23" s="25"/>
       <c r="E23" s="12" t="s">
         <v>8</v>
@@ -6721,59 +6861,59 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="149"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="233"/>
     </row>
     <row r="24" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
+      <c r="A24" s="173"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="153" t="s">
+      <c r="E24" s="237" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="149"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="233"/>
     </row>
     <row r="25" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
+      <c r="A25" s="176"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="178"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="149"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="232"/>
+      <c r="G25" s="232"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="233"/>
     </row>
     <row r="26" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
+      <c r="A26" s="176"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="178"/>
       <c r="D26" s="25"/>
       <c r="E26" s="12" t="s">
         <v>9</v>
@@ -6785,61 +6925,61 @@
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="149"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="233"/>
     </row>
     <row r="27" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="143"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
+      <c r="A27" s="176"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="178"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="146" t="s">
+      <c r="E27" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="149"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="233"/>
     </row>
     <row r="28" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="119"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
+      <c r="A28" s="211"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="151"/>
+      <c r="E28" s="236"/>
+      <c r="F28" s="236"/>
+      <c r="G28" s="236"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="236"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="236"/>
+      <c r="L28" s="236"/>
+      <c r="M28" s="234"/>
+      <c r="N28" s="234"/>
+      <c r="O28" s="234"/>
+      <c r="P28" s="234"/>
+      <c r="Q28" s="234"/>
+      <c r="R28" s="235"/>
     </row>
     <row r="29" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="141"/>
-      <c r="C29" s="142"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="172"/>
       <c r="D29" s="23"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
@@ -6859,51 +6999,51 @@
       <c r="R29" s="29"/>
     </row>
     <row r="30" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
+      <c r="A30" s="173"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="176" t="s">
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="176"/>
-      <c r="O30" s="174"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="174"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130"/>
       <c r="R30" s="30"/>
     </row>
     <row r="31" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="175"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="184"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
       <c r="R31" s="30"/>
     </row>
     <row r="32" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="A32" s="173"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="175"/>
       <c r="D32" s="25"/>
       <c r="E32" s="12" t="s">
         <v>1</v>
@@ -6923,51 +7063,51 @@
       <c r="R32" s="30"/>
     </row>
     <row r="33" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="175"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="174" t="s">
+      <c r="E33" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="174"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="174"/>
-      <c r="O33" s="174"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="174"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="130"/>
       <c r="R33" s="30"/>
     </row>
     <row r="34" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
+      <c r="A34" s="176"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="178"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
-      <c r="L34" s="175"/>
-      <c r="M34" s="175"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="132"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="132"/>
       <c r="R34" s="30"/>
     </row>
     <row r="35" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="143"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="145"/>
+      <c r="A35" s="176"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="178"/>
       <c r="D35" s="25"/>
       <c r="E35" s="12" t="s">
         <v>11</v>
@@ -6987,51 +7127,51 @@
       <c r="R35" s="30"/>
     </row>
     <row r="36" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="143"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="145"/>
+      <c r="A36" s="176"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="178"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146"/>
-      <c r="N36" s="146"/>
-      <c r="O36" s="146"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="146"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="189"/>
+      <c r="P36" s="189"/>
+      <c r="Q36" s="189"/>
       <c r="R36" s="30"/>
     </row>
     <row r="37" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="164"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="166"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="181"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="185"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="185"/>
-      <c r="K37" s="185"/>
-      <c r="L37" s="185"/>
-      <c r="M37" s="185"/>
-      <c r="N37" s="185"/>
-      <c r="O37" s="185"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="185"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="190"/>
+      <c r="L37" s="190"/>
+      <c r="M37" s="190"/>
+      <c r="N37" s="190"/>
+      <c r="O37" s="190"/>
+      <c r="P37" s="190"/>
+      <c r="Q37" s="190"/>
       <c r="R37" s="35"/>
     </row>
     <row r="38" spans="1:18" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="125" t="s">
+      <c r="A38" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="126"/>
-      <c r="C38" s="127"/>
+      <c r="B38" s="218"/>
+      <c r="C38" s="219"/>
       <c r="D38" s="82"/>
       <c r="E38" s="83" t="s">
         <v>14</v>
@@ -7053,9 +7193,9 @@
       <c r="R38" s="86"/>
     </row>
     <row r="39" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="128"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="130"/>
+      <c r="A39" s="220"/>
+      <c r="B39" s="221"/>
+      <c r="C39" s="222"/>
       <c r="D39" s="25"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -7073,9 +7213,9 @@
       <c r="R39" s="30"/>
     </row>
     <row r="40" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="128"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="130"/>
+      <c r="A40" s="220"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="222"/>
       <c r="D40" s="25"/>
       <c r="E40" s="12" t="s">
         <v>15</v>
@@ -7091,21 +7231,21 @@
       <c r="L40" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="174" t="s">
+      <c r="M40" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="N40" s="174"/>
-      <c r="O40" s="174"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="174"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="130"/>
       <c r="R40" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="128"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="130"/>
+      <c r="A41" s="220"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="222"/>
       <c r="D41" s="25"/>
       <c r="E41" s="12" t="s">
         <v>16</v>
@@ -7121,21 +7261,21 @@
       <c r="L41" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="174" t="s">
+      <c r="M41" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="174"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="130"/>
       <c r="R41" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="128"/>
-      <c r="B42" s="129"/>
-      <c r="C42" s="130"/>
+      <c r="A42" s="220"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="222"/>
       <c r="D42" s="25"/>
       <c r="E42" s="12" t="s">
         <v>17</v>
@@ -7151,21 +7291,21 @@
       <c r="L42" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="174" t="s">
+      <c r="M42" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="N42" s="174"/>
-      <c r="O42" s="174"/>
-      <c r="P42" s="174"/>
-      <c r="Q42" s="174"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="130"/>
+      <c r="Q42" s="130"/>
       <c r="R42" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="128"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="130"/>
+      <c r="A43" s="220"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="222"/>
       <c r="D43" s="23"/>
       <c r="E43" s="12" t="s">
         <v>18</v>
@@ -7175,21 +7315,21 @@
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="182" t="s">
+      <c r="K43" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="183"/>
-      <c r="M43" s="183"/>
-      <c r="N43" s="183"/>
-      <c r="O43" s="183"/>
-      <c r="P43" s="183"/>
-      <c r="Q43" s="183"/>
-      <c r="R43" s="184"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="187"/>
+      <c r="N43" s="187"/>
+      <c r="O43" s="187"/>
+      <c r="P43" s="187"/>
+      <c r="Q43" s="187"/>
+      <c r="R43" s="188"/>
     </row>
     <row r="44" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="128"/>
-      <c r="B44" s="129"/>
-      <c r="C44" s="130"/>
+      <c r="A44" s="220"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="222"/>
       <c r="D44" s="41"/>
       <c r="E44" s="42"/>
       <c r="F44" s="43"/>
@@ -7207,9 +7347,9 @@
       <c r="R44" s="88"/>
     </row>
     <row r="45" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="128"/>
-      <c r="B45" s="129"/>
-      <c r="C45" s="130"/>
+      <c r="A45" s="220"/>
+      <c r="B45" s="221"/>
+      <c r="C45" s="222"/>
       <c r="D45" s="46"/>
       <c r="E45" s="89" t="s">
         <v>66</v>
@@ -7229,9 +7369,9 @@
       <c r="R45" s="48"/>
     </row>
     <row r="46" spans="1:18" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="128"/>
-      <c r="B46" s="129"/>
-      <c r="C46" s="130"/>
+      <c r="A46" s="220"/>
+      <c r="B46" s="221"/>
+      <c r="C46" s="222"/>
       <c r="D46" s="25"/>
       <c r="E46" s="92" t="s">
         <v>67</v>
@@ -7251,9 +7391,9 @@
       <c r="R46" s="30"/>
     </row>
     <row r="47" spans="1:18" ht="3.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="128"/>
-      <c r="B47" s="129"/>
-      <c r="C47" s="130"/>
+      <c r="A47" s="220"/>
+      <c r="B47" s="221"/>
+      <c r="C47" s="222"/>
       <c r="D47" s="92"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -7270,9 +7410,9 @@
       <c r="R47" s="30"/>
     </row>
     <row r="48" spans="1:18" s="51" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="128"/>
-      <c r="B48" s="129"/>
-      <c r="C48" s="130"/>
+      <c r="A48" s="220"/>
+      <c r="B48" s="221"/>
+      <c r="C48" s="222"/>
       <c r="D48" s="49"/>
       <c r="E48" s="50" t="s">
         <v>62</v>
@@ -7294,9 +7434,9 @@
       <c r="R48" s="94"/>
     </row>
     <row r="49" spans="1:23" s="51" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="131"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="133"/>
+      <c r="A49" s="223"/>
+      <c r="B49" s="224"/>
+      <c r="C49" s="225"/>
       <c r="D49" s="52"/>
       <c r="E49" s="95" t="s">
         <v>63</v>
@@ -7316,421 +7456,421 @@
       <c r="N49" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
+      <c r="O49" s="216"/>
+      <c r="P49" s="216"/>
+      <c r="Q49" s="216"/>
       <c r="R49" s="54" t="s">
         <v>25</v>
       </c>
       <c r="W49" s="50"/>
     </row>
     <row r="50" spans="1:23" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="140" t="s">
+      <c r="A50" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="141"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="181" t="s">
+      <c r="B50" s="171"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="179"/>
-      <c r="F50" s="179"/>
-      <c r="G50" s="179"/>
-      <c r="H50" s="179"/>
-      <c r="I50" s="179"/>
-      <c r="J50" s="179"/>
-      <c r="K50" s="179"/>
-      <c r="L50" s="179"/>
-      <c r="M50" s="179"/>
-      <c r="N50" s="179"/>
-      <c r="O50" s="179"/>
-      <c r="P50" s="179"/>
-      <c r="Q50" s="179"/>
-      <c r="R50" s="180"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="157"/>
     </row>
     <row r="51" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="116"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="118"/>
+      <c r="A51" s="173"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="175"/>
       <c r="D51" s="168" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="169"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="169"/>
-      <c r="H51" s="169"/>
-      <c r="I51" s="169"/>
-      <c r="J51" s="169"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="169"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="169"/>
-      <c r="O51" s="169"/>
-      <c r="P51" s="169"/>
-      <c r="Q51" s="169"/>
-      <c r="R51" s="170"/>
+        <v>91</v>
+      </c>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="140"/>
+      <c r="K51" s="140"/>
+      <c r="L51" s="140"/>
+      <c r="M51" s="140"/>
+      <c r="N51" s="140"/>
+      <c r="O51" s="140"/>
+      <c r="P51" s="140"/>
+      <c r="Q51" s="140"/>
+      <c r="R51" s="141"/>
     </row>
     <row r="52" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="116"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
+      <c r="A52" s="173"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="175"/>
       <c r="D52" s="168"/>
-      <c r="E52" s="169"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="169"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="169"/>
-      <c r="K52" s="169"/>
-      <c r="L52" s="169"/>
-      <c r="M52" s="169"/>
-      <c r="N52" s="169"/>
-      <c r="O52" s="169"/>
-      <c r="P52" s="169"/>
-      <c r="Q52" s="169"/>
-      <c r="R52" s="170"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="140"/>
+      <c r="M52" s="140"/>
+      <c r="N52" s="140"/>
+      <c r="O52" s="140"/>
+      <c r="P52" s="140"/>
+      <c r="Q52" s="140"/>
+      <c r="R52" s="141"/>
     </row>
     <row r="53" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="143"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="145"/>
+      <c r="A53" s="176"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="178"/>
       <c r="D53" s="168"/>
-      <c r="E53" s="169"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="169"/>
-      <c r="H53" s="169"/>
-      <c r="I53" s="169"/>
-      <c r="J53" s="169"/>
-      <c r="K53" s="169"/>
-      <c r="L53" s="169"/>
-      <c r="M53" s="169"/>
-      <c r="N53" s="169"/>
-      <c r="O53" s="169"/>
-      <c r="P53" s="169"/>
-      <c r="Q53" s="169"/>
-      <c r="R53" s="170"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="140"/>
+      <c r="N53" s="140"/>
+      <c r="O53" s="140"/>
+      <c r="P53" s="140"/>
+      <c r="Q53" s="140"/>
+      <c r="R53" s="141"/>
     </row>
     <row r="54" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="143"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="145"/>
+      <c r="A54" s="176"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="178"/>
       <c r="D54" s="168"/>
-      <c r="E54" s="169"/>
-      <c r="F54" s="169"/>
-      <c r="G54" s="169"/>
-      <c r="H54" s="169"/>
-      <c r="I54" s="169"/>
-      <c r="J54" s="169"/>
-      <c r="K54" s="169"/>
-      <c r="L54" s="169"/>
-      <c r="M54" s="169"/>
-      <c r="N54" s="169"/>
-      <c r="O54" s="169"/>
-      <c r="P54" s="169"/>
-      <c r="Q54" s="169"/>
-      <c r="R54" s="170"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="140"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="140"/>
+      <c r="N54" s="140"/>
+      <c r="O54" s="140"/>
+      <c r="P54" s="140"/>
+      <c r="Q54" s="140"/>
+      <c r="R54" s="141"/>
     </row>
     <row r="55" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="143"/>
-      <c r="B55" s="144"/>
-      <c r="C55" s="145"/>
+      <c r="A55" s="176"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="178"/>
       <c r="D55" s="168"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="169"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="169"/>
-      <c r="J55" s="169"/>
-      <c r="K55" s="169"/>
-      <c r="L55" s="169"/>
-      <c r="M55" s="169"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="169"/>
-      <c r="Q55" s="169"/>
-      <c r="R55" s="170"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="140"/>
+      <c r="L55" s="140"/>
+      <c r="M55" s="140"/>
+      <c r="N55" s="140"/>
+      <c r="O55" s="140"/>
+      <c r="P55" s="140"/>
+      <c r="Q55" s="140"/>
+      <c r="R55" s="141"/>
     </row>
     <row r="56" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="164"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="172"/>
-      <c r="G56" s="172"/>
-      <c r="H56" s="172"/>
-      <c r="I56" s="172"/>
-      <c r="J56" s="172"/>
-      <c r="K56" s="172"/>
-      <c r="L56" s="172"/>
-      <c r="M56" s="172"/>
-      <c r="N56" s="172"/>
-      <c r="O56" s="172"/>
-      <c r="P56" s="172"/>
-      <c r="Q56" s="172"/>
-      <c r="R56" s="173"/>
+      <c r="A56" s="179"/>
+      <c r="B56" s="180"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
+      <c r="K56" s="143"/>
+      <c r="L56" s="143"/>
+      <c r="M56" s="143"/>
+      <c r="N56" s="143"/>
+      <c r="O56" s="143"/>
+      <c r="P56" s="143"/>
+      <c r="Q56" s="143"/>
+      <c r="R56" s="144"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="178" t="s">
+      <c r="A57" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="179"/>
-      <c r="C57" s="179"/>
-      <c r="D57" s="179"/>
-      <c r="E57" s="179"/>
-      <c r="F57" s="179"/>
-      <c r="G57" s="179"/>
-      <c r="H57" s="179"/>
-      <c r="I57" s="179"/>
-      <c r="J57" s="179"/>
-      <c r="K57" s="179"/>
-      <c r="L57" s="179"/>
-      <c r="M57" s="179"/>
-      <c r="N57" s="179"/>
-      <c r="O57" s="179"/>
-      <c r="P57" s="179"/>
-      <c r="Q57" s="179"/>
-      <c r="R57" s="180"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="156"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="156"/>
+      <c r="P57" s="156"/>
+      <c r="Q57" s="156"/>
+      <c r="R57" s="157"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="186"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
-      <c r="E58" s="169"/>
-      <c r="F58" s="169"/>
-      <c r="G58" s="169"/>
-      <c r="H58" s="169"/>
-      <c r="I58" s="169"/>
-      <c r="J58" s="169"/>
-      <c r="K58" s="169"/>
-      <c r="L58" s="169"/>
-      <c r="M58" s="169"/>
-      <c r="N58" s="169"/>
-      <c r="O58" s="169"/>
-      <c r="P58" s="169"/>
-      <c r="Q58" s="169"/>
-      <c r="R58" s="170"/>
+      <c r="A58" s="139"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="140"/>
+      <c r="N58" s="140"/>
+      <c r="O58" s="140"/>
+      <c r="P58" s="140"/>
+      <c r="Q58" s="140"/>
+      <c r="R58" s="141"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="186"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="169"/>
-      <c r="F59" s="169"/>
-      <c r="G59" s="169"/>
-      <c r="H59" s="169"/>
-      <c r="I59" s="169"/>
-      <c r="J59" s="169"/>
-      <c r="K59" s="169"/>
-      <c r="L59" s="169"/>
-      <c r="M59" s="169"/>
-      <c r="N59" s="169"/>
-      <c r="O59" s="169"/>
-      <c r="P59" s="169"/>
-      <c r="Q59" s="169"/>
-      <c r="R59" s="170"/>
+      <c r="A59" s="139"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="140"/>
+      <c r="N59" s="140"/>
+      <c r="O59" s="140"/>
+      <c r="P59" s="140"/>
+      <c r="Q59" s="140"/>
+      <c r="R59" s="141"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="186"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
-      <c r="E60" s="169"/>
-      <c r="F60" s="169"/>
-      <c r="G60" s="169"/>
-      <c r="H60" s="169"/>
-      <c r="I60" s="169"/>
-      <c r="J60" s="169"/>
-      <c r="K60" s="169"/>
-      <c r="L60" s="169"/>
-      <c r="M60" s="169"/>
-      <c r="N60" s="169"/>
-      <c r="O60" s="169"/>
-      <c r="P60" s="169"/>
-      <c r="Q60" s="169"/>
-      <c r="R60" s="170"/>
+      <c r="A60" s="139"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="140"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="140"/>
+      <c r="Q60" s="140"/>
+      <c r="R60" s="141"/>
     </row>
     <row r="61" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="186"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="169"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="169"/>
-      <c r="M61" s="169"/>
-      <c r="N61" s="169"/>
-      <c r="O61" s="169"/>
-      <c r="P61" s="169"/>
-      <c r="Q61" s="169"/>
-      <c r="R61" s="170"/>
+      <c r="A61" s="139"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="140"/>
+      <c r="N61" s="140"/>
+      <c r="O61" s="140"/>
+      <c r="P61" s="140"/>
+      <c r="Q61" s="140"/>
+      <c r="R61" s="141"/>
     </row>
     <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="186"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169"/>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169"/>
-      <c r="O62" s="169"/>
-      <c r="P62" s="169"/>
-      <c r="Q62" s="169"/>
-      <c r="R62" s="170"/>
+      <c r="A62" s="139"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="140"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="140"/>
+      <c r="O62" s="140"/>
+      <c r="P62" s="140"/>
+      <c r="Q62" s="140"/>
+      <c r="R62" s="141"/>
     </row>
     <row r="63" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="186"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="169"/>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="169"/>
-      <c r="K63" s="169"/>
-      <c r="L63" s="169"/>
-      <c r="M63" s="169"/>
-      <c r="N63" s="169"/>
-      <c r="O63" s="169"/>
-      <c r="P63" s="169"/>
-      <c r="Q63" s="169"/>
-      <c r="R63" s="170"/>
+      <c r="A63" s="139"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="140"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="140"/>
+      <c r="O63" s="140"/>
+      <c r="P63" s="140"/>
+      <c r="Q63" s="140"/>
+      <c r="R63" s="141"/>
     </row>
     <row r="64" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="186"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
-      <c r="E64" s="169"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="169"/>
-      <c r="H64" s="169"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
-      <c r="K64" s="169"/>
-      <c r="L64" s="169"/>
-      <c r="M64" s="169"/>
-      <c r="N64" s="169"/>
-      <c r="O64" s="169"/>
-      <c r="P64" s="169"/>
-      <c r="Q64" s="169"/>
-      <c r="R64" s="170"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="140"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="140"/>
+      <c r="N64" s="140"/>
+      <c r="O64" s="140"/>
+      <c r="P64" s="140"/>
+      <c r="Q64" s="140"/>
+      <c r="R64" s="141"/>
     </row>
     <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="186"/>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="169"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="169"/>
-      <c r="G65" s="169"/>
-      <c r="H65" s="169"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="169"/>
-      <c r="K65" s="169"/>
-      <c r="L65" s="169"/>
-      <c r="M65" s="169"/>
-      <c r="N65" s="169"/>
-      <c r="O65" s="169"/>
-      <c r="P65" s="169"/>
-      <c r="Q65" s="169"/>
-      <c r="R65" s="170"/>
+      <c r="A65" s="139"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="140"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="140"/>
+      <c r="N65" s="140"/>
+      <c r="O65" s="140"/>
+      <c r="P65" s="140"/>
+      <c r="Q65" s="140"/>
+      <c r="R65" s="141"/>
     </row>
     <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="186"/>
-      <c r="B66" s="169"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="169"/>
-      <c r="E66" s="169"/>
-      <c r="F66" s="169"/>
-      <c r="G66" s="169"/>
-      <c r="H66" s="169"/>
-      <c r="I66" s="169"/>
-      <c r="J66" s="169"/>
-      <c r="K66" s="169"/>
-      <c r="L66" s="169"/>
-      <c r="M66" s="169"/>
-      <c r="N66" s="169"/>
-      <c r="O66" s="169"/>
-      <c r="P66" s="169"/>
-      <c r="Q66" s="169"/>
-      <c r="R66" s="170"/>
+      <c r="A66" s="139"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="140"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="140"/>
+      <c r="N66" s="140"/>
+      <c r="O66" s="140"/>
+      <c r="P66" s="140"/>
+      <c r="Q66" s="140"/>
+      <c r="R66" s="141"/>
     </row>
     <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="186"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="169"/>
-      <c r="G67" s="169"/>
-      <c r="H67" s="169"/>
-      <c r="I67" s="169"/>
-      <c r="J67" s="169"/>
-      <c r="K67" s="169"/>
-      <c r="L67" s="169"/>
-      <c r="M67" s="169"/>
-      <c r="N67" s="169"/>
-      <c r="O67" s="169"/>
-      <c r="P67" s="169"/>
-      <c r="Q67" s="169"/>
-      <c r="R67" s="170"/>
+      <c r="A67" s="139"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="140"/>
+      <c r="G67" s="140"/>
+      <c r="H67" s="140"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="140"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="140"/>
+      <c r="M67" s="140"/>
+      <c r="N67" s="140"/>
+      <c r="O67" s="140"/>
+      <c r="P67" s="140"/>
+      <c r="Q67" s="140"/>
+      <c r="R67" s="141"/>
     </row>
     <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="186"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="G68" s="169"/>
-      <c r="H68" s="169"/>
-      <c r="I68" s="169"/>
-      <c r="J68" s="169"/>
-      <c r="K68" s="169"/>
-      <c r="L68" s="169"/>
-      <c r="M68" s="169"/>
-      <c r="N68" s="169"/>
-      <c r="O68" s="169"/>
-      <c r="P68" s="169"/>
-      <c r="Q68" s="169"/>
-      <c r="R68" s="170"/>
+      <c r="A68" s="139"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="140"/>
+      <c r="G68" s="140"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="140"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="140"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="140"/>
+      <c r="N68" s="140"/>
+      <c r="O68" s="140"/>
+      <c r="P68" s="140"/>
+      <c r="Q68" s="140"/>
+      <c r="R68" s="141"/>
     </row>
     <row r="69" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="187"/>
-      <c r="B69" s="172"/>
-      <c r="C69" s="172"/>
-      <c r="D69" s="172"/>
-      <c r="E69" s="172"/>
-      <c r="F69" s="172"/>
-      <c r="G69" s="172"/>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-      <c r="J69" s="172"/>
-      <c r="K69" s="172"/>
-      <c r="L69" s="172"/>
-      <c r="M69" s="172"/>
-      <c r="N69" s="172"/>
-      <c r="O69" s="172"/>
-      <c r="P69" s="172"/>
-      <c r="Q69" s="172"/>
-      <c r="R69" s="173"/>
+      <c r="A69" s="142"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="143"/>
+      <c r="J69" s="143"/>
+      <c r="K69" s="143"/>
+      <c r="L69" s="143"/>
+      <c r="M69" s="143"/>
+      <c r="N69" s="143"/>
+      <c r="O69" s="143"/>
+      <c r="P69" s="143"/>
+      <c r="Q69" s="143"/>
+      <c r="R69" s="144"/>
     </row>
     <row r="70" spans="1:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
@@ -7753,350 +7893,350 @@
       <c r="R70" s="33"/>
     </row>
     <row r="71" spans="1:18" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="178" t="s">
+      <c r="A71" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="179"/>
-      <c r="C71" s="179"/>
-      <c r="D71" s="179"/>
-      <c r="E71" s="179"/>
-      <c r="F71" s="179"/>
-      <c r="G71" s="179"/>
-      <c r="H71" s="179"/>
-      <c r="I71" s="179"/>
-      <c r="J71" s="179"/>
-      <c r="K71" s="179"/>
-      <c r="L71" s="179"/>
-      <c r="M71" s="179"/>
-      <c r="N71" s="179"/>
-      <c r="O71" s="179"/>
-      <c r="P71" s="179"/>
-      <c r="Q71" s="179"/>
-      <c r="R71" s="180"/>
+      <c r="B71" s="156"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="156"/>
+      <c r="G71" s="156"/>
+      <c r="H71" s="156"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="156"/>
+      <c r="K71" s="156"/>
+      <c r="L71" s="156"/>
+      <c r="M71" s="156"/>
+      <c r="N71" s="156"/>
+      <c r="O71" s="156"/>
+      <c r="P71" s="156"/>
+      <c r="Q71" s="156"/>
+      <c r="R71" s="157"/>
     </row>
     <row r="72" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="186" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" s="169"/>
-      <c r="C72" s="169"/>
-      <c r="D72" s="169"/>
-      <c r="E72" s="169"/>
-      <c r="F72" s="169"/>
-      <c r="G72" s="169"/>
-      <c r="H72" s="169"/>
-      <c r="I72" s="169"/>
-      <c r="J72" s="169"/>
-      <c r="K72" s="169"/>
-      <c r="L72" s="169"/>
-      <c r="M72" s="169"/>
-      <c r="N72" s="169"/>
-      <c r="O72" s="169"/>
-      <c r="P72" s="169"/>
-      <c r="Q72" s="169"/>
-      <c r="R72" s="170"/>
+      <c r="A72" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="140"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="140"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="140"/>
+      <c r="N72" s="140"/>
+      <c r="O72" s="140"/>
+      <c r="P72" s="140"/>
+      <c r="Q72" s="140"/>
+      <c r="R72" s="141"/>
     </row>
     <row r="73" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="186"/>
-      <c r="B73" s="169"/>
-      <c r="C73" s="169"/>
-      <c r="D73" s="169"/>
-      <c r="E73" s="169"/>
-      <c r="F73" s="169"/>
-      <c r="G73" s="169"/>
-      <c r="H73" s="169"/>
-      <c r="I73" s="169"/>
-      <c r="J73" s="169"/>
-      <c r="K73" s="169"/>
-      <c r="L73" s="169"/>
-      <c r="M73" s="169"/>
-      <c r="N73" s="169"/>
-      <c r="O73" s="169"/>
-      <c r="P73" s="169"/>
-      <c r="Q73" s="169"/>
-      <c r="R73" s="170"/>
+      <c r="A73" s="139"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="140"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="140"/>
+      <c r="N73" s="140"/>
+      <c r="O73" s="140"/>
+      <c r="P73" s="140"/>
+      <c r="Q73" s="140"/>
+      <c r="R73" s="141"/>
     </row>
     <row r="74" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="186"/>
-      <c r="B74" s="169"/>
-      <c r="C74" s="169"/>
-      <c r="D74" s="169"/>
-      <c r="E74" s="169"/>
-      <c r="F74" s="169"/>
-      <c r="G74" s="169"/>
-      <c r="H74" s="169"/>
-      <c r="I74" s="169"/>
-      <c r="J74" s="169"/>
-      <c r="K74" s="169"/>
-      <c r="L74" s="169"/>
-      <c r="M74" s="169"/>
-      <c r="N74" s="169"/>
-      <c r="O74" s="169"/>
-      <c r="P74" s="169"/>
-      <c r="Q74" s="169"/>
-      <c r="R74" s="170"/>
+      <c r="A74" s="139"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="140"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="140"/>
+      <c r="K74" s="140"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="140"/>
+      <c r="N74" s="140"/>
+      <c r="O74" s="140"/>
+      <c r="P74" s="140"/>
+      <c r="Q74" s="140"/>
+      <c r="R74" s="141"/>
     </row>
     <row r="75" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="186"/>
-      <c r="B75" s="169"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="169"/>
-      <c r="E75" s="169"/>
-      <c r="F75" s="169"/>
-      <c r="G75" s="169"/>
-      <c r="H75" s="169"/>
-      <c r="I75" s="169"/>
-      <c r="J75" s="169"/>
-      <c r="K75" s="169"/>
-      <c r="L75" s="169"/>
-      <c r="M75" s="169"/>
-      <c r="N75" s="169"/>
-      <c r="O75" s="169"/>
-      <c r="P75" s="169"/>
-      <c r="Q75" s="169"/>
-      <c r="R75" s="170"/>
+      <c r="A75" s="139"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="140"/>
+      <c r="K75" s="140"/>
+      <c r="L75" s="140"/>
+      <c r="M75" s="140"/>
+      <c r="N75" s="140"/>
+      <c r="O75" s="140"/>
+      <c r="P75" s="140"/>
+      <c r="Q75" s="140"/>
+      <c r="R75" s="141"/>
     </row>
     <row r="76" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="186"/>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
-      <c r="E76" s="169"/>
-      <c r="F76" s="169"/>
-      <c r="G76" s="169"/>
-      <c r="H76" s="169"/>
-      <c r="I76" s="169"/>
-      <c r="J76" s="169"/>
-      <c r="K76" s="169"/>
-      <c r="L76" s="169"/>
-      <c r="M76" s="169"/>
-      <c r="N76" s="169"/>
-      <c r="O76" s="169"/>
-      <c r="P76" s="169"/>
-      <c r="Q76" s="169"/>
-      <c r="R76" s="170"/>
+      <c r="A76" s="139"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="140"/>
+      <c r="F76" s="140"/>
+      <c r="G76" s="140"/>
+      <c r="H76" s="140"/>
+      <c r="I76" s="140"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="140"/>
+      <c r="N76" s="140"/>
+      <c r="O76" s="140"/>
+      <c r="P76" s="140"/>
+      <c r="Q76" s="140"/>
+      <c r="R76" s="141"/>
     </row>
     <row r="77" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="186"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
-      <c r="E77" s="169"/>
-      <c r="F77" s="169"/>
-      <c r="G77" s="169"/>
-      <c r="H77" s="169"/>
-      <c r="I77" s="169"/>
-      <c r="J77" s="169"/>
-      <c r="K77" s="169"/>
-      <c r="L77" s="169"/>
-      <c r="M77" s="169"/>
-      <c r="N77" s="169"/>
-      <c r="O77" s="169"/>
-      <c r="P77" s="169"/>
-      <c r="Q77" s="169"/>
-      <c r="R77" s="170"/>
+      <c r="A77" s="139"/>
+      <c r="B77" s="140"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="140"/>
+      <c r="F77" s="140"/>
+      <c r="G77" s="140"/>
+      <c r="H77" s="140"/>
+      <c r="I77" s="140"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="140"/>
+      <c r="M77" s="140"/>
+      <c r="N77" s="140"/>
+      <c r="O77" s="140"/>
+      <c r="P77" s="140"/>
+      <c r="Q77" s="140"/>
+      <c r="R77" s="141"/>
     </row>
     <row r="78" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="186"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
-      <c r="E78" s="169"/>
-      <c r="F78" s="169"/>
-      <c r="G78" s="169"/>
-      <c r="H78" s="169"/>
-      <c r="I78" s="169"/>
-      <c r="J78" s="169"/>
-      <c r="K78" s="169"/>
-      <c r="L78" s="169"/>
-      <c r="M78" s="169"/>
-      <c r="N78" s="169"/>
-      <c r="O78" s="169"/>
-      <c r="P78" s="169"/>
-      <c r="Q78" s="169"/>
-      <c r="R78" s="170"/>
+      <c r="A78" s="139"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="140"/>
+      <c r="E78" s="140"/>
+      <c r="F78" s="140"/>
+      <c r="G78" s="140"/>
+      <c r="H78" s="140"/>
+      <c r="I78" s="140"/>
+      <c r="J78" s="140"/>
+      <c r="K78" s="140"/>
+      <c r="L78" s="140"/>
+      <c r="M78" s="140"/>
+      <c r="N78" s="140"/>
+      <c r="O78" s="140"/>
+      <c r="P78" s="140"/>
+      <c r="Q78" s="140"/>
+      <c r="R78" s="141"/>
     </row>
     <row r="79" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="186"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
-      <c r="E79" s="169"/>
-      <c r="F79" s="169"/>
-      <c r="G79" s="169"/>
-      <c r="H79" s="169"/>
-      <c r="I79" s="169"/>
-      <c r="J79" s="169"/>
-      <c r="K79" s="169"/>
-      <c r="L79" s="169"/>
-      <c r="M79" s="169"/>
-      <c r="N79" s="169"/>
-      <c r="O79" s="169"/>
-      <c r="P79" s="169"/>
-      <c r="Q79" s="169"/>
-      <c r="R79" s="170"/>
+      <c r="A79" s="139"/>
+      <c r="B79" s="140"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="140"/>
+      <c r="F79" s="140"/>
+      <c r="G79" s="140"/>
+      <c r="H79" s="140"/>
+      <c r="I79" s="140"/>
+      <c r="J79" s="140"/>
+      <c r="K79" s="140"/>
+      <c r="L79" s="140"/>
+      <c r="M79" s="140"/>
+      <c r="N79" s="140"/>
+      <c r="O79" s="140"/>
+      <c r="P79" s="140"/>
+      <c r="Q79" s="140"/>
+      <c r="R79" s="141"/>
     </row>
     <row r="80" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="186"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
-      <c r="E80" s="169"/>
-      <c r="F80" s="169"/>
-      <c r="G80" s="169"/>
-      <c r="H80" s="169"/>
-      <c r="I80" s="169"/>
-      <c r="J80" s="169"/>
-      <c r="K80" s="169"/>
-      <c r="L80" s="169"/>
-      <c r="M80" s="169"/>
-      <c r="N80" s="169"/>
-      <c r="O80" s="169"/>
-      <c r="P80" s="169"/>
-      <c r="Q80" s="169"/>
-      <c r="R80" s="170"/>
+      <c r="A80" s="139"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="140"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="140"/>
+      <c r="N80" s="140"/>
+      <c r="O80" s="140"/>
+      <c r="P80" s="140"/>
+      <c r="Q80" s="140"/>
+      <c r="R80" s="141"/>
     </row>
     <row r="81" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="186"/>
-      <c r="B81" s="169"/>
-      <c r="C81" s="169"/>
-      <c r="D81" s="169"/>
-      <c r="E81" s="169"/>
-      <c r="F81" s="169"/>
-      <c r="G81" s="169"/>
-      <c r="H81" s="169"/>
-      <c r="I81" s="169"/>
-      <c r="J81" s="169"/>
-      <c r="K81" s="169"/>
-      <c r="L81" s="169"/>
-      <c r="M81" s="169"/>
-      <c r="N81" s="169"/>
-      <c r="O81" s="169"/>
-      <c r="P81" s="169"/>
-      <c r="Q81" s="169"/>
-      <c r="R81" s="170"/>
+      <c r="A81" s="139"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="140"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="140"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="140"/>
+      <c r="J81" s="140"/>
+      <c r="K81" s="140"/>
+      <c r="L81" s="140"/>
+      <c r="M81" s="140"/>
+      <c r="N81" s="140"/>
+      <c r="O81" s="140"/>
+      <c r="P81" s="140"/>
+      <c r="Q81" s="140"/>
+      <c r="R81" s="141"/>
     </row>
     <row r="82" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="186"/>
-      <c r="B82" s="169"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="169"/>
-      <c r="E82" s="169"/>
-      <c r="F82" s="169"/>
-      <c r="G82" s="169"/>
-      <c r="H82" s="169"/>
-      <c r="I82" s="169"/>
-      <c r="J82" s="169"/>
-      <c r="K82" s="169"/>
-      <c r="L82" s="169"/>
-      <c r="M82" s="169"/>
-      <c r="N82" s="169"/>
-      <c r="O82" s="169"/>
-      <c r="P82" s="169"/>
-      <c r="Q82" s="169"/>
-      <c r="R82" s="170"/>
+      <c r="A82" s="139"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="140"/>
+      <c r="J82" s="140"/>
+      <c r="K82" s="140"/>
+      <c r="L82" s="140"/>
+      <c r="M82" s="140"/>
+      <c r="N82" s="140"/>
+      <c r="O82" s="140"/>
+      <c r="P82" s="140"/>
+      <c r="Q82" s="140"/>
+      <c r="R82" s="141"/>
     </row>
     <row r="83" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="186"/>
-      <c r="B83" s="169"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
-      <c r="E83" s="169"/>
-      <c r="F83" s="169"/>
-      <c r="G83" s="169"/>
-      <c r="H83" s="169"/>
-      <c r="I83" s="169"/>
-      <c r="J83" s="169"/>
-      <c r="K83" s="169"/>
-      <c r="L83" s="169"/>
-      <c r="M83" s="169"/>
-      <c r="N83" s="169"/>
-      <c r="O83" s="169"/>
-      <c r="P83" s="169"/>
-      <c r="Q83" s="169"/>
-      <c r="R83" s="170"/>
+      <c r="A83" s="139"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="140"/>
+      <c r="K83" s="140"/>
+      <c r="L83" s="140"/>
+      <c r="M83" s="140"/>
+      <c r="N83" s="140"/>
+      <c r="O83" s="140"/>
+      <c r="P83" s="140"/>
+      <c r="Q83" s="140"/>
+      <c r="R83" s="141"/>
     </row>
     <row r="84" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="186"/>
-      <c r="B84" s="169"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="169"/>
-      <c r="E84" s="169"/>
-      <c r="F84" s="169"/>
-      <c r="G84" s="169"/>
-      <c r="H84" s="169"/>
-      <c r="I84" s="169"/>
-      <c r="J84" s="169"/>
-      <c r="K84" s="169"/>
-      <c r="L84" s="169"/>
-      <c r="M84" s="169"/>
-      <c r="N84" s="169"/>
-      <c r="O84" s="169"/>
-      <c r="P84" s="169"/>
-      <c r="Q84" s="169"/>
-      <c r="R84" s="170"/>
+      <c r="A84" s="139"/>
+      <c r="B84" s="140"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="140"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="140"/>
+      <c r="H84" s="140"/>
+      <c r="I84" s="140"/>
+      <c r="J84" s="140"/>
+      <c r="K84" s="140"/>
+      <c r="L84" s="140"/>
+      <c r="M84" s="140"/>
+      <c r="N84" s="140"/>
+      <c r="O84" s="140"/>
+      <c r="P84" s="140"/>
+      <c r="Q84" s="140"/>
+      <c r="R84" s="141"/>
     </row>
     <row r="85" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="186"/>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
-      <c r="G85" s="169"/>
-      <c r="H85" s="169"/>
-      <c r="I85" s="169"/>
-      <c r="J85" s="169"/>
-      <c r="K85" s="169"/>
-      <c r="L85" s="169"/>
-      <c r="M85" s="169"/>
-      <c r="N85" s="169"/>
-      <c r="O85" s="169"/>
-      <c r="P85" s="169"/>
-      <c r="Q85" s="169"/>
-      <c r="R85" s="170"/>
+      <c r="A85" s="139"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="140"/>
+      <c r="J85" s="140"/>
+      <c r="K85" s="140"/>
+      <c r="L85" s="140"/>
+      <c r="M85" s="140"/>
+      <c r="N85" s="140"/>
+      <c r="O85" s="140"/>
+      <c r="P85" s="140"/>
+      <c r="Q85" s="140"/>
+      <c r="R85" s="141"/>
     </row>
     <row r="86" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="188"/>
-      <c r="B86" s="189"/>
-      <c r="C86" s="189"/>
-      <c r="D86" s="189"/>
-      <c r="E86" s="189"/>
-      <c r="F86" s="189"/>
-      <c r="G86" s="189"/>
-      <c r="H86" s="189"/>
-      <c r="I86" s="189"/>
-      <c r="J86" s="189"/>
-      <c r="K86" s="189"/>
-      <c r="L86" s="189"/>
-      <c r="M86" s="189"/>
-      <c r="N86" s="189"/>
-      <c r="O86" s="189"/>
-      <c r="P86" s="189"/>
-      <c r="Q86" s="189"/>
-      <c r="R86" s="190"/>
+      <c r="A86" s="145"/>
+      <c r="B86" s="146"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="146"/>
+      <c r="H86" s="146"/>
+      <c r="I86" s="146"/>
+      <c r="J86" s="146"/>
+      <c r="K86" s="146"/>
+      <c r="L86" s="146"/>
+      <c r="M86" s="146"/>
+      <c r="N86" s="146"/>
+      <c r="O86" s="146"/>
+      <c r="P86" s="146"/>
+      <c r="Q86" s="146"/>
+      <c r="R86" s="147"/>
     </row>
     <row r="87" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="191" t="s">
+      <c r="A87" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="192"/>
-      <c r="C87" s="192"/>
-      <c r="D87" s="192"/>
-      <c r="E87" s="192"/>
-      <c r="F87" s="192"/>
-      <c r="G87" s="192"/>
-      <c r="H87" s="192"/>
-      <c r="I87" s="192"/>
-      <c r="J87" s="192"/>
-      <c r="K87" s="192"/>
-      <c r="L87" s="192"/>
-      <c r="M87" s="192"/>
-      <c r="N87" s="192"/>
-      <c r="O87" s="192"/>
-      <c r="P87" s="192"/>
-      <c r="Q87" s="192"/>
-      <c r="R87" s="193"/>
+      <c r="B87" s="153"/>
+      <c r="C87" s="153"/>
+      <c r="D87" s="153"/>
+      <c r="E87" s="153"/>
+      <c r="F87" s="153"/>
+      <c r="G87" s="153"/>
+      <c r="H87" s="153"/>
+      <c r="I87" s="153"/>
+      <c r="J87" s="153"/>
+      <c r="K87" s="153"/>
+      <c r="L87" s="153"/>
+      <c r="M87" s="153"/>
+      <c r="N87" s="153"/>
+      <c r="O87" s="153"/>
+      <c r="P87" s="153"/>
+      <c r="Q87" s="153"/>
+      <c r="R87" s="154"/>
     </row>
     <row r="88" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="56"/>
@@ -8359,22 +8499,22 @@
       <c r="R99" s="9"/>
     </row>
     <row r="100" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="158" t="s">
+      <c r="A100" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="159"/>
-      <c r="C100" s="161" t="s">
+      <c r="B100" s="149"/>
+      <c r="C100" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="163" t="s">
+      <c r="D100" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="163"/>
-      <c r="F100" s="163"/>
-      <c r="G100" s="163"/>
-      <c r="H100" s="163"/>
-      <c r="I100" s="163"/>
-      <c r="J100" s="161" t="s">
+      <c r="E100" s="151"/>
+      <c r="F100" s="151"/>
+      <c r="G100" s="151"/>
+      <c r="H100" s="151"/>
+      <c r="I100" s="151"/>
+      <c r="J100" s="150" t="s">
         <v>39</v>
       </c>
       <c r="K100" s="3"/>
@@ -8387,16 +8527,16 @@
       <c r="R100" s="9"/>
     </row>
     <row r="101" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="158"/>
-      <c r="B101" s="159"/>
-      <c r="C101" s="161"/>
-      <c r="D101" s="163"/>
-      <c r="E101" s="163"/>
-      <c r="F101" s="163"/>
-      <c r="G101" s="163"/>
-      <c r="H101" s="163"/>
-      <c r="I101" s="163"/>
-      <c r="J101" s="161"/>
+      <c r="A101" s="148"/>
+      <c r="B101" s="149"/>
+      <c r="C101" s="150"/>
+      <c r="D101" s="151"/>
+      <c r="E101" s="151"/>
+      <c r="F101" s="151"/>
+      <c r="G101" s="151"/>
+      <c r="H101" s="151"/>
+      <c r="I101" s="151"/>
+      <c r="J101" s="150"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -8407,126 +8547,126 @@
       <c r="R101" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="158" t="s">
+      <c r="A102" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="159"/>
-      <c r="C102" s="111" t="s">
+      <c r="B102" s="149"/>
+      <c r="C102" s="158" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="111"/>
-      <c r="E102" s="111"/>
-      <c r="F102" s="111"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="111"/>
-      <c r="I102" s="111"/>
-      <c r="J102" s="111"/>
-      <c r="K102" s="111"/>
-      <c r="L102" s="111"/>
-      <c r="M102" s="111"/>
-      <c r="N102" s="111"/>
-      <c r="O102" s="111"/>
-      <c r="P102" s="111"/>
-      <c r="Q102" s="111"/>
-      <c r="R102" s="112"/>
+      <c r="D102" s="158"/>
+      <c r="E102" s="158"/>
+      <c r="F102" s="158"/>
+      <c r="G102" s="158"/>
+      <c r="H102" s="158"/>
+      <c r="I102" s="158"/>
+      <c r="J102" s="158"/>
+      <c r="K102" s="158"/>
+      <c r="L102" s="158"/>
+      <c r="M102" s="158"/>
+      <c r="N102" s="158"/>
+      <c r="O102" s="158"/>
+      <c r="P102" s="158"/>
+      <c r="Q102" s="158"/>
+      <c r="R102" s="159"/>
     </row>
     <row r="103" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="158"/>
-      <c r="B103" s="159"/>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="111"/>
-      <c r="J103" s="111"/>
-      <c r="K103" s="111"/>
-      <c r="L103" s="111"/>
-      <c r="M103" s="111"/>
-      <c r="N103" s="111"/>
-      <c r="O103" s="111"/>
-      <c r="P103" s="111"/>
-      <c r="Q103" s="111"/>
-      <c r="R103" s="112"/>
+      <c r="A103" s="148"/>
+      <c r="B103" s="149"/>
+      <c r="C103" s="158"/>
+      <c r="D103" s="158"/>
+      <c r="E103" s="158"/>
+      <c r="F103" s="158"/>
+      <c r="G103" s="158"/>
+      <c r="H103" s="158"/>
+      <c r="I103" s="158"/>
+      <c r="J103" s="158"/>
+      <c r="K103" s="158"/>
+      <c r="L103" s="158"/>
+      <c r="M103" s="158"/>
+      <c r="N103" s="158"/>
+      <c r="O103" s="158"/>
+      <c r="P103" s="158"/>
+      <c r="Q103" s="158"/>
+      <c r="R103" s="159"/>
     </row>
     <row r="104" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="56"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="111"/>
-      <c r="D104" s="111"/>
-      <c r="E104" s="111"/>
-      <c r="F104" s="111"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="111"/>
-      <c r="I104" s="111"/>
-      <c r="J104" s="111"/>
-      <c r="K104" s="111"/>
-      <c r="L104" s="111"/>
-      <c r="M104" s="111"/>
-      <c r="N104" s="111"/>
-      <c r="O104" s="111"/>
-      <c r="P104" s="111"/>
-      <c r="Q104" s="111"/>
-      <c r="R104" s="112"/>
+      <c r="C104" s="158"/>
+      <c r="D104" s="158"/>
+      <c r="E104" s="158"/>
+      <c r="F104" s="158"/>
+      <c r="G104" s="158"/>
+      <c r="H104" s="158"/>
+      <c r="I104" s="158"/>
+      <c r="J104" s="158"/>
+      <c r="K104" s="158"/>
+      <c r="L104" s="158"/>
+      <c r="M104" s="158"/>
+      <c r="N104" s="158"/>
+      <c r="O104" s="158"/>
+      <c r="P104" s="158"/>
+      <c r="Q104" s="158"/>
+      <c r="R104" s="159"/>
     </row>
     <row r="105" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="56"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="111"/>
-      <c r="D105" s="111"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="111"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="111"/>
-      <c r="I105" s="111"/>
-      <c r="J105" s="111"/>
-      <c r="K105" s="111"/>
-      <c r="L105" s="111"/>
-      <c r="M105" s="111"/>
-      <c r="N105" s="111"/>
-      <c r="O105" s="111"/>
-      <c r="P105" s="111"/>
-      <c r="Q105" s="111"/>
-      <c r="R105" s="112"/>
+      <c r="C105" s="158"/>
+      <c r="D105" s="158"/>
+      <c r="E105" s="158"/>
+      <c r="F105" s="158"/>
+      <c r="G105" s="158"/>
+      <c r="H105" s="158"/>
+      <c r="I105" s="158"/>
+      <c r="J105" s="158"/>
+      <c r="K105" s="158"/>
+      <c r="L105" s="158"/>
+      <c r="M105" s="158"/>
+      <c r="N105" s="158"/>
+      <c r="O105" s="158"/>
+      <c r="P105" s="158"/>
+      <c r="Q105" s="158"/>
+      <c r="R105" s="159"/>
     </row>
     <row r="106" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="65"/>
       <c r="B106" s="66"/>
-      <c r="C106" s="154"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="154"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="154"/>
-      <c r="I106" s="154"/>
-      <c r="J106" s="154"/>
-      <c r="K106" s="154"/>
-      <c r="L106" s="154"/>
-      <c r="M106" s="154"/>
-      <c r="N106" s="154"/>
-      <c r="O106" s="154"/>
-      <c r="P106" s="154"/>
-      <c r="Q106" s="154"/>
-      <c r="R106" s="155"/>
+      <c r="C106" s="166"/>
+      <c r="D106" s="166"/>
+      <c r="E106" s="166"/>
+      <c r="F106" s="166"/>
+      <c r="G106" s="166"/>
+      <c r="H106" s="166"/>
+      <c r="I106" s="166"/>
+      <c r="J106" s="166"/>
+      <c r="K106" s="166"/>
+      <c r="L106" s="166"/>
+      <c r="M106" s="166"/>
+      <c r="N106" s="166"/>
+      <c r="O106" s="166"/>
+      <c r="P106" s="166"/>
+      <c r="Q106" s="166"/>
+      <c r="R106" s="167"/>
     </row>
     <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="156" t="s">
+      <c r="A107" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="157"/>
-      <c r="C107" s="160" t="s">
+      <c r="B107" s="192"/>
+      <c r="C107" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="162" t="s">
+      <c r="D107" s="194" t="s">
         <v>86</v>
       </c>
-      <c r="E107" s="162"/>
-      <c r="F107" s="162"/>
-      <c r="G107" s="162"/>
-      <c r="H107" s="162"/>
-      <c r="I107" s="162"/>
-      <c r="J107" s="160" t="s">
+      <c r="E107" s="194"/>
+      <c r="F107" s="194"/>
+      <c r="G107" s="194"/>
+      <c r="H107" s="194"/>
+      <c r="I107" s="194"/>
+      <c r="J107" s="193" t="s">
         <v>39</v>
       </c>
       <c r="K107" s="67"/>
@@ -8539,16 +8679,16 @@
       <c r="R107" s="8"/>
     </row>
     <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="158"/>
-      <c r="B108" s="159"/>
-      <c r="C108" s="161"/>
-      <c r="D108" s="163"/>
-      <c r="E108" s="163"/>
-      <c r="F108" s="163"/>
-      <c r="G108" s="163"/>
-      <c r="H108" s="163"/>
-      <c r="I108" s="163"/>
-      <c r="J108" s="161"/>
+      <c r="A108" s="148"/>
+      <c r="B108" s="149"/>
+      <c r="C108" s="150"/>
+      <c r="D108" s="151"/>
+      <c r="E108" s="151"/>
+      <c r="F108" s="151"/>
+      <c r="G108" s="151"/>
+      <c r="H108" s="151"/>
+      <c r="I108" s="151"/>
+      <c r="J108" s="150"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -8559,126 +8699,126 @@
       <c r="R108" s="9"/>
     </row>
     <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="158" t="s">
+      <c r="A109" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="159"/>
-      <c r="C109" s="111" t="s">
+      <c r="B109" s="149"/>
+      <c r="C109" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="111"/>
-      <c r="E109" s="111"/>
-      <c r="F109" s="111"/>
-      <c r="G109" s="111"/>
-      <c r="H109" s="111"/>
-      <c r="I109" s="111"/>
-      <c r="J109" s="111"/>
-      <c r="K109" s="111"/>
-      <c r="L109" s="111"/>
-      <c r="M109" s="111"/>
-      <c r="N109" s="111"/>
-      <c r="O109" s="111"/>
-      <c r="P109" s="111"/>
-      <c r="Q109" s="111"/>
-      <c r="R109" s="112"/>
+      <c r="D109" s="158"/>
+      <c r="E109" s="158"/>
+      <c r="F109" s="158"/>
+      <c r="G109" s="158"/>
+      <c r="H109" s="158"/>
+      <c r="I109" s="158"/>
+      <c r="J109" s="158"/>
+      <c r="K109" s="158"/>
+      <c r="L109" s="158"/>
+      <c r="M109" s="158"/>
+      <c r="N109" s="158"/>
+      <c r="O109" s="158"/>
+      <c r="P109" s="158"/>
+      <c r="Q109" s="158"/>
+      <c r="R109" s="159"/>
     </row>
     <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="158"/>
-      <c r="B110" s="159"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="111"/>
-      <c r="G110" s="111"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="111"/>
-      <c r="J110" s="111"/>
-      <c r="K110" s="111"/>
-      <c r="L110" s="111"/>
-      <c r="M110" s="111"/>
-      <c r="N110" s="111"/>
-      <c r="O110" s="111"/>
-      <c r="P110" s="111"/>
-      <c r="Q110" s="111"/>
-      <c r="R110" s="112"/>
+      <c r="A110" s="148"/>
+      <c r="B110" s="149"/>
+      <c r="C110" s="158"/>
+      <c r="D110" s="158"/>
+      <c r="E110" s="158"/>
+      <c r="F110" s="158"/>
+      <c r="G110" s="158"/>
+      <c r="H110" s="158"/>
+      <c r="I110" s="158"/>
+      <c r="J110" s="158"/>
+      <c r="K110" s="158"/>
+      <c r="L110" s="158"/>
+      <c r="M110" s="158"/>
+      <c r="N110" s="158"/>
+      <c r="O110" s="158"/>
+      <c r="P110" s="158"/>
+      <c r="Q110" s="158"/>
+      <c r="R110" s="159"/>
     </row>
     <row r="111" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="56"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="111"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="111"/>
-      <c r="F111" s="111"/>
-      <c r="G111" s="111"/>
-      <c r="H111" s="111"/>
-      <c r="I111" s="111"/>
-      <c r="J111" s="111"/>
-      <c r="K111" s="111"/>
-      <c r="L111" s="111"/>
-      <c r="M111" s="111"/>
-      <c r="N111" s="111"/>
-      <c r="O111" s="111"/>
-      <c r="P111" s="111"/>
-      <c r="Q111" s="111"/>
-      <c r="R111" s="112"/>
+      <c r="C111" s="158"/>
+      <c r="D111" s="158"/>
+      <c r="E111" s="158"/>
+      <c r="F111" s="158"/>
+      <c r="G111" s="158"/>
+      <c r="H111" s="158"/>
+      <c r="I111" s="158"/>
+      <c r="J111" s="158"/>
+      <c r="K111" s="158"/>
+      <c r="L111" s="158"/>
+      <c r="M111" s="158"/>
+      <c r="N111" s="158"/>
+      <c r="O111" s="158"/>
+      <c r="P111" s="158"/>
+      <c r="Q111" s="158"/>
+      <c r="R111" s="159"/>
     </row>
     <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="56"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="111"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="111"/>
-      <c r="G112" s="111"/>
-      <c r="H112" s="111"/>
-      <c r="I112" s="111"/>
-      <c r="J112" s="111"/>
-      <c r="K112" s="111"/>
-      <c r="L112" s="111"/>
-      <c r="M112" s="111"/>
-      <c r="N112" s="111"/>
-      <c r="O112" s="111"/>
-      <c r="P112" s="111"/>
-      <c r="Q112" s="111"/>
-      <c r="R112" s="112"/>
+      <c r="C112" s="158"/>
+      <c r="D112" s="158"/>
+      <c r="E112" s="158"/>
+      <c r="F112" s="158"/>
+      <c r="G112" s="158"/>
+      <c r="H112" s="158"/>
+      <c r="I112" s="158"/>
+      <c r="J112" s="158"/>
+      <c r="K112" s="158"/>
+      <c r="L112" s="158"/>
+      <c r="M112" s="158"/>
+      <c r="N112" s="158"/>
+      <c r="O112" s="158"/>
+      <c r="P112" s="158"/>
+      <c r="Q112" s="158"/>
+      <c r="R112" s="159"/>
     </row>
     <row r="113" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="65"/>
       <c r="B113" s="66"/>
-      <c r="C113" s="154"/>
-      <c r="D113" s="154"/>
-      <c r="E113" s="154"/>
-      <c r="F113" s="154"/>
-      <c r="G113" s="154"/>
-      <c r="H113" s="154"/>
-      <c r="I113" s="154"/>
-      <c r="J113" s="154"/>
-      <c r="K113" s="154"/>
-      <c r="L113" s="154"/>
-      <c r="M113" s="154"/>
-      <c r="N113" s="154"/>
-      <c r="O113" s="154"/>
-      <c r="P113" s="154"/>
-      <c r="Q113" s="154"/>
-      <c r="R113" s="155"/>
+      <c r="C113" s="166"/>
+      <c r="D113" s="166"/>
+      <c r="E113" s="166"/>
+      <c r="F113" s="166"/>
+      <c r="G113" s="166"/>
+      <c r="H113" s="166"/>
+      <c r="I113" s="166"/>
+      <c r="J113" s="166"/>
+      <c r="K113" s="166"/>
+      <c r="L113" s="166"/>
+      <c r="M113" s="166"/>
+      <c r="N113" s="166"/>
+      <c r="O113" s="166"/>
+      <c r="P113" s="166"/>
+      <c r="Q113" s="166"/>
+      <c r="R113" s="167"/>
     </row>
     <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="156" t="s">
+      <c r="A114" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="157"/>
-      <c r="C114" s="160" t="s">
+      <c r="B114" s="192"/>
+      <c r="C114" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="162" t="s">
+      <c r="D114" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="E114" s="162"/>
-      <c r="F114" s="162"/>
-      <c r="G114" s="162"/>
-      <c r="H114" s="162"/>
-      <c r="I114" s="162"/>
-      <c r="J114" s="160" t="s">
+      <c r="E114" s="194"/>
+      <c r="F114" s="194"/>
+      <c r="G114" s="194"/>
+      <c r="H114" s="194"/>
+      <c r="I114" s="194"/>
+      <c r="J114" s="193" t="s">
         <v>39</v>
       </c>
       <c r="K114" s="67"/>
@@ -8691,16 +8831,16 @@
       <c r="R114" s="8"/>
     </row>
     <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="158"/>
-      <c r="B115" s="159"/>
-      <c r="C115" s="161"/>
-      <c r="D115" s="163"/>
-      <c r="E115" s="163"/>
-      <c r="F115" s="163"/>
-      <c r="G115" s="163"/>
-      <c r="H115" s="163"/>
-      <c r="I115" s="163"/>
-      <c r="J115" s="161"/>
+      <c r="A115" s="148"/>
+      <c r="B115" s="149"/>
+      <c r="C115" s="150"/>
+      <c r="D115" s="151"/>
+      <c r="E115" s="151"/>
+      <c r="F115" s="151"/>
+      <c r="G115" s="151"/>
+      <c r="H115" s="151"/>
+      <c r="I115" s="151"/>
+      <c r="J115" s="150"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -8711,108 +8851,108 @@
       <c r="R115" s="9"/>
     </row>
     <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="158" t="s">
+      <c r="A116" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B116" s="159"/>
-      <c r="C116" s="111" t="s">
+      <c r="B116" s="149"/>
+      <c r="C116" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="D116" s="111"/>
-      <c r="E116" s="111"/>
-      <c r="F116" s="111"/>
-      <c r="G116" s="111"/>
-      <c r="H116" s="111"/>
-      <c r="I116" s="111"/>
-      <c r="J116" s="111"/>
-      <c r="K116" s="111"/>
-      <c r="L116" s="111"/>
-      <c r="M116" s="111"/>
-      <c r="N116" s="111"/>
-      <c r="O116" s="111"/>
-      <c r="P116" s="111"/>
-      <c r="Q116" s="111"/>
-      <c r="R116" s="112"/>
+      <c r="D116" s="158"/>
+      <c r="E116" s="158"/>
+      <c r="F116" s="158"/>
+      <c r="G116" s="158"/>
+      <c r="H116" s="158"/>
+      <c r="I116" s="158"/>
+      <c r="J116" s="158"/>
+      <c r="K116" s="158"/>
+      <c r="L116" s="158"/>
+      <c r="M116" s="158"/>
+      <c r="N116" s="158"/>
+      <c r="O116" s="158"/>
+      <c r="P116" s="158"/>
+      <c r="Q116" s="158"/>
+      <c r="R116" s="159"/>
     </row>
     <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="158"/>
-      <c r="B117" s="159"/>
-      <c r="C117" s="111"/>
-      <c r="D117" s="111"/>
-      <c r="E117" s="111"/>
-      <c r="F117" s="111"/>
-      <c r="G117" s="111"/>
-      <c r="H117" s="111"/>
-      <c r="I117" s="111"/>
-      <c r="J117" s="111"/>
-      <c r="K117" s="111"/>
-      <c r="L117" s="111"/>
-      <c r="M117" s="111"/>
-      <c r="N117" s="111"/>
-      <c r="O117" s="111"/>
-      <c r="P117" s="111"/>
-      <c r="Q117" s="111"/>
-      <c r="R117" s="112"/>
+      <c r="A117" s="148"/>
+      <c r="B117" s="149"/>
+      <c r="C117" s="158"/>
+      <c r="D117" s="158"/>
+      <c r="E117" s="158"/>
+      <c r="F117" s="158"/>
+      <c r="G117" s="158"/>
+      <c r="H117" s="158"/>
+      <c r="I117" s="158"/>
+      <c r="J117" s="158"/>
+      <c r="K117" s="158"/>
+      <c r="L117" s="158"/>
+      <c r="M117" s="158"/>
+      <c r="N117" s="158"/>
+      <c r="O117" s="158"/>
+      <c r="P117" s="158"/>
+      <c r="Q117" s="158"/>
+      <c r="R117" s="159"/>
     </row>
     <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="56"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="111"/>
-      <c r="D118" s="111"/>
-      <c r="E118" s="111"/>
-      <c r="F118" s="111"/>
-      <c r="G118" s="111"/>
-      <c r="H118" s="111"/>
-      <c r="I118" s="111"/>
-      <c r="J118" s="111"/>
-      <c r="K118" s="111"/>
-      <c r="L118" s="111"/>
-      <c r="M118" s="111"/>
-      <c r="N118" s="111"/>
-      <c r="O118" s="111"/>
-      <c r="P118" s="111"/>
-      <c r="Q118" s="111"/>
-      <c r="R118" s="112"/>
+      <c r="C118" s="158"/>
+      <c r="D118" s="158"/>
+      <c r="E118" s="158"/>
+      <c r="F118" s="158"/>
+      <c r="G118" s="158"/>
+      <c r="H118" s="158"/>
+      <c r="I118" s="158"/>
+      <c r="J118" s="158"/>
+      <c r="K118" s="158"/>
+      <c r="L118" s="158"/>
+      <c r="M118" s="158"/>
+      <c r="N118" s="158"/>
+      <c r="O118" s="158"/>
+      <c r="P118" s="158"/>
+      <c r="Q118" s="158"/>
+      <c r="R118" s="159"/>
     </row>
     <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="56"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="111"/>
-      <c r="D119" s="111"/>
-      <c r="E119" s="111"/>
-      <c r="F119" s="111"/>
-      <c r="G119" s="111"/>
-      <c r="H119" s="111"/>
-      <c r="I119" s="111"/>
-      <c r="J119" s="111"/>
-      <c r="K119" s="111"/>
-      <c r="L119" s="111"/>
-      <c r="M119" s="111"/>
-      <c r="N119" s="111"/>
-      <c r="O119" s="111"/>
-      <c r="P119" s="111"/>
-      <c r="Q119" s="111"/>
-      <c r="R119" s="112"/>
+      <c r="C119" s="158"/>
+      <c r="D119" s="158"/>
+      <c r="E119" s="158"/>
+      <c r="F119" s="158"/>
+      <c r="G119" s="158"/>
+      <c r="H119" s="158"/>
+      <c r="I119" s="158"/>
+      <c r="J119" s="158"/>
+      <c r="K119" s="158"/>
+      <c r="L119" s="158"/>
+      <c r="M119" s="158"/>
+      <c r="N119" s="158"/>
+      <c r="O119" s="158"/>
+      <c r="P119" s="158"/>
+      <c r="Q119" s="158"/>
+      <c r="R119" s="159"/>
     </row>
     <row r="120" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="58"/>
       <c r="B120" s="59"/>
-      <c r="C120" s="194"/>
-      <c r="D120" s="194"/>
-      <c r="E120" s="194"/>
-      <c r="F120" s="194"/>
-      <c r="G120" s="194"/>
-      <c r="H120" s="194"/>
-      <c r="I120" s="194"/>
-      <c r="J120" s="194"/>
-      <c r="K120" s="194"/>
-      <c r="L120" s="194"/>
-      <c r="M120" s="194"/>
-      <c r="N120" s="194"/>
-      <c r="O120" s="194"/>
-      <c r="P120" s="194"/>
-      <c r="Q120" s="194"/>
-      <c r="R120" s="195"/>
+      <c r="C120" s="160"/>
+      <c r="D120" s="160"/>
+      <c r="E120" s="160"/>
+      <c r="F120" s="160"/>
+      <c r="G120" s="160"/>
+      <c r="H120" s="160"/>
+      <c r="I120" s="160"/>
+      <c r="J120" s="160"/>
+      <c r="K120" s="160"/>
+      <c r="L120" s="160"/>
+      <c r="M120" s="160"/>
+      <c r="N120" s="160"/>
+      <c r="O120" s="160"/>
+      <c r="P120" s="160"/>
+      <c r="Q120" s="160"/>
+      <c r="R120" s="161"/>
     </row>
     <row r="121" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -8835,326 +8975,328 @@
       <c r="R121" s="3"/>
     </row>
     <row r="122" spans="1:18" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="178" t="s">
+      <c r="A122" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="B122" s="179"/>
-      <c r="C122" s="179"/>
-      <c r="D122" s="179"/>
-      <c r="E122" s="179"/>
-      <c r="F122" s="179"/>
-      <c r="G122" s="179"/>
-      <c r="H122" s="179"/>
-      <c r="I122" s="179"/>
-      <c r="J122" s="179"/>
-      <c r="K122" s="179"/>
-      <c r="L122" s="179"/>
-      <c r="M122" s="179"/>
-      <c r="N122" s="179"/>
-      <c r="O122" s="179"/>
-      <c r="P122" s="179"/>
-      <c r="Q122" s="179"/>
-      <c r="R122" s="180"/>
+      <c r="B122" s="156"/>
+      <c r="C122" s="156"/>
+      <c r="D122" s="156"/>
+      <c r="E122" s="156"/>
+      <c r="F122" s="156"/>
+      <c r="G122" s="156"/>
+      <c r="H122" s="156"/>
+      <c r="I122" s="156"/>
+      <c r="J122" s="156"/>
+      <c r="K122" s="156"/>
+      <c r="L122" s="156"/>
+      <c r="M122" s="156"/>
+      <c r="N122" s="156"/>
+      <c r="O122" s="156"/>
+      <c r="P122" s="156"/>
+      <c r="Q122" s="156"/>
+      <c r="R122" s="157"/>
     </row>
     <row r="123" spans="1:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="186"/>
-      <c r="B123" s="169"/>
-      <c r="C123" s="169"/>
-      <c r="D123" s="169"/>
-      <c r="E123" s="169"/>
-      <c r="F123" s="169"/>
-      <c r="G123" s="169"/>
-      <c r="H123" s="169"/>
-      <c r="I123" s="169"/>
-      <c r="J123" s="169"/>
-      <c r="K123" s="169"/>
-      <c r="L123" s="169"/>
-      <c r="M123" s="169"/>
-      <c r="N123" s="169"/>
-      <c r="O123" s="169"/>
-      <c r="P123" s="169"/>
-      <c r="Q123" s="169"/>
-      <c r="R123" s="196"/>
+      <c r="A123" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" s="140"/>
+      <c r="C123" s="140"/>
+      <c r="D123" s="140"/>
+      <c r="E123" s="140"/>
+      <c r="F123" s="140"/>
+      <c r="G123" s="140"/>
+      <c r="H123" s="140"/>
+      <c r="I123" s="140"/>
+      <c r="J123" s="140"/>
+      <c r="K123" s="140"/>
+      <c r="L123" s="140"/>
+      <c r="M123" s="140"/>
+      <c r="N123" s="140"/>
+      <c r="O123" s="140"/>
+      <c r="P123" s="140"/>
+      <c r="Q123" s="140"/>
+      <c r="R123" s="162"/>
     </row>
     <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="186"/>
-      <c r="B124" s="169"/>
-      <c r="C124" s="169"/>
-      <c r="D124" s="169"/>
-      <c r="E124" s="169"/>
-      <c r="F124" s="169"/>
-      <c r="G124" s="169"/>
-      <c r="H124" s="169"/>
-      <c r="I124" s="169"/>
-      <c r="J124" s="169"/>
-      <c r="K124" s="169"/>
-      <c r="L124" s="169"/>
-      <c r="M124" s="169"/>
-      <c r="N124" s="169"/>
-      <c r="O124" s="169"/>
-      <c r="P124" s="169"/>
-      <c r="Q124" s="169"/>
-      <c r="R124" s="196"/>
+      <c r="A124" s="139"/>
+      <c r="B124" s="140"/>
+      <c r="C124" s="140"/>
+      <c r="D124" s="140"/>
+      <c r="E124" s="140"/>
+      <c r="F124" s="140"/>
+      <c r="G124" s="140"/>
+      <c r="H124" s="140"/>
+      <c r="I124" s="140"/>
+      <c r="J124" s="140"/>
+      <c r="K124" s="140"/>
+      <c r="L124" s="140"/>
+      <c r="M124" s="140"/>
+      <c r="N124" s="140"/>
+      <c r="O124" s="140"/>
+      <c r="P124" s="140"/>
+      <c r="Q124" s="140"/>
+      <c r="R124" s="162"/>
     </row>
     <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="186"/>
-      <c r="B125" s="169"/>
-      <c r="C125" s="169"/>
-      <c r="D125" s="169"/>
-      <c r="E125" s="169"/>
-      <c r="F125" s="169"/>
-      <c r="G125" s="169"/>
-      <c r="H125" s="169"/>
-      <c r="I125" s="169"/>
-      <c r="J125" s="169"/>
-      <c r="K125" s="169"/>
-      <c r="L125" s="169"/>
-      <c r="M125" s="169"/>
-      <c r="N125" s="169"/>
-      <c r="O125" s="169"/>
-      <c r="P125" s="169"/>
-      <c r="Q125" s="169"/>
-      <c r="R125" s="196"/>
+      <c r="A125" s="139"/>
+      <c r="B125" s="140"/>
+      <c r="C125" s="140"/>
+      <c r="D125" s="140"/>
+      <c r="E125" s="140"/>
+      <c r="F125" s="140"/>
+      <c r="G125" s="140"/>
+      <c r="H125" s="140"/>
+      <c r="I125" s="140"/>
+      <c r="J125" s="140"/>
+      <c r="K125" s="140"/>
+      <c r="L125" s="140"/>
+      <c r="M125" s="140"/>
+      <c r="N125" s="140"/>
+      <c r="O125" s="140"/>
+      <c r="P125" s="140"/>
+      <c r="Q125" s="140"/>
+      <c r="R125" s="162"/>
     </row>
     <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="186"/>
-      <c r="B126" s="169"/>
-      <c r="C126" s="169"/>
-      <c r="D126" s="169"/>
-      <c r="E126" s="169"/>
-      <c r="F126" s="169"/>
-      <c r="G126" s="169"/>
-      <c r="H126" s="169"/>
-      <c r="I126" s="169"/>
-      <c r="J126" s="169"/>
-      <c r="K126" s="169"/>
-      <c r="L126" s="169"/>
-      <c r="M126" s="169"/>
-      <c r="N126" s="169"/>
-      <c r="O126" s="169"/>
-      <c r="P126" s="169"/>
-      <c r="Q126" s="169"/>
-      <c r="R126" s="196"/>
+      <c r="A126" s="139"/>
+      <c r="B126" s="140"/>
+      <c r="C126" s="140"/>
+      <c r="D126" s="140"/>
+      <c r="E126" s="140"/>
+      <c r="F126" s="140"/>
+      <c r="G126" s="140"/>
+      <c r="H126" s="140"/>
+      <c r="I126" s="140"/>
+      <c r="J126" s="140"/>
+      <c r="K126" s="140"/>
+      <c r="L126" s="140"/>
+      <c r="M126" s="140"/>
+      <c r="N126" s="140"/>
+      <c r="O126" s="140"/>
+      <c r="P126" s="140"/>
+      <c r="Q126" s="140"/>
+      <c r="R126" s="162"/>
     </row>
     <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="186"/>
-      <c r="B127" s="169"/>
-      <c r="C127" s="169"/>
-      <c r="D127" s="169"/>
-      <c r="E127" s="169"/>
-      <c r="F127" s="169"/>
-      <c r="G127" s="169"/>
-      <c r="H127" s="169"/>
-      <c r="I127" s="169"/>
-      <c r="J127" s="169"/>
-      <c r="K127" s="169"/>
-      <c r="L127" s="169"/>
-      <c r="M127" s="169"/>
-      <c r="N127" s="169"/>
-      <c r="O127" s="169"/>
-      <c r="P127" s="169"/>
-      <c r="Q127" s="169"/>
-      <c r="R127" s="196"/>
+      <c r="A127" s="139"/>
+      <c r="B127" s="140"/>
+      <c r="C127" s="140"/>
+      <c r="D127" s="140"/>
+      <c r="E127" s="140"/>
+      <c r="F127" s="140"/>
+      <c r="G127" s="140"/>
+      <c r="H127" s="140"/>
+      <c r="I127" s="140"/>
+      <c r="J127" s="140"/>
+      <c r="K127" s="140"/>
+      <c r="L127" s="140"/>
+      <c r="M127" s="140"/>
+      <c r="N127" s="140"/>
+      <c r="O127" s="140"/>
+      <c r="P127" s="140"/>
+      <c r="Q127" s="140"/>
+      <c r="R127" s="162"/>
     </row>
     <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="186"/>
-      <c r="B128" s="169"/>
-      <c r="C128" s="169"/>
-      <c r="D128" s="169"/>
-      <c r="E128" s="169"/>
-      <c r="F128" s="169"/>
-      <c r="G128" s="169"/>
-      <c r="H128" s="169"/>
-      <c r="I128" s="169"/>
-      <c r="J128" s="169"/>
-      <c r="K128" s="169"/>
-      <c r="L128" s="169"/>
-      <c r="M128" s="169"/>
-      <c r="N128" s="169"/>
-      <c r="O128" s="169"/>
-      <c r="P128" s="169"/>
-      <c r="Q128" s="169"/>
-      <c r="R128" s="196"/>
+      <c r="A128" s="139"/>
+      <c r="B128" s="140"/>
+      <c r="C128" s="140"/>
+      <c r="D128" s="140"/>
+      <c r="E128" s="140"/>
+      <c r="F128" s="140"/>
+      <c r="G128" s="140"/>
+      <c r="H128" s="140"/>
+      <c r="I128" s="140"/>
+      <c r="J128" s="140"/>
+      <c r="K128" s="140"/>
+      <c r="L128" s="140"/>
+      <c r="M128" s="140"/>
+      <c r="N128" s="140"/>
+      <c r="O128" s="140"/>
+      <c r="P128" s="140"/>
+      <c r="Q128" s="140"/>
+      <c r="R128" s="162"/>
     </row>
     <row r="129" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="186"/>
-      <c r="B129" s="169"/>
-      <c r="C129" s="169"/>
-      <c r="D129" s="169"/>
-      <c r="E129" s="169"/>
-      <c r="F129" s="169"/>
-      <c r="G129" s="169"/>
-      <c r="H129" s="169"/>
-      <c r="I129" s="169"/>
-      <c r="J129" s="169"/>
-      <c r="K129" s="169"/>
-      <c r="L129" s="169"/>
-      <c r="M129" s="169"/>
-      <c r="N129" s="169"/>
-      <c r="O129" s="169"/>
-      <c r="P129" s="169"/>
-      <c r="Q129" s="169"/>
-      <c r="R129" s="196"/>
+      <c r="A129" s="139"/>
+      <c r="B129" s="140"/>
+      <c r="C129" s="140"/>
+      <c r="D129" s="140"/>
+      <c r="E129" s="140"/>
+      <c r="F129" s="140"/>
+      <c r="G129" s="140"/>
+      <c r="H129" s="140"/>
+      <c r="I129" s="140"/>
+      <c r="J129" s="140"/>
+      <c r="K129" s="140"/>
+      <c r="L129" s="140"/>
+      <c r="M129" s="140"/>
+      <c r="N129" s="140"/>
+      <c r="O129" s="140"/>
+      <c r="P129" s="140"/>
+      <c r="Q129" s="140"/>
+      <c r="R129" s="162"/>
     </row>
     <row r="130" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="186"/>
-      <c r="B130" s="169"/>
-      <c r="C130" s="169"/>
-      <c r="D130" s="169"/>
-      <c r="E130" s="169"/>
-      <c r="F130" s="169"/>
-      <c r="G130" s="169"/>
-      <c r="H130" s="169"/>
-      <c r="I130" s="169"/>
-      <c r="J130" s="169"/>
-      <c r="K130" s="169"/>
-      <c r="L130" s="169"/>
-      <c r="M130" s="169"/>
-      <c r="N130" s="169"/>
-      <c r="O130" s="169"/>
-      <c r="P130" s="169"/>
-      <c r="Q130" s="169"/>
-      <c r="R130" s="196"/>
+      <c r="A130" s="139"/>
+      <c r="B130" s="140"/>
+      <c r="C130" s="140"/>
+      <c r="D130" s="140"/>
+      <c r="E130" s="140"/>
+      <c r="F130" s="140"/>
+      <c r="G130" s="140"/>
+      <c r="H130" s="140"/>
+      <c r="I130" s="140"/>
+      <c r="J130" s="140"/>
+      <c r="K130" s="140"/>
+      <c r="L130" s="140"/>
+      <c r="M130" s="140"/>
+      <c r="N130" s="140"/>
+      <c r="O130" s="140"/>
+      <c r="P130" s="140"/>
+      <c r="Q130" s="140"/>
+      <c r="R130" s="162"/>
     </row>
     <row r="131" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="186"/>
-      <c r="B131" s="169"/>
-      <c r="C131" s="169"/>
-      <c r="D131" s="169"/>
-      <c r="E131" s="169"/>
-      <c r="F131" s="169"/>
-      <c r="G131" s="169"/>
-      <c r="H131" s="169"/>
-      <c r="I131" s="169"/>
-      <c r="J131" s="169"/>
-      <c r="K131" s="169"/>
-      <c r="L131" s="169"/>
-      <c r="M131" s="169"/>
-      <c r="N131" s="169"/>
-      <c r="O131" s="169"/>
-      <c r="P131" s="169"/>
-      <c r="Q131" s="169"/>
-      <c r="R131" s="196"/>
+      <c r="A131" s="139"/>
+      <c r="B131" s="140"/>
+      <c r="C131" s="140"/>
+      <c r="D131" s="140"/>
+      <c r="E131" s="140"/>
+      <c r="F131" s="140"/>
+      <c r="G131" s="140"/>
+      <c r="H131" s="140"/>
+      <c r="I131" s="140"/>
+      <c r="J131" s="140"/>
+      <c r="K131" s="140"/>
+      <c r="L131" s="140"/>
+      <c r="M131" s="140"/>
+      <c r="N131" s="140"/>
+      <c r="O131" s="140"/>
+      <c r="P131" s="140"/>
+      <c r="Q131" s="140"/>
+      <c r="R131" s="162"/>
     </row>
     <row r="132" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="186"/>
-      <c r="B132" s="169"/>
-      <c r="C132" s="169"/>
-      <c r="D132" s="169"/>
-      <c r="E132" s="169"/>
-      <c r="F132" s="169"/>
-      <c r="G132" s="169"/>
-      <c r="H132" s="169"/>
-      <c r="I132" s="169"/>
-      <c r="J132" s="169"/>
-      <c r="K132" s="169"/>
-      <c r="L132" s="169"/>
-      <c r="M132" s="169"/>
-      <c r="N132" s="169"/>
-      <c r="O132" s="169"/>
-      <c r="P132" s="169"/>
-      <c r="Q132" s="169"/>
-      <c r="R132" s="196"/>
+      <c r="A132" s="139"/>
+      <c r="B132" s="140"/>
+      <c r="C132" s="140"/>
+      <c r="D132" s="140"/>
+      <c r="E132" s="140"/>
+      <c r="F132" s="140"/>
+      <c r="G132" s="140"/>
+      <c r="H132" s="140"/>
+      <c r="I132" s="140"/>
+      <c r="J132" s="140"/>
+      <c r="K132" s="140"/>
+      <c r="L132" s="140"/>
+      <c r="M132" s="140"/>
+      <c r="N132" s="140"/>
+      <c r="O132" s="140"/>
+      <c r="P132" s="140"/>
+      <c r="Q132" s="140"/>
+      <c r="R132" s="162"/>
     </row>
     <row r="133" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="186"/>
-      <c r="B133" s="169"/>
-      <c r="C133" s="169"/>
-      <c r="D133" s="169"/>
-      <c r="E133" s="169"/>
-      <c r="F133" s="169"/>
-      <c r="G133" s="169"/>
-      <c r="H133" s="169"/>
-      <c r="I133" s="169"/>
-      <c r="J133" s="169"/>
-      <c r="K133" s="169"/>
-      <c r="L133" s="169"/>
-      <c r="M133" s="169"/>
-      <c r="N133" s="169"/>
-      <c r="O133" s="169"/>
-      <c r="P133" s="169"/>
-      <c r="Q133" s="169"/>
-      <c r="R133" s="196"/>
+      <c r="A133" s="139"/>
+      <c r="B133" s="140"/>
+      <c r="C133" s="140"/>
+      <c r="D133" s="140"/>
+      <c r="E133" s="140"/>
+      <c r="F133" s="140"/>
+      <c r="G133" s="140"/>
+      <c r="H133" s="140"/>
+      <c r="I133" s="140"/>
+      <c r="J133" s="140"/>
+      <c r="K133" s="140"/>
+      <c r="L133" s="140"/>
+      <c r="M133" s="140"/>
+      <c r="N133" s="140"/>
+      <c r="O133" s="140"/>
+      <c r="P133" s="140"/>
+      <c r="Q133" s="140"/>
+      <c r="R133" s="162"/>
     </row>
     <row r="134" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="186"/>
-      <c r="B134" s="169"/>
-      <c r="C134" s="169"/>
-      <c r="D134" s="169"/>
-      <c r="E134" s="169"/>
-      <c r="F134" s="169"/>
-      <c r="G134" s="169"/>
-      <c r="H134" s="169"/>
-      <c r="I134" s="169"/>
-      <c r="J134" s="169"/>
-      <c r="K134" s="169"/>
-      <c r="L134" s="169"/>
-      <c r="M134" s="169"/>
-      <c r="N134" s="169"/>
-      <c r="O134" s="169"/>
-      <c r="P134" s="169"/>
-      <c r="Q134" s="169"/>
-      <c r="R134" s="196"/>
+      <c r="A134" s="139"/>
+      <c r="B134" s="140"/>
+      <c r="C134" s="140"/>
+      <c r="D134" s="140"/>
+      <c r="E134" s="140"/>
+      <c r="F134" s="140"/>
+      <c r="G134" s="140"/>
+      <c r="H134" s="140"/>
+      <c r="I134" s="140"/>
+      <c r="J134" s="140"/>
+      <c r="K134" s="140"/>
+      <c r="L134" s="140"/>
+      <c r="M134" s="140"/>
+      <c r="N134" s="140"/>
+      <c r="O134" s="140"/>
+      <c r="P134" s="140"/>
+      <c r="Q134" s="140"/>
+      <c r="R134" s="162"/>
     </row>
     <row r="135" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="186"/>
-      <c r="B135" s="169"/>
-      <c r="C135" s="169"/>
-      <c r="D135" s="169"/>
-      <c r="E135" s="169"/>
-      <c r="F135" s="169"/>
-      <c r="G135" s="169"/>
-      <c r="H135" s="169"/>
-      <c r="I135" s="169"/>
-      <c r="J135" s="169"/>
-      <c r="K135" s="169"/>
-      <c r="L135" s="169"/>
-      <c r="M135" s="169"/>
-      <c r="N135" s="169"/>
-      <c r="O135" s="169"/>
-      <c r="P135" s="169"/>
-      <c r="Q135" s="169"/>
-      <c r="R135" s="196"/>
+      <c r="A135" s="139"/>
+      <c r="B135" s="140"/>
+      <c r="C135" s="140"/>
+      <c r="D135" s="140"/>
+      <c r="E135" s="140"/>
+      <c r="F135" s="140"/>
+      <c r="G135" s="140"/>
+      <c r="H135" s="140"/>
+      <c r="I135" s="140"/>
+      <c r="J135" s="140"/>
+      <c r="K135" s="140"/>
+      <c r="L135" s="140"/>
+      <c r="M135" s="140"/>
+      <c r="N135" s="140"/>
+      <c r="O135" s="140"/>
+      <c r="P135" s="140"/>
+      <c r="Q135" s="140"/>
+      <c r="R135" s="162"/>
     </row>
     <row r="136" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="186"/>
-      <c r="B136" s="169"/>
-      <c r="C136" s="169"/>
-      <c r="D136" s="169"/>
-      <c r="E136" s="169"/>
-      <c r="F136" s="169"/>
-      <c r="G136" s="169"/>
-      <c r="H136" s="169"/>
-      <c r="I136" s="169"/>
-      <c r="J136" s="169"/>
-      <c r="K136" s="169"/>
-      <c r="L136" s="169"/>
-      <c r="M136" s="169"/>
-      <c r="N136" s="169"/>
-      <c r="O136" s="169"/>
-      <c r="P136" s="169"/>
-      <c r="Q136" s="169"/>
-      <c r="R136" s="196"/>
+      <c r="A136" s="139"/>
+      <c r="B136" s="140"/>
+      <c r="C136" s="140"/>
+      <c r="D136" s="140"/>
+      <c r="E136" s="140"/>
+      <c r="F136" s="140"/>
+      <c r="G136" s="140"/>
+      <c r="H136" s="140"/>
+      <c r="I136" s="140"/>
+      <c r="J136" s="140"/>
+      <c r="K136" s="140"/>
+      <c r="L136" s="140"/>
+      <c r="M136" s="140"/>
+      <c r="N136" s="140"/>
+      <c r="O136" s="140"/>
+      <c r="P136" s="140"/>
+      <c r="Q136" s="140"/>
+      <c r="R136" s="162"/>
     </row>
     <row r="137" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="187"/>
-      <c r="B137" s="172"/>
-      <c r="C137" s="172"/>
-      <c r="D137" s="172"/>
-      <c r="E137" s="172"/>
-      <c r="F137" s="172"/>
-      <c r="G137" s="172"/>
-      <c r="H137" s="172"/>
-      <c r="I137" s="172"/>
-      <c r="J137" s="172"/>
-      <c r="K137" s="172"/>
-      <c r="L137" s="172"/>
-      <c r="M137" s="172"/>
-      <c r="N137" s="172"/>
-      <c r="O137" s="172"/>
-      <c r="P137" s="172"/>
-      <c r="Q137" s="172"/>
-      <c r="R137" s="197"/>
+      <c r="A137" s="142"/>
+      <c r="B137" s="143"/>
+      <c r="C137" s="143"/>
+      <c r="D137" s="143"/>
+      <c r="E137" s="143"/>
+      <c r="F137" s="143"/>
+      <c r="G137" s="143"/>
+      <c r="H137" s="143"/>
+      <c r="I137" s="143"/>
+      <c r="J137" s="143"/>
+      <c r="K137" s="143"/>
+      <c r="L137" s="143"/>
+      <c r="M137" s="143"/>
+      <c r="N137" s="143"/>
+      <c r="O137" s="143"/>
+      <c r="P137" s="143"/>
+      <c r="Q137" s="143"/>
+      <c r="R137" s="163"/>
     </row>
     <row r="138" spans="1:23" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
@@ -9177,26 +9319,26 @@
       <c r="R138" s="3"/>
     </row>
     <row r="139" spans="1:23" ht="30.75" x14ac:dyDescent="0.15">
-      <c r="A139" s="198" t="s">
+      <c r="A139" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="B139" s="199"/>
-      <c r="C139" s="199"/>
-      <c r="D139" s="199"/>
-      <c r="E139" s="199"/>
-      <c r="F139" s="199"/>
-      <c r="G139" s="199"/>
-      <c r="H139" s="199"/>
-      <c r="I139" s="199"/>
-      <c r="J139" s="199"/>
-      <c r="K139" s="199"/>
-      <c r="L139" s="199"/>
-      <c r="M139" s="199"/>
-      <c r="N139" s="199"/>
-      <c r="O139" s="199"/>
-      <c r="P139" s="199"/>
-      <c r="Q139" s="199"/>
-      <c r="R139" s="199"/>
+      <c r="B139" s="165"/>
+      <c r="C139" s="165"/>
+      <c r="D139" s="165"/>
+      <c r="E139" s="165"/>
+      <c r="F139" s="165"/>
+      <c r="G139" s="165"/>
+      <c r="H139" s="165"/>
+      <c r="I139" s="165"/>
+      <c r="J139" s="165"/>
+      <c r="K139" s="165"/>
+      <c r="L139" s="165"/>
+      <c r="M139" s="165"/>
+      <c r="N139" s="165"/>
+      <c r="O139" s="165"/>
+      <c r="P139" s="165"/>
+      <c r="Q139" s="165"/>
+      <c r="R139" s="165"/>
     </row>
     <row r="140" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
@@ -9219,26 +9361,26 @@
       <c r="R140" s="3"/>
     </row>
     <row r="141" spans="1:23" s="68" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="148" t="s">
+      <c r="A141" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="159"/>
-      <c r="C141" s="159"/>
-      <c r="D141" s="159"/>
-      <c r="E141" s="159"/>
-      <c r="F141" s="159"/>
-      <c r="G141" s="159"/>
-      <c r="H141" s="159"/>
-      <c r="I141" s="159"/>
-      <c r="J141" s="159"/>
-      <c r="K141" s="159"/>
-      <c r="L141" s="159"/>
-      <c r="M141" s="159"/>
-      <c r="N141" s="159"/>
-      <c r="O141" s="159"/>
-      <c r="P141" s="159"/>
-      <c r="Q141" s="159"/>
-      <c r="R141" s="159"/>
+      <c r="B141" s="149"/>
+      <c r="C141" s="149"/>
+      <c r="D141" s="149"/>
+      <c r="E141" s="149"/>
+      <c r="F141" s="149"/>
+      <c r="G141" s="149"/>
+      <c r="H141" s="149"/>
+      <c r="I141" s="149"/>
+      <c r="J141" s="149"/>
+      <c r="K141" s="149"/>
+      <c r="L141" s="149"/>
+      <c r="M141" s="149"/>
+      <c r="N141" s="149"/>
+      <c r="O141" s="149"/>
+      <c r="P141" s="149"/>
+      <c r="Q141" s="149"/>
+      <c r="R141" s="149"/>
     </row>
     <row r="142" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A142" s="69"/>
@@ -9426,31 +9568,56 @@
       <c r="L151" s="80"/>
       <c r="M151" s="80"/>
       <c r="N151" s="81"/>
-      <c r="O151" s="167"/>
-      <c r="P151" s="167"/>
+      <c r="O151" s="138"/>
+      <c r="P151" s="138"/>
       <c r="Q151" s="80"/>
       <c r="R151" s="68"/>
-      <c r="S151" s="167"/>
-      <c r="T151" s="167"/>
+      <c r="S151" s="138"/>
+      <c r="T151" s="138"/>
       <c r="U151" s="68"/>
       <c r="V151" s="68"/>
       <c r="W151" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="L1:R2"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H4:R4"/>
-    <mergeCell ref="A5:C10"/>
-    <mergeCell ref="D6:K10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="M5:Q8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="A11:C14"/>
+    <mergeCell ref="D11:R13"/>
+    <mergeCell ref="A15:C19"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="A38:C49"/>
+    <mergeCell ref="D16:R19"/>
+    <mergeCell ref="A20:C28"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="M20:R28"/>
+    <mergeCell ref="E27:L28"/>
+    <mergeCell ref="E24:L25"/>
+    <mergeCell ref="C109:R113"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="A107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="D51:R56"/>
+    <mergeCell ref="A29:C37"/>
+    <mergeCell ref="A141:R141"/>
+    <mergeCell ref="E30:L31"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="A57:R57"/>
+    <mergeCell ref="D50:R50"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="E36:Q37"/>
+    <mergeCell ref="E33:Q34"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="A109:B110"/>
     <mergeCell ref="S151:T151"/>
     <mergeCell ref="A58:R69"/>
     <mergeCell ref="A72:R86"/>
@@ -9467,44 +9634,19 @@
     <mergeCell ref="A139:R139"/>
     <mergeCell ref="A102:B103"/>
     <mergeCell ref="C102:R106"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="D51:R56"/>
-    <mergeCell ref="A29:C37"/>
-    <mergeCell ref="A141:R141"/>
-    <mergeCell ref="E30:L31"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="A57:R57"/>
-    <mergeCell ref="D50:R50"/>
-    <mergeCell ref="M40:Q40"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="E36:Q37"/>
-    <mergeCell ref="E33:Q34"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="A109:B110"/>
-    <mergeCell ref="A107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="A50:C56"/>
-    <mergeCell ref="C109:R113"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:I115"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="A11:C14"/>
-    <mergeCell ref="D11:R13"/>
-    <mergeCell ref="A15:C19"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="A38:C49"/>
-    <mergeCell ref="D16:R19"/>
-    <mergeCell ref="A20:C28"/>
-    <mergeCell ref="E21:L22"/>
-    <mergeCell ref="M20:R28"/>
-    <mergeCell ref="E27:L28"/>
-    <mergeCell ref="E24:L25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:R2"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H4:R4"/>
+    <mergeCell ref="A5:C10"/>
+    <mergeCell ref="D6:K10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="M5:Q8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="L5:L10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/internship_form31.xlsx
+++ b/internship_form31.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仲田　伊織\Desktop\github\keep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\keep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B337C1-E409-4146-88C4-CF28CB9CF9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DAC801-FAFE-4CE9-A913-760795152FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bO460l/q38hcX+I6RjEDyaaKqPLmMIH1SlWgl6kF0SfnvcLmGVR/gVPboUALJLRpdybxkSasnje1BZNEi8fASA==" workbookSaltValue="d3e9DO+x9BA/CU0B9Kki1g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="3240" windowWidth="17745" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1230" windowWidth="19200" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申込書" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
@@ -1114,22 +1114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NintendoSwitchの後継機種の存在が公式に発表されたことです。</t>
-    <rPh sb="15" eb="18">
-      <t>コウケイキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インターンシップを通して、実際のゲーム業界での働き方や雰囲気を体験したいです。また、ゲーム業界で生きている方に直接プログラミングの指導をいただける機会は少ないため、この機会に現場で必要な知識やスキルの習得を目指したいです。
 将来やりたいことはあまり決まっていないのですが、敵キャラクターなどのＡＩの挙動に興味があります。状況に応じて挙動を変化させ、敵キャラクターとして違和感ない挙動をするようなプログラミングをしたいです。</t>
     <rPh sb="9" eb="10">
@@ -1287,17 +1271,225 @@
       <t>ダイジ</t>
     </rPh>
     <rPh sb="199" eb="200">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="206" eb="207">
+      <t>オモアラマナツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はゲーム制作サークルに所属しており、普段の個人制作だけでなくサークル内でチームを結成し、チーム制作にも取り組んでいます。
+最初のチーム制作ではプログラミングリーダーを務め、チーム制作のプログラミング面のスケジュール管理や、コーディング規約の徹底を担当しました。技術も知識も未熟で大変なことが多かったですが、チームメンバーと協力して一つのゲームを制作したことは個人制作よりも達成感を得られました。現在も新たなチームでチーム制作を取り組んでいますが、今回はチームリーダーとして前回のチーム制作の経験を生かし、チーム制作を円滑に進めるかつ、よりよいゲームをチームメンバーとともに制作できるように行動しています。
+また、制作だけではなくイベントに出展してゲームの販売活動も行っています。イベントに来た方にゲームを目の前でプレイしてもらって直接感想をいただいたり、ゲームを買っていただいたりと貴重な経験があります。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フダン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケッセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>テッテイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ミジュク</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="180" eb="184">
+      <t>コジンセイサク</t>
+    </rPh>
+    <rPh sb="187" eb="190">
+      <t>タッセイカン</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
       <t>アラ</t>
     </rPh>
-    <rPh sb="212" eb="213">
-      <t>マナ</t>
+    <rPh sb="211" eb="213">
+      <t>セイサク</t>
     </rPh>
     <rPh sb="214" eb="215">
-      <t>ツヅ</t>
-    </rPh>
+      <t>ト</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>エンカツ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="307" eb="309">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>シュッテン</t>
+    </rPh>
+    <rPh sb="328" eb="332">
+      <t>ハンバイカツドウ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="345" eb="346">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="347" eb="348">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="353" eb="354">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="355" eb="356">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="366" eb="370">
+      <t>チョクセツカンソウ</t>
+    </rPh>
+    <rPh sb="382" eb="383">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="392" eb="394">
+      <t>キチョウ</t>
+    </rPh>
+    <rPh sb="395" eb="397">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NintendoSwitchの後継機種の存在が公式に発表されたことです。メモリー容量が大きくなったり、ローディングが早くなったり、グラフィックが進化したりと様々なことを期待して想像するとどんどん情報の公開が楽しみになってきます。発売後にはいろんなゲームが発売されたり、Switchとの互換性がありSwitchのゲームをプレイできる可能性があったりと後継機を使用して様々なゲーム体験ができることをとても楽しみにしています。懸念点として発売されてもしばらく買えない期間がある可能性があるため、なるべくそんなことがないように何か対策をしてくれることを願っています。</t>
+    <rPh sb="15" eb="18">
+      <t>コウケイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲田 智恵子</t>
+    <rPh sb="0" eb="2">
+      <t>ナカダ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チエコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母</t>
+    <rPh sb="0" eb="1">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-7535-3030</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2429,6 +2621,351 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2536,18 +3073,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2564,343 +3093,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4459,7 +4651,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4794,7 +4986,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4861,7 +5053,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5129,7 +5321,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5397,7 +5589,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5665,7 +5857,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5732,7 +5924,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5799,7 +5991,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5866,7 +6058,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5933,7 +6125,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5991,9 +6183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6031,9 +6223,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6066,26 +6258,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6118,26 +6293,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6313,8 +6471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:R69"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6341,51 +6499,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="105"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6416,243 +6574,243 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="209"/>
     </row>
     <row r="5" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="123" t="s">
+      <c r="B5" s="211"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125" t="s">
+      <c r="E5" s="226"/>
+      <c r="F5" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="135" t="s">
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="127">
+      <c r="M5" s="229">
         <v>19</v>
       </c>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="230"/>
+      <c r="Q5" s="230"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="111"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="117" t="s">
+      <c r="A6" s="213"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="174"/>
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="231"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
       <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="222"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="232"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
       <c r="R8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="129">
+      <c r="A9" s="213"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222"/>
+      <c r="K9" s="222"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="231">
         <v>2004</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="130">
+      <c r="O9" s="174">
         <v>7</v>
       </c>
       <c r="P9" s="12"/>
-      <c r="Q9" s="130">
+      <c r="Q9" s="174">
         <v>12</v>
       </c>
       <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="133"/>
+      <c r="A10" s="216"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="233"/>
       <c r="N10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="134"/>
+      <c r="O10" s="234"/>
       <c r="P10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="134"/>
+      <c r="Q10" s="234"/>
       <c r="R10" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="204" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="205"/>
-      <c r="Q11" s="205"/>
-      <c r="R11" s="206"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="109"/>
     </row>
     <row r="12" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="198"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="159"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="112"/>
     </row>
     <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="198"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="159"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="201"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
       <c r="M14" s="16" t="s">
         <v>52</v>
       </c>
@@ -6667,11 +6825,11 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="209"/>
-      <c r="C15" s="210"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
@@ -6697,93 +6855,93 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="173"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="226" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="227"/>
-      <c r="Q16" s="227"/>
-      <c r="R16" s="228"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="136"/>
     </row>
     <row r="17" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="173"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="227"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="227"/>
-      <c r="Q17" s="227"/>
-      <c r="R17" s="228"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="227"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="227"/>
-      <c r="M18" s="227"/>
-      <c r="N18" s="227"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="227"/>
-      <c r="Q18" s="227"/>
-      <c r="R18" s="228"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="211"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="230"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="230"/>
-      <c r="M19" s="230"/>
-      <c r="N19" s="230"/>
-      <c r="O19" s="230"/>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="230"/>
-      <c r="R19" s="231"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="139"/>
     </row>
     <row r="20" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="170" t="s">
+      <c r="A20" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="172"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="23"/>
       <c r="E20" s="12" t="s">
         <v>2</v>
@@ -6795,61 +6953,61 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="182" t="s">
+      <c r="M20" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="233"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
     </row>
     <row r="21" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="173"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="189" t="s">
+      <c r="E21" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="189"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="233"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="149"/>
     </row>
     <row r="22" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="173"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="175"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
-      <c r="H22" s="232"/>
-      <c r="I22" s="232"/>
-      <c r="J22" s="232"/>
-      <c r="K22" s="232"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="233"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
     </row>
     <row r="23" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="173"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="175"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="25"/>
       <c r="E23" s="12" t="s">
         <v>8</v>
@@ -6861,59 +7019,59 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="233"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
     </row>
     <row r="24" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="173"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="175"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="237" t="s">
+      <c r="E24" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="189"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="233"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="149"/>
     </row>
     <row r="25" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="176"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="232"/>
-      <c r="F25" s="232"/>
-      <c r="G25" s="232"/>
-      <c r="H25" s="232"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="232"/>
-      <c r="L25" s="232"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="233"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="149"/>
     </row>
     <row r="26" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="25"/>
       <c r="E26" s="12" t="s">
         <v>9</v>
@@ -6925,61 +7083,61 @@
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="233"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
     </row>
     <row r="27" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="189" t="s">
+      <c r="E27" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="189"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="233"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
     </row>
     <row r="28" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="211"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="236"/>
-      <c r="G28" s="236"/>
-      <c r="H28" s="236"/>
-      <c r="I28" s="236"/>
-      <c r="J28" s="236"/>
-      <c r="K28" s="236"/>
-      <c r="L28" s="236"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
-      <c r="O28" s="234"/>
-      <c r="P28" s="234"/>
-      <c r="Q28" s="234"/>
-      <c r="R28" s="235"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="151"/>
     </row>
     <row r="29" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="171"/>
-      <c r="C29" s="172"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="142"/>
       <c r="D29" s="23"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
@@ -6999,51 +7157,55 @@
       <c r="R29" s="29"/>
     </row>
     <row r="30" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="173"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="175"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="183" t="s">
+      <c r="E30" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="183"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="174" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="174"/>
       <c r="R30" s="30"/>
     </row>
     <row r="31" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
       <c r="R31" s="30"/>
     </row>
     <row r="32" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="175"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="25"/>
       <c r="E32" s="12" t="s">
         <v>1</v>
@@ -7063,51 +7225,51 @@
       <c r="R32" s="30"/>
     </row>
     <row r="33" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="175"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="130" t="s">
+      <c r="E33" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="174"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="174"/>
       <c r="R33" s="30"/>
     </row>
     <row r="34" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="176"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="178"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
       <c r="R34" s="30"/>
     </row>
     <row r="35" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="176"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="178"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="145"/>
       <c r="D35" s="25"/>
       <c r="E35" s="12" t="s">
         <v>11</v>
@@ -7127,51 +7289,53 @@
       <c r="R35" s="30"/>
     </row>
     <row r="36" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="145"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="189"/>
-      <c r="L36" s="189"/>
-      <c r="M36" s="189"/>
-      <c r="N36" s="189"/>
-      <c r="O36" s="189"/>
-      <c r="P36" s="189"/>
-      <c r="Q36" s="189"/>
+      <c r="E36" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="146"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="146"/>
+      <c r="Q36" s="146"/>
       <c r="R36" s="30"/>
     </row>
     <row r="37" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="179"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="181"/>
+      <c r="A37" s="164"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="166"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="190"/>
-      <c r="N37" s="190"/>
-      <c r="O37" s="190"/>
-      <c r="P37" s="190"/>
-      <c r="Q37" s="190"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="185"/>
+      <c r="K37" s="185"/>
+      <c r="L37" s="185"/>
+      <c r="M37" s="185"/>
+      <c r="N37" s="185"/>
+      <c r="O37" s="185"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="185"/>
       <c r="R37" s="35"/>
     </row>
     <row r="38" spans="1:18" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="217" t="s">
+      <c r="A38" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="218"/>
-      <c r="C38" s="219"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="82"/>
       <c r="E38" s="83" t="s">
         <v>14</v>
@@ -7193,9 +7357,9 @@
       <c r="R38" s="86"/>
     </row>
     <row r="39" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="220"/>
-      <c r="B39" s="221"/>
-      <c r="C39" s="222"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="25"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -7213,9 +7377,9 @@
       <c r="R39" s="30"/>
     </row>
     <row r="40" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="220"/>
-      <c r="B40" s="221"/>
-      <c r="C40" s="222"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="130"/>
       <c r="D40" s="25"/>
       <c r="E40" s="12" t="s">
         <v>15</v>
@@ -7231,21 +7395,21 @@
       <c r="L40" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="130" t="s">
+      <c r="M40" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
-      <c r="Q40" s="130"/>
+      <c r="N40" s="174"/>
+      <c r="O40" s="174"/>
+      <c r="P40" s="174"/>
+      <c r="Q40" s="174"/>
       <c r="R40" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="220"/>
-      <c r="B41" s="221"/>
-      <c r="C41" s="222"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="25"/>
       <c r="E41" s="12" t="s">
         <v>16</v>
@@ -7261,21 +7425,21 @@
       <c r="L41" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="130" t="s">
+      <c r="M41" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="130"/>
-      <c r="Q41" s="130"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
       <c r="R41" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="220"/>
-      <c r="B42" s="221"/>
-      <c r="C42" s="222"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="25"/>
       <c r="E42" s="12" t="s">
         <v>17</v>
@@ -7291,21 +7455,21 @@
       <c r="L42" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="130" t="s">
+      <c r="M42" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="N42" s="130"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="130"/>
-      <c r="Q42" s="130"/>
+      <c r="N42" s="174"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="174"/>
       <c r="R42" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="220"/>
-      <c r="B43" s="221"/>
-      <c r="C43" s="222"/>
+      <c r="A43" s="128"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="23"/>
       <c r="E43" s="12" t="s">
         <v>18</v>
@@ -7315,21 +7479,21 @@
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="186" t="s">
+      <c r="K43" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="187"/>
-      <c r="M43" s="187"/>
-      <c r="N43" s="187"/>
-      <c r="O43" s="187"/>
-      <c r="P43" s="187"/>
-      <c r="Q43" s="187"/>
-      <c r="R43" s="188"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="184"/>
     </row>
     <row r="44" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="220"/>
-      <c r="B44" s="221"/>
-      <c r="C44" s="222"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="41"/>
       <c r="E44" s="42"/>
       <c r="F44" s="43"/>
@@ -7347,9 +7511,9 @@
       <c r="R44" s="88"/>
     </row>
     <row r="45" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="220"/>
-      <c r="B45" s="221"/>
-      <c r="C45" s="222"/>
+      <c r="A45" s="128"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="46"/>
       <c r="E45" s="89" t="s">
         <v>66</v>
@@ -7369,9 +7533,9 @@
       <c r="R45" s="48"/>
     </row>
     <row r="46" spans="1:18" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="220"/>
-      <c r="B46" s="221"/>
-      <c r="C46" s="222"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="25"/>
       <c r="E46" s="92" t="s">
         <v>67</v>
@@ -7391,9 +7555,9 @@
       <c r="R46" s="30"/>
     </row>
     <row r="47" spans="1:18" ht="3.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="220"/>
-      <c r="B47" s="221"/>
-      <c r="C47" s="222"/>
+      <c r="A47" s="128"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="130"/>
       <c r="D47" s="92"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -7410,9 +7574,9 @@
       <c r="R47" s="30"/>
     </row>
     <row r="48" spans="1:18" s="51" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="220"/>
-      <c r="B48" s="221"/>
-      <c r="C48" s="222"/>
+      <c r="A48" s="128"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="130"/>
       <c r="D48" s="49"/>
       <c r="E48" s="50" t="s">
         <v>62</v>
@@ -7434,9 +7598,9 @@
       <c r="R48" s="94"/>
     </row>
     <row r="49" spans="1:23" s="51" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="223"/>
-      <c r="B49" s="224"/>
-      <c r="C49" s="225"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="52"/>
       <c r="E49" s="95" t="s">
         <v>63</v>
@@ -7456,421 +7620,423 @@
       <c r="N49" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="216"/>
-      <c r="P49" s="216"/>
-      <c r="Q49" s="216"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
       <c r="R49" s="54" t="s">
         <v>25</v>
       </c>
       <c r="W49" s="50"/>
     </row>
     <row r="50" spans="1:23" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="170" t="s">
+      <c r="A50" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="172"/>
-      <c r="D50" s="185" t="s">
+      <c r="B50" s="141"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="156"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="156"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="156"/>
-      <c r="R50" s="157"/>
+      <c r="E50" s="179"/>
+      <c r="F50" s="179"/>
+      <c r="G50" s="179"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="179"/>
+      <c r="J50" s="179"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="179"/>
+      <c r="M50" s="179"/>
+      <c r="N50" s="179"/>
+      <c r="O50" s="179"/>
+      <c r="P50" s="179"/>
+      <c r="Q50" s="179"/>
+      <c r="R50" s="180"/>
     </row>
     <row r="51" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="173"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="175"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="140"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="140"/>
-      <c r="P51" s="140"/>
-      <c r="Q51" s="140"/>
-      <c r="R51" s="141"/>
+        <v>90</v>
+      </c>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="169"/>
+      <c r="M51" s="169"/>
+      <c r="N51" s="169"/>
+      <c r="O51" s="169"/>
+      <c r="P51" s="169"/>
+      <c r="Q51" s="169"/>
+      <c r="R51" s="170"/>
     </row>
     <row r="52" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="173"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="175"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="168"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="140"/>
-      <c r="L52" s="140"/>
-      <c r="M52" s="140"/>
-      <c r="N52" s="140"/>
-      <c r="O52" s="140"/>
-      <c r="P52" s="140"/>
-      <c r="Q52" s="140"/>
-      <c r="R52" s="141"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="169"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="169"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="169"/>
+      <c r="M52" s="169"/>
+      <c r="N52" s="169"/>
+      <c r="O52" s="169"/>
+      <c r="P52" s="169"/>
+      <c r="Q52" s="169"/>
+      <c r="R52" s="170"/>
     </row>
     <row r="53" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="176"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="178"/>
+      <c r="A53" s="143"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
       <c r="D53" s="168"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="140"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="140"/>
-      <c r="R53" s="141"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="169"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="169"/>
+      <c r="K53" s="169"/>
+      <c r="L53" s="169"/>
+      <c r="M53" s="169"/>
+      <c r="N53" s="169"/>
+      <c r="O53" s="169"/>
+      <c r="P53" s="169"/>
+      <c r="Q53" s="169"/>
+      <c r="R53" s="170"/>
     </row>
     <row r="54" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="176"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="178"/>
+      <c r="A54" s="143"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
       <c r="D54" s="168"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="140"/>
-      <c r="L54" s="140"/>
-      <c r="M54" s="140"/>
-      <c r="N54" s="140"/>
-      <c r="O54" s="140"/>
-      <c r="P54" s="140"/>
-      <c r="Q54" s="140"/>
-      <c r="R54" s="141"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="169"/>
+      <c r="H54" s="169"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="169"/>
+      <c r="K54" s="169"/>
+      <c r="L54" s="169"/>
+      <c r="M54" s="169"/>
+      <c r="N54" s="169"/>
+      <c r="O54" s="169"/>
+      <c r="P54" s="169"/>
+      <c r="Q54" s="169"/>
+      <c r="R54" s="170"/>
     </row>
     <row r="55" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="176"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="178"/>
+      <c r="A55" s="143"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
       <c r="D55" s="168"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="140"/>
-      <c r="L55" s="140"/>
-      <c r="M55" s="140"/>
-      <c r="N55" s="140"/>
-      <c r="O55" s="140"/>
-      <c r="P55" s="140"/>
-      <c r="Q55" s="140"/>
-      <c r="R55" s="141"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="169"/>
+      <c r="M55" s="169"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
+      <c r="R55" s="170"/>
     </row>
     <row r="56" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="179"/>
-      <c r="B56" s="180"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="143"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="143"/>
-      <c r="Q56" s="143"/>
-      <c r="R56" s="144"/>
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="172"/>
+      <c r="L56" s="172"/>
+      <c r="M56" s="172"/>
+      <c r="N56" s="172"/>
+      <c r="O56" s="172"/>
+      <c r="P56" s="172"/>
+      <c r="Q56" s="172"/>
+      <c r="R56" s="173"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="156"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="156"/>
-      <c r="N57" s="156"/>
-      <c r="O57" s="156"/>
-      <c r="P57" s="156"/>
-      <c r="Q57" s="156"/>
-      <c r="R57" s="157"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="179"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="179"/>
+      <c r="H57" s="179"/>
+      <c r="I57" s="179"/>
+      <c r="J57" s="179"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="179"/>
+      <c r="M57" s="179"/>
+      <c r="N57" s="179"/>
+      <c r="O57" s="179"/>
+      <c r="P57" s="179"/>
+      <c r="Q57" s="179"/>
+      <c r="R57" s="180"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="139"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="140"/>
-      <c r="N58" s="140"/>
-      <c r="O58" s="140"/>
-      <c r="P58" s="140"/>
-      <c r="Q58" s="140"/>
-      <c r="R58" s="141"/>
+      <c r="A58" s="186" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="169"/>
+      <c r="H58" s="169"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="169"/>
+      <c r="K58" s="169"/>
+      <c r="L58" s="169"/>
+      <c r="M58" s="169"/>
+      <c r="N58" s="169"/>
+      <c r="O58" s="169"/>
+      <c r="P58" s="169"/>
+      <c r="Q58" s="169"/>
+      <c r="R58" s="170"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="139"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="140"/>
-      <c r="N59" s="140"/>
-      <c r="O59" s="140"/>
-      <c r="P59" s="140"/>
-      <c r="Q59" s="140"/>
-      <c r="R59" s="141"/>
+      <c r="A59" s="186"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="169"/>
+      <c r="H59" s="169"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="169"/>
+      <c r="K59" s="169"/>
+      <c r="L59" s="169"/>
+      <c r="M59" s="169"/>
+      <c r="N59" s="169"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="169"/>
+      <c r="Q59" s="169"/>
+      <c r="R59" s="170"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="139"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="140"/>
-      <c r="N60" s="140"/>
-      <c r="O60" s="140"/>
-      <c r="P60" s="140"/>
-      <c r="Q60" s="140"/>
-      <c r="R60" s="141"/>
+      <c r="A60" s="186"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="169"/>
+      <c r="H60" s="169"/>
+      <c r="I60" s="169"/>
+      <c r="J60" s="169"/>
+      <c r="K60" s="169"/>
+      <c r="L60" s="169"/>
+      <c r="M60" s="169"/>
+      <c r="N60" s="169"/>
+      <c r="O60" s="169"/>
+      <c r="P60" s="169"/>
+      <c r="Q60" s="169"/>
+      <c r="R60" s="170"/>
     </row>
     <row r="61" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="139"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="140"/>
-      <c r="N61" s="140"/>
-      <c r="O61" s="140"/>
-      <c r="P61" s="140"/>
-      <c r="Q61" s="140"/>
-      <c r="R61" s="141"/>
+      <c r="A61" s="186"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="169"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="169"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="169"/>
+      <c r="M61" s="169"/>
+      <c r="N61" s="169"/>
+      <c r="O61" s="169"/>
+      <c r="P61" s="169"/>
+      <c r="Q61" s="169"/>
+      <c r="R61" s="170"/>
     </row>
     <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="139"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="140"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="140"/>
-      <c r="N62" s="140"/>
-      <c r="O62" s="140"/>
-      <c r="P62" s="140"/>
-      <c r="Q62" s="140"/>
-      <c r="R62" s="141"/>
+      <c r="A62" s="186"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="169"/>
+      <c r="Q62" s="169"/>
+      <c r="R62" s="170"/>
     </row>
     <row r="63" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="139"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="140"/>
-      <c r="K63" s="140"/>
-      <c r="L63" s="140"/>
-      <c r="M63" s="140"/>
-      <c r="N63" s="140"/>
-      <c r="O63" s="140"/>
-      <c r="P63" s="140"/>
-      <c r="Q63" s="140"/>
-      <c r="R63" s="141"/>
+      <c r="A63" s="186"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
+      <c r="K63" s="169"/>
+      <c r="L63" s="169"/>
+      <c r="M63" s="169"/>
+      <c r="N63" s="169"/>
+      <c r="O63" s="169"/>
+      <c r="P63" s="169"/>
+      <c r="Q63" s="169"/>
+      <c r="R63" s="170"/>
     </row>
     <row r="64" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="139"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="140"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140"/>
-      <c r="N64" s="140"/>
-      <c r="O64" s="140"/>
-      <c r="P64" s="140"/>
-      <c r="Q64" s="140"/>
-      <c r="R64" s="141"/>
+      <c r="A64" s="186"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="169"/>
+      <c r="H64" s="169"/>
+      <c r="I64" s="169"/>
+      <c r="J64" s="169"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="169"/>
+      <c r="M64" s="169"/>
+      <c r="N64" s="169"/>
+      <c r="O64" s="169"/>
+      <c r="P64" s="169"/>
+      <c r="Q64" s="169"/>
+      <c r="R64" s="170"/>
     </row>
     <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="139"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="140"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="140"/>
-      <c r="N65" s="140"/>
-      <c r="O65" s="140"/>
-      <c r="P65" s="140"/>
-      <c r="Q65" s="140"/>
-      <c r="R65" s="141"/>
+      <c r="A65" s="186"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="169"/>
+      <c r="G65" s="169"/>
+      <c r="H65" s="169"/>
+      <c r="I65" s="169"/>
+      <c r="J65" s="169"/>
+      <c r="K65" s="169"/>
+      <c r="L65" s="169"/>
+      <c r="M65" s="169"/>
+      <c r="N65" s="169"/>
+      <c r="O65" s="169"/>
+      <c r="P65" s="169"/>
+      <c r="Q65" s="169"/>
+      <c r="R65" s="170"/>
     </row>
     <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="139"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="140"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="140"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="140"/>
-      <c r="N66" s="140"/>
-      <c r="O66" s="140"/>
-      <c r="P66" s="140"/>
-      <c r="Q66" s="140"/>
-      <c r="R66" s="141"/>
+      <c r="A66" s="186"/>
+      <c r="B66" s="169"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="169"/>
+      <c r="E66" s="169"/>
+      <c r="F66" s="169"/>
+      <c r="G66" s="169"/>
+      <c r="H66" s="169"/>
+      <c r="I66" s="169"/>
+      <c r="J66" s="169"/>
+      <c r="K66" s="169"/>
+      <c r="L66" s="169"/>
+      <c r="M66" s="169"/>
+      <c r="N66" s="169"/>
+      <c r="O66" s="169"/>
+      <c r="P66" s="169"/>
+      <c r="Q66" s="169"/>
+      <c r="R66" s="170"/>
     </row>
     <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="139"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="140"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="140"/>
-      <c r="K67" s="140"/>
-      <c r="L67" s="140"/>
-      <c r="M67" s="140"/>
-      <c r="N67" s="140"/>
-      <c r="O67" s="140"/>
-      <c r="P67" s="140"/>
-      <c r="Q67" s="140"/>
-      <c r="R67" s="141"/>
+      <c r="A67" s="186"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="169"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="169"/>
+      <c r="J67" s="169"/>
+      <c r="K67" s="169"/>
+      <c r="L67" s="169"/>
+      <c r="M67" s="169"/>
+      <c r="N67" s="169"/>
+      <c r="O67" s="169"/>
+      <c r="P67" s="169"/>
+      <c r="Q67" s="169"/>
+      <c r="R67" s="170"/>
     </row>
     <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="139"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="140"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="140"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="140"/>
-      <c r="N68" s="140"/>
-      <c r="O68" s="140"/>
-      <c r="P68" s="140"/>
-      <c r="Q68" s="140"/>
-      <c r="R68" s="141"/>
+      <c r="A68" s="186"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
+      <c r="E68" s="169"/>
+      <c r="F68" s="169"/>
+      <c r="G68" s="169"/>
+      <c r="H68" s="169"/>
+      <c r="I68" s="169"/>
+      <c r="J68" s="169"/>
+      <c r="K68" s="169"/>
+      <c r="L68" s="169"/>
+      <c r="M68" s="169"/>
+      <c r="N68" s="169"/>
+      <c r="O68" s="169"/>
+      <c r="P68" s="169"/>
+      <c r="Q68" s="169"/>
+      <c r="R68" s="170"/>
     </row>
     <row r="69" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="142"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="143"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="143"/>
-      <c r="F69" s="143"/>
-      <c r="G69" s="143"/>
-      <c r="H69" s="143"/>
-      <c r="I69" s="143"/>
-      <c r="J69" s="143"/>
-      <c r="K69" s="143"/>
-      <c r="L69" s="143"/>
-      <c r="M69" s="143"/>
-      <c r="N69" s="143"/>
-      <c r="O69" s="143"/>
-      <c r="P69" s="143"/>
-      <c r="Q69" s="143"/>
-      <c r="R69" s="144"/>
+      <c r="A69" s="187"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="172"/>
+      <c r="K69" s="172"/>
+      <c r="L69" s="172"/>
+      <c r="M69" s="172"/>
+      <c r="N69" s="172"/>
+      <c r="O69" s="172"/>
+      <c r="P69" s="172"/>
+      <c r="Q69" s="172"/>
+      <c r="R69" s="173"/>
     </row>
     <row r="70" spans="1:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
@@ -7893,350 +8059,350 @@
       <c r="R70" s="33"/>
     </row>
     <row r="71" spans="1:18" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="155" t="s">
+      <c r="A71" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="156"/>
-      <c r="K71" s="156"/>
-      <c r="L71" s="156"/>
-      <c r="M71" s="156"/>
-      <c r="N71" s="156"/>
-      <c r="O71" s="156"/>
-      <c r="P71" s="156"/>
-      <c r="Q71" s="156"/>
-      <c r="R71" s="157"/>
+      <c r="B71" s="179"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="179"/>
+      <c r="E71" s="179"/>
+      <c r="F71" s="179"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="179"/>
+      <c r="J71" s="179"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="179"/>
+      <c r="M71" s="179"/>
+      <c r="N71" s="179"/>
+      <c r="O71" s="179"/>
+      <c r="P71" s="179"/>
+      <c r="Q71" s="179"/>
+      <c r="R71" s="180"/>
     </row>
     <row r="72" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="139" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" s="140"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="140"/>
-      <c r="P72" s="140"/>
-      <c r="Q72" s="140"/>
-      <c r="R72" s="141"/>
+      <c r="A72" s="186" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="169"/>
+      <c r="C72" s="169"/>
+      <c r="D72" s="169"/>
+      <c r="E72" s="169"/>
+      <c r="F72" s="169"/>
+      <c r="G72" s="169"/>
+      <c r="H72" s="169"/>
+      <c r="I72" s="169"/>
+      <c r="J72" s="169"/>
+      <c r="K72" s="169"/>
+      <c r="L72" s="169"/>
+      <c r="M72" s="169"/>
+      <c r="N72" s="169"/>
+      <c r="O72" s="169"/>
+      <c r="P72" s="169"/>
+      <c r="Q72" s="169"/>
+      <c r="R72" s="170"/>
     </row>
     <row r="73" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="139"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="140"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="140"/>
-      <c r="H73" s="140"/>
-      <c r="I73" s="140"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="140"/>
-      <c r="L73" s="140"/>
-      <c r="M73" s="140"/>
-      <c r="N73" s="140"/>
-      <c r="O73" s="140"/>
-      <c r="P73" s="140"/>
-      <c r="Q73" s="140"/>
-      <c r="R73" s="141"/>
+      <c r="A73" s="186"/>
+      <c r="B73" s="169"/>
+      <c r="C73" s="169"/>
+      <c r="D73" s="169"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="169"/>
+      <c r="G73" s="169"/>
+      <c r="H73" s="169"/>
+      <c r="I73" s="169"/>
+      <c r="J73" s="169"/>
+      <c r="K73" s="169"/>
+      <c r="L73" s="169"/>
+      <c r="M73" s="169"/>
+      <c r="N73" s="169"/>
+      <c r="O73" s="169"/>
+      <c r="P73" s="169"/>
+      <c r="Q73" s="169"/>
+      <c r="R73" s="170"/>
     </row>
     <row r="74" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="139"/>
-      <c r="B74" s="140"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="140"/>
-      <c r="K74" s="140"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="140"/>
-      <c r="O74" s="140"/>
-      <c r="P74" s="140"/>
-      <c r="Q74" s="140"/>
-      <c r="R74" s="141"/>
+      <c r="A74" s="186"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="169"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="169"/>
+      <c r="G74" s="169"/>
+      <c r="H74" s="169"/>
+      <c r="I74" s="169"/>
+      <c r="J74" s="169"/>
+      <c r="K74" s="169"/>
+      <c r="L74" s="169"/>
+      <c r="M74" s="169"/>
+      <c r="N74" s="169"/>
+      <c r="O74" s="169"/>
+      <c r="P74" s="169"/>
+      <c r="Q74" s="169"/>
+      <c r="R74" s="170"/>
     </row>
     <row r="75" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="139"/>
-      <c r="B75" s="140"/>
-      <c r="C75" s="140"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="140"/>
-      <c r="N75" s="140"/>
-      <c r="O75" s="140"/>
-      <c r="P75" s="140"/>
-      <c r="Q75" s="140"/>
-      <c r="R75" s="141"/>
+      <c r="A75" s="186"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="169"/>
+      <c r="D75" s="169"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="169"/>
+      <c r="G75" s="169"/>
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="169"/>
+      <c r="K75" s="169"/>
+      <c r="L75" s="169"/>
+      <c r="M75" s="169"/>
+      <c r="N75" s="169"/>
+      <c r="O75" s="169"/>
+      <c r="P75" s="169"/>
+      <c r="Q75" s="169"/>
+      <c r="R75" s="170"/>
     </row>
     <row r="76" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="139"/>
-      <c r="B76" s="140"/>
-      <c r="C76" s="140"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="140"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="140"/>
-      <c r="H76" s="140"/>
-      <c r="I76" s="140"/>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="140"/>
-      <c r="N76" s="140"/>
-      <c r="O76" s="140"/>
-      <c r="P76" s="140"/>
-      <c r="Q76" s="140"/>
-      <c r="R76" s="141"/>
+      <c r="A76" s="186"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="169"/>
+      <c r="L76" s="169"/>
+      <c r="M76" s="169"/>
+      <c r="N76" s="169"/>
+      <c r="O76" s="169"/>
+      <c r="P76" s="169"/>
+      <c r="Q76" s="169"/>
+      <c r="R76" s="170"/>
     </row>
     <row r="77" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="139"/>
-      <c r="B77" s="140"/>
-      <c r="C77" s="140"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="140"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="140"/>
-      <c r="H77" s="140"/>
-      <c r="I77" s="140"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="140"/>
-      <c r="L77" s="140"/>
-      <c r="M77" s="140"/>
-      <c r="N77" s="140"/>
-      <c r="O77" s="140"/>
-      <c r="P77" s="140"/>
-      <c r="Q77" s="140"/>
-      <c r="R77" s="141"/>
+      <c r="A77" s="186"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="169"/>
+      <c r="F77" s="169"/>
+      <c r="G77" s="169"/>
+      <c r="H77" s="169"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="169"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="169"/>
+      <c r="M77" s="169"/>
+      <c r="N77" s="169"/>
+      <c r="O77" s="169"/>
+      <c r="P77" s="169"/>
+      <c r="Q77" s="169"/>
+      <c r="R77" s="170"/>
     </row>
     <row r="78" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="139"/>
-      <c r="B78" s="140"/>
-      <c r="C78" s="140"/>
-      <c r="D78" s="140"/>
-      <c r="E78" s="140"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="140"/>
-      <c r="I78" s="140"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="140"/>
-      <c r="O78" s="140"/>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="140"/>
-      <c r="R78" s="141"/>
+      <c r="A78" s="186"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
+      <c r="E78" s="169"/>
+      <c r="F78" s="169"/>
+      <c r="G78" s="169"/>
+      <c r="H78" s="169"/>
+      <c r="I78" s="169"/>
+      <c r="J78" s="169"/>
+      <c r="K78" s="169"/>
+      <c r="L78" s="169"/>
+      <c r="M78" s="169"/>
+      <c r="N78" s="169"/>
+      <c r="O78" s="169"/>
+      <c r="P78" s="169"/>
+      <c r="Q78" s="169"/>
+      <c r="R78" s="170"/>
     </row>
     <row r="79" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="139"/>
-      <c r="B79" s="140"/>
-      <c r="C79" s="140"/>
-      <c r="D79" s="140"/>
-      <c r="E79" s="140"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="140"/>
-      <c r="H79" s="140"/>
-      <c r="I79" s="140"/>
-      <c r="J79" s="140"/>
-      <c r="K79" s="140"/>
-      <c r="L79" s="140"/>
-      <c r="M79" s="140"/>
-      <c r="N79" s="140"/>
-      <c r="O79" s="140"/>
-      <c r="P79" s="140"/>
-      <c r="Q79" s="140"/>
-      <c r="R79" s="141"/>
+      <c r="A79" s="186"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="169"/>
+      <c r="H79" s="169"/>
+      <c r="I79" s="169"/>
+      <c r="J79" s="169"/>
+      <c r="K79" s="169"/>
+      <c r="L79" s="169"/>
+      <c r="M79" s="169"/>
+      <c r="N79" s="169"/>
+      <c r="O79" s="169"/>
+      <c r="P79" s="169"/>
+      <c r="Q79" s="169"/>
+      <c r="R79" s="170"/>
     </row>
     <row r="80" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="139"/>
-      <c r="B80" s="140"/>
-      <c r="C80" s="140"/>
-      <c r="D80" s="140"/>
-      <c r="E80" s="140"/>
-      <c r="F80" s="140"/>
-      <c r="G80" s="140"/>
-      <c r="H80" s="140"/>
-      <c r="I80" s="140"/>
-      <c r="J80" s="140"/>
-      <c r="K80" s="140"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140"/>
-      <c r="N80" s="140"/>
-      <c r="O80" s="140"/>
-      <c r="P80" s="140"/>
-      <c r="Q80" s="140"/>
-      <c r="R80" s="141"/>
+      <c r="A80" s="186"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="169"/>
+      <c r="F80" s="169"/>
+      <c r="G80" s="169"/>
+      <c r="H80" s="169"/>
+      <c r="I80" s="169"/>
+      <c r="J80" s="169"/>
+      <c r="K80" s="169"/>
+      <c r="L80" s="169"/>
+      <c r="M80" s="169"/>
+      <c r="N80" s="169"/>
+      <c r="O80" s="169"/>
+      <c r="P80" s="169"/>
+      <c r="Q80" s="169"/>
+      <c r="R80" s="170"/>
     </row>
     <row r="81" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="139"/>
-      <c r="B81" s="140"/>
-      <c r="C81" s="140"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="140"/>
-      <c r="F81" s="140"/>
-      <c r="G81" s="140"/>
-      <c r="H81" s="140"/>
-      <c r="I81" s="140"/>
-      <c r="J81" s="140"/>
-      <c r="K81" s="140"/>
-      <c r="L81" s="140"/>
-      <c r="M81" s="140"/>
-      <c r="N81" s="140"/>
-      <c r="O81" s="140"/>
-      <c r="P81" s="140"/>
-      <c r="Q81" s="140"/>
-      <c r="R81" s="141"/>
+      <c r="A81" s="186"/>
+      <c r="B81" s="169"/>
+      <c r="C81" s="169"/>
+      <c r="D81" s="169"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="169"/>
+      <c r="G81" s="169"/>
+      <c r="H81" s="169"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="169"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="169"/>
+      <c r="M81" s="169"/>
+      <c r="N81" s="169"/>
+      <c r="O81" s="169"/>
+      <c r="P81" s="169"/>
+      <c r="Q81" s="169"/>
+      <c r="R81" s="170"/>
     </row>
     <row r="82" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="139"/>
-      <c r="B82" s="140"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="140"/>
-      <c r="H82" s="140"/>
-      <c r="I82" s="140"/>
-      <c r="J82" s="140"/>
-      <c r="K82" s="140"/>
-      <c r="L82" s="140"/>
-      <c r="M82" s="140"/>
-      <c r="N82" s="140"/>
-      <c r="O82" s="140"/>
-      <c r="P82" s="140"/>
-      <c r="Q82" s="140"/>
-      <c r="R82" s="141"/>
+      <c r="A82" s="186"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="169"/>
+      <c r="G82" s="169"/>
+      <c r="H82" s="169"/>
+      <c r="I82" s="169"/>
+      <c r="J82" s="169"/>
+      <c r="K82" s="169"/>
+      <c r="L82" s="169"/>
+      <c r="M82" s="169"/>
+      <c r="N82" s="169"/>
+      <c r="O82" s="169"/>
+      <c r="P82" s="169"/>
+      <c r="Q82" s="169"/>
+      <c r="R82" s="170"/>
     </row>
     <row r="83" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="139"/>
-      <c r="B83" s="140"/>
-      <c r="C83" s="140"/>
-      <c r="D83" s="140"/>
-      <c r="E83" s="140"/>
-      <c r="F83" s="140"/>
-      <c r="G83" s="140"/>
-      <c r="H83" s="140"/>
-      <c r="I83" s="140"/>
-      <c r="J83" s="140"/>
-      <c r="K83" s="140"/>
-      <c r="L83" s="140"/>
-      <c r="M83" s="140"/>
-      <c r="N83" s="140"/>
-      <c r="O83" s="140"/>
-      <c r="P83" s="140"/>
-      <c r="Q83" s="140"/>
-      <c r="R83" s="141"/>
+      <c r="A83" s="186"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="169"/>
+      <c r="D83" s="169"/>
+      <c r="E83" s="169"/>
+      <c r="F83" s="169"/>
+      <c r="G83" s="169"/>
+      <c r="H83" s="169"/>
+      <c r="I83" s="169"/>
+      <c r="J83" s="169"/>
+      <c r="K83" s="169"/>
+      <c r="L83" s="169"/>
+      <c r="M83" s="169"/>
+      <c r="N83" s="169"/>
+      <c r="O83" s="169"/>
+      <c r="P83" s="169"/>
+      <c r="Q83" s="169"/>
+      <c r="R83" s="170"/>
     </row>
     <row r="84" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="139"/>
-      <c r="B84" s="140"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="140"/>
-      <c r="G84" s="140"/>
-      <c r="H84" s="140"/>
-      <c r="I84" s="140"/>
-      <c r="J84" s="140"/>
-      <c r="K84" s="140"/>
-      <c r="L84" s="140"/>
-      <c r="M84" s="140"/>
-      <c r="N84" s="140"/>
-      <c r="O84" s="140"/>
-      <c r="P84" s="140"/>
-      <c r="Q84" s="140"/>
-      <c r="R84" s="141"/>
+      <c r="A84" s="186"/>
+      <c r="B84" s="169"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="169"/>
+      <c r="G84" s="169"/>
+      <c r="H84" s="169"/>
+      <c r="I84" s="169"/>
+      <c r="J84" s="169"/>
+      <c r="K84" s="169"/>
+      <c r="L84" s="169"/>
+      <c r="M84" s="169"/>
+      <c r="N84" s="169"/>
+      <c r="O84" s="169"/>
+      <c r="P84" s="169"/>
+      <c r="Q84" s="169"/>
+      <c r="R84" s="170"/>
     </row>
     <row r="85" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="139"/>
-      <c r="B85" s="140"/>
-      <c r="C85" s="140"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="140"/>
-      <c r="F85" s="140"/>
-      <c r="G85" s="140"/>
-      <c r="H85" s="140"/>
-      <c r="I85" s="140"/>
-      <c r="J85" s="140"/>
-      <c r="K85" s="140"/>
-      <c r="L85" s="140"/>
-      <c r="M85" s="140"/>
-      <c r="N85" s="140"/>
-      <c r="O85" s="140"/>
-      <c r="P85" s="140"/>
-      <c r="Q85" s="140"/>
-      <c r="R85" s="141"/>
+      <c r="A85" s="186"/>
+      <c r="B85" s="169"/>
+      <c r="C85" s="169"/>
+      <c r="D85" s="169"/>
+      <c r="E85" s="169"/>
+      <c r="F85" s="169"/>
+      <c r="G85" s="169"/>
+      <c r="H85" s="169"/>
+      <c r="I85" s="169"/>
+      <c r="J85" s="169"/>
+      <c r="K85" s="169"/>
+      <c r="L85" s="169"/>
+      <c r="M85" s="169"/>
+      <c r="N85" s="169"/>
+      <c r="O85" s="169"/>
+      <c r="P85" s="169"/>
+      <c r="Q85" s="169"/>
+      <c r="R85" s="170"/>
     </row>
     <row r="86" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="145"/>
-      <c r="B86" s="146"/>
-      <c r="C86" s="146"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="146"/>
-      <c r="I86" s="146"/>
-      <c r="J86" s="146"/>
-      <c r="K86" s="146"/>
-      <c r="L86" s="146"/>
-      <c r="M86" s="146"/>
-      <c r="N86" s="146"/>
-      <c r="O86" s="146"/>
-      <c r="P86" s="146"/>
-      <c r="Q86" s="146"/>
-      <c r="R86" s="147"/>
+      <c r="A86" s="188"/>
+      <c r="B86" s="189"/>
+      <c r="C86" s="189"/>
+      <c r="D86" s="189"/>
+      <c r="E86" s="189"/>
+      <c r="F86" s="189"/>
+      <c r="G86" s="189"/>
+      <c r="H86" s="189"/>
+      <c r="I86" s="189"/>
+      <c r="J86" s="189"/>
+      <c r="K86" s="189"/>
+      <c r="L86" s="189"/>
+      <c r="M86" s="189"/>
+      <c r="N86" s="189"/>
+      <c r="O86" s="189"/>
+      <c r="P86" s="189"/>
+      <c r="Q86" s="189"/>
+      <c r="R86" s="190"/>
     </row>
     <row r="87" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="152" t="s">
+      <c r="A87" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="153"/>
-      <c r="C87" s="153"/>
-      <c r="D87" s="153"/>
-      <c r="E87" s="153"/>
-      <c r="F87" s="153"/>
-      <c r="G87" s="153"/>
-      <c r="H87" s="153"/>
-      <c r="I87" s="153"/>
-      <c r="J87" s="153"/>
-      <c r="K87" s="153"/>
-      <c r="L87" s="153"/>
-      <c r="M87" s="153"/>
-      <c r="N87" s="153"/>
-      <c r="O87" s="153"/>
-      <c r="P87" s="153"/>
-      <c r="Q87" s="153"/>
-      <c r="R87" s="154"/>
+      <c r="B87" s="192"/>
+      <c r="C87" s="192"/>
+      <c r="D87" s="192"/>
+      <c r="E87" s="192"/>
+      <c r="F87" s="192"/>
+      <c r="G87" s="192"/>
+      <c r="H87" s="192"/>
+      <c r="I87" s="192"/>
+      <c r="J87" s="192"/>
+      <c r="K87" s="192"/>
+      <c r="L87" s="192"/>
+      <c r="M87" s="192"/>
+      <c r="N87" s="192"/>
+      <c r="O87" s="192"/>
+      <c r="P87" s="192"/>
+      <c r="Q87" s="192"/>
+      <c r="R87" s="193"/>
     </row>
     <row r="88" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="56"/>
@@ -8499,22 +8665,22 @@
       <c r="R99" s="9"/>
     </row>
     <row r="100" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="148" t="s">
+      <c r="A100" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="149"/>
-      <c r="C100" s="150" t="s">
+      <c r="B100" s="159"/>
+      <c r="C100" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="151" t="s">
+      <c r="D100" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="151"/>
-      <c r="F100" s="151"/>
-      <c r="G100" s="151"/>
-      <c r="H100" s="151"/>
-      <c r="I100" s="151"/>
-      <c r="J100" s="150" t="s">
+      <c r="E100" s="163"/>
+      <c r="F100" s="163"/>
+      <c r="G100" s="163"/>
+      <c r="H100" s="163"/>
+      <c r="I100" s="163"/>
+      <c r="J100" s="161" t="s">
         <v>39</v>
       </c>
       <c r="K100" s="3"/>
@@ -8527,16 +8693,16 @@
       <c r="R100" s="9"/>
     </row>
     <row r="101" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="148"/>
-      <c r="B101" s="149"/>
-      <c r="C101" s="150"/>
-      <c r="D101" s="151"/>
-      <c r="E101" s="151"/>
-      <c r="F101" s="151"/>
-      <c r="G101" s="151"/>
-      <c r="H101" s="151"/>
-      <c r="I101" s="151"/>
-      <c r="J101" s="150"/>
+      <c r="A101" s="158"/>
+      <c r="B101" s="159"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="163"/>
+      <c r="E101" s="163"/>
+      <c r="F101" s="163"/>
+      <c r="G101" s="163"/>
+      <c r="H101" s="163"/>
+      <c r="I101" s="163"/>
+      <c r="J101" s="161"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -8547,126 +8713,126 @@
       <c r="R101" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="148" t="s">
+      <c r="A102" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="149"/>
-      <c r="C102" s="158" t="s">
+      <c r="B102" s="159"/>
+      <c r="C102" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="158"/>
-      <c r="E102" s="158"/>
-      <c r="F102" s="158"/>
-      <c r="G102" s="158"/>
-      <c r="H102" s="158"/>
-      <c r="I102" s="158"/>
-      <c r="J102" s="158"/>
-      <c r="K102" s="158"/>
-      <c r="L102" s="158"/>
-      <c r="M102" s="158"/>
-      <c r="N102" s="158"/>
-      <c r="O102" s="158"/>
-      <c r="P102" s="158"/>
-      <c r="Q102" s="158"/>
-      <c r="R102" s="159"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
+      <c r="G102" s="111"/>
+      <c r="H102" s="111"/>
+      <c r="I102" s="111"/>
+      <c r="J102" s="111"/>
+      <c r="K102" s="111"/>
+      <c r="L102" s="111"/>
+      <c r="M102" s="111"/>
+      <c r="N102" s="111"/>
+      <c r="O102" s="111"/>
+      <c r="P102" s="111"/>
+      <c r="Q102" s="111"/>
+      <c r="R102" s="112"/>
     </row>
     <row r="103" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="148"/>
-      <c r="B103" s="149"/>
-      <c r="C103" s="158"/>
-      <c r="D103" s="158"/>
-      <c r="E103" s="158"/>
-      <c r="F103" s="158"/>
-      <c r="G103" s="158"/>
-      <c r="H103" s="158"/>
-      <c r="I103" s="158"/>
-      <c r="J103" s="158"/>
-      <c r="K103" s="158"/>
-      <c r="L103" s="158"/>
-      <c r="M103" s="158"/>
-      <c r="N103" s="158"/>
-      <c r="O103" s="158"/>
-      <c r="P103" s="158"/>
-      <c r="Q103" s="158"/>
-      <c r="R103" s="159"/>
+      <c r="A103" s="158"/>
+      <c r="B103" s="159"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="111"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="111"/>
+      <c r="K103" s="111"/>
+      <c r="L103" s="111"/>
+      <c r="M103" s="111"/>
+      <c r="N103" s="111"/>
+      <c r="O103" s="111"/>
+      <c r="P103" s="111"/>
+      <c r="Q103" s="111"/>
+      <c r="R103" s="112"/>
     </row>
     <row r="104" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="56"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="158"/>
-      <c r="D104" s="158"/>
-      <c r="E104" s="158"/>
-      <c r="F104" s="158"/>
-      <c r="G104" s="158"/>
-      <c r="H104" s="158"/>
-      <c r="I104" s="158"/>
-      <c r="J104" s="158"/>
-      <c r="K104" s="158"/>
-      <c r="L104" s="158"/>
-      <c r="M104" s="158"/>
-      <c r="N104" s="158"/>
-      <c r="O104" s="158"/>
-      <c r="P104" s="158"/>
-      <c r="Q104" s="158"/>
-      <c r="R104" s="159"/>
+      <c r="C104" s="111"/>
+      <c r="D104" s="111"/>
+      <c r="E104" s="111"/>
+      <c r="F104" s="111"/>
+      <c r="G104" s="111"/>
+      <c r="H104" s="111"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="111"/>
+      <c r="K104" s="111"/>
+      <c r="L104" s="111"/>
+      <c r="M104" s="111"/>
+      <c r="N104" s="111"/>
+      <c r="O104" s="111"/>
+      <c r="P104" s="111"/>
+      <c r="Q104" s="111"/>
+      <c r="R104" s="112"/>
     </row>
     <row r="105" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="56"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="158"/>
-      <c r="D105" s="158"/>
-      <c r="E105" s="158"/>
-      <c r="F105" s="158"/>
-      <c r="G105" s="158"/>
-      <c r="H105" s="158"/>
-      <c r="I105" s="158"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="158"/>
-      <c r="L105" s="158"/>
-      <c r="M105" s="158"/>
-      <c r="N105" s="158"/>
-      <c r="O105" s="158"/>
-      <c r="P105" s="158"/>
-      <c r="Q105" s="158"/>
-      <c r="R105" s="159"/>
+      <c r="C105" s="111"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="111"/>
+      <c r="G105" s="111"/>
+      <c r="H105" s="111"/>
+      <c r="I105" s="111"/>
+      <c r="J105" s="111"/>
+      <c r="K105" s="111"/>
+      <c r="L105" s="111"/>
+      <c r="M105" s="111"/>
+      <c r="N105" s="111"/>
+      <c r="O105" s="111"/>
+      <c r="P105" s="111"/>
+      <c r="Q105" s="111"/>
+      <c r="R105" s="112"/>
     </row>
     <row r="106" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="65"/>
       <c r="B106" s="66"/>
-      <c r="C106" s="166"/>
-      <c r="D106" s="166"/>
-      <c r="E106" s="166"/>
-      <c r="F106" s="166"/>
-      <c r="G106" s="166"/>
-      <c r="H106" s="166"/>
-      <c r="I106" s="166"/>
-      <c r="J106" s="166"/>
-      <c r="K106" s="166"/>
-      <c r="L106" s="166"/>
-      <c r="M106" s="166"/>
-      <c r="N106" s="166"/>
-      <c r="O106" s="166"/>
-      <c r="P106" s="166"/>
-      <c r="Q106" s="166"/>
-      <c r="R106" s="167"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="154"/>
+      <c r="F106" s="154"/>
+      <c r="G106" s="154"/>
+      <c r="H106" s="154"/>
+      <c r="I106" s="154"/>
+      <c r="J106" s="154"/>
+      <c r="K106" s="154"/>
+      <c r="L106" s="154"/>
+      <c r="M106" s="154"/>
+      <c r="N106" s="154"/>
+      <c r="O106" s="154"/>
+      <c r="P106" s="154"/>
+      <c r="Q106" s="154"/>
+      <c r="R106" s="155"/>
     </row>
     <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="191" t="s">
+      <c r="A107" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="192"/>
-      <c r="C107" s="193" t="s">
+      <c r="B107" s="157"/>
+      <c r="C107" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="194" t="s">
+      <c r="D107" s="162" t="s">
         <v>86</v>
       </c>
-      <c r="E107" s="194"/>
-      <c r="F107" s="194"/>
-      <c r="G107" s="194"/>
-      <c r="H107" s="194"/>
-      <c r="I107" s="194"/>
-      <c r="J107" s="193" t="s">
+      <c r="E107" s="162"/>
+      <c r="F107" s="162"/>
+      <c r="G107" s="162"/>
+      <c r="H107" s="162"/>
+      <c r="I107" s="162"/>
+      <c r="J107" s="160" t="s">
         <v>39</v>
       </c>
       <c r="K107" s="67"/>
@@ -8679,16 +8845,16 @@
       <c r="R107" s="8"/>
     </row>
     <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="148"/>
-      <c r="B108" s="149"/>
-      <c r="C108" s="150"/>
-      <c r="D108" s="151"/>
-      <c r="E108" s="151"/>
-      <c r="F108" s="151"/>
-      <c r="G108" s="151"/>
-      <c r="H108" s="151"/>
-      <c r="I108" s="151"/>
-      <c r="J108" s="150"/>
+      <c r="A108" s="158"/>
+      <c r="B108" s="159"/>
+      <c r="C108" s="161"/>
+      <c r="D108" s="163"/>
+      <c r="E108" s="163"/>
+      <c r="F108" s="163"/>
+      <c r="G108" s="163"/>
+      <c r="H108" s="163"/>
+      <c r="I108" s="163"/>
+      <c r="J108" s="161"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -8699,126 +8865,126 @@
       <c r="R108" s="9"/>
     </row>
     <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="148" t="s">
+      <c r="A109" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="149"/>
-      <c r="C109" s="158" t="s">
+      <c r="B109" s="159"/>
+      <c r="C109" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="158"/>
-      <c r="E109" s="158"/>
-      <c r="F109" s="158"/>
-      <c r="G109" s="158"/>
-      <c r="H109" s="158"/>
-      <c r="I109" s="158"/>
-      <c r="J109" s="158"/>
-      <c r="K109" s="158"/>
-      <c r="L109" s="158"/>
-      <c r="M109" s="158"/>
-      <c r="N109" s="158"/>
-      <c r="O109" s="158"/>
-      <c r="P109" s="158"/>
-      <c r="Q109" s="158"/>
-      <c r="R109" s="159"/>
+      <c r="D109" s="111"/>
+      <c r="E109" s="111"/>
+      <c r="F109" s="111"/>
+      <c r="G109" s="111"/>
+      <c r="H109" s="111"/>
+      <c r="I109" s="111"/>
+      <c r="J109" s="111"/>
+      <c r="K109" s="111"/>
+      <c r="L109" s="111"/>
+      <c r="M109" s="111"/>
+      <c r="N109" s="111"/>
+      <c r="O109" s="111"/>
+      <c r="P109" s="111"/>
+      <c r="Q109" s="111"/>
+      <c r="R109" s="112"/>
     </row>
     <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="148"/>
-      <c r="B110" s="149"/>
-      <c r="C110" s="158"/>
-      <c r="D110" s="158"/>
-      <c r="E110" s="158"/>
-      <c r="F110" s="158"/>
-      <c r="G110" s="158"/>
-      <c r="H110" s="158"/>
-      <c r="I110" s="158"/>
-      <c r="J110" s="158"/>
-      <c r="K110" s="158"/>
-      <c r="L110" s="158"/>
-      <c r="M110" s="158"/>
-      <c r="N110" s="158"/>
-      <c r="O110" s="158"/>
-      <c r="P110" s="158"/>
-      <c r="Q110" s="158"/>
-      <c r="R110" s="159"/>
+      <c r="A110" s="158"/>
+      <c r="B110" s="159"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="111"/>
+      <c r="I110" s="111"/>
+      <c r="J110" s="111"/>
+      <c r="K110" s="111"/>
+      <c r="L110" s="111"/>
+      <c r="M110" s="111"/>
+      <c r="N110" s="111"/>
+      <c r="O110" s="111"/>
+      <c r="P110" s="111"/>
+      <c r="Q110" s="111"/>
+      <c r="R110" s="112"/>
     </row>
     <row r="111" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="56"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="158"/>
-      <c r="D111" s="158"/>
-      <c r="E111" s="158"/>
-      <c r="F111" s="158"/>
-      <c r="G111" s="158"/>
-      <c r="H111" s="158"/>
-      <c r="I111" s="158"/>
-      <c r="J111" s="158"/>
-      <c r="K111" s="158"/>
-      <c r="L111" s="158"/>
-      <c r="M111" s="158"/>
-      <c r="N111" s="158"/>
-      <c r="O111" s="158"/>
-      <c r="P111" s="158"/>
-      <c r="Q111" s="158"/>
-      <c r="R111" s="159"/>
+      <c r="C111" s="111"/>
+      <c r="D111" s="111"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="111"/>
+      <c r="G111" s="111"/>
+      <c r="H111" s="111"/>
+      <c r="I111" s="111"/>
+      <c r="J111" s="111"/>
+      <c r="K111" s="111"/>
+      <c r="L111" s="111"/>
+      <c r="M111" s="111"/>
+      <c r="N111" s="111"/>
+      <c r="O111" s="111"/>
+      <c r="P111" s="111"/>
+      <c r="Q111" s="111"/>
+      <c r="R111" s="112"/>
     </row>
     <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="56"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="158"/>
-      <c r="D112" s="158"/>
-      <c r="E112" s="158"/>
-      <c r="F112" s="158"/>
-      <c r="G112" s="158"/>
-      <c r="H112" s="158"/>
-      <c r="I112" s="158"/>
-      <c r="J112" s="158"/>
-      <c r="K112" s="158"/>
-      <c r="L112" s="158"/>
-      <c r="M112" s="158"/>
-      <c r="N112" s="158"/>
-      <c r="O112" s="158"/>
-      <c r="P112" s="158"/>
-      <c r="Q112" s="158"/>
-      <c r="R112" s="159"/>
+      <c r="C112" s="111"/>
+      <c r="D112" s="111"/>
+      <c r="E112" s="111"/>
+      <c r="F112" s="111"/>
+      <c r="G112" s="111"/>
+      <c r="H112" s="111"/>
+      <c r="I112" s="111"/>
+      <c r="J112" s="111"/>
+      <c r="K112" s="111"/>
+      <c r="L112" s="111"/>
+      <c r="M112" s="111"/>
+      <c r="N112" s="111"/>
+      <c r="O112" s="111"/>
+      <c r="P112" s="111"/>
+      <c r="Q112" s="111"/>
+      <c r="R112" s="112"/>
     </row>
     <row r="113" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="65"/>
       <c r="B113" s="66"/>
-      <c r="C113" s="166"/>
-      <c r="D113" s="166"/>
-      <c r="E113" s="166"/>
-      <c r="F113" s="166"/>
-      <c r="G113" s="166"/>
-      <c r="H113" s="166"/>
-      <c r="I113" s="166"/>
-      <c r="J113" s="166"/>
-      <c r="K113" s="166"/>
-      <c r="L113" s="166"/>
-      <c r="M113" s="166"/>
-      <c r="N113" s="166"/>
-      <c r="O113" s="166"/>
-      <c r="P113" s="166"/>
-      <c r="Q113" s="166"/>
-      <c r="R113" s="167"/>
+      <c r="C113" s="154"/>
+      <c r="D113" s="154"/>
+      <c r="E113" s="154"/>
+      <c r="F113" s="154"/>
+      <c r="G113" s="154"/>
+      <c r="H113" s="154"/>
+      <c r="I113" s="154"/>
+      <c r="J113" s="154"/>
+      <c r="K113" s="154"/>
+      <c r="L113" s="154"/>
+      <c r="M113" s="154"/>
+      <c r="N113" s="154"/>
+      <c r="O113" s="154"/>
+      <c r="P113" s="154"/>
+      <c r="Q113" s="154"/>
+      <c r="R113" s="155"/>
     </row>
     <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="191" t="s">
+      <c r="A114" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="192"/>
-      <c r="C114" s="193" t="s">
+      <c r="B114" s="157"/>
+      <c r="C114" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="194" t="s">
+      <c r="D114" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="E114" s="194"/>
-      <c r="F114" s="194"/>
-      <c r="G114" s="194"/>
-      <c r="H114" s="194"/>
-      <c r="I114" s="194"/>
-      <c r="J114" s="193" t="s">
+      <c r="E114" s="162"/>
+      <c r="F114" s="162"/>
+      <c r="G114" s="162"/>
+      <c r="H114" s="162"/>
+      <c r="I114" s="162"/>
+      <c r="J114" s="160" t="s">
         <v>39</v>
       </c>
       <c r="K114" s="67"/>
@@ -8831,16 +8997,16 @@
       <c r="R114" s="8"/>
     </row>
     <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="148"/>
-      <c r="B115" s="149"/>
-      <c r="C115" s="150"/>
-      <c r="D115" s="151"/>
-      <c r="E115" s="151"/>
-      <c r="F115" s="151"/>
-      <c r="G115" s="151"/>
-      <c r="H115" s="151"/>
-      <c r="I115" s="151"/>
-      <c r="J115" s="150"/>
+      <c r="A115" s="158"/>
+      <c r="B115" s="159"/>
+      <c r="C115" s="161"/>
+      <c r="D115" s="163"/>
+      <c r="E115" s="163"/>
+      <c r="F115" s="163"/>
+      <c r="G115" s="163"/>
+      <c r="H115" s="163"/>
+      <c r="I115" s="163"/>
+      <c r="J115" s="161"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -8851,108 +9017,108 @@
       <c r="R115" s="9"/>
     </row>
     <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="148" t="s">
+      <c r="A116" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B116" s="149"/>
-      <c r="C116" s="158" t="s">
+      <c r="B116" s="159"/>
+      <c r="C116" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="D116" s="158"/>
-      <c r="E116" s="158"/>
-      <c r="F116" s="158"/>
-      <c r="G116" s="158"/>
-      <c r="H116" s="158"/>
-      <c r="I116" s="158"/>
-      <c r="J116" s="158"/>
-      <c r="K116" s="158"/>
-      <c r="L116" s="158"/>
-      <c r="M116" s="158"/>
-      <c r="N116" s="158"/>
-      <c r="O116" s="158"/>
-      <c r="P116" s="158"/>
-      <c r="Q116" s="158"/>
-      <c r="R116" s="159"/>
+      <c r="D116" s="111"/>
+      <c r="E116" s="111"/>
+      <c r="F116" s="111"/>
+      <c r="G116" s="111"/>
+      <c r="H116" s="111"/>
+      <c r="I116" s="111"/>
+      <c r="J116" s="111"/>
+      <c r="K116" s="111"/>
+      <c r="L116" s="111"/>
+      <c r="M116" s="111"/>
+      <c r="N116" s="111"/>
+      <c r="O116" s="111"/>
+      <c r="P116" s="111"/>
+      <c r="Q116" s="111"/>
+      <c r="R116" s="112"/>
     </row>
     <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="148"/>
-      <c r="B117" s="149"/>
-      <c r="C117" s="158"/>
-      <c r="D117" s="158"/>
-      <c r="E117" s="158"/>
-      <c r="F117" s="158"/>
-      <c r="G117" s="158"/>
-      <c r="H117" s="158"/>
-      <c r="I117" s="158"/>
-      <c r="J117" s="158"/>
-      <c r="K117" s="158"/>
-      <c r="L117" s="158"/>
-      <c r="M117" s="158"/>
-      <c r="N117" s="158"/>
-      <c r="O117" s="158"/>
-      <c r="P117" s="158"/>
-      <c r="Q117" s="158"/>
-      <c r="R117" s="159"/>
+      <c r="A117" s="158"/>
+      <c r="B117" s="159"/>
+      <c r="C117" s="111"/>
+      <c r="D117" s="111"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="111"/>
+      <c r="G117" s="111"/>
+      <c r="H117" s="111"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="111"/>
+      <c r="K117" s="111"/>
+      <c r="L117" s="111"/>
+      <c r="M117" s="111"/>
+      <c r="N117" s="111"/>
+      <c r="O117" s="111"/>
+      <c r="P117" s="111"/>
+      <c r="Q117" s="111"/>
+      <c r="R117" s="112"/>
     </row>
     <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="56"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="158"/>
-      <c r="D118" s="158"/>
-      <c r="E118" s="158"/>
-      <c r="F118" s="158"/>
-      <c r="G118" s="158"/>
-      <c r="H118" s="158"/>
-      <c r="I118" s="158"/>
-      <c r="J118" s="158"/>
-      <c r="K118" s="158"/>
-      <c r="L118" s="158"/>
-      <c r="M118" s="158"/>
-      <c r="N118" s="158"/>
-      <c r="O118" s="158"/>
-      <c r="P118" s="158"/>
-      <c r="Q118" s="158"/>
-      <c r="R118" s="159"/>
+      <c r="C118" s="111"/>
+      <c r="D118" s="111"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="111"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="111"/>
+      <c r="I118" s="111"/>
+      <c r="J118" s="111"/>
+      <c r="K118" s="111"/>
+      <c r="L118" s="111"/>
+      <c r="M118" s="111"/>
+      <c r="N118" s="111"/>
+      <c r="O118" s="111"/>
+      <c r="P118" s="111"/>
+      <c r="Q118" s="111"/>
+      <c r="R118" s="112"/>
     </row>
     <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="56"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="158"/>
-      <c r="D119" s="158"/>
-      <c r="E119" s="158"/>
-      <c r="F119" s="158"/>
-      <c r="G119" s="158"/>
-      <c r="H119" s="158"/>
-      <c r="I119" s="158"/>
-      <c r="J119" s="158"/>
-      <c r="K119" s="158"/>
-      <c r="L119" s="158"/>
-      <c r="M119" s="158"/>
-      <c r="N119" s="158"/>
-      <c r="O119" s="158"/>
-      <c r="P119" s="158"/>
-      <c r="Q119" s="158"/>
-      <c r="R119" s="159"/>
+      <c r="C119" s="111"/>
+      <c r="D119" s="111"/>
+      <c r="E119" s="111"/>
+      <c r="F119" s="111"/>
+      <c r="G119" s="111"/>
+      <c r="H119" s="111"/>
+      <c r="I119" s="111"/>
+      <c r="J119" s="111"/>
+      <c r="K119" s="111"/>
+      <c r="L119" s="111"/>
+      <c r="M119" s="111"/>
+      <c r="N119" s="111"/>
+      <c r="O119" s="111"/>
+      <c r="P119" s="111"/>
+      <c r="Q119" s="111"/>
+      <c r="R119" s="112"/>
     </row>
     <row r="120" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="58"/>
       <c r="B120" s="59"/>
-      <c r="C120" s="160"/>
-      <c r="D120" s="160"/>
-      <c r="E120" s="160"/>
-      <c r="F120" s="160"/>
-      <c r="G120" s="160"/>
-      <c r="H120" s="160"/>
-      <c r="I120" s="160"/>
-      <c r="J120" s="160"/>
-      <c r="K120" s="160"/>
-      <c r="L120" s="160"/>
-      <c r="M120" s="160"/>
-      <c r="N120" s="160"/>
-      <c r="O120" s="160"/>
-      <c r="P120" s="160"/>
-      <c r="Q120" s="160"/>
-      <c r="R120" s="161"/>
+      <c r="C120" s="194"/>
+      <c r="D120" s="194"/>
+      <c r="E120" s="194"/>
+      <c r="F120" s="194"/>
+      <c r="G120" s="194"/>
+      <c r="H120" s="194"/>
+      <c r="I120" s="194"/>
+      <c r="J120" s="194"/>
+      <c r="K120" s="194"/>
+      <c r="L120" s="194"/>
+      <c r="M120" s="194"/>
+      <c r="N120" s="194"/>
+      <c r="O120" s="194"/>
+      <c r="P120" s="194"/>
+      <c r="Q120" s="194"/>
+      <c r="R120" s="195"/>
     </row>
     <row r="121" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -8975,328 +9141,328 @@
       <c r="R121" s="3"/>
     </row>
     <row r="122" spans="1:18" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="155" t="s">
+      <c r="A122" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B122" s="156"/>
-      <c r="C122" s="156"/>
-      <c r="D122" s="156"/>
-      <c r="E122" s="156"/>
-      <c r="F122" s="156"/>
-      <c r="G122" s="156"/>
-      <c r="H122" s="156"/>
-      <c r="I122" s="156"/>
-      <c r="J122" s="156"/>
-      <c r="K122" s="156"/>
-      <c r="L122" s="156"/>
-      <c r="M122" s="156"/>
-      <c r="N122" s="156"/>
-      <c r="O122" s="156"/>
-      <c r="P122" s="156"/>
-      <c r="Q122" s="156"/>
-      <c r="R122" s="157"/>
+      <c r="B122" s="179"/>
+      <c r="C122" s="179"/>
+      <c r="D122" s="179"/>
+      <c r="E122" s="179"/>
+      <c r="F122" s="179"/>
+      <c r="G122" s="179"/>
+      <c r="H122" s="179"/>
+      <c r="I122" s="179"/>
+      <c r="J122" s="179"/>
+      <c r="K122" s="179"/>
+      <c r="L122" s="179"/>
+      <c r="M122" s="179"/>
+      <c r="N122" s="179"/>
+      <c r="O122" s="179"/>
+      <c r="P122" s="179"/>
+      <c r="Q122" s="179"/>
+      <c r="R122" s="180"/>
     </row>
     <row r="123" spans="1:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="140"/>
-      <c r="C123" s="140"/>
-      <c r="D123" s="140"/>
-      <c r="E123" s="140"/>
-      <c r="F123" s="140"/>
-      <c r="G123" s="140"/>
-      <c r="H123" s="140"/>
-      <c r="I123" s="140"/>
-      <c r="J123" s="140"/>
-      <c r="K123" s="140"/>
-      <c r="L123" s="140"/>
-      <c r="M123" s="140"/>
-      <c r="N123" s="140"/>
-      <c r="O123" s="140"/>
-      <c r="P123" s="140"/>
-      <c r="Q123" s="140"/>
-      <c r="R123" s="162"/>
+      <c r="A123" s="186" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="169"/>
+      <c r="C123" s="169"/>
+      <c r="D123" s="169"/>
+      <c r="E123" s="169"/>
+      <c r="F123" s="169"/>
+      <c r="G123" s="169"/>
+      <c r="H123" s="169"/>
+      <c r="I123" s="169"/>
+      <c r="J123" s="169"/>
+      <c r="K123" s="169"/>
+      <c r="L123" s="169"/>
+      <c r="M123" s="169"/>
+      <c r="N123" s="169"/>
+      <c r="O123" s="169"/>
+      <c r="P123" s="169"/>
+      <c r="Q123" s="169"/>
+      <c r="R123" s="196"/>
     </row>
     <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="139"/>
-      <c r="B124" s="140"/>
-      <c r="C124" s="140"/>
-      <c r="D124" s="140"/>
-      <c r="E124" s="140"/>
-      <c r="F124" s="140"/>
-      <c r="G124" s="140"/>
-      <c r="H124" s="140"/>
-      <c r="I124" s="140"/>
-      <c r="J124" s="140"/>
-      <c r="K124" s="140"/>
-      <c r="L124" s="140"/>
-      <c r="M124" s="140"/>
-      <c r="N124" s="140"/>
-      <c r="O124" s="140"/>
-      <c r="P124" s="140"/>
-      <c r="Q124" s="140"/>
-      <c r="R124" s="162"/>
+      <c r="A124" s="186"/>
+      <c r="B124" s="169"/>
+      <c r="C124" s="169"/>
+      <c r="D124" s="169"/>
+      <c r="E124" s="169"/>
+      <c r="F124" s="169"/>
+      <c r="G124" s="169"/>
+      <c r="H124" s="169"/>
+      <c r="I124" s="169"/>
+      <c r="J124" s="169"/>
+      <c r="K124" s="169"/>
+      <c r="L124" s="169"/>
+      <c r="M124" s="169"/>
+      <c r="N124" s="169"/>
+      <c r="O124" s="169"/>
+      <c r="P124" s="169"/>
+      <c r="Q124" s="169"/>
+      <c r="R124" s="196"/>
     </row>
     <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="139"/>
-      <c r="B125" s="140"/>
-      <c r="C125" s="140"/>
-      <c r="D125" s="140"/>
-      <c r="E125" s="140"/>
-      <c r="F125" s="140"/>
-      <c r="G125" s="140"/>
-      <c r="H125" s="140"/>
-      <c r="I125" s="140"/>
-      <c r="J125" s="140"/>
-      <c r="K125" s="140"/>
-      <c r="L125" s="140"/>
-      <c r="M125" s="140"/>
-      <c r="N125" s="140"/>
-      <c r="O125" s="140"/>
-      <c r="P125" s="140"/>
-      <c r="Q125" s="140"/>
-      <c r="R125" s="162"/>
+      <c r="A125" s="186"/>
+      <c r="B125" s="169"/>
+      <c r="C125" s="169"/>
+      <c r="D125" s="169"/>
+      <c r="E125" s="169"/>
+      <c r="F125" s="169"/>
+      <c r="G125" s="169"/>
+      <c r="H125" s="169"/>
+      <c r="I125" s="169"/>
+      <c r="J125" s="169"/>
+      <c r="K125" s="169"/>
+      <c r="L125" s="169"/>
+      <c r="M125" s="169"/>
+      <c r="N125" s="169"/>
+      <c r="O125" s="169"/>
+      <c r="P125" s="169"/>
+      <c r="Q125" s="169"/>
+      <c r="R125" s="196"/>
     </row>
     <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="139"/>
-      <c r="B126" s="140"/>
-      <c r="C126" s="140"/>
-      <c r="D126" s="140"/>
-      <c r="E126" s="140"/>
-      <c r="F126" s="140"/>
-      <c r="G126" s="140"/>
-      <c r="H126" s="140"/>
-      <c r="I126" s="140"/>
-      <c r="J126" s="140"/>
-      <c r="K126" s="140"/>
-      <c r="L126" s="140"/>
-      <c r="M126" s="140"/>
-      <c r="N126" s="140"/>
-      <c r="O126" s="140"/>
-      <c r="P126" s="140"/>
-      <c r="Q126" s="140"/>
-      <c r="R126" s="162"/>
+      <c r="A126" s="186"/>
+      <c r="B126" s="169"/>
+      <c r="C126" s="169"/>
+      <c r="D126" s="169"/>
+      <c r="E126" s="169"/>
+      <c r="F126" s="169"/>
+      <c r="G126" s="169"/>
+      <c r="H126" s="169"/>
+      <c r="I126" s="169"/>
+      <c r="J126" s="169"/>
+      <c r="K126" s="169"/>
+      <c r="L126" s="169"/>
+      <c r="M126" s="169"/>
+      <c r="N126" s="169"/>
+      <c r="O126" s="169"/>
+      <c r="P126" s="169"/>
+      <c r="Q126" s="169"/>
+      <c r="R126" s="196"/>
     </row>
     <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="139"/>
-      <c r="B127" s="140"/>
-      <c r="C127" s="140"/>
-      <c r="D127" s="140"/>
-      <c r="E127" s="140"/>
-      <c r="F127" s="140"/>
-      <c r="G127" s="140"/>
-      <c r="H127" s="140"/>
-      <c r="I127" s="140"/>
-      <c r="J127" s="140"/>
-      <c r="K127" s="140"/>
-      <c r="L127" s="140"/>
-      <c r="M127" s="140"/>
-      <c r="N127" s="140"/>
-      <c r="O127" s="140"/>
-      <c r="P127" s="140"/>
-      <c r="Q127" s="140"/>
-      <c r="R127" s="162"/>
+      <c r="A127" s="186"/>
+      <c r="B127" s="169"/>
+      <c r="C127" s="169"/>
+      <c r="D127" s="169"/>
+      <c r="E127" s="169"/>
+      <c r="F127" s="169"/>
+      <c r="G127" s="169"/>
+      <c r="H127" s="169"/>
+      <c r="I127" s="169"/>
+      <c r="J127" s="169"/>
+      <c r="K127" s="169"/>
+      <c r="L127" s="169"/>
+      <c r="M127" s="169"/>
+      <c r="N127" s="169"/>
+      <c r="O127" s="169"/>
+      <c r="P127" s="169"/>
+      <c r="Q127" s="169"/>
+      <c r="R127" s="196"/>
     </row>
     <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="139"/>
-      <c r="B128" s="140"/>
-      <c r="C128" s="140"/>
-      <c r="D128" s="140"/>
-      <c r="E128" s="140"/>
-      <c r="F128" s="140"/>
-      <c r="G128" s="140"/>
-      <c r="H128" s="140"/>
-      <c r="I128" s="140"/>
-      <c r="J128" s="140"/>
-      <c r="K128" s="140"/>
-      <c r="L128" s="140"/>
-      <c r="M128" s="140"/>
-      <c r="N128" s="140"/>
-      <c r="O128" s="140"/>
-      <c r="P128" s="140"/>
-      <c r="Q128" s="140"/>
-      <c r="R128" s="162"/>
+      <c r="A128" s="186"/>
+      <c r="B128" s="169"/>
+      <c r="C128" s="169"/>
+      <c r="D128" s="169"/>
+      <c r="E128" s="169"/>
+      <c r="F128" s="169"/>
+      <c r="G128" s="169"/>
+      <c r="H128" s="169"/>
+      <c r="I128" s="169"/>
+      <c r="J128" s="169"/>
+      <c r="K128" s="169"/>
+      <c r="L128" s="169"/>
+      <c r="M128" s="169"/>
+      <c r="N128" s="169"/>
+      <c r="O128" s="169"/>
+      <c r="P128" s="169"/>
+      <c r="Q128" s="169"/>
+      <c r="R128" s="196"/>
     </row>
     <row r="129" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="139"/>
-      <c r="B129" s="140"/>
-      <c r="C129" s="140"/>
-      <c r="D129" s="140"/>
-      <c r="E129" s="140"/>
-      <c r="F129" s="140"/>
-      <c r="G129" s="140"/>
-      <c r="H129" s="140"/>
-      <c r="I129" s="140"/>
-      <c r="J129" s="140"/>
-      <c r="K129" s="140"/>
-      <c r="L129" s="140"/>
-      <c r="M129" s="140"/>
-      <c r="N129" s="140"/>
-      <c r="O129" s="140"/>
-      <c r="P129" s="140"/>
-      <c r="Q129" s="140"/>
-      <c r="R129" s="162"/>
+      <c r="A129" s="186"/>
+      <c r="B129" s="169"/>
+      <c r="C129" s="169"/>
+      <c r="D129" s="169"/>
+      <c r="E129" s="169"/>
+      <c r="F129" s="169"/>
+      <c r="G129" s="169"/>
+      <c r="H129" s="169"/>
+      <c r="I129" s="169"/>
+      <c r="J129" s="169"/>
+      <c r="K129" s="169"/>
+      <c r="L129" s="169"/>
+      <c r="M129" s="169"/>
+      <c r="N129" s="169"/>
+      <c r="O129" s="169"/>
+      <c r="P129" s="169"/>
+      <c r="Q129" s="169"/>
+      <c r="R129" s="196"/>
     </row>
     <row r="130" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="139"/>
-      <c r="B130" s="140"/>
-      <c r="C130" s="140"/>
-      <c r="D130" s="140"/>
-      <c r="E130" s="140"/>
-      <c r="F130" s="140"/>
-      <c r="G130" s="140"/>
-      <c r="H130" s="140"/>
-      <c r="I130" s="140"/>
-      <c r="J130" s="140"/>
-      <c r="K130" s="140"/>
-      <c r="L130" s="140"/>
-      <c r="M130" s="140"/>
-      <c r="N130" s="140"/>
-      <c r="O130" s="140"/>
-      <c r="P130" s="140"/>
-      <c r="Q130" s="140"/>
-      <c r="R130" s="162"/>
+      <c r="A130" s="186"/>
+      <c r="B130" s="169"/>
+      <c r="C130" s="169"/>
+      <c r="D130" s="169"/>
+      <c r="E130" s="169"/>
+      <c r="F130" s="169"/>
+      <c r="G130" s="169"/>
+      <c r="H130" s="169"/>
+      <c r="I130" s="169"/>
+      <c r="J130" s="169"/>
+      <c r="K130" s="169"/>
+      <c r="L130" s="169"/>
+      <c r="M130" s="169"/>
+      <c r="N130" s="169"/>
+      <c r="O130" s="169"/>
+      <c r="P130" s="169"/>
+      <c r="Q130" s="169"/>
+      <c r="R130" s="196"/>
     </row>
     <row r="131" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="139"/>
-      <c r="B131" s="140"/>
-      <c r="C131" s="140"/>
-      <c r="D131" s="140"/>
-      <c r="E131" s="140"/>
-      <c r="F131" s="140"/>
-      <c r="G131" s="140"/>
-      <c r="H131" s="140"/>
-      <c r="I131" s="140"/>
-      <c r="J131" s="140"/>
-      <c r="K131" s="140"/>
-      <c r="L131" s="140"/>
-      <c r="M131" s="140"/>
-      <c r="N131" s="140"/>
-      <c r="O131" s="140"/>
-      <c r="P131" s="140"/>
-      <c r="Q131" s="140"/>
-      <c r="R131" s="162"/>
+      <c r="A131" s="186"/>
+      <c r="B131" s="169"/>
+      <c r="C131" s="169"/>
+      <c r="D131" s="169"/>
+      <c r="E131" s="169"/>
+      <c r="F131" s="169"/>
+      <c r="G131" s="169"/>
+      <c r="H131" s="169"/>
+      <c r="I131" s="169"/>
+      <c r="J131" s="169"/>
+      <c r="K131" s="169"/>
+      <c r="L131" s="169"/>
+      <c r="M131" s="169"/>
+      <c r="N131" s="169"/>
+      <c r="O131" s="169"/>
+      <c r="P131" s="169"/>
+      <c r="Q131" s="169"/>
+      <c r="R131" s="196"/>
     </row>
     <row r="132" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="139"/>
-      <c r="B132" s="140"/>
-      <c r="C132" s="140"/>
-      <c r="D132" s="140"/>
-      <c r="E132" s="140"/>
-      <c r="F132" s="140"/>
-      <c r="G132" s="140"/>
-      <c r="H132" s="140"/>
-      <c r="I132" s="140"/>
-      <c r="J132" s="140"/>
-      <c r="K132" s="140"/>
-      <c r="L132" s="140"/>
-      <c r="M132" s="140"/>
-      <c r="N132" s="140"/>
-      <c r="O132" s="140"/>
-      <c r="P132" s="140"/>
-      <c r="Q132" s="140"/>
-      <c r="R132" s="162"/>
+      <c r="A132" s="186"/>
+      <c r="B132" s="169"/>
+      <c r="C132" s="169"/>
+      <c r="D132" s="169"/>
+      <c r="E132" s="169"/>
+      <c r="F132" s="169"/>
+      <c r="G132" s="169"/>
+      <c r="H132" s="169"/>
+      <c r="I132" s="169"/>
+      <c r="J132" s="169"/>
+      <c r="K132" s="169"/>
+      <c r="L132" s="169"/>
+      <c r="M132" s="169"/>
+      <c r="N132" s="169"/>
+      <c r="O132" s="169"/>
+      <c r="P132" s="169"/>
+      <c r="Q132" s="169"/>
+      <c r="R132" s="196"/>
     </row>
     <row r="133" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="139"/>
-      <c r="B133" s="140"/>
-      <c r="C133" s="140"/>
-      <c r="D133" s="140"/>
-      <c r="E133" s="140"/>
-      <c r="F133" s="140"/>
-      <c r="G133" s="140"/>
-      <c r="H133" s="140"/>
-      <c r="I133" s="140"/>
-      <c r="J133" s="140"/>
-      <c r="K133" s="140"/>
-      <c r="L133" s="140"/>
-      <c r="M133" s="140"/>
-      <c r="N133" s="140"/>
-      <c r="O133" s="140"/>
-      <c r="P133" s="140"/>
-      <c r="Q133" s="140"/>
-      <c r="R133" s="162"/>
+      <c r="A133" s="186"/>
+      <c r="B133" s="169"/>
+      <c r="C133" s="169"/>
+      <c r="D133" s="169"/>
+      <c r="E133" s="169"/>
+      <c r="F133" s="169"/>
+      <c r="G133" s="169"/>
+      <c r="H133" s="169"/>
+      <c r="I133" s="169"/>
+      <c r="J133" s="169"/>
+      <c r="K133" s="169"/>
+      <c r="L133" s="169"/>
+      <c r="M133" s="169"/>
+      <c r="N133" s="169"/>
+      <c r="O133" s="169"/>
+      <c r="P133" s="169"/>
+      <c r="Q133" s="169"/>
+      <c r="R133" s="196"/>
     </row>
     <row r="134" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="139"/>
-      <c r="B134" s="140"/>
-      <c r="C134" s="140"/>
-      <c r="D134" s="140"/>
-      <c r="E134" s="140"/>
-      <c r="F134" s="140"/>
-      <c r="G134" s="140"/>
-      <c r="H134" s="140"/>
-      <c r="I134" s="140"/>
-      <c r="J134" s="140"/>
-      <c r="K134" s="140"/>
-      <c r="L134" s="140"/>
-      <c r="M134" s="140"/>
-      <c r="N134" s="140"/>
-      <c r="O134" s="140"/>
-      <c r="P134" s="140"/>
-      <c r="Q134" s="140"/>
-      <c r="R134" s="162"/>
+      <c r="A134" s="186"/>
+      <c r="B134" s="169"/>
+      <c r="C134" s="169"/>
+      <c r="D134" s="169"/>
+      <c r="E134" s="169"/>
+      <c r="F134" s="169"/>
+      <c r="G134" s="169"/>
+      <c r="H134" s="169"/>
+      <c r="I134" s="169"/>
+      <c r="J134" s="169"/>
+      <c r="K134" s="169"/>
+      <c r="L134" s="169"/>
+      <c r="M134" s="169"/>
+      <c r="N134" s="169"/>
+      <c r="O134" s="169"/>
+      <c r="P134" s="169"/>
+      <c r="Q134" s="169"/>
+      <c r="R134" s="196"/>
     </row>
     <row r="135" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="139"/>
-      <c r="B135" s="140"/>
-      <c r="C135" s="140"/>
-      <c r="D135" s="140"/>
-      <c r="E135" s="140"/>
-      <c r="F135" s="140"/>
-      <c r="G135" s="140"/>
-      <c r="H135" s="140"/>
-      <c r="I135" s="140"/>
-      <c r="J135" s="140"/>
-      <c r="K135" s="140"/>
-      <c r="L135" s="140"/>
-      <c r="M135" s="140"/>
-      <c r="N135" s="140"/>
-      <c r="O135" s="140"/>
-      <c r="P135" s="140"/>
-      <c r="Q135" s="140"/>
-      <c r="R135" s="162"/>
+      <c r="A135" s="186"/>
+      <c r="B135" s="169"/>
+      <c r="C135" s="169"/>
+      <c r="D135" s="169"/>
+      <c r="E135" s="169"/>
+      <c r="F135" s="169"/>
+      <c r="G135" s="169"/>
+      <c r="H135" s="169"/>
+      <c r="I135" s="169"/>
+      <c r="J135" s="169"/>
+      <c r="K135" s="169"/>
+      <c r="L135" s="169"/>
+      <c r="M135" s="169"/>
+      <c r="N135" s="169"/>
+      <c r="O135" s="169"/>
+      <c r="P135" s="169"/>
+      <c r="Q135" s="169"/>
+      <c r="R135" s="196"/>
     </row>
     <row r="136" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="139"/>
-      <c r="B136" s="140"/>
-      <c r="C136" s="140"/>
-      <c r="D136" s="140"/>
-      <c r="E136" s="140"/>
-      <c r="F136" s="140"/>
-      <c r="G136" s="140"/>
-      <c r="H136" s="140"/>
-      <c r="I136" s="140"/>
-      <c r="J136" s="140"/>
-      <c r="K136" s="140"/>
-      <c r="L136" s="140"/>
-      <c r="M136" s="140"/>
-      <c r="N136" s="140"/>
-      <c r="O136" s="140"/>
-      <c r="P136" s="140"/>
-      <c r="Q136" s="140"/>
-      <c r="R136" s="162"/>
+      <c r="A136" s="186"/>
+      <c r="B136" s="169"/>
+      <c r="C136" s="169"/>
+      <c r="D136" s="169"/>
+      <c r="E136" s="169"/>
+      <c r="F136" s="169"/>
+      <c r="G136" s="169"/>
+      <c r="H136" s="169"/>
+      <c r="I136" s="169"/>
+      <c r="J136" s="169"/>
+      <c r="K136" s="169"/>
+      <c r="L136" s="169"/>
+      <c r="M136" s="169"/>
+      <c r="N136" s="169"/>
+      <c r="O136" s="169"/>
+      <c r="P136" s="169"/>
+      <c r="Q136" s="169"/>
+      <c r="R136" s="196"/>
     </row>
     <row r="137" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="142"/>
-      <c r="B137" s="143"/>
-      <c r="C137" s="143"/>
-      <c r="D137" s="143"/>
-      <c r="E137" s="143"/>
-      <c r="F137" s="143"/>
-      <c r="G137" s="143"/>
-      <c r="H137" s="143"/>
-      <c r="I137" s="143"/>
-      <c r="J137" s="143"/>
-      <c r="K137" s="143"/>
-      <c r="L137" s="143"/>
-      <c r="M137" s="143"/>
-      <c r="N137" s="143"/>
-      <c r="O137" s="143"/>
-      <c r="P137" s="143"/>
-      <c r="Q137" s="143"/>
-      <c r="R137" s="163"/>
+      <c r="A137" s="187"/>
+      <c r="B137" s="172"/>
+      <c r="C137" s="172"/>
+      <c r="D137" s="172"/>
+      <c r="E137" s="172"/>
+      <c r="F137" s="172"/>
+      <c r="G137" s="172"/>
+      <c r="H137" s="172"/>
+      <c r="I137" s="172"/>
+      <c r="J137" s="172"/>
+      <c r="K137" s="172"/>
+      <c r="L137" s="172"/>
+      <c r="M137" s="172"/>
+      <c r="N137" s="172"/>
+      <c r="O137" s="172"/>
+      <c r="P137" s="172"/>
+      <c r="Q137" s="172"/>
+      <c r="R137" s="197"/>
     </row>
     <row r="138" spans="1:23" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
@@ -9319,26 +9485,26 @@
       <c r="R138" s="3"/>
     </row>
     <row r="139" spans="1:23" ht="30.75" x14ac:dyDescent="0.15">
-      <c r="A139" s="164" t="s">
+      <c r="A139" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="B139" s="165"/>
-      <c r="C139" s="165"/>
-      <c r="D139" s="165"/>
-      <c r="E139" s="165"/>
-      <c r="F139" s="165"/>
-      <c r="G139" s="165"/>
-      <c r="H139" s="165"/>
-      <c r="I139" s="165"/>
-      <c r="J139" s="165"/>
-      <c r="K139" s="165"/>
-      <c r="L139" s="165"/>
-      <c r="M139" s="165"/>
-      <c r="N139" s="165"/>
-      <c r="O139" s="165"/>
-      <c r="P139" s="165"/>
-      <c r="Q139" s="165"/>
-      <c r="R139" s="165"/>
+      <c r="B139" s="199"/>
+      <c r="C139" s="199"/>
+      <c r="D139" s="199"/>
+      <c r="E139" s="199"/>
+      <c r="F139" s="199"/>
+      <c r="G139" s="199"/>
+      <c r="H139" s="199"/>
+      <c r="I139" s="199"/>
+      <c r="J139" s="199"/>
+      <c r="K139" s="199"/>
+      <c r="L139" s="199"/>
+      <c r="M139" s="199"/>
+      <c r="N139" s="199"/>
+      <c r="O139" s="199"/>
+      <c r="P139" s="199"/>
+      <c r="Q139" s="199"/>
+      <c r="R139" s="199"/>
     </row>
     <row r="140" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
@@ -9361,26 +9527,26 @@
       <c r="R140" s="3"/>
     </row>
     <row r="141" spans="1:23" s="68" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="182" t="s">
+      <c r="A141" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="149"/>
-      <c r="C141" s="149"/>
-      <c r="D141" s="149"/>
-      <c r="E141" s="149"/>
-      <c r="F141" s="149"/>
-      <c r="G141" s="149"/>
-      <c r="H141" s="149"/>
-      <c r="I141" s="149"/>
-      <c r="J141" s="149"/>
-      <c r="K141" s="149"/>
-      <c r="L141" s="149"/>
-      <c r="M141" s="149"/>
-      <c r="N141" s="149"/>
-      <c r="O141" s="149"/>
-      <c r="P141" s="149"/>
-      <c r="Q141" s="149"/>
-      <c r="R141" s="149"/>
+      <c r="B141" s="159"/>
+      <c r="C141" s="159"/>
+      <c r="D141" s="159"/>
+      <c r="E141" s="159"/>
+      <c r="F141" s="159"/>
+      <c r="G141" s="159"/>
+      <c r="H141" s="159"/>
+      <c r="I141" s="159"/>
+      <c r="J141" s="159"/>
+      <c r="K141" s="159"/>
+      <c r="L141" s="159"/>
+      <c r="M141" s="159"/>
+      <c r="N141" s="159"/>
+      <c r="O141" s="159"/>
+      <c r="P141" s="159"/>
+      <c r="Q141" s="159"/>
+      <c r="R141" s="159"/>
     </row>
     <row r="142" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A142" s="69"/>
@@ -9568,40 +9734,47 @@
       <c r="L151" s="80"/>
       <c r="M151" s="80"/>
       <c r="N151" s="81"/>
-      <c r="O151" s="138"/>
-      <c r="P151" s="138"/>
+      <c r="O151" s="167"/>
+      <c r="P151" s="167"/>
       <c r="Q151" s="80"/>
       <c r="R151" s="68"/>
-      <c r="S151" s="138"/>
-      <c r="T151" s="138"/>
+      <c r="S151" s="167"/>
+      <c r="T151" s="167"/>
       <c r="U151" s="68"/>
       <c r="V151" s="68"/>
       <c r="W151" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A11:C14"/>
-    <mergeCell ref="D11:R13"/>
-    <mergeCell ref="A15:C19"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="A38:C49"/>
-    <mergeCell ref="D16:R19"/>
-    <mergeCell ref="A20:C28"/>
-    <mergeCell ref="E21:L22"/>
-    <mergeCell ref="M20:R28"/>
-    <mergeCell ref="E27:L28"/>
-    <mergeCell ref="E24:L25"/>
-    <mergeCell ref="C109:R113"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:I115"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="A107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:R2"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H4:R4"/>
+    <mergeCell ref="A5:C10"/>
+    <mergeCell ref="D6:K10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="M5:Q8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="A58:R69"/>
+    <mergeCell ref="A72:R86"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:I101"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="A87:R87"/>
+    <mergeCell ref="A71:R71"/>
+    <mergeCell ref="A122:R122"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="C116:R120"/>
+    <mergeCell ref="A123:R137"/>
+    <mergeCell ref="A139:R139"/>
+    <mergeCell ref="A102:B103"/>
+    <mergeCell ref="C102:R106"/>
     <mergeCell ref="O151:P151"/>
     <mergeCell ref="D51:R56"/>
     <mergeCell ref="A29:C37"/>
@@ -9618,35 +9791,28 @@
     <mergeCell ref="E33:Q34"/>
     <mergeCell ref="O30:Q31"/>
     <mergeCell ref="A109:B110"/>
-    <mergeCell ref="S151:T151"/>
-    <mergeCell ref="A58:R69"/>
-    <mergeCell ref="A72:R86"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:I101"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="A87:R87"/>
-    <mergeCell ref="A71:R71"/>
-    <mergeCell ref="A122:R122"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="C116:R120"/>
-    <mergeCell ref="A123:R137"/>
-    <mergeCell ref="A139:R139"/>
-    <mergeCell ref="A102:B103"/>
-    <mergeCell ref="C102:R106"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="L1:R2"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H4:R4"/>
-    <mergeCell ref="A5:C10"/>
-    <mergeCell ref="D6:K10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="M5:Q8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="A107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="C109:R113"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="A11:C14"/>
+    <mergeCell ref="D11:R13"/>
+    <mergeCell ref="A15:C19"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="A38:C49"/>
+    <mergeCell ref="D16:R19"/>
+    <mergeCell ref="A20:C28"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="M20:R28"/>
+    <mergeCell ref="E27:L28"/>
+    <mergeCell ref="E24:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
